--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PMMA_const_full" sheetId="1" r:id="rId1"/>
     <sheet name="PMMA_const_hybrid" sheetId="2" r:id="rId2"/>
     <sheet name="PMMA_linear_full" sheetId="3" r:id="rId3"/>
     <sheet name="PMMA_linear_hybrid" sheetId="4" r:id="rId4"/>
+    <sheet name="E_Glass_const_full" sheetId="5" r:id="rId5"/>
+    <sheet name="E_Glass_linear_full" sheetId="6" r:id="rId6"/>
+    <sheet name="E_Glass_linear_hybrid" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="26">
   <si>
     <t>Input parameters</t>
   </si>
@@ -98,6 +101,9 @@
   <si>
     <t>Hybrid error (%)</t>
   </si>
+  <si>
+    <t>ρv, ρc, εc fixed</t>
+  </si>
 </sst>
 </file>
 
@@ -139,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -175,11 +181,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -189,6 +206,10 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +493,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="A1:F18"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,4 +1650,1080 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2140000000000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>ABS(C2-B2)/B2</f>
+        <v>8.5470085470085472E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1650000000000</v>
+      </c>
+      <c r="F2" s="4">
+        <f>ABS(E2-B2)/B2</f>
+        <v>0.29487179487179488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>180000</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
+        <v>5.5248618784530384E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>130000</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F19" si="1">ABS(E3-B3)/B3</f>
+        <v>0.28176795580110497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.02</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.2970000000000002</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2970000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>100556.7</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5669999999999713E-3</v>
+      </c>
+      <c r="E5">
+        <v>178066.2</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.78066200000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C6">
+        <v>0.30030000000000001</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.000000000000075E-3</v>
+      </c>
+      <c r="E6">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1166666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1500</v>
+      </c>
+      <c r="C8">
+        <v>1505.924</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9493333333333186E-3</v>
+      </c>
+      <c r="E8">
+        <v>5276.66</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5177733333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000011E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.27000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1100</v>
+      </c>
+      <c r="C12">
+        <v>1050.6890000000001</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>4.4828181818181746E-2</v>
+      </c>
+      <c r="E12">
+        <v>405.58</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.63129090909090912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1683</v>
+      </c>
+      <c r="C14">
+        <v>1683</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1683</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1235</v>
+      </c>
+      <c r="C15">
+        <v>1235</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1235</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.94</v>
+      </c>
+      <c r="C16">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2553191489360558E-3</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>6.3829787234042618E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.94</v>
+      </c>
+      <c r="C17">
+        <v>0.94</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.94</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <v>10198</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="E18">
+        <v>2500.1799999999998</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.74998199999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>ABS(C2-B2)/B2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>834000000000</v>
+      </c>
+      <c r="F2" s="4">
+        <f>ABS(E2-B2)/B2</f>
+        <v>0.64358974358974363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>181000</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>124000</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F6" si="1">ABS(E3-B3)/B3</f>
+        <v>0.31491712707182318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9999999999998916E-3</v>
+      </c>
+      <c r="E4">
+        <v>1.91517409145302</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.91517409145301998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>99441.7</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5830000000000289E-3</v>
+      </c>
+      <c r="E5">
+        <v>207434.67318667899</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0743467318667899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C6">
+        <v>0.3029</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9166666666666657E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.0851294576884201</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4779790310526284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4.3956999999999999E-5</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1112372304199919E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.76158773137132E-4</v>
+      </c>
+      <c r="F7" s="4">
+        <f>ABS(E7-B7)/B7</f>
+        <v>2.9990640893787055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C8">
+        <v>1060.3599999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8185185185185276E-2</v>
+      </c>
+      <c r="E8">
+        <v>4057.9485813880101</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" ref="F3:F18" si="2">ABS(E8-B8)/B8</f>
+        <v>2.7573597975814907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.3740000000000001E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2300884955752125E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.167671314994226</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>2.7095423671288943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C10">
+        <v>9.3515551372699998E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4588499760800844E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.174443889549037</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.83818640199196004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C11">
+        <v>2.7732053942500001E-4</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0068765282685457E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>7.0785421626685802E-5</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.74987483524139298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1041</v>
+      </c>
+      <c r="C12">
+        <v>1040.9460128600001</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>5.1860845340912709E-5</v>
+      </c>
+      <c r="E12">
+        <v>935.42130914199402</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.10142045231316617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.25121553113599998</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0055864339768444E-2</v>
+      </c>
+      <c r="E13">
+        <v>6.4906487703679697E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.74939580037189313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1683</v>
+      </c>
+      <c r="C14">
+        <v>1683</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1683</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1235</v>
+      </c>
+      <c r="C15">
+        <v>1235</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1235</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.94</v>
+      </c>
+      <c r="C16">
+        <v>0.92424733081199995</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.67581587106383E-2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="2"/>
+        <v>6.3829787234042618E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.94</v>
+      </c>
+      <c r="C17">
+        <v>0.94</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.94</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <v>10287.681002900001</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8768100290000074E-2</v>
+      </c>
+      <c r="E18">
+        <v>21698.9566843385</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="2"/>
+        <v>1.16989566843385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2190000000000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>ABS(C2-B2)/B2</f>
+        <v>6.4102564102564097E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>178000</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
+        <v>1.6574585635359115E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5000000000000013E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>111505</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C6">
+        <v>0.27004725294725701</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13446393286135574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C7">
+        <v>1.6881454492321399E-4</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8323392718096256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C8">
+        <v>1174.21212764968</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>8.723345152748152E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.2441927831543498E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>6.101929576231193E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.20162626119914101</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1246181369772499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C11">
+        <v>1.80065138801791E-4</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36372742472865371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1041</v>
+      </c>
+      <c r="C12">
+        <v>1355.34087825149</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.30196049784004808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.26127436085031103</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>8.7813160243668687E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1683</v>
+      </c>
+      <c r="C14">
+        <v>1683</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1235</v>
+      </c>
+      <c r="C15">
+        <v>1235</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.94</v>
+      </c>
+      <c r="C16">
+        <v>0.95818661567533403</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9347463484397961E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.94</v>
+      </c>
+      <c r="C17">
+        <v>0.94</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <v>25483.1978584149</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5483197858414901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="PMMA_const_full" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="PMMA_linear_full" sheetId="3" r:id="rId3"/>
     <sheet name="PMMA_linear_hybrid" sheetId="4" r:id="rId4"/>
     <sheet name="E_Glass_const_full" sheetId="5" r:id="rId5"/>
-    <sheet name="E_Glass_linear_full" sheetId="6" r:id="rId6"/>
-    <sheet name="E_Glass_linear_hybrid" sheetId="7" r:id="rId7"/>
+    <sheet name="E_Glass_const_hybrid" sheetId="8" r:id="rId6"/>
+    <sheet name="E_Glass_linear_full" sheetId="6" r:id="rId7"/>
+    <sheet name="E_Glass_linear_hybrid" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="26">
   <si>
     <t>Input parameters</t>
   </si>
@@ -490,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,9 +641,6 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="D7" s="4"/>
       <c r="F7" s="4"/>
     </row>
@@ -672,9 +670,6 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="D9" s="4"/>
       <c r="F9" s="4"/>
     </row>
@@ -682,9 +677,6 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="D10" s="4"/>
       <c r="F10" s="4"/>
     </row>
@@ -692,9 +684,6 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="D11" s="4"/>
       <c r="F11" s="4"/>
     </row>
@@ -702,9 +691,6 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="D12" s="4"/>
       <c r="F12" s="4"/>
     </row>
@@ -712,9 +698,6 @@
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="D13" s="4"/>
       <c r="F13" s="4"/>
     </row>
@@ -728,25 +711,16 @@
       <c r="C14">
         <v>1189.3699999999999</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D14" s="4"/>
       <c r="E14">
         <v>1189.3699999999999</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="D15" s="4"/>
       <c r="F15" s="4"/>
     </row>
@@ -776,9 +750,6 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="D17" s="4"/>
       <c r="F17" s="4"/>
     </row>
@@ -803,6 +774,19 @@
         <f t="shared" si="1"/>
         <v>0.10987999999999999</v>
       </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <f>AVERAGE(D2:D18)</f>
+        <v>1.0185684156390455E-2</v>
+      </c>
+      <c r="F19" s="4">
+        <f>AVERAGE(F2:F18)</f>
+        <v>0.50013255968001424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -812,10 +796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="D2" sqref="D2:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,10 +978,7 @@
       <c r="C14">
         <v>1189.3699999999999</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1045,6 +1026,12 @@
       <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>1.3230000000000018E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <f>AVERAGE(D2:D18)</f>
+        <v>1.8821710380563846E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1055,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D18"/>
+      <selection activeCell="F2" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,17 +1304,11 @@
       <c r="C14">
         <v>1189.3699999999999</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D14" s="4"/>
       <c r="E14">
         <v>1189.3699999999999</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1391,6 +1372,16 @@
       <c r="F18" s="4">
         <f t="shared" si="1"/>
         <v>0.32878999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <f>AVERAGE(D2:D18)</f>
+        <v>8.8166149720188026E-3</v>
+      </c>
+      <c r="F19" s="4">
+        <f>AVERAGE(F2:F18)</f>
+        <v>0.72214896759783709</v>
       </c>
     </row>
   </sheetData>
@@ -1400,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D18"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,10 +1585,7 @@
       <c r="C14">
         <v>1189.3699999999999</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1645,6 +1633,12 @@
       <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>6.3999999999998639E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <f>AVERAGE(D2:D18)</f>
+        <v>7.0552835446702766E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1657,7 +1651,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,7 +1724,7 @@
         <v>130000</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F19" si="1">ABS(E3-B3)/B3</f>
+        <f t="shared" ref="F3:F18" si="1">ABS(E3-B3)/B3</f>
         <v>0.28176795580110497</v>
       </c>
     </row>
@@ -1904,17 +1898,11 @@
       <c r="C14">
         <v>1683</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D14" s="4"/>
       <c r="E14">
         <v>1683</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1926,17 +1914,11 @@
       <c r="C15">
         <v>1235</v>
       </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D15" s="4"/>
       <c r="E15">
         <v>1235</v>
       </c>
-      <c r="F15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1970,17 +1952,11 @@
       <c r="C17">
         <v>0.94</v>
       </c>
-      <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D17" s="4"/>
       <c r="E17">
         <v>0.94</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -2008,7 +1984,14 @@
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="D19" s="4">
+        <f>AVERAGE(D2:D18)</f>
+        <v>2.0289478164898973E-2</v>
+      </c>
+      <c r="F19" s="4">
+        <f>AVERAGE(F2:F18)</f>
+        <v>0.90038444469978529</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2018,10 +2001,261 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2400000000000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>ABS(C2-B2)/B2</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>181000</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.004</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>100926</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>9.2599999999999991E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C6">
+        <v>0.2969</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0333333333333306E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1500</v>
+      </c>
+      <c r="C8">
+        <v>1489.16</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>7.2266666666666122E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>0.20230000000000001</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999982E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1100</v>
+      </c>
+      <c r="C12">
+        <v>1118.3399999999999</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6672727272727197E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1683</v>
+      </c>
+      <c r="C14">
+        <v>1683</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1235</v>
+      </c>
+      <c r="C15">
+        <v>1235</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.94</v>
+      </c>
+      <c r="C16">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4468085106381872E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.94</v>
+      </c>
+      <c r="C17">
+        <v>0.94</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <v>20892.68</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0892680000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <f>AVERAGE(D2:D18)</f>
+        <v>0.1181348561424391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F2" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,7 +2438,7 @@
         <v>4057.9485813880101</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" ref="F3:F18" si="2">ABS(E8-B8)/B8</f>
+        <f t="shared" ref="F8:F18" si="2">ABS(E8-B8)/B8</f>
         <v>2.7573597975814907</v>
       </c>
     </row>
@@ -2328,17 +2562,11 @@
       <c r="C14">
         <v>1683</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D14" s="4"/>
       <c r="E14">
         <v>1683</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -2350,17 +2578,11 @@
       <c r="C15">
         <v>1235</v>
       </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D15" s="4"/>
       <c r="E15">
         <v>1235</v>
       </c>
-      <c r="F15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -2394,17 +2616,11 @@
       <c r="C17">
         <v>0.94</v>
       </c>
-      <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D17" s="4"/>
       <c r="E17">
         <v>0.94</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -2431,6 +2647,14 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="D19" s="4">
+        <f>AVERAGE(D2:D18)</f>
+        <v>1.4331301661947E-2</v>
+      </c>
+      <c r="F19" s="4">
+        <f>AVERAGE(F2:F18)</f>
+        <v>1.2546125660506713</v>
       </c>
     </row>
   </sheetData>
@@ -2438,12 +2662,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2723,6 +2947,12 @@
         <v>1.5483197858414901</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <f>AVERAGE(D2:D18)</f>
+        <v>0.39367868979970028</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PMMA_const_full" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +799,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2666,7 +2666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PMMA_const_full" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="E_Glass_const_hybrid" sheetId="8" r:id="rId6"/>
     <sheet name="E_Glass_linear_full" sheetId="6" r:id="rId7"/>
     <sheet name="E_Glass_linear_hybrid" sheetId="7" r:id="rId8"/>
+    <sheet name="E_Glass_linear_full_2mass" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="26">
   <si>
     <t>Input parameters</t>
   </si>
@@ -1044,7 +1045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -1651,7 +1652,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,7 +2256,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F19"/>
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2667,7 +2668,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2956,4 +2957,280 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3300000000000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>ABS(C2-B2)/B2</f>
+        <v>0.41025641025641024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>183000</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D19" si="0">ABS(C3-B3)/B3</f>
+        <v>1.1049723756906077E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>101238.39999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2383999999999942E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C6">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.4102564102564166E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8.933E-5</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.027922814982974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C8">
+        <v>1040.77</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6324074074074092E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.14960000000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>2.309734513274337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.19915700737618547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C11">
+        <v>3.1700000000000001E-4</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12014134275618379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1041</v>
+      </c>
+      <c r="C12">
+        <v>1172</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12584053794428435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.1143</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.55868725868725866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1683</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1235</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.94</v>
+      </c>
+      <c r="C16">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5531914893617753E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.94</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <v>12751</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27510000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="PMMA_const_full" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,8 @@
     <sheet name="E_Glass_linear_full" sheetId="6" r:id="rId7"/>
     <sheet name="E_Glass_linear_hybrid" sheetId="7" r:id="rId8"/>
     <sheet name="E_Glass_linear_full_2mass" sheetId="9" r:id="rId9"/>
+    <sheet name="E_Glass_linear_full_mass_fbtemp" sheetId="10" r:id="rId10"/>
+    <sheet name="multiReactionCharringHybrid" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="26">
   <si>
     <t>Input parameters</t>
   </si>
@@ -795,6 +797,295 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3430000000000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>ABS(C2-B2)/B2</f>
+        <v>0.46581196581196582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>183000</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
+        <v>1.1049723756906077E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999901E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>99847.5</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5250000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C6">
+        <v>0.313</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2051282051282081E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4.2400000000000001E-5</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7457434733257647E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C8">
+        <v>1082.2</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0370370370370794E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.5760000000000002E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2389380530973562E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C10">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12118018967334032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>6.00706713780918E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1041</v>
+      </c>
+      <c r="C12">
+        <v>1045</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8424591738712775E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>9.652509652509661E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1683</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1235</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.94</v>
+      </c>
+      <c r="C16">
+        <v>0.941716</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8255319148936713E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.94</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <v>10246.6</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4660000000000036E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
@@ -2963,8 +3254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3012,7 +3303,7 @@
         <v>183000</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D19" si="0">ABS(C3-B3)/B3</f>
+        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
         <v>1.1049723756906077E-2</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="PMMA_const_full" sheetId="1" r:id="rId1"/>
-    <sheet name="PMMA_const_hybrid" sheetId="2" r:id="rId2"/>
-    <sheet name="PMMA_linear_full" sheetId="3" r:id="rId3"/>
-    <sheet name="PMMA_linear_hybrid" sheetId="4" r:id="rId4"/>
-    <sheet name="E_Glass_const_full" sheetId="5" r:id="rId5"/>
-    <sheet name="E_Glass_const_hybrid" sheetId="8" r:id="rId6"/>
-    <sheet name="E_Glass_linear_full" sheetId="6" r:id="rId7"/>
-    <sheet name="E_Glass_linear_hybrid" sheetId="7" r:id="rId8"/>
-    <sheet name="E_Glass_linear_full_2mass" sheetId="9" r:id="rId9"/>
-    <sheet name="E_Glass_linear_full_mass_fbtemp" sheetId="10" r:id="rId10"/>
-    <sheet name="multiReactionCharringHybrid" sheetId="11" r:id="rId11"/>
+    <sheet name="Summary" sheetId="12" r:id="rId1"/>
+    <sheet name="PMMA_const_full" sheetId="1" r:id="rId2"/>
+    <sheet name="PMMA_const_hybrid" sheetId="2" r:id="rId3"/>
+    <sheet name="PMMA_linear_full" sheetId="3" r:id="rId4"/>
+    <sheet name="PMMA_linear_hybrid" sheetId="4" r:id="rId5"/>
+    <sheet name="E_Glass_const_full" sheetId="5" r:id="rId6"/>
+    <sheet name="E_Glass_const_hybrid" sheetId="8" r:id="rId7"/>
+    <sheet name="E_Glass_linear_full" sheetId="6" r:id="rId8"/>
+    <sheet name="E_Glass_linear_hybrid" sheetId="7" r:id="rId9"/>
+    <sheet name="E_Glass_linear_full_2mass" sheetId="9" r:id="rId10"/>
+    <sheet name="E_Glass_linear_full_mass_fbtemp" sheetId="10" r:id="rId11"/>
+    <sheet name="multiReactionCharringHybrid" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="45">
   <si>
     <t>Input parameters</t>
   </si>
@@ -107,6 +108,63 @@
   </si>
   <si>
     <t>ρv, ρc, εc fixed</t>
+  </si>
+  <si>
+    <t>1 Mass + TGA + DSC</t>
+  </si>
+  <si>
+    <t>2 Mass</t>
+  </si>
+  <si>
+    <t>3 Mass</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>Successful?</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>1 Mass + F Temp + B Temp</t>
+  </si>
+  <si>
+    <t>Single reaction charring</t>
+  </si>
+  <si>
+    <t>Two reactions charring</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>1 Mass + TGA + B Temp</t>
+  </si>
+  <si>
+    <t>1 Mass + TGA</t>
+  </si>
+  <si>
+    <t>1 Mass + DSC</t>
+  </si>
+  <si>
+    <t>1 Mass + DSC + B Temp</t>
+  </si>
+  <si>
+    <t>X/O</t>
+  </si>
+  <si>
+    <t>1 Mass</t>
+  </si>
+  <si>
+    <t>X?</t>
+  </si>
+  <si>
+    <t>Single reaction non-charring with ignition</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -200,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -213,6 +271,12 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,6 +558,731 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3300000000000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>ABS(C2-B2)/B2</f>
+        <v>0.41025641025641024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>183000</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
+        <v>1.1049723756906077E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>101238.39999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2383999999999942E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C6">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.4102564102564166E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8.933E-5</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.027922814982974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C8">
+        <v>1040.77</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6324074074074092E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.14960000000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>2.309734513274337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.19915700737618547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C11">
+        <v>3.1700000000000001E-4</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12014134275618379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1041</v>
+      </c>
+      <c r="C12">
+        <v>1172</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12584053794428435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.1143</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.55868725868725866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1683</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1235</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.94</v>
+      </c>
+      <c r="C16">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5531914893617753E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.94</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <v>12751</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27510000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3430000000000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>ABS(C2-B2)/B2</f>
+        <v>0.46581196581196582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>183000</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
+        <v>1.1049723756906077E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999901E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>99847.5</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5250000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C6">
+        <v>0.313</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2051282051282081E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4.2400000000000001E-5</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7457434733257647E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C8">
+        <v>1082.2</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0370370370370794E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.5760000000000002E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2389380530973562E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C10">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12118018967334032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>6.00706713780918E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1041</v>
+      </c>
+      <c r="C12">
+        <v>1045</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8424591738712775E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>9.652509652509661E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1683</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1235</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.94</v>
+      </c>
+      <c r="C16">
+        <v>0.941716</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8255319148936713E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.94</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <v>10246.6</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4660000000000036E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -797,296 +1586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2340000000000</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3430000000000</v>
-      </c>
-      <c r="D2" s="4">
-        <f>ABS(C2-B2)/B2</f>
-        <v>0.46581196581196582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>181000</v>
-      </c>
-      <c r="C3" s="3">
-        <v>183000</v>
-      </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
-        <v>1.1049723756906077E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2999999999999901E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="C5">
-        <v>99847.5</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5250000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.312</v>
-      </c>
-      <c r="C6">
-        <v>0.313</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>3.2051282051282081E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4.405E-5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4.2400000000000001E-5</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7457434733257647E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1080</v>
-      </c>
-      <c r="C8">
-        <v>1082.2</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>2.0370370370370794E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>4.5199999999999997E-2</v>
-      </c>
-      <c r="C9">
-        <v>4.5760000000000002E-2</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2389380530973562E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9.4899999999999998E-2</v>
-      </c>
-      <c r="C10">
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.12118018967334032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2.8299999999999999E-4</v>
-      </c>
-      <c r="C11">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>6.00706713780918E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1041</v>
-      </c>
-      <c r="C12">
-        <v>1045</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>3.8424591738712775E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="C13">
-        <v>0.25650000000000001</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>9.652509652509661E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1683</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1235</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.94</v>
-      </c>
-      <c r="C16">
-        <v>0.941716</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>1.8255319148936713E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0.94</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C18">
-        <v>10246.6</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>2.4660000000000036E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1332,7 +1832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -1681,7 +2181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1938,7 +2438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -2291,7 +2791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -2542,7 +3042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -2954,7 +3454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -3248,280 +3748,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2340000000000</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3300000000000</v>
-      </c>
-      <c r="D2" s="4">
-        <f>ABS(C2-B2)/B2</f>
-        <v>0.41025641025641024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>181000</v>
-      </c>
-      <c r="C3" s="3">
-        <v>183000</v>
-      </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
-        <v>1.1049723756906077E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="C5">
-        <v>101238.39999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2383999999999942E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.312</v>
-      </c>
-      <c r="C6">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>6.4102564102564166E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4.405E-5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>8.933E-5</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>1.027922814982974</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1080</v>
-      </c>
-      <c r="C8">
-        <v>1040.77</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>3.6324074074074092E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>4.5199999999999997E-2</v>
-      </c>
-      <c r="C9">
-        <v>0.14960000000000001</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>2.309734513274337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9.4899999999999998E-2</v>
-      </c>
-      <c r="C10">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.19915700737618547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2.8299999999999999E-4</v>
-      </c>
-      <c r="C11">
-        <v>3.1700000000000001E-4</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.12014134275618379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1041</v>
-      </c>
-      <c r="C12">
-        <v>1172</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.12584053794428435</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="C13">
-        <v>0.1143</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.55868725868725866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1683</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1235</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.94</v>
-      </c>
-      <c r="C16">
-        <v>0.94240000000000002</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>2.5531914893617753E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0.94</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C18">
-        <v>12751</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.27510000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="46">
   <si>
     <t>Input parameters</t>
   </si>
@@ -152,9 +152,6 @@
     <t>1 Mass + DSC + B Temp</t>
   </si>
   <si>
-    <t>X/O</t>
-  </si>
-  <si>
     <t>1 Mass</t>
   </si>
   <si>
@@ -164,7 +161,13 @@
     <t>Single reaction non-charring with ignition</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Three reactions charring</t>
+  </si>
+  <si>
+    <t>10 kW X/100 kW O</t>
+  </si>
+  <si>
+    <t>2 Mass + TGA</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -271,6 +274,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,31 +564,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -595,10 +607,16 @@
       <c r="D2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>35</v>
@@ -606,11 +624,15 @@
       <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -620,11 +642,15 @@
       <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -634,32 +660,52 @@
       <c r="C5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -667,7 +713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -675,7 +721,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -683,13 +729,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -697,19 +743,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="E_Glass_linear_full_mass_fbtemp" sheetId="10" r:id="rId11"/>
     <sheet name="multiReactionCharringHybrid" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="47">
   <si>
     <t>Input parameters</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>2 Mass + TGA</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -274,6 +277,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,7 +573,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,18 +587,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -630,7 +636,9 @@
       <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -648,7 +656,9 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -684,7 +694,9 @@
       <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -696,6 +708,12 @@
       <c r="C7" t="s">
         <v>45</v>
       </c>
+      <c r="D7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -704,6 +722,9 @@
       <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -730,10 +751,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="E_Glass_linear_full_mass_fbtemp" sheetId="10" r:id="rId11"/>
     <sheet name="multiReactionCharringHybrid" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="47">
   <si>
     <t>Input parameters</t>
   </si>
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -277,6 +277,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,7 +576,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,18 +590,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="10"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -637,7 +640,7 @@
         <v>26</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -657,7 +660,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -670,9 +673,7 @@
       <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="D5" s="8"/>
       <c r="E5" t="s">
         <v>32</v>
       </c>
@@ -714,6 +715,9 @@
       <c r="E7" t="s">
         <v>28</v>
       </c>
+      <c r="F7" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -725,6 +729,9 @@
       <c r="C8" t="s">
         <v>28</v>
       </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -751,10 +758,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="47">
   <si>
     <t>Input parameters</t>
   </si>
@@ -155,9 +155,6 @@
     <t>1 Mass</t>
   </si>
   <si>
-    <t>X?</t>
-  </si>
-  <si>
     <t>Single reaction non-charring with ignition</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>running</t>
   </si>
 </sst>
 </file>
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -277,6 +277,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,10 +576,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,18 +596,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -633,8 +639,8 @@
       <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>44</v>
+      <c r="D3" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -654,7 +660,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -673,11 +679,15 @@
       <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -690,13 +700,13 @@
         <v>37</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -707,10 +717,10 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -724,13 +734,13 @@
         <v>36</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -758,10 +768,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="11"/>
+      <c r="A13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -797,7 +807,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="99" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="48">
   <si>
     <t>Input parameters</t>
   </si>
@@ -170,7 +170,10 @@
     <t>S</t>
   </si>
   <si>
-    <t>running</t>
+    <t>X -- Large deviation in validation case</t>
+  </si>
+  <si>
+    <t>O -- Small deviation in validation case</t>
   </si>
 </sst>
 </file>
@@ -264,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -277,6 +280,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -579,10 +585,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,18 +602,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="12"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -680,13 +686,13 @@
         <v>32</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -768,10 +774,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -785,7 +791,7 @@
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -793,18 +799,38 @@
       <c r="A16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
+      <c r="B17" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="13"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,17 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
-    <sheet name="PMMA_const_full" sheetId="1" r:id="rId2"/>
-    <sheet name="PMMA_const_hybrid" sheetId="2" r:id="rId3"/>
-    <sheet name="PMMA_linear_full" sheetId="3" r:id="rId4"/>
-    <sheet name="PMMA_linear_hybrid" sheetId="4" r:id="rId5"/>
-    <sheet name="E_Glass_const_full" sheetId="5" r:id="rId6"/>
-    <sheet name="E_Glass_const_hybrid" sheetId="8" r:id="rId7"/>
-    <sheet name="E_Glass_linear_full" sheetId="6" r:id="rId8"/>
-    <sheet name="E_Glass_linear_hybrid" sheetId="7" r:id="rId9"/>
-    <sheet name="E_Glass_linear_full_2mass" sheetId="9" r:id="rId10"/>
-    <sheet name="E_Glass_linear_full_mass_fbtemp" sheetId="10" r:id="rId11"/>
-    <sheet name="multiReactionCharringHybrid" sheetId="11" r:id="rId12"/>
+    <sheet name="singleReacChar" sheetId="13" r:id="rId2"/>
+    <sheet name="twoReacChar" sheetId="14" r:id="rId3"/>
+    <sheet name="threeReacChar" sheetId="15" r:id="rId4"/>
+    <sheet name="PMMA_const_full" sheetId="1" r:id="rId5"/>
+    <sheet name="PMMA_const_hybrid" sheetId="2" r:id="rId6"/>
+    <sheet name="PMMA_linear_full" sheetId="3" r:id="rId7"/>
+    <sheet name="PMMA_linear_hybrid" sheetId="4" r:id="rId8"/>
+    <sheet name="E_Glass_const_full" sheetId="5" r:id="rId9"/>
+    <sheet name="E_Glass_const_hybrid" sheetId="8" r:id="rId10"/>
+    <sheet name="E_Glass_linear_full" sheetId="6" r:id="rId11"/>
+    <sheet name="E_Glass_linear_hybrid" sheetId="7" r:id="rId12"/>
+    <sheet name="E_Glass_linear_full_2mass" sheetId="9" r:id="rId13"/>
+    <sheet name="E_Glass_linear_full_mass_fbtemp" sheetId="10" r:id="rId14"/>
+    <sheet name="multiReactionCharringHybrid" sheetId="11" r:id="rId15"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="60">
   <si>
     <t>Input parameters</t>
   </si>
@@ -122,9 +125,6 @@
     <t>Scheme</t>
   </si>
   <si>
-    <t>Successful?</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -170,17 +170,56 @@
     <t>S</t>
   </si>
   <si>
-    <t>X -- Large deviation in validation case</t>
-  </si>
-  <si>
-    <t>O -- Small deviation in validation case</t>
+    <t>10 kW/m2 validation</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>1 Mass + F Temp</t>
+  </si>
+  <si>
+    <t>1 Mass + B Temp</t>
+  </si>
+  <si>
+    <t>Parameter Error Range</t>
+  </si>
+  <si>
+    <t>Average Parameter Error</t>
+  </si>
+  <si>
+    <t>1 Mass + TGA + F Temp</t>
+  </si>
+  <si>
+    <t>60 kW/m2 validation</t>
+  </si>
+  <si>
+    <t>100 kW/m2 validation</t>
+  </si>
+  <si>
+    <t>4 Mass</t>
+  </si>
+  <si>
+    <t>5 Mass</t>
+  </si>
+  <si>
+    <t>ready to run</t>
+  </si>
+  <si>
+    <t>Optimized results</t>
+  </si>
+  <si>
+    <t>Relative error (%)</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,8 +240,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +259,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -300,6 +353,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -585,259 +644,1395 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="G11" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="G27" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="G29" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="G38" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="13"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
+  <mergeCells count="4">
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="99" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="72" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2400000000000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>ABS(C2-B2)/B2</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>181000</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.004</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>100926</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>9.2599999999999991E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C6">
+        <v>0.2969</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0333333333333306E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1500</v>
+      </c>
+      <c r="C8">
+        <v>1489.16</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>7.2266666666666122E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>0.20230000000000001</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999982E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1100</v>
+      </c>
+      <c r="C12">
+        <v>1118.3399999999999</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6672727272727197E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1683</v>
+      </c>
+      <c r="C14">
+        <v>1683</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1235</v>
+      </c>
+      <c r="C15">
+        <v>1235</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.94</v>
+      </c>
+      <c r="C16">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4468085106381872E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.94</v>
+      </c>
+      <c r="C17">
+        <v>0.94</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <v>20892.68</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0892680000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <f>AVERAGE(D2:D18)</f>
+        <v>0.1181348561424391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>ABS(C2-B2)/B2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>834000000000</v>
+      </c>
+      <c r="F2" s="4">
+        <f>ABS(E2-B2)/B2</f>
+        <v>0.64358974358974363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>181000</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>124000</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F6" si="1">ABS(E3-B3)/B3</f>
+        <v>0.31491712707182318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9999999999998916E-3</v>
+      </c>
+      <c r="E4">
+        <v>1.91517409145302</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.91517409145301998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>99441.7</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5830000000000289E-3</v>
+      </c>
+      <c r="E5">
+        <v>207434.67318667899</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0743467318667899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C6">
+        <v>0.3029</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9166666666666657E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.0851294576884201</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4779790310526284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4.3956999999999999E-5</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1112372304199919E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.76158773137132E-4</v>
+      </c>
+      <c r="F7" s="4">
+        <f>ABS(E7-B7)/B7</f>
+        <v>2.9990640893787055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C8">
+        <v>1060.3599999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8185185185185276E-2</v>
+      </c>
+      <c r="E8">
+        <v>4057.9485813880101</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" ref="F8:F18" si="2">ABS(E8-B8)/B8</f>
+        <v>2.7573597975814907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.3740000000000001E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2300884955752125E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.167671314994226</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>2.7095423671288943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C10">
+        <v>9.3515551372699998E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4588499760800844E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.174443889549037</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.83818640199196004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C11">
+        <v>2.7732053942500001E-4</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0068765282685457E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>7.0785421626685802E-5</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.74987483524139298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1041</v>
+      </c>
+      <c r="C12">
+        <v>1040.9460128600001</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>5.1860845340912709E-5</v>
+      </c>
+      <c r="E12">
+        <v>935.42130914199402</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.10142045231316617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.25121553113599998</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0055864339768444E-2</v>
+      </c>
+      <c r="E13">
+        <v>6.4906487703679697E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.74939580037189313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1683</v>
+      </c>
+      <c r="C14">
+        <v>1683</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14">
+        <v>1683</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1235</v>
+      </c>
+      <c r="C15">
+        <v>1235</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15">
+        <v>1235</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.94</v>
+      </c>
+      <c r="C16">
+        <v>0.92424733081199995</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.67581587106383E-2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="2"/>
+        <v>6.3829787234042618E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.94</v>
+      </c>
+      <c r="C17">
+        <v>0.94</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17">
+        <v>0.94</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <v>10287.681002900001</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8768100290000074E-2</v>
+      </c>
+      <c r="E18">
+        <v>21698.9566843385</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="2"/>
+        <v>1.16989566843385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4">
+        <f>AVERAGE(D2:D18)</f>
+        <v>1.4331301661947E-2</v>
+      </c>
+      <c r="F19" s="4">
+        <f>AVERAGE(F2:F18)</f>
+        <v>1.2546125660506713</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2190000000000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>ABS(C2-B2)/B2</f>
+        <v>6.4102564102564097E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>178000</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
+        <v>1.6574585635359115E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5000000000000013E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>111505</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C6">
+        <v>0.27004725294725701</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13446393286135574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C7">
+        <v>1.6881454492321399E-4</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8323392718096256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C8">
+        <v>1174.21212764968</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>8.723345152748152E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.2441927831543498E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>6.101929576231193E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.20162626119914101</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1246181369772499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C11">
+        <v>1.80065138801791E-4</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36372742472865371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1041</v>
+      </c>
+      <c r="C12">
+        <v>1355.34087825149</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.30196049784004808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.26127436085031103</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>8.7813160243668687E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1683</v>
+      </c>
+      <c r="C14">
+        <v>1683</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1235</v>
+      </c>
+      <c r="C15">
+        <v>1235</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.94</v>
+      </c>
+      <c r="C16">
+        <v>0.95818661567533403</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9347463484397961E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.94</v>
+      </c>
+      <c r="C17">
+        <v>0.94</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <v>25483.1978584149</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5483197858414901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <f>AVERAGE(D2:D18)</f>
+        <v>0.39367868979970028</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1113,7 +2308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1388,7 +2583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1403,6 +2598,342 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>834000000000</v>
+      </c>
+      <c r="D3" s="4">
+        <f>ABS(C3-B3)/B3</f>
+        <v>0.64358974358974363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>124000</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D20" si="0">ABS(C4-B4)/B4</f>
+        <v>0.31491712707182318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.91517409145302</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91517409145301998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C6">
+        <v>207434.67318667899</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0743467318667899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C7">
+        <v>1.0851294576884201</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4779790310526284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C8">
+        <v>1.76158773137132E-4</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9990640893787055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C9">
+        <v>4057.9485813880101</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7573597975814907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.167671314994226</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7095423671288943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.174443889549037</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83818640199196004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7.0785421626685802E-5</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.74987483524139298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1041</v>
+      </c>
+      <c r="C13">
+        <v>935.42130914199402</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.10142045231316617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C14">
+        <v>6.4906487703679697E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.74939580037189313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1683</v>
+      </c>
+      <c r="C15">
+        <v>1683</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1235</v>
+      </c>
+      <c r="C16">
+        <v>1235</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.94</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>6.3829787234042618E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.94</v>
+      </c>
+      <c r="C18">
+        <v>0.94</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C19">
+        <v>21698.9566843385</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>1.16989566843385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4">
+        <f>AVERAGE(D3:D19)</f>
+        <v>1.0332103485123176</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -1707,7 +3238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1953,7 +3484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -2302,7 +3833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -2559,12 +4090,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E1" sqref="E1:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,963 +4441,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2340000000000</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2400000000000</v>
-      </c>
-      <c r="D2" s="4">
-        <f>ABS(C2-B2)/B2</f>
-        <v>2.564102564102564E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>181000</v>
-      </c>
-      <c r="C3" s="3">
-        <v>181000</v>
-      </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1.004</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000036E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="C5">
-        <v>100926</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>9.2599999999999991E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="C6">
-        <v>0.2969</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0333333333333306E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1500</v>
-      </c>
-      <c r="C8">
-        <v>1489.16</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>7.2266666666666122E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.2</v>
-      </c>
-      <c r="C10">
-        <v>0.20230000000000001</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999982E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1100</v>
-      </c>
-      <c r="C12">
-        <v>1118.3399999999999</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6672727272727197E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1683</v>
-      </c>
-      <c r="C14">
-        <v>1683</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1235</v>
-      </c>
-      <c r="C15">
-        <v>1235</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.94</v>
-      </c>
-      <c r="C16">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>7.4468085106381872E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0.94</v>
-      </c>
-      <c r="C17">
-        <v>0.94</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C18">
-        <v>20892.68</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0892680000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="4">
-        <f>AVERAGE(D2:D18)</f>
-        <v>0.1181348561424391</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2340000000000</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2340000000000</v>
-      </c>
-      <c r="D2" s="4">
-        <f>ABS(C2-B2)/B2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>834000000000</v>
-      </c>
-      <c r="F2" s="4">
-        <f>ABS(E2-B2)/B2</f>
-        <v>0.64358974358974363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>181000</v>
-      </c>
-      <c r="C3" s="3">
-        <v>181000</v>
-      </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>124000</v>
-      </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F6" si="1">ABS(E3-B3)/B3</f>
-        <v>0.31491712707182318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>2.9999999999998916E-3</v>
-      </c>
-      <c r="E4">
-        <v>1.91517409145302</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="1"/>
-        <v>0.91517409145301998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="C5">
-        <v>99441.7</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>5.5830000000000289E-3</v>
-      </c>
-      <c r="E5">
-        <v>207434.67318667899</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.0743467318667899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.312</v>
-      </c>
-      <c r="C6">
-        <v>0.3029</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>2.9166666666666657E-2</v>
-      </c>
-      <c r="E6">
-        <v>1.0851294576884201</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="1"/>
-        <v>2.4779790310526284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4.405E-5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4.3956999999999999E-5</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>2.1112372304199919E-3</v>
-      </c>
-      <c r="E7">
-        <v>1.76158773137132E-4</v>
-      </c>
-      <c r="F7" s="4">
-        <f>ABS(E7-B7)/B7</f>
-        <v>2.9990640893787055</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1080</v>
-      </c>
-      <c r="C8">
-        <v>1060.3599999999999</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>1.8185185185185276E-2</v>
-      </c>
-      <c r="E8">
-        <v>4057.9485813880101</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" ref="F8:F18" si="2">ABS(E8-B8)/B8</f>
-        <v>2.7573597975814907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>4.5199999999999997E-2</v>
-      </c>
-      <c r="C9">
-        <v>4.3740000000000001E-2</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>3.2300884955752125E-2</v>
-      </c>
-      <c r="E9">
-        <v>0.167671314994226</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="2"/>
-        <v>2.7095423671288943</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9.4899999999999998E-2</v>
-      </c>
-      <c r="C10">
-        <v>9.3515551372699998E-2</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>1.4588499760800844E-2</v>
-      </c>
-      <c r="E10">
-        <v>0.174443889549037</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="2"/>
-        <v>0.83818640199196004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2.8299999999999999E-4</v>
-      </c>
-      <c r="C11">
-        <v>2.7732053942500001E-4</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>2.0068765282685457E-2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>7.0785421626685802E-5</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="2"/>
-        <v>0.74987483524139298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1041</v>
-      </c>
-      <c r="C12">
-        <v>1040.9460128600001</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>5.1860845340912709E-5</v>
-      </c>
-      <c r="E12">
-        <v>935.42130914199402</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="2"/>
-        <v>0.10142045231316617</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="C13">
-        <v>0.25121553113599998</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>3.0055864339768444E-2</v>
-      </c>
-      <c r="E13">
-        <v>6.4906487703679697E-2</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="2"/>
-        <v>0.74939580037189313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1683</v>
-      </c>
-      <c r="C14">
-        <v>1683</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14">
-        <v>1683</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1235</v>
-      </c>
-      <c r="C15">
-        <v>1235</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15">
-        <v>1235</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.94</v>
-      </c>
-      <c r="C16">
-        <v>0.92424733081199995</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>1.67581587106383E-2</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="2"/>
-        <v>6.3829787234042618E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0.94</v>
-      </c>
-      <c r="C17">
-        <v>0.94</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17">
-        <v>0.94</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C18">
-        <v>10287.681002900001</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>2.8768100290000074E-2</v>
-      </c>
-      <c r="E18">
-        <v>21698.9566843385</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="2"/>
-        <v>1.16989566843385</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4">
-        <f>AVERAGE(D2:D18)</f>
-        <v>1.4331301661947E-2</v>
-      </c>
-      <c r="F19" s="4">
-        <f>AVERAGE(F2:F18)</f>
-        <v>1.2546125660506713</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2340000000000</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2190000000000</v>
-      </c>
-      <c r="D2" s="4">
-        <f>ABS(C2-B2)/B2</f>
-        <v>6.4102564102564097E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>181000</v>
-      </c>
-      <c r="C3" s="3">
-        <v>178000</v>
-      </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
-        <v>1.6574585635359115E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5000000000000013E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="C5">
-        <v>111505</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.11505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.312</v>
-      </c>
-      <c r="C6">
-        <v>0.27004725294725701</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.13446393286135574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4.405E-5</v>
-      </c>
-      <c r="C7">
-        <v>1.6881454492321399E-4</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>2.8323392718096256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1080</v>
-      </c>
-      <c r="C8">
-        <v>1174.21212764968</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>8.723345152748152E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>4.5199999999999997E-2</v>
-      </c>
-      <c r="C9">
-        <v>4.2441927831543498E-2</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>6.101929576231193E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9.4899999999999998E-2</v>
-      </c>
-      <c r="C10">
-        <v>0.20162626119914101</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1246181369772499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2.8299999999999999E-4</v>
-      </c>
-      <c r="C11">
-        <v>1.80065138801791E-4</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.36372742472865371</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1041</v>
-      </c>
-      <c r="C12">
-        <v>1355.34087825149</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.30196049784004808</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="C13">
-        <v>0.26127436085031103</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>8.7813160243668687E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1683</v>
-      </c>
-      <c r="C14">
-        <v>1683</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1235</v>
-      </c>
-      <c r="C15">
-        <v>1235</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.94</v>
-      </c>
-      <c r="C16">
-        <v>0.95818661567533403</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>1.9347463484397961E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0.94</v>
-      </c>
-      <c r="C17">
-        <v>0.94</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C18">
-        <v>25483.1978584149</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5483197858414901</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="4">
-        <f>AVERAGE(D2:D18)</f>
-        <v>0.39367868979970028</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <sheet name="E_Glass_linear_full_mass_fbtemp" sheetId="10" r:id="rId14"/>
     <sheet name="multiReactionCharringHybrid" sheetId="11" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="80">
   <si>
     <t>Input parameters</t>
   </si>
@@ -213,6 +214,66 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>running_home</t>
+  </si>
+  <si>
+    <t>running_office</t>
+  </si>
+  <si>
+    <t>Xi</t>
+  </si>
+  <si>
+    <t>1 Mass + FT + BT</t>
+  </si>
+  <si>
+    <t>1 Mass + BT</t>
+  </si>
+  <si>
+    <t>1 Mass + TGA + BT</t>
+  </si>
+  <si>
+    <t>1 Mass + DSC + BT</t>
+  </si>
+  <si>
+    <t>1 Mass + FT</t>
+  </si>
+  <si>
+    <t>1 Mass + TGA + FT</t>
+  </si>
+  <si>
+    <t>[6.38% 299.91%]</t>
+  </si>
+  <si>
+    <t>[0.88% 283.23%]</t>
+  </si>
+  <si>
+    <t>[0% 230.97%]</t>
+  </si>
+  <si>
+    <t>[0% 177.43%]</t>
+  </si>
+  <si>
+    <t>[0.15% 46.58%]</t>
+  </si>
+  <si>
+    <t>[0% 230.53%]</t>
+  </si>
+  <si>
+    <t>[0% 72.39%]</t>
+  </si>
+  <si>
+    <t>[0.45% 287.61%]</t>
+  </si>
+  <si>
+    <t>[2.21% 297.28%]</t>
+  </si>
+  <si>
+    <t>[0.5% 158.17%]</t>
+  </si>
+  <si>
+    <t>[0.16% 203.76%]</t>
   </si>
 </sst>
 </file>
@@ -320,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -333,6 +394,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -647,7 +711,10 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,15 +732,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -702,6 +769,12 @@
       <c r="A3" t="s">
         <v>39</v>
       </c>
+      <c r="B3" s="4">
+        <v>1.2545999999999999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
       <c r="G3" s="7" t="s">
         <v>34</v>
       </c>
@@ -710,6 +783,12 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
+      <c r="B4" s="4">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
       <c r="G4" s="7" t="s">
         <v>30</v>
       </c>
@@ -718,6 +797,12 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
+      <c r="B5" s="4">
+        <v>0.36809999999999998</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
       </c>
@@ -726,6 +811,12 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
+      <c r="B6" s="4">
+        <v>0.27350000000000002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
       <c r="G6" s="7" t="s">
         <v>30</v>
       </c>
@@ -734,6 +825,12 @@
       <c r="A7" t="s">
         <v>31</v>
       </c>
+      <c r="B7" s="4">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
       <c r="G7" s="7" t="s">
         <v>30</v>
       </c>
@@ -742,6 +839,12 @@
       <c r="A8" t="s">
         <v>48</v>
       </c>
+      <c r="B8" s="4">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
       <c r="G8" s="12" t="s">
         <v>44</v>
       </c>
@@ -750,6 +853,12 @@
       <c r="A9" t="s">
         <v>35</v>
       </c>
+      <c r="B9" s="4">
+        <v>0.1825</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
       <c r="G9" s="7" t="s">
         <v>30</v>
       </c>
@@ -758,6 +867,12 @@
       <c r="A10" t="s">
         <v>36</v>
       </c>
+      <c r="B10" s="4">
+        <v>0.66779999999999995</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
       </c>
@@ -766,6 +881,12 @@
       <c r="A11" t="s">
         <v>37</v>
       </c>
+      <c r="B11" s="4">
+        <v>0.66610000000000003</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
       <c r="G11" s="7" t="s">
         <v>34</v>
       </c>
@@ -774,6 +895,12 @@
       <c r="A12" t="s">
         <v>38</v>
       </c>
+      <c r="B12" s="4">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
       <c r="G12" s="7" t="s">
         <v>44</v>
       </c>
@@ -782,6 +909,12 @@
       <c r="A13" t="s">
         <v>47</v>
       </c>
+      <c r="B13" s="4">
+        <v>0.29320000000000002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
       <c r="G13" s="12" t="s">
         <v>44</v>
       </c>
@@ -795,15 +928,15 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -853,15 +986,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -951,15 +1084,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1005,7 +1138,7 @@
         <v>43</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1021,15 +1154,15 @@
         <v>54</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="13" t="s">
-        <v>56</v>
+      <c r="G37" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,8 +1177,8 @@
       <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>34</v>
+      <c r="G39" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1080,6 +1213,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1331,6 +1465,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1741,8 +1876,9 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2037,8 +2173,9 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2313,8 +2450,9 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2590,6 +2728,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -2599,10 +2738,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F227" sqref="F227"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="1">
+      <selection activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,12 +2753,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2822,10 +2964,7 @@
       <c r="C15">
         <v>1683</v>
       </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -2837,10 +2976,7 @@
       <c r="C16">
         <v>1235</v>
       </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -2867,38 +3003,3078 @@
       <c r="C18">
         <v>0.94</v>
       </c>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="C19">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <v>10000</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>21698.9566843385</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="4">
         <f t="shared" si="0"/>
         <v>1.16989566843385</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="4">
-        <f>AVERAGE(D3:D19)</f>
-        <v>1.0332103485123176</v>
+      <c r="D21" s="4">
+        <f>AVERAGE(D3:D20)</f>
+        <v>1.2546125660506713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2190000000000</v>
+      </c>
+      <c r="D24" s="4">
+        <f>ABS(C24-B24)/B24</f>
+        <v>6.4102564102564097E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C25" s="3">
+        <v>178000</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:D41" si="1">ABS(C25-B25)/B25</f>
+        <v>1.6574585635359115E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000013E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C27">
+        <v>111505</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="1"/>
+        <v>0.11505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C28">
+        <v>0.27004725294725701</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="1"/>
+        <v>0.13446393286135574</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C29">
+        <v>1.6881454492321399E-4</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="1"/>
+        <v>2.8323392718096256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C30">
+        <v>1174.21212764968</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="1"/>
+        <v>8.723345152748152E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C31">
+        <v>4.2441927831543498E-2</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="1"/>
+        <v>6.101929576231193E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.20162626119914101</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1246181369772499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C33">
+        <v>1.80065138801791E-4</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="1"/>
+        <v>0.36372742472865371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>1041</v>
+      </c>
+      <c r="C34">
+        <v>1355.34087825149</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="1"/>
+        <v>0.30196049784004808</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C35">
+        <v>0.26127436085031103</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="1"/>
+        <v>8.7813160243668687E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>1683</v>
+      </c>
+      <c r="C36">
+        <v>1683</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>1235</v>
+      </c>
+      <c r="C37">
+        <v>1235</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>0.94</v>
+      </c>
+      <c r="C38">
+        <v>0.95818661567533403</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" ref="D38:D42" si="2">ABS(C38-B38)/B38</f>
+        <v>1.9347463484397961E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>0.94</v>
+      </c>
+      <c r="C39">
+        <v>0.94</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C41">
+        <v>25483.1978584149</v>
+      </c>
+      <c r="D41" s="4">
+        <f>ABS(C41-B41)/B41</f>
+        <v>1.5483197858414901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="4">
+        <f>AVERAGE(D24:D41)</f>
+        <v>0.47803840904249323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+    </row>
+    <row r="44" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3300000000000</v>
+      </c>
+      <c r="D45" s="4">
+        <f>ABS(C45-B45)/B45</f>
+        <v>0.41025641025641024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C46" s="3">
+        <v>183000</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" ref="D46:D62" si="3">ABS(C46-B46)/B46</f>
+        <v>1.1049723756906077E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C48">
+        <v>101238.39999999999</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2383999999999942E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C49">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="3"/>
+        <v>6.4102564102564166E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C50" s="3">
+        <v>8.933E-5</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="3"/>
+        <v>1.027922814982974</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C51">
+        <v>1040.77</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="3"/>
+        <v>3.6324074074074092E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C52">
+        <v>0.14960000000000001</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="3"/>
+        <v>2.309734513274337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C53">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="3"/>
+        <v>0.19915700737618547</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C54">
+        <v>3.1700000000000001E-4</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="3"/>
+        <v>0.12014134275618379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>1041</v>
+      </c>
+      <c r="C55">
+        <v>1172</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" si="3"/>
+        <v>0.12584053794428435</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C56">
+        <v>0.1143</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="3"/>
+        <v>0.55868725868725866</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57">
+        <v>1683</v>
+      </c>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58">
+        <v>1235</v>
+      </c>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59">
+        <v>0.94</v>
+      </c>
+      <c r="C59">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" ref="D59:D63" si="4">ABS(C59-B59)/B59</f>
+        <v>2.5531914893617753E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60">
+        <v>0.94</v>
+      </c>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C62">
+        <v>12751</v>
+      </c>
+      <c r="D62" s="4">
+        <f>ABS(C62-B62)/B62</f>
+        <v>0.27510000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="4">
+        <f>AVERAGE(D45:D62)</f>
+        <v>0.3680895313357529</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+    </row>
+    <row r="65" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C66" s="3">
+        <v>3320000000000</v>
+      </c>
+      <c r="D66" s="4">
+        <f>ABS(C66-B66)/B66</f>
+        <v>0.41880341880341881</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C67" s="3">
+        <v>183000</v>
+      </c>
+      <c r="D67" s="4">
+        <f t="shared" ref="D67:D83" si="5">ABS(C67-B67)/B67</f>
+        <v>1.1049723756906077E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1.008</v>
+      </c>
+      <c r="D68" s="4">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C69">
+        <v>100484</v>
+      </c>
+      <c r="D69" s="4">
+        <f t="shared" si="5"/>
+        <v>4.8399999999999997E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C70">
+        <v>0.29220000000000002</v>
+      </c>
+      <c r="D70" s="4">
+        <f t="shared" si="5"/>
+        <v>6.3461538461538416E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C71" s="3">
+        <v>8.4629999999999994E-5</v>
+      </c>
+      <c r="D71" s="4">
+        <f t="shared" si="5"/>
+        <v>0.92122587968217917</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C72">
+        <v>1047.5</v>
+      </c>
+      <c r="D72" s="4">
+        <f t="shared" si="5"/>
+        <v>3.0092592592592591E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C73">
+        <v>0.12540000000000001</v>
+      </c>
+      <c r="D73" s="4">
+        <f t="shared" si="5"/>
+        <v>1.7743362831858414</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C74">
+        <v>9.6100000000000005E-2</v>
+      </c>
+      <c r="D74" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2644889357218194E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C75">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="D75" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76">
+        <v>1041</v>
+      </c>
+      <c r="C76">
+        <v>1053.3699999999999</v>
+      </c>
+      <c r="D76" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1882804995196821E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C77">
+        <v>0.24160000000000001</v>
+      </c>
+      <c r="D77" s="4">
+        <f t="shared" si="5"/>
+        <v>6.7181467181467169E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <v>1683</v>
+      </c>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <v>1235</v>
+      </c>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80">
+        <v>0.94</v>
+      </c>
+      <c r="C80">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="D80" s="4">
+        <f t="shared" ref="D80:D84" si="6">ABS(C80-B80)/B80</f>
+        <v>1.7021276595745169E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81">
+        <v>0.94</v>
+      </c>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C83">
+        <v>4956.6000000000004</v>
+      </c>
+      <c r="D83" s="4">
+        <f>ABS(C83-B83)/B83</f>
+        <v>0.50434000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="4">
+        <f>AVERAGE(D66:D83)</f>
+        <v>0.27354005183399521</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+    </row>
+    <row r="86" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C87" s="3">
+        <v>3430000000000</v>
+      </c>
+      <c r="D87" s="4">
+        <f>ABS(C87-B87)/B87</f>
+        <v>0.46581196581196582</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C88" s="3">
+        <v>183000</v>
+      </c>
+      <c r="D88" s="4">
+        <f t="shared" ref="D88:D104" si="7">ABS(C88-B88)/B88</f>
+        <v>1.1049723756906077E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="D89" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2999999999999901E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C90">
+        <v>99847.5</v>
+      </c>
+      <c r="D90" s="4">
+        <f t="shared" si="7"/>
+        <v>1.5250000000000001E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C91">
+        <v>0.313</v>
+      </c>
+      <c r="D91" s="4">
+        <f t="shared" si="7"/>
+        <v>3.2051282051282081E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C92" s="3">
+        <v>4.2400000000000001E-5</v>
+      </c>
+      <c r="D92" s="4">
+        <f t="shared" si="7"/>
+        <v>3.7457434733257647E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C93">
+        <v>1082.2</v>
+      </c>
+      <c r="D93" s="4">
+        <f t="shared" si="7"/>
+        <v>2.0370370370370794E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C94">
+        <v>4.5760000000000002E-2</v>
+      </c>
+      <c r="D94" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2389380530973562E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C95">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="D95" s="4">
+        <f t="shared" si="7"/>
+        <v>0.12118018967334032</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C96">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D96" s="4">
+        <f t="shared" si="7"/>
+        <v>6.00706713780918E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97">
+        <v>1041</v>
+      </c>
+      <c r="C97">
+        <v>1045</v>
+      </c>
+      <c r="D97" s="4">
+        <f t="shared" si="7"/>
+        <v>3.8424591738712775E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C98">
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="D98" s="4">
+        <f t="shared" si="7"/>
+        <v>9.652509652509661E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99">
+        <v>1683</v>
+      </c>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100">
+        <v>1235</v>
+      </c>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101">
+        <v>0.94</v>
+      </c>
+      <c r="C101">
+        <v>0.941716</v>
+      </c>
+      <c r="D101" s="4">
+        <f t="shared" ref="D101:D105" si="8">ABS(C101-B101)/B101</f>
+        <v>1.8255319148936713E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102">
+        <v>0.94</v>
+      </c>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C104">
+        <v>10246.6</v>
+      </c>
+      <c r="D104" s="4">
+        <f>ABS(C104-B104)/B104</f>
+        <v>2.4660000000000036E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="4">
+        <f>AVERAGE(D87:D104)</f>
+        <v>5.4836216561998219E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+    </row>
+    <row r="107" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C108" s="3">
+        <v>2400000000000</v>
+      </c>
+      <c r="D108" s="4">
+        <f>ABS(C108-B108)/B108</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C109" s="3">
+        <v>181000</v>
+      </c>
+      <c r="D109" s="4">
+        <f t="shared" ref="D109:D125" si="9">ABS(C109-B109)/B109</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1.00576</v>
+      </c>
+      <c r="D110" s="4">
+        <f t="shared" si="9"/>
+        <v>5.7599999999999874E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C111">
+        <v>99269</v>
+      </c>
+      <c r="D111" s="4">
+        <f t="shared" si="9"/>
+        <v>7.3099999999999997E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C112">
+        <v>0.28050000000000003</v>
+      </c>
+      <c r="D112" s="4">
+        <f t="shared" si="9"/>
+        <v>0.10096153846153837</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C113" s="3">
+        <v>9.4487000000000005E-5</v>
+      </c>
+      <c r="D113" s="4">
+        <f t="shared" si="9"/>
+        <v>1.1449943246311012</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C114">
+        <v>1020.9</v>
+      </c>
+      <c r="D114" s="4">
+        <f t="shared" si="9"/>
+        <v>5.4722222222222242E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C115">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="D115" s="4">
+        <f t="shared" si="9"/>
+        <v>2.3053097345132749</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C116">
+        <v>0.2228</v>
+      </c>
+      <c r="D116" s="4">
+        <f t="shared" si="9"/>
+        <v>1.3477344573234986</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C117" s="3">
+        <v>8.3590000000000004E-5</v>
+      </c>
+      <c r="D117" s="4">
+        <f t="shared" si="9"/>
+        <v>0.70462897526501767</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118">
+        <v>1041</v>
+      </c>
+      <c r="C118">
+        <v>878.6</v>
+      </c>
+      <c r="D118" s="4">
+        <f t="shared" si="9"/>
+        <v>0.15600384245917384</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C119">
+        <v>0.44</v>
+      </c>
+      <c r="D119" s="4">
+        <f t="shared" si="9"/>
+        <v>0.69884169884169878</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120">
+        <v>1683</v>
+      </c>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121">
+        <v>1235</v>
+      </c>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122">
+        <v>0.94</v>
+      </c>
+      <c r="C122">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="D122" s="4">
+        <f t="shared" ref="D122:D126" si="10">ABS(C122-B122)/B122</f>
+        <v>7.234042553191402E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123">
+        <v>0.94</v>
+      </c>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B124">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C125">
+        <v>8825.2000000000007</v>
+      </c>
+      <c r="D125" s="4">
+        <f>ABS(C125-B125)/B125</f>
+        <v>0.11747999999999993</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D126" s="4">
+        <f>AVERAGE(D108:D125)</f>
+        <v>0.47690156156512442</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+    </row>
+    <row r="128" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C129" s="3">
+        <v>2130000000000</v>
+      </c>
+      <c r="D129" s="4">
+        <f>ABS(C129-B129)/B129</f>
+        <v>8.9743589743589744E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C130" s="3">
+        <v>181000</v>
+      </c>
+      <c r="D130" s="4">
+        <f t="shared" ref="D130:D146" si="11">ABS(C130-B130)/B130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="D131" s="4">
+        <f t="shared" si="11"/>
+        <v>5.3999999999999604E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C132">
+        <v>99015</v>
+      </c>
+      <c r="D132" s="4">
+        <f t="shared" si="11"/>
+        <v>9.8499999999999994E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C133">
+        <v>0.316</v>
+      </c>
+      <c r="D133" s="4">
+        <f t="shared" si="11"/>
+        <v>1.2820512820512832E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C134" s="3">
+        <v>3.8099999999999998E-5</v>
+      </c>
+      <c r="D134" s="4">
+        <f t="shared" si="11"/>
+        <v>0.13507377979568677</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C135">
+        <v>1080.5440000000001</v>
+      </c>
+      <c r="D135" s="4">
+        <f t="shared" si="11"/>
+        <v>5.0370370370379292E-4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C136">
+        <v>6.386E-2</v>
+      </c>
+      <c r="D136" s="4">
+        <f t="shared" si="11"/>
+        <v>0.41283185840707975</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C137">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="D137" s="4">
+        <f t="shared" si="11"/>
+        <v>0.72391991570073755</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C138">
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="D138" s="4">
+        <f t="shared" si="11"/>
+        <v>0.32508833922261487</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139">
+        <v>1041</v>
+      </c>
+      <c r="C139">
+        <v>960.74</v>
+      </c>
+      <c r="D139" s="4">
+        <f t="shared" si="11"/>
+        <v>7.7098943323727173E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C140">
+        <v>0.37619999999999998</v>
+      </c>
+      <c r="D140" s="4">
+        <f t="shared" si="11"/>
+        <v>0.45250965250965236</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141">
+        <v>1683</v>
+      </c>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142">
+        <v>1235</v>
+      </c>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143">
+        <v>0.94</v>
+      </c>
+      <c r="C143">
+        <v>0.9466</v>
+      </c>
+      <c r="D143" s="4">
+        <f t="shared" ref="D143:D147" si="12">ABS(C143-B143)/B143</f>
+        <v>7.0212765957447347E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144">
+        <v>0.94</v>
+      </c>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B145">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C146">
+        <v>13027</v>
+      </c>
+      <c r="D146" s="4">
+        <f>ABS(C146-B146)/B146</f>
+        <v>0.30270000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D147" s="4">
+        <f>AVERAGE(D129:D146)</f>
+        <v>0.18246868370164643</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B148" s="16"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
+    </row>
+    <row r="149" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C150" s="3">
+        <v>2410000000000</v>
+      </c>
+      <c r="D150" s="4">
+        <f>ABS(C150-B150)/B150</f>
+        <v>2.9914529914529916E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C151" s="3">
+        <v>182000</v>
+      </c>
+      <c r="D151" s="4">
+        <f t="shared" ref="D151:D167" si="13">ABS(C151-B151)/B151</f>
+        <v>5.5248618784530384E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>1.0167999999999999</v>
+      </c>
+      <c r="D152" s="4">
+        <f t="shared" si="13"/>
+        <v>1.6799999999999926E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C153">
+        <v>102453</v>
+      </c>
+      <c r="D153" s="4">
+        <f t="shared" si="13"/>
+        <v>2.453E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C154">
+        <v>0.31340000000000001</v>
+      </c>
+      <c r="D154" s="4">
+        <f t="shared" si="13"/>
+        <v>4.4871794871795267E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C155" s="3">
+        <v>8.9752000000000004E-5</v>
+      </c>
+      <c r="D155" s="4">
+        <f t="shared" si="13"/>
+        <v>1.0375028376844495</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C156">
+        <v>1114.96</v>
+      </c>
+      <c r="D156" s="4">
+        <f t="shared" si="13"/>
+        <v>3.2370370370370403E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C157">
+        <v>8.5550000000000001E-2</v>
+      </c>
+      <c r="D157" s="4">
+        <f t="shared" si="13"/>
+        <v>0.89269911504424793</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C158">
+        <v>3.6339999999999997E-2</v>
+      </c>
+      <c r="D158" s="4">
+        <f t="shared" si="13"/>
+        <v>0.6170706006322445</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C159">
+        <v>3.834E-4</v>
+      </c>
+      <c r="D159" s="4">
+        <f t="shared" si="13"/>
+        <v>0.3547703180212014</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160">
+        <v>1041</v>
+      </c>
+      <c r="C160">
+        <v>440.88</v>
+      </c>
+      <c r="D160" s="4">
+        <f t="shared" si="13"/>
+        <v>0.57648414985590779</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C161">
+        <v>1.0039</v>
+      </c>
+      <c r="D161" s="4">
+        <f t="shared" si="13"/>
+        <v>2.8760617760617762</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162">
+        <v>1683</v>
+      </c>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163">
+        <v>1235</v>
+      </c>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164">
+        <v>0.94</v>
+      </c>
+      <c r="C164">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="D164" s="4">
+        <f t="shared" ref="D164:D168" si="14">ABS(C164-B164)/B164</f>
+        <v>5.2446808510638314E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165">
+        <v>0.94</v>
+      </c>
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B166">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B167" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C167">
+        <v>38288</v>
+      </c>
+      <c r="D167" s="4">
+        <f>ABS(C167-B167)/B167</f>
+        <v>2.8288000000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D168" s="4">
+        <f>AVERAGE(D150:D167)</f>
+        <v>0.66781875339007135</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B169" s="16"/>
+      <c r="C169" s="16"/>
+      <c r="D169" s="16"/>
+    </row>
+    <row r="170" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C171" s="3">
+        <v>4320000000000</v>
+      </c>
+      <c r="D171" s="4">
+        <f>ABS(C171-B171)/B171</f>
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B172" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C172" s="3">
+        <v>177000</v>
+      </c>
+      <c r="D172" s="4">
+        <f t="shared" ref="D172:D188" si="15">ABS(C172-B172)/B172</f>
+        <v>2.2099447513812154E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="D173" s="4">
+        <f t="shared" si="15"/>
+        <v>5.6300000000000017E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C174">
+        <v>125218.6</v>
+      </c>
+      <c r="D174" s="4">
+        <f t="shared" si="15"/>
+        <v>0.25218600000000008</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C175">
+        <v>0.20830000000000001</v>
+      </c>
+      <c r="D175" s="4">
+        <f t="shared" si="15"/>
+        <v>0.33237179487179486</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1.75E-4</v>
+      </c>
+      <c r="D176" s="4">
+        <f t="shared" si="15"/>
+        <v>2.9727582292849037</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C177">
+        <v>1054.08</v>
+      </c>
+      <c r="D177" s="4">
+        <f t="shared" si="15"/>
+        <v>2.4000000000000066E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C178">
+        <v>4.07E-2</v>
+      </c>
+      <c r="D178" s="4">
+        <f t="shared" si="15"/>
+        <v>9.9557522123893752E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C179">
+        <v>0.09</v>
+      </c>
+      <c r="D179" s="4">
+        <f t="shared" si="15"/>
+        <v>5.1633298208640689E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C180">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="D180" s="4">
+        <f t="shared" si="15"/>
+        <v>0.97879858657243801</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181">
+        <v>1041</v>
+      </c>
+      <c r="C181">
+        <v>2525.67</v>
+      </c>
+      <c r="D181" s="4">
+        <f t="shared" si="15"/>
+        <v>1.4261959654178675</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C182">
+        <v>0.7298</v>
+      </c>
+      <c r="D182" s="4">
+        <f t="shared" si="15"/>
+        <v>1.8177606177606176</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183">
+        <v>1683</v>
+      </c>
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184">
+        <v>1235</v>
+      </c>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185">
+        <v>0.94</v>
+      </c>
+      <c r="C185">
+        <v>0.80740000000000001</v>
+      </c>
+      <c r="D185" s="4">
+        <f t="shared" ref="D185:D189" si="16">ABS(C185-B185)/B185</f>
+        <v>0.14106382978723397</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B186">
+        <v>0.94</v>
+      </c>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B187">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B188" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C188">
+        <v>13051</v>
+      </c>
+      <c r="D188" s="4">
+        <f>ABS(C188-B188)/B188</f>
+        <v>0.30509999999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D189" s="4">
+        <f>AVERAGE(D171:D188)</f>
+        <v>0.66614136697821758</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B190" s="16"/>
+      <c r="C190" s="16"/>
+      <c r="D190" s="16"/>
+    </row>
+    <row r="191" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C192" s="3">
+        <v>2760000000000</v>
+      </c>
+      <c r="D192" s="4">
+        <f>ABS(C192-B192)/B192</f>
+        <v>0.17948717948717949</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B193" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C193" s="3">
+        <v>182000</v>
+      </c>
+      <c r="D193" s="4">
+        <f t="shared" ref="D193:D209" si="17">ABS(C193-B193)/B193</f>
+        <v>5.5248618784530384E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>0.995</v>
+      </c>
+      <c r="D194" s="4">
+        <f t="shared" si="17"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C195">
+        <v>101867.34</v>
+      </c>
+      <c r="D195" s="4">
+        <f t="shared" si="17"/>
+        <v>1.8673399999999965E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C196">
+        <v>0.30370000000000003</v>
+      </c>
+      <c r="D196" s="4">
+        <f t="shared" si="17"/>
+        <v>2.6602564102564018E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C197" s="3">
+        <v>3.5120000000000003E-5</v>
+      </c>
+      <c r="D197" s="4">
+        <f t="shared" si="17"/>
+        <v>0.20272417707150958</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C198">
+        <v>1042.5</v>
+      </c>
+      <c r="D198" s="4">
+        <f t="shared" si="17"/>
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C199">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="D199" s="4">
+        <f t="shared" si="17"/>
+        <v>3.7610619469026552E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C200">
+        <v>0.245</v>
+      </c>
+      <c r="D200" s="4">
+        <f t="shared" si="17"/>
+        <v>1.5816649104320339</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C201" s="3">
+        <v>7.1559999999999999E-5</v>
+      </c>
+      <c r="D201" s="4">
+        <f t="shared" si="17"/>
+        <v>0.74713780918727912</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B202">
+        <v>1041</v>
+      </c>
+      <c r="C202">
+        <v>1134.6400000000001</v>
+      </c>
+      <c r="D202" s="4">
+        <f t="shared" si="17"/>
+        <v>8.9951969260326711E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B203" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C203">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D203" s="4">
+        <f t="shared" si="17"/>
+        <v>0.54826254826254828</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204">
+        <v>1683</v>
+      </c>
+      <c r="D204" s="4"/>
+    </row>
+    <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B205">
+        <v>1235</v>
+      </c>
+      <c r="D205" s="4"/>
+    </row>
+    <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206">
+        <v>0.94</v>
+      </c>
+      <c r="C206">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="D206" s="4">
+        <f t="shared" ref="D206:D210" si="18">ABS(C206-B206)/B206</f>
+        <v>2.4680851063829785E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B207">
+        <v>0.94</v>
+      </c>
+      <c r="D207" s="4"/>
+    </row>
+    <row r="208" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B208">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D208" s="4"/>
+    </row>
+    <row r="209" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C209">
+        <v>20605.599999999999</v>
+      </c>
+      <c r="D209" s="4">
+        <f>ABS(C209-B209)/B209</f>
+        <v>1.0605599999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D210" s="4">
+        <f>AVERAGE(D192:D209)</f>
+        <v>0.32590022231692661</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B211" s="16"/>
+      <c r="C211" s="16"/>
+      <c r="D211" s="16"/>
+    </row>
+    <row r="212" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B213" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C213" s="3">
+        <v>2790000000000</v>
+      </c>
+      <c r="D213" s="4">
+        <f>ABS(C213-B213)/B213</f>
+        <v>0.19230769230769232</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B214" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C214" s="3">
+        <v>182000</v>
+      </c>
+      <c r="D214" s="4">
+        <f t="shared" ref="D214:D230" si="19">ABS(C214-B214)/B214</f>
+        <v>5.5248618784530384E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>1.0098</v>
+      </c>
+      <c r="D215" s="4">
+        <f t="shared" si="19"/>
+        <v>9.8000000000000309E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C216">
+        <v>99213.5</v>
+      </c>
+      <c r="D216" s="4">
+        <f t="shared" si="19"/>
+        <v>7.8650000000000005E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C217">
+        <v>0.3125</v>
+      </c>
+      <c r="D217" s="4">
+        <f t="shared" si="19"/>
+        <v>1.602564102564104E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C218" s="3">
+        <v>4.1539999999999999E-5</v>
+      </c>
+      <c r="D218" s="4">
+        <f t="shared" si="19"/>
+        <v>5.6980703745743502E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C219">
+        <v>1028.5999999999999</v>
+      </c>
+      <c r="D219" s="4">
+        <f t="shared" si="19"/>
+        <v>4.7592592592592679E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C220">
+        <v>0.13730000000000001</v>
+      </c>
+      <c r="D220" s="4">
+        <f t="shared" si="19"/>
+        <v>2.0376106194690271</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B221">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C221">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="D221" s="4">
+        <f t="shared" si="19"/>
+        <v>0.7502634351949421</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C222">
+        <v>3.8699999999999997E-4</v>
+      </c>
+      <c r="D222" s="4">
+        <f t="shared" si="19"/>
+        <v>0.36749116607773846</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B223">
+        <v>1041</v>
+      </c>
+      <c r="C223">
+        <v>1130.45</v>
+      </c>
+      <c r="D223" s="4">
+        <f t="shared" si="19"/>
+        <v>8.5926993275696487E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B224" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C224">
+        <v>0.12565000000000001</v>
+      </c>
+      <c r="D224" s="4">
+        <f t="shared" si="19"/>
+        <v>0.51486486486486482</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B225">
+        <v>1683</v>
+      </c>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226">
+        <v>1235</v>
+      </c>
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B227">
+        <v>0.94</v>
+      </c>
+      <c r="C227">
+        <v>0.9355</v>
+      </c>
+      <c r="D227" s="4">
+        <f t="shared" ref="D227:D231" si="20">ABS(C227-B227)/B227</f>
+        <v>4.7872340425531368E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B228">
+        <v>0.94</v>
+      </c>
+      <c r="D228" s="4"/>
+    </row>
+    <row r="229" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B229">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D229" s="4"/>
+    </row>
+    <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B230" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C230">
+        <v>10219.5</v>
+      </c>
+      <c r="D230" s="4">
+        <f>ABS(C230-B230)/B230</f>
+        <v>2.1950000000000001E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D231" s="4">
+        <f>AVERAGE(D213:D230)</f>
+        <v>0.29318340911084773</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B232" s="16"/>
+      <c r="C232" s="16"/>
+      <c r="D232" s="16"/>
+    </row>
+    <row r="233" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B234" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C234" s="3"/>
+      <c r="D234" s="4">
+        <f>ABS(C234-B234)/B234</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B235" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C235" s="3"/>
+      <c r="D235" s="4">
+        <f t="shared" ref="D235:D251" si="21">ABS(C235-B235)/B235</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="D236" s="4">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D237" s="4">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="D238" s="4">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C239" s="3"/>
+      <c r="D239" s="4">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240" s="5">
+        <v>1080</v>
+      </c>
+      <c r="D240" s="4">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="D241" s="4">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B242">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="D242" s="4">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="D243" s="4">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B244">
+        <v>1041</v>
+      </c>
+      <c r="D244" s="4">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B245" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="D245" s="4">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B246">
+        <v>1683</v>
+      </c>
+      <c r="D246" s="4"/>
+    </row>
+    <row r="247" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B247">
+        <v>1235</v>
+      </c>
+      <c r="D247" s="4"/>
+    </row>
+    <row r="248" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B248">
+        <v>0.94</v>
+      </c>
+      <c r="D248" s="4">
+        <f t="shared" ref="D248:D252" si="22">ABS(C248-B248)/B248</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B249">
+        <v>0.94</v>
+      </c>
+      <c r="D249" s="4"/>
+    </row>
+    <row r="250" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B250">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D250" s="4"/>
+    </row>
+    <row r="251" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B251" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D251" s="4">
+        <f>ABS(C251-B251)/B251</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D252" s="4">
+        <f>AVERAGE(D234:D251)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="12">
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A190:D190"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A85:D85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2912,6 +6088,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -2926,6 +6103,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -2940,6 +6118,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3245,6 +6424,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3491,6 +6671,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3840,6 +7021,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4097,6 +7279,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F20"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="E_Glass_linear_full_mass_fbtemp" sheetId="10" r:id="rId14"/>
     <sheet name="multiReactionCharringHybrid" sheetId="11" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="110">
   <si>
     <t>Input parameters</t>
   </si>
@@ -275,6 +275,96 @@
   <si>
     <t>[0.16% 203.76%]</t>
   </si>
+  <si>
+    <t>Xi1</t>
+  </si>
+  <si>
+    <t>Xi2</t>
+  </si>
+  <si>
+    <t>A1 (1/s)</t>
+  </si>
+  <si>
+    <t>E1 (J/mol)</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>Hp1 (J/kg)</t>
+  </si>
+  <si>
+    <t>A2 (1/s)</t>
+  </si>
+  <si>
+    <t>E2 (J/mol)</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Hp2 (J/kg)</t>
+  </si>
+  <si>
+    <t>1 Mass + TGA +DSC</t>
+  </si>
+  <si>
+    <t>0.33-297.28%</t>
+  </si>
+  <si>
+    <t>2.99-281.87%</t>
+  </si>
+  <si>
+    <t>0.77-256.37%</t>
+  </si>
+  <si>
+    <t>0.40-175.29%</t>
+  </si>
+  <si>
+    <t>0.0-146.42%</t>
+  </si>
+  <si>
+    <t>0.14-299.99%</t>
+  </si>
+  <si>
+    <t>0.57-224.77%</t>
+  </si>
+  <si>
+    <t>3.04-297.33%</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>Hp3 (J/kg)</t>
+  </si>
+  <si>
+    <t>A3 (1/s)</t>
+  </si>
+  <si>
+    <t>Xi3</t>
+  </si>
+  <si>
+    <t>E3 (J/mol)</t>
+  </si>
+  <si>
+    <t>0.26-172.08%</t>
+  </si>
+  <si>
+    <t>12.6-172.68%</t>
+  </si>
+  <si>
+    <t>0.82-299.43%</t>
+  </si>
+  <si>
+    <t>12.28-127.23%</t>
+  </si>
+  <si>
+    <t>2.68-298.89%</t>
+  </si>
+  <si>
+    <t>0.73-169.23%</t>
+  </si>
 </sst>
 </file>
 
@@ -310,7 +400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +416,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -422,9 +518,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,12 +812,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
-    <sheetView workbookViewId="1">
+    <sheetView topLeftCell="A7" workbookViewId="1">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -732,15 +836,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -928,15 +1032,15 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -986,15 +1090,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1021,176 +1125,268 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.75639999999999996</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.3952</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.4516</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.42709999999999998</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.64629999999999999</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="B30" s="4">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.2021</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>28</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.71889999999999998</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>30</v>
+        <v>55</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>60</v>
+        <v>31</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.87809999999999999</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>56</v>
+        <v>36</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.2026</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1198,7 +1394,7 @@
   <mergeCells count="4">
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2741,10 +2937,10 @@
   <dimension ref="A1:D252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F227" sqref="F227"/>
+      <selection sqref="A1:D21"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="1">
-      <selection activeCell="G185" sqref="G185"/>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2753,12 +2949,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3042,12 +3238,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -3089,7 +3285,7 @@
         <v>178000</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" ref="D25:D41" si="1">ABS(C25-B25)/B25</f>
+        <f t="shared" ref="D25:D35" si="1">ABS(C25-B25)/B25</f>
         <v>1.6574585635359115E-2</v>
       </c>
     </row>
@@ -3278,7 +3474,7 @@
         <v>0.95818661567533403</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" ref="D38:D42" si="2">ABS(C38-B38)/B38</f>
+        <f t="shared" ref="D38" si="2">ABS(C38-B38)/B38</f>
         <v>1.9347463484397961E-2</v>
       </c>
     </row>
@@ -3331,12 +3527,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -3378,7 +3574,7 @@
         <v>183000</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" ref="D46:D62" si="3">ABS(C46-B46)/B46</f>
+        <f t="shared" ref="D46:D56" si="3">ABS(C46-B46)/B46</f>
         <v>1.1049723756906077E-2</v>
       </c>
     </row>
@@ -3561,7 +3757,7 @@
         <v>0.94240000000000002</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" ref="D59:D63" si="4">ABS(C59-B59)/B59</f>
+        <f t="shared" ref="D59" si="4">ABS(C59-B59)/B59</f>
         <v>2.5531914893617753E-3</v>
       </c>
     </row>
@@ -3608,12 +3804,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
     </row>
     <row r="65" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
@@ -3655,7 +3851,7 @@
         <v>183000</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" ref="D67:D83" si="5">ABS(C67-B67)/B67</f>
+        <f t="shared" ref="D67:D77" si="5">ABS(C67-B67)/B67</f>
         <v>1.1049723756906077E-2</v>
       </c>
     </row>
@@ -3838,7 +4034,7 @@
         <v>0.94159999999999999</v>
       </c>
       <c r="D80" s="4">
-        <f t="shared" ref="D80:D84" si="6">ABS(C80-B80)/B80</f>
+        <f t="shared" ref="D80" si="6">ABS(C80-B80)/B80</f>
         <v>1.7021276595745169E-3</v>
       </c>
     </row>
@@ -3885,12 +4081,12 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
     </row>
     <row r="86" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -3932,7 +4128,7 @@
         <v>183000</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" ref="D88:D104" si="7">ABS(C88-B88)/B88</f>
+        <f t="shared" ref="D88:D98" si="7">ABS(C88-B88)/B88</f>
         <v>1.1049723756906077E-2</v>
       </c>
     </row>
@@ -4115,7 +4311,7 @@
         <v>0.941716</v>
       </c>
       <c r="D101" s="4">
-        <f t="shared" ref="D101:D105" si="8">ABS(C101-B101)/B101</f>
+        <f t="shared" ref="D101" si="8">ABS(C101-B101)/B101</f>
         <v>1.8255319148936713E-3</v>
       </c>
     </row>
@@ -4162,12 +4358,12 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
     </row>
     <row r="107" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
@@ -4209,7 +4405,7 @@
         <v>181000</v>
       </c>
       <c r="D109" s="4">
-        <f t="shared" ref="D109:D125" si="9">ABS(C109-B109)/B109</f>
+        <f t="shared" ref="D109:D119" si="9">ABS(C109-B109)/B109</f>
         <v>0</v>
       </c>
     </row>
@@ -4392,7 +4588,7 @@
         <v>0.93320000000000003</v>
       </c>
       <c r="D122" s="4">
-        <f t="shared" ref="D122:D126" si="10">ABS(C122-B122)/B122</f>
+        <f t="shared" ref="D122" si="10">ABS(C122-B122)/B122</f>
         <v>7.234042553191402E-3</v>
       </c>
     </row>
@@ -4439,12 +4635,12 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="16" t="s">
+      <c r="A127" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B127" s="16"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
     </row>
     <row r="128" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -4486,7 +4682,7 @@
         <v>181000</v>
       </c>
       <c r="D130" s="4">
-        <f t="shared" ref="D130:D146" si="11">ABS(C130-B130)/B130</f>
+        <f t="shared" ref="D130:D140" si="11">ABS(C130-B130)/B130</f>
         <v>0</v>
       </c>
     </row>
@@ -4669,7 +4865,7 @@
         <v>0.9466</v>
       </c>
       <c r="D143" s="4">
-        <f t="shared" ref="D143:D147" si="12">ABS(C143-B143)/B143</f>
+        <f t="shared" ref="D143" si="12">ABS(C143-B143)/B143</f>
         <v>7.0212765957447347E-3</v>
       </c>
     </row>
@@ -4716,12 +4912,12 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="16" t="s">
+      <c r="A148" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B148" s="16"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
     </row>
     <row r="149" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
@@ -4763,7 +4959,7 @@
         <v>182000</v>
       </c>
       <c r="D151" s="4">
-        <f t="shared" ref="D151:D167" si="13">ABS(C151-B151)/B151</f>
+        <f t="shared" ref="D151:D161" si="13">ABS(C151-B151)/B151</f>
         <v>5.5248618784530384E-3</v>
       </c>
     </row>
@@ -4946,7 +5142,7 @@
         <v>0.98929999999999996</v>
       </c>
       <c r="D164" s="4">
-        <f t="shared" ref="D164:D168" si="14">ABS(C164-B164)/B164</f>
+        <f t="shared" ref="D164" si="14">ABS(C164-B164)/B164</f>
         <v>5.2446808510638314E-2</v>
       </c>
     </row>
@@ -4993,12 +5189,12 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="16" t="s">
+      <c r="A169" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B169" s="16"/>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="17"/>
     </row>
     <row r="170" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
@@ -5040,7 +5236,7 @@
         <v>177000</v>
       </c>
       <c r="D172" s="4">
-        <f t="shared" ref="D172:D188" si="15">ABS(C172-B172)/B172</f>
+        <f t="shared" ref="D172:D182" si="15">ABS(C172-B172)/B172</f>
         <v>2.2099447513812154E-2</v>
       </c>
     </row>
@@ -5223,7 +5419,7 @@
         <v>0.80740000000000001</v>
       </c>
       <c r="D185" s="4">
-        <f t="shared" ref="D185:D189" si="16">ABS(C185-B185)/B185</f>
+        <f t="shared" ref="D185" si="16">ABS(C185-B185)/B185</f>
         <v>0.14106382978723397</v>
       </c>
     </row>
@@ -5270,12 +5466,12 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="16" t="s">
+      <c r="A190" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B190" s="16"/>
-      <c r="C190" s="16"/>
-      <c r="D190" s="16"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="17"/>
+      <c r="D190" s="17"/>
     </row>
     <row r="191" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -5317,7 +5513,7 @@
         <v>182000</v>
       </c>
       <c r="D193" s="4">
-        <f t="shared" ref="D193:D209" si="17">ABS(C193-B193)/B193</f>
+        <f t="shared" ref="D193:D203" si="17">ABS(C193-B193)/B193</f>
         <v>5.5248618784530384E-3</v>
       </c>
     </row>
@@ -5500,7 +5696,7 @@
         <v>0.91679999999999995</v>
       </c>
       <c r="D206" s="4">
-        <f t="shared" ref="D206:D210" si="18">ABS(C206-B206)/B206</f>
+        <f t="shared" ref="D206" si="18">ABS(C206-B206)/B206</f>
         <v>2.4680851063829785E-2</v>
       </c>
     </row>
@@ -5547,12 +5743,12 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="16" t="s">
+      <c r="A211" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B211" s="16"/>
-      <c r="C211" s="16"/>
-      <c r="D211" s="16"/>
+      <c r="B211" s="17"/>
+      <c r="C211" s="17"/>
+      <c r="D211" s="17"/>
     </row>
     <row r="212" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -5594,7 +5790,7 @@
         <v>182000</v>
       </c>
       <c r="D214" s="4">
-        <f t="shared" ref="D214:D230" si="19">ABS(C214-B214)/B214</f>
+        <f t="shared" ref="D214:D224" si="19">ABS(C214-B214)/B214</f>
         <v>5.5248618784530384E-3</v>
       </c>
     </row>
@@ -5777,7 +5973,7 @@
         <v>0.9355</v>
       </c>
       <c r="D227" s="4">
-        <f t="shared" ref="D227:D231" si="20">ABS(C227-B227)/B227</f>
+        <f t="shared" ref="D227" si="20">ABS(C227-B227)/B227</f>
         <v>4.7872340425531368E-3</v>
       </c>
     </row>
@@ -5824,12 +6020,12 @@
       </c>
     </row>
     <row r="232" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="16" t="s">
+      <c r="A232" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B232" s="16"/>
-      <c r="C232" s="16"/>
-      <c r="D232" s="16"/>
+      <c r="B232" s="17"/>
+      <c r="C232" s="17"/>
+      <c r="D232" s="17"/>
     </row>
     <row r="233" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
@@ -5867,7 +6063,7 @@
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="4">
-        <f t="shared" ref="D235:D251" si="21">ABS(C235-B235)/B235</f>
+        <f t="shared" ref="D235:D245" si="21">ABS(C235-B235)/B235</f>
         <v>1</v>
       </c>
     </row>
@@ -6018,7 +6214,7 @@
         <v>0.94</v>
       </c>
       <c r="D248" s="4">
-        <f t="shared" ref="D248:D252" si="22">ABS(C248-B248)/B248</f>
+        <f t="shared" ref="D248" si="22">ABS(C248-B248)/B248</f>
         <v>1</v>
       </c>
     </row>
@@ -6063,6 +6259,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A85:D85"/>
     <mergeCell ref="A211:D211"/>
     <mergeCell ref="A232:D232"/>
     <mergeCell ref="A106:D106"/>
@@ -6070,11 +6271,6 @@
     <mergeCell ref="A148:D148"/>
     <mergeCell ref="A169:D169"/>
     <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A85:D85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6083,30 +6279,7267 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>802000000000</v>
+      </c>
+      <c r="D3" s="4">
+        <f>ABS(C3-B3)/B3</f>
+        <v>0.65726495726495726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>69300000000000</v>
+      </c>
+      <c r="D4" s="4">
+        <f>ABS(C4-B4)/B4</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C5">
+        <v>1236.68</v>
+      </c>
+      <c r="D5" s="4">
+        <f>ABS(C5-B5)/B5</f>
+        <v>0.14507407407407413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1041</v>
+      </c>
+      <c r="C6">
+        <v>695.9</v>
+      </c>
+      <c r="D6" s="4">
+        <f>ABS(C6-B6)/B6</f>
+        <v>0.3315081652257445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C7">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <f>ABS(C7-B7)/B7</f>
+        <v>0.61504424778761058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C8">
+        <v>6.4906487703679697E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <f>ABS(C8-B8)/B8</f>
+        <v>0.74939580037189313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>174000</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:D22" si="0">ABS(C9-B9)/B9</f>
+        <v>3.8674033149171269E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>663000</v>
+      </c>
+      <c r="D10" s="4">
+        <f>ABS(C10-B10)/B10</f>
+        <v>2.4352331606217619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C11">
+        <v>105464</v>
+      </c>
+      <c r="D11" s="4">
+        <f>ABS(C11-B11)/B11</f>
+        <v>5.4640000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C12">
+        <v>357553</v>
+      </c>
+      <c r="D12" s="4">
+        <f>ABS(C12-B12)/B12</f>
+        <v>0.78776500000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C13">
+        <v>20368</v>
+      </c>
+      <c r="D13" s="4">
+        <f>ABS(C13-B13)/B13</f>
+        <v>1.0367999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14">
+        <v>0.75</v>
+      </c>
+      <c r="C14">
+        <v>0.57840000000000003</v>
+      </c>
+      <c r="D14" s="4">
+        <f>ABS(C14-B14)/B14</f>
+        <v>0.22879999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>0.99367000000000005</v>
+      </c>
+      <c r="D15" s="4">
+        <f>ABS(C15-B15)/B15</f>
+        <v>0.98734000000000011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.94</v>
+      </c>
+      <c r="C16">
+        <v>0.96862000000000004</v>
+      </c>
+      <c r="D16" s="4">
+        <f>ABS(C16-B16)/B16</f>
+        <v>3.0446808510638395E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.94</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C18">
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <f>ABS(C18-B18)/B18</f>
+        <v>4.7115384615384587E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D19" s="4">
+        <f>ABS(C19-B19)/B19</f>
+        <v>1.7081138040042152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.8264999999999999E-5</v>
+      </c>
+      <c r="D20" s="4">
+        <f>ABS(C20-B20)/B20</f>
+        <v>0.58535754824063568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2.6420000000000003E-4</v>
+      </c>
+      <c r="D21" s="4">
+        <f>ABS(C21-B21)/B21</f>
+        <v>6.6431095406360316E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>3.4722</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23">
+        <v>1.5</v>
+      </c>
+      <c r="C23">
+        <v>5.96</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ref="D23" si="1">ABS(C23-B23)/B23</f>
+        <v>2.9733333333333332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>1683</v>
+      </c>
+      <c r="C24">
+        <v>1683</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>1235</v>
+      </c>
+      <c r="C25">
+        <v>1235</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20">
+        <f>AVERAGE(D3:D25)</f>
+        <v>0.80132687063028885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2410000000000</v>
+      </c>
+      <c r="D29" s="4">
+        <f>ABS(C29-B29)/B29</f>
+        <v>2.9914529914529916E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C30" s="3">
+        <v>80000000000000</v>
+      </c>
+      <c r="D30" s="4">
+        <f>ABS(C30-B30)/B30</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C31">
+        <v>1156.6099999999999</v>
+      </c>
+      <c r="D31" s="4">
+        <f>ABS(C31-B31)/B31</f>
+        <v>7.0935185185185087E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>1041</v>
+      </c>
+      <c r="C32">
+        <v>1444.57</v>
+      </c>
+      <c r="D32" s="4">
+        <f>ABS(C32-B32)/B32</f>
+        <v>0.38767531219980783</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C33">
+        <v>4.0689999999999997E-2</v>
+      </c>
+      <c r="D33" s="4">
+        <f>ABS(C33-B33)/B33</f>
+        <v>9.9778761061946913E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C34">
+        <v>7.1069999999999994E-2</v>
+      </c>
+      <c r="D34" s="4">
+        <f>ABS(C34-B34)/B34</f>
+        <v>0.72559845559845559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C35" s="3">
+        <v>178000</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" ref="D35:D48" si="2">ABS(C35-B35)/B35</f>
+        <v>1.6574585635359115E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C36" s="3">
+        <v>188000</v>
+      </c>
+      <c r="D36" s="4">
+        <f>ABS(C36-B36)/B36</f>
+        <v>2.5906735751295335E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C37">
+        <v>134561.60000000001</v>
+      </c>
+      <c r="D37" s="4">
+        <f>ABS(C37-B37)/B37</f>
+        <v>0.34561600000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C38">
+        <v>203992.1</v>
+      </c>
+      <c r="D38" s="4">
+        <f>ABS(C38-B38)/B38</f>
+        <v>1.996050000000003E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C39">
+        <v>8004.33</v>
+      </c>
+      <c r="D39" s="4">
+        <f>ABS(C39-B39)/B39</f>
+        <v>0.19956699999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40">
+        <v>0.75</v>
+      </c>
+      <c r="C40">
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="D40" s="4">
+        <f>ABS(C40-B40)/B40</f>
+        <v>1.8933333333333319E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41">
+        <v>0.5</v>
+      </c>
+      <c r="C41">
+        <v>0.51659999999999995</v>
+      </c>
+      <c r="D41" s="4">
+        <f>ABS(C41-B41)/B41</f>
+        <v>3.3199999999999896E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>0.94</v>
+      </c>
+      <c r="C42">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="D42" s="4">
+        <f>ABS(C42-B42)/B42</f>
+        <v>2.1702127659574442E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>0.94</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C44">
+        <v>0.25979999999999998</v>
+      </c>
+      <c r="D44" s="4">
+        <f>ABS(C44-B44)/B44</f>
+        <v>0.16730769230769238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C45">
+        <v>7.4069999999999997E-2</v>
+      </c>
+      <c r="D45" s="4">
+        <f>ABS(C45-B45)/B45</f>
+        <v>0.2194942044257113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1.75E-4</v>
+      </c>
+      <c r="D46" s="4">
+        <f>ABS(C46-B46)/B46</f>
+        <v>2.9727582292849037</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3.5070000000000001E-4</v>
+      </c>
+      <c r="D47" s="4">
+        <f>ABS(C47-B47)/B47</f>
+        <v>0.23922261484098947</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0.96</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" ref="D48:D52" si="3">ABS(C48-B48)/B48</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49">
+        <v>1.5</v>
+      </c>
+      <c r="C49">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="3"/>
+        <v>3.3333333333332624E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>1683</v>
+      </c>
+      <c r="C50">
+        <v>1683</v>
+      </c>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>1235</v>
+      </c>
+      <c r="C51">
+        <v>1235</v>
+      </c>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20">
+        <f>AVERAGE(D29:D51)</f>
+        <v>0.28520726335993923</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="54" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4">
+        <f>ABS(C55-B55)/B55</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4">
+        <f>ABS(C56-B56)/B56</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1080</v>
+      </c>
+      <c r="D57" s="4">
+        <f>ABS(C57-B57)/B57</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>1041</v>
+      </c>
+      <c r="D58" s="4">
+        <f>ABS(C58-B58)/B58</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="D59" s="4">
+        <f>ABS(C59-B59)/B59</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="D60" s="4">
+        <f>ABS(C60-B60)/B60</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4">
+        <f t="shared" ref="D61:D74" si="4">ABS(C61-B61)/B61</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4">
+        <f>ABS(C62-B62)/B62</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D63" s="4">
+        <f>ABS(C63-B63)/B63</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="3">
+        <v>200000</v>
+      </c>
+      <c r="D64" s="4">
+        <f>ABS(C64-B64)/B64</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D65" s="4">
+        <f>ABS(C65-B65)/B65</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66">
+        <v>0.75</v>
+      </c>
+      <c r="D66" s="4">
+        <f>ABS(C66-B66)/B66</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67">
+        <v>0.5</v>
+      </c>
+      <c r="D67" s="4">
+        <f>ABS(C67-B67)/B67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>0.94</v>
+      </c>
+      <c r="D68" s="4">
+        <f>ABS(C68-B68)/B68</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69">
+        <v>0.94</v>
+      </c>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="D70" s="4">
+        <f>ABS(C70-B70)/B70</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="D71" s="4">
+        <f>ABS(C71-B71)/B71</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="4">
+        <f>ABS(C72-B72)/B72</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4">
+        <f>ABS(C73-B73)/B73</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4">
+        <f t="shared" ref="D74:D78" si="5">ABS(C74-B74)/B74</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75">
+        <v>1.5</v>
+      </c>
+      <c r="D75" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>1683</v>
+      </c>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77">
+        <v>1235</v>
+      </c>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="20">
+        <f>AVERAGE(D55:D77)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+    </row>
+    <row r="80" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C81" s="3">
+        <v>2410000000000</v>
+      </c>
+      <c r="D81" s="4">
+        <f>ABS(C81-B81)/B81</f>
+        <v>2.9914529914529916E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C82" s="3">
+        <v>173000000000000</v>
+      </c>
+      <c r="D82" s="4">
+        <f>ABS(C82-B82)/B82</f>
+        <v>1.3066666666666666</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C83">
+        <v>1120.6300000000001</v>
+      </c>
+      <c r="D83" s="4">
+        <f>ABS(C83-B83)/B83</f>
+        <v>3.7620370370370471E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84">
+        <v>1041</v>
+      </c>
+      <c r="C84">
+        <v>260.2878</v>
+      </c>
+      <c r="D84" s="4">
+        <f>ABS(C84-B84)/B84</f>
+        <v>0.74996368876080688</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C85">
+        <v>1.315E-2</v>
+      </c>
+      <c r="D85" s="4">
+        <f>ABS(C85-B85)/B85</f>
+        <v>0.7090707964601769</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C86">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D86" s="4">
+        <f>ABS(C86-B86)/B86</f>
+        <v>6.1776061776061826E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C87" s="3">
+        <v>174000</v>
+      </c>
+      <c r="D87" s="4">
+        <f t="shared" ref="D87:D100" si="6">ABS(C87-B87)/B87</f>
+        <v>3.8674033149171269E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C88" s="3">
+        <v>415000</v>
+      </c>
+      <c r="D88" s="4">
+        <f>ABS(C88-B88)/B88</f>
+        <v>1.150259067357513</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C89">
+        <v>174888.24</v>
+      </c>
+      <c r="D89" s="4">
+        <f>ABS(C89-B89)/B89</f>
+        <v>0.74888239999999995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C90">
+        <v>763732.7</v>
+      </c>
+      <c r="D90" s="4">
+        <f>ABS(C90-B90)/B90</f>
+        <v>2.8186635</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C91">
+        <v>20311.75</v>
+      </c>
+      <c r="D91" s="4">
+        <f>ABS(C91-B91)/B91</f>
+        <v>1.031175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B92">
+        <v>0.75</v>
+      </c>
+      <c r="C92">
+        <v>0.5786</v>
+      </c>
+      <c r="D92" s="4">
+        <f>ABS(C92-B92)/B92</f>
+        <v>0.22853333333333334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93">
+        <v>0.5</v>
+      </c>
+      <c r="C93">
+        <v>0.64659999999999995</v>
+      </c>
+      <c r="D93" s="4">
+        <f>ABS(C93-B93)/B93</f>
+        <v>0.29319999999999991</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94">
+        <v>0.94</v>
+      </c>
+      <c r="C94">
+        <v>0.89851440000000005</v>
+      </c>
+      <c r="D94" s="4">
+        <f>ABS(C94-B94)/B94</f>
+        <v>4.4133617021276494E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95">
+        <v>0.94</v>
+      </c>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C96">
+        <v>0.26488</v>
+      </c>
+      <c r="D96" s="4">
+        <f>ABS(C96-B96)/B96</f>
+        <v>0.15102564102564101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C97">
+        <v>0.181786</v>
+      </c>
+      <c r="D97" s="4">
+        <f>ABS(C97-B97)/B97</f>
+        <v>0.91555321390937838</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1.1844E-4</v>
+      </c>
+      <c r="D98" s="4">
+        <f>ABS(C98-B98)/B98</f>
+        <v>1.6887627695800227</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1.1896999999999999E-4</v>
+      </c>
+      <c r="D99" s="4">
+        <f>ABS(C99-B99)/B99</f>
+        <v>0.57961130742049471</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1.964</v>
+      </c>
+      <c r="D100" s="4">
+        <f t="shared" ref="D100:D104" si="7">ABS(C100-B100)/B100</f>
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101">
+        <v>1.5</v>
+      </c>
+      <c r="C101">
+        <v>3.8698600000000001</v>
+      </c>
+      <c r="D101" s="4">
+        <f t="shared" si="7"/>
+        <v>1.5799066666666668</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102">
+        <v>1683</v>
+      </c>
+      <c r="C102">
+        <v>1683</v>
+      </c>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103">
+        <v>1235</v>
+      </c>
+      <c r="C103">
+        <v>1235</v>
+      </c>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="20">
+        <f>AVERAGE(D81:D103)</f>
+        <v>0.75636963317060546</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+    </row>
+    <row r="106" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B107" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C107" s="3">
+        <v>3970000000000</v>
+      </c>
+      <c r="D107" s="4">
+        <f>ABS(C107-B107)/B107</f>
+        <v>0.69658119658119655</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C108" s="3">
+        <v>33200000000000</v>
+      </c>
+      <c r="D108" s="4">
+        <f>ABS(C108-B108)/B108</f>
+        <v>0.55733333333333335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C109">
+        <v>1091.789</v>
+      </c>
+      <c r="D109" s="4">
+        <f>ABS(C109-B109)/B109</f>
+        <v>1.0915740740740729E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110">
+        <v>1041</v>
+      </c>
+      <c r="C110">
+        <v>1083.4749999999999</v>
+      </c>
+      <c r="D110" s="4">
+        <f>ABS(C110-B110)/B110</f>
+        <v>4.0802113352545542E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C111">
+        <v>5.9659999999999998E-2</v>
+      </c>
+      <c r="D111" s="4">
+        <f>ABS(C111-B111)/B111</f>
+        <v>0.31991150442477878</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C112">
+        <v>0.192</v>
+      </c>
+      <c r="D112" s="4">
+        <f>ABS(C112-B112)/B112</f>
+        <v>0.25868725868725867</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C113" s="3">
+        <v>450000</v>
+      </c>
+      <c r="D113" s="4">
+        <f t="shared" ref="D113:D126" si="8">ABS(C113-B113)/B113</f>
+        <v>1.4861878453038675</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B114" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C114" s="3">
+        <v>187000</v>
+      </c>
+      <c r="D114" s="4">
+        <f>ABS(C114-B114)/B114</f>
+        <v>3.1088082901554404E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B115" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C115">
+        <v>356367</v>
+      </c>
+      <c r="D115" s="4">
+        <f>ABS(C115-B115)/B115</f>
+        <v>2.5636700000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B116" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C116">
+        <v>166498</v>
+      </c>
+      <c r="D116" s="4">
+        <f>ABS(C116-B116)/B116</f>
+        <v>0.16750999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C117">
+        <v>10656</v>
+      </c>
+      <c r="D117" s="4">
+        <f>ABS(C117-B117)/B117</f>
+        <v>6.5600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B118">
+        <v>0.75</v>
+      </c>
+      <c r="C118">
+        <v>0.999</v>
+      </c>
+      <c r="D118" s="4">
+        <f>ABS(C118-B118)/B118</f>
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B119">
+        <v>0.5</v>
+      </c>
+      <c r="C119">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D119" s="4">
+        <f>ABS(C119-B119)/B119</f>
+        <v>0.16399999999999992</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120">
+        <v>0.94</v>
+      </c>
+      <c r="C120">
+        <v>0.9526</v>
+      </c>
+      <c r="D120" s="4">
+        <f>ABS(C120-B120)/B120</f>
+        <v>1.3404255319148996E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121">
+        <v>0.94</v>
+      </c>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C122">
+        <v>0.31440000000000001</v>
+      </c>
+      <c r="D122" s="4">
+        <f>ABS(C122-B122)/B122</f>
+        <v>7.6923076923077344E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C123">
+        <v>0.1246</v>
+      </c>
+      <c r="D123" s="4">
+        <f>ABS(C123-B123)/B123</f>
+        <v>0.31296101159114864</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C124" s="3">
+        <v>5.1770000000000001E-5</v>
+      </c>
+      <c r="D124" s="4">
+        <f>ABS(C124-B124)/B124</f>
+        <v>0.17525539160045403</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C125" s="3">
+        <v>2.3939999999999999E-4</v>
+      </c>
+      <c r="D125" s="4">
+        <f>ABS(C125-B125)/B125</f>
+        <v>0.1540636042402827</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1.4097999999999999</v>
+      </c>
+      <c r="D126" s="4">
+        <f t="shared" ref="D126:D130" si="9">ABS(C126-B126)/B126</f>
+        <v>0.40979999999999994</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B127">
+        <v>1.5</v>
+      </c>
+      <c r="C127">
+        <v>1.2955000000000001</v>
+      </c>
+      <c r="D127" s="4">
+        <f t="shared" si="9"/>
+        <v>0.13633333333333328</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128">
+        <v>1683</v>
+      </c>
+      <c r="C128">
+        <v>1683</v>
+      </c>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129">
+        <v>1235</v>
+      </c>
+      <c r="C129">
+        <v>1235</v>
+      </c>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="20">
+        <f>AVERAGE(D107:D129)</f>
+        <v>0.39518984895509751</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+    </row>
+    <row r="132" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B133" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C133" s="3">
+        <v>2370000000000</v>
+      </c>
+      <c r="D133" s="4">
+        <f>ABS(C133-B133)/B133</f>
+        <v>1.282051282051282E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B134" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C134" s="3">
+        <v>74800000000000</v>
+      </c>
+      <c r="D134" s="4">
+        <f>ABS(C134-B134)/B134</f>
+        <v>2.6666666666666666E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C135">
+        <v>1270.3800000000001</v>
+      </c>
+      <c r="D135" s="4">
+        <f>ABS(C135-B135)/B135</f>
+        <v>0.17627777777777787</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136">
+        <v>1041</v>
+      </c>
+      <c r="C136">
+        <v>2692.7</v>
+      </c>
+      <c r="D136" s="4">
+        <f>ABS(C136-B136)/B136</f>
+        <v>1.5866474543707971</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C137">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="D137" s="4">
+        <f>ABS(C137-B137)/B137</f>
+        <v>0.9159292035398231</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C138">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="D138" s="4">
+        <f>ABS(C138-B138)/B138</f>
+        <v>1.7528957528957527</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B139" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C139" s="3">
+        <v>174000</v>
+      </c>
+      <c r="D139" s="4">
+        <f t="shared" ref="D139:D152" si="10">ABS(C139-B139)/B139</f>
+        <v>3.8674033149171269E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B140" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C140" s="3">
+        <v>183000</v>
+      </c>
+      <c r="D140" s="4">
+        <f>ABS(C140-B140)/B140</f>
+        <v>5.181347150259067E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B141" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C141">
+        <v>140255</v>
+      </c>
+      <c r="D141" s="4">
+        <f>ABS(C141-B141)/B141</f>
+        <v>0.40255000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B142" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C142">
+        <v>249845.7</v>
+      </c>
+      <c r="D142" s="4">
+        <f>ABS(C142-B142)/B142</f>
+        <v>0.24922850000000005</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C143">
+        <v>19186.86</v>
+      </c>
+      <c r="D143" s="4">
+        <f>ABS(C143-B143)/B143</f>
+        <v>0.91868600000000011</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B144">
+        <v>0.75</v>
+      </c>
+      <c r="C144">
+        <v>0.72230000000000005</v>
+      </c>
+      <c r="D144" s="4">
+        <f>ABS(C144-B144)/B144</f>
+        <v>3.6933333333333263E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B145">
+        <v>0.5</v>
+      </c>
+      <c r="C145">
+        <v>0.5302</v>
+      </c>
+      <c r="D145" s="4">
+        <f>ABS(C145-B145)/B145</f>
+        <v>6.0400000000000009E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146">
+        <v>0.94</v>
+      </c>
+      <c r="C146">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="D146" s="4">
+        <f>ABS(C146-B146)/B146</f>
+        <v>7.6595744680850904E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147">
+        <v>0.94</v>
+      </c>
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C148">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="D148" s="4">
+        <f>ABS(C148-B148)/B148</f>
+        <v>0.17307692307692304</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C149">
+        <v>0.16750000000000001</v>
+      </c>
+      <c r="D149" s="4">
+        <f>ABS(C149-B149)/B149</f>
+        <v>0.76501580611169662</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C150" s="3">
+        <v>7.8079999999999998E-5</v>
+      </c>
+      <c r="D150" s="4">
+        <f>ABS(C150-B150)/B150</f>
+        <v>0.77253121452894435</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C151" s="3">
+        <v>5.8759999999999997E-4</v>
+      </c>
+      <c r="D151" s="4">
+        <f>ABS(C151-B151)/B151</f>
+        <v>1.0763250883392226</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D152" s="4">
+        <f t="shared" ref="D152:D156" si="11">ABS(C152-B152)/B152</f>
+        <v>2.8000000000000025E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B153">
+        <v>1.5</v>
+      </c>
+      <c r="C153">
+        <v>1.494</v>
+      </c>
+      <c r="D153" s="4">
+        <f t="shared" si="11"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154">
+        <v>1683</v>
+      </c>
+      <c r="C154">
+        <v>1683</v>
+      </c>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155">
+        <v>1235</v>
+      </c>
+      <c r="C155">
+        <v>1235</v>
+      </c>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="20">
+        <f>AVERAGE(D133:D155)</f>
+        <v>0.45160656562906476</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B157" s="17"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="17"/>
+    </row>
+    <row r="158" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B159" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C159" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="D159" s="4">
+        <f>ABS(C159-B159)/B159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B160" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C160" s="3">
+        <v>74200000000000</v>
+      </c>
+      <c r="D160" s="4">
+        <f>ABS(C160-B160)/B160</f>
+        <v>1.0666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C161">
+        <v>1125.3699999999999</v>
+      </c>
+      <c r="D161" s="4">
+        <f>ABS(C161-B161)/B161</f>
+        <v>4.2009259259259156E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162">
+        <v>1041</v>
+      </c>
+      <c r="C162">
+        <v>2041.87</v>
+      </c>
+      <c r="D162" s="4">
+        <f>ABS(C162-B162)/B162</f>
+        <v>0.96145052833813627</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C163">
+        <v>0.11138000000000001</v>
+      </c>
+      <c r="D163" s="4">
+        <f>ABS(C163-B163)/B163</f>
+        <v>1.4641592920353987</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C164">
+        <v>0.58660000000000001</v>
+      </c>
+      <c r="D164" s="4">
+        <f>ABS(C164-B164)/B164</f>
+        <v>1.2648648648648648</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B165" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C165" s="3">
+        <v>178000</v>
+      </c>
+      <c r="D165" s="4">
+        <f t="shared" ref="D165:D178" si="12">ABS(C165-B165)/B165</f>
+        <v>1.6574585635359115E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B166" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C166" s="3">
+        <v>189000</v>
+      </c>
+      <c r="D166" s="4">
+        <f>ABS(C166-B166)/B166</f>
+        <v>2.072538860103627E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B167" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C167">
+        <v>237945.86</v>
+      </c>
+      <c r="D167" s="4">
+        <f>ABS(C167-B167)/B167</f>
+        <v>1.3794585999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B168" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C168">
+        <v>178233</v>
+      </c>
+      <c r="D168" s="4">
+        <f>ABS(C168-B168)/B168</f>
+        <v>0.108835</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C169">
+        <v>23391</v>
+      </c>
+      <c r="D169" s="4">
+        <f>ABS(C169-B169)/B169</f>
+        <v>1.3391</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B170">
+        <v>0.75</v>
+      </c>
+      <c r="C170">
+        <v>0.747</v>
+      </c>
+      <c r="D170" s="4">
+        <f>ABS(C170-B170)/B170</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B171">
+        <v>0.5</v>
+      </c>
+      <c r="C171">
+        <v>0.51349999999999996</v>
+      </c>
+      <c r="D171" s="4">
+        <f>ABS(C171-B171)/B171</f>
+        <v>2.6999999999999913E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172">
+        <v>0.94</v>
+      </c>
+      <c r="C172">
+        <v>0.93740000000000001</v>
+      </c>
+      <c r="D172" s="4">
+        <f>ABS(C172-B172)/B172</f>
+        <v>2.7659574468084426E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173">
+        <v>0.94</v>
+      </c>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C174">
+        <v>0.30786999999999998</v>
+      </c>
+      <c r="D174" s="4">
+        <f>ABS(C174-B174)/B174</f>
+        <v>1.3237179487179559E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C175">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="D175" s="4">
+        <f>ABS(C175-B175)/B175</f>
+        <v>0.44889357218124354</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C176" s="3">
+        <v>7.3709999999999997E-5</v>
+      </c>
+      <c r="D176" s="4">
+        <f>ABS(C176-B176)/B176</f>
+        <v>0.67332576617480133</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C177" s="3">
+        <v>4.9069999999999995E-4</v>
+      </c>
+      <c r="D177" s="4">
+        <f>ABS(C177-B177)/B177</f>
+        <v>0.73392226148409878</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>1.0297000000000001</v>
+      </c>
+      <c r="D178" s="4">
+        <f t="shared" ref="D178:D182" si="13">ABS(C178-B178)/B178</f>
+        <v>2.970000000000006E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B179">
+        <v>1.5</v>
+      </c>
+      <c r="C179">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="D179" s="4">
+        <f t="shared" si="13"/>
+        <v>1.9999999999999276E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180">
+        <v>1683</v>
+      </c>
+      <c r="C180">
+        <v>1683</v>
+      </c>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181">
+        <v>1235</v>
+      </c>
+      <c r="C181">
+        <v>1235</v>
+      </c>
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B182" s="19"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="20">
+        <f>AVERAGE(D159:D181)</f>
+        <v>0.42713444610874268</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B183" s="17"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="17"/>
+    </row>
+    <row r="184" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B185" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C185" s="3">
+        <v>5210000000000</v>
+      </c>
+      <c r="D185" s="4">
+        <f>ABS(C185-B185)/B185</f>
+        <v>1.2264957264957266</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B186" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C186" s="3">
+        <v>18800000000000</v>
+      </c>
+      <c r="D186" s="4">
+        <f>ABS(C186-B186)/B186</f>
+        <v>0.7493333333333333</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C187">
+        <v>1081.5</v>
+      </c>
+      <c r="D187" s="4">
+        <f>ABS(C187-B187)/B187</f>
+        <v>1.3888888888888889E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188">
+        <v>1041</v>
+      </c>
+      <c r="C188">
+        <v>730.62599999999998</v>
+      </c>
+      <c r="D188" s="4">
+        <f>ABS(C188-B188)/B188</f>
+        <v>0.29814985590778098</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C189">
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="D189" s="4">
+        <f>ABS(C189-B189)/B189</f>
+        <v>1.5353982300884954</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C190">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="D190" s="4">
+        <f>ABS(C190-B190)/B190</f>
+        <v>1.5656370656370655</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B191" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C191" s="3">
+        <v>178000</v>
+      </c>
+      <c r="D191" s="4">
+        <f t="shared" ref="D191:D204" si="14">ABS(C191-B191)/B191</f>
+        <v>1.6574585635359115E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B192" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C192" s="3">
+        <v>224000</v>
+      </c>
+      <c r="D192" s="4">
+        <f>ABS(C192-B192)/B192</f>
+        <v>0.16062176165803108</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B193" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C193">
+        <v>166029.14000000001</v>
+      </c>
+      <c r="D193" s="4">
+        <f>ABS(C193-B193)/B193</f>
+        <v>0.66029140000000019</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B194" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C194">
+        <v>397450.4</v>
+      </c>
+      <c r="D194" s="4">
+        <f>ABS(C194-B194)/B194</f>
+        <v>0.98725200000000013</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B195" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C195">
+        <v>39998.86</v>
+      </c>
+      <c r="D195" s="4">
+        <f>ABS(C195-B195)/B195</f>
+        <v>2.9998860000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B196">
+        <v>0.75</v>
+      </c>
+      <c r="C196">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D196" s="4">
+        <f>ABS(C196-B196)/B196</f>
+        <v>0.22400000000000006</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B197">
+        <v>0.5</v>
+      </c>
+      <c r="C197">
+        <v>0.64090000000000003</v>
+      </c>
+      <c r="D197" s="4">
+        <f>ABS(C197-B197)/B197</f>
+        <v>0.28180000000000005</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198">
+        <v>0.94</v>
+      </c>
+      <c r="C198">
+        <v>0.96155000000000002</v>
+      </c>
+      <c r="D198" s="4">
+        <f>ABS(C198-B198)/B198</f>
+        <v>2.2925531914893691E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B199">
+        <v>0.94</v>
+      </c>
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C200">
+        <v>0.30940000000000001</v>
+      </c>
+      <c r="D200" s="4">
+        <f>ABS(C200-B200)/B200</f>
+        <v>8.3333333333333055E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C201">
+        <v>0.1399</v>
+      </c>
+      <c r="D201" s="4">
+        <f>ABS(C201-B201)/B201</f>
+        <v>0.47418335089567965</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C202" s="3">
+        <v>7.6199999999999995E-5</v>
+      </c>
+      <c r="D202" s="4">
+        <f>ABS(C202-B202)/B202</f>
+        <v>0.7298524404086264</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C203" s="3">
+        <v>2.0440000000000001E-4</v>
+      </c>
+      <c r="D203" s="4">
+        <f>ABS(C203-B203)/B203</f>
+        <v>0.27773851590106002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>1.236</v>
+      </c>
+      <c r="D204" s="4">
+        <f t="shared" ref="D204:D208" si="15">ABS(C204-B204)/B204</f>
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B205">
+        <v>1.5</v>
+      </c>
+      <c r="C205">
+        <v>2.2054</v>
+      </c>
+      <c r="D205" s="4">
+        <f t="shared" si="15"/>
+        <v>0.47026666666666667</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206">
+        <v>1683</v>
+      </c>
+      <c r="C206">
+        <v>1683</v>
+      </c>
+      <c r="D206" s="4"/>
+    </row>
+    <row r="207" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B207">
+        <v>1235</v>
+      </c>
+      <c r="C207">
+        <v>1235</v>
+      </c>
+      <c r="D207" s="4"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B208" s="19"/>
+      <c r="C208" s="19"/>
+      <c r="D208" s="20">
+        <f>AVERAGE(D185:D207)</f>
+        <v>0.64630643433824708</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B209" s="17"/>
+      <c r="C209" s="17"/>
+      <c r="D209" s="17"/>
+    </row>
+    <row r="210" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B211" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C211" s="3">
+        <v>2490000000000</v>
+      </c>
+      <c r="D211" s="4">
+        <f>ABS(C211-B211)/B211</f>
+        <v>6.4102564102564097E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B212" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C212" s="3">
+        <v>69600000000000</v>
+      </c>
+      <c r="D212" s="4">
+        <f>ABS(C212-B212)/B212</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C213">
+        <v>1097.8499999999999</v>
+      </c>
+      <c r="D213" s="4">
+        <f>ABS(C213-B213)/B213</f>
+        <v>1.6527777777777693E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B214">
+        <v>1041</v>
+      </c>
+      <c r="C214">
+        <v>615.32000000000005</v>
+      </c>
+      <c r="D214" s="4">
+        <f>ABS(C214-B214)/B214</f>
+        <v>0.4089145052833813</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C215">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="D215" s="4">
+        <f>ABS(C215-B215)/B215</f>
+        <v>0.19469026548672558</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C216">
+        <v>0.84116000000000002</v>
+      </c>
+      <c r="D216" s="4">
+        <f>ABS(C216-B216)/B216</f>
+        <v>2.2477220077220075</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B217" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C217" s="3">
+        <v>180000</v>
+      </c>
+      <c r="D217" s="4">
+        <f t="shared" ref="D217:D230" si="16">ABS(C217-B217)/B217</f>
+        <v>5.5248618784530384E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B218" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C218" s="3">
+        <v>193000</v>
+      </c>
+      <c r="D218" s="4">
+        <f>ABS(C218-B218)/B218</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B219" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C219">
+        <v>146090.4</v>
+      </c>
+      <c r="D219" s="4">
+        <f>ABS(C219-B219)/B219</f>
+        <v>0.46090399999999992</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B220" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C220">
+        <v>183230.8</v>
+      </c>
+      <c r="D220" s="4">
+        <f>ABS(C220-B220)/B220</f>
+        <v>8.3846000000000059E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B221" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C221">
+        <v>9769.35</v>
+      </c>
+      <c r="D221" s="4">
+        <f>ABS(C221-B221)/B221</f>
+        <v>2.3064999999999964E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B222">
+        <v>0.75</v>
+      </c>
+      <c r="C222">
+        <v>0.68</v>
+      </c>
+      <c r="D222" s="4">
+        <f>ABS(C222-B222)/B222</f>
+        <v>9.3333333333333268E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B223">
+        <v>0.5</v>
+      </c>
+      <c r="C223">
+        <v>0.51770000000000005</v>
+      </c>
+      <c r="D223" s="4">
+        <f>ABS(C223-B223)/B223</f>
+        <v>3.5400000000000098E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224">
+        <v>0.94</v>
+      </c>
+      <c r="C224">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="D224" s="4">
+        <f>ABS(C224-B224)/B224</f>
+        <v>9.2553191489362138E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B225">
+        <v>0.94</v>
+      </c>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C226">
+        <v>0.31690000000000002</v>
+      </c>
+      <c r="D226" s="4">
+        <f>ABS(C226-B226)/B226</f>
+        <v>1.5705128205128253E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C227">
+        <v>0.13239999999999999</v>
+      </c>
+      <c r="D227" s="4">
+        <f>ABS(C227-B227)/B227</f>
+        <v>0.39515279241306628</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C228" s="3">
+        <v>4.4299999999999999E-5</v>
+      </c>
+      <c r="D228" s="4">
+        <f>ABS(C228-B228)/B228</f>
+        <v>5.6753688989784178E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C229" s="3">
+        <v>2.2699999999999999E-4</v>
+      </c>
+      <c r="D229" s="4">
+        <f>ABS(C229-B229)/B229</f>
+        <v>0.19787985865724383</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D230" s="4">
+        <f t="shared" ref="D230:D234" si="17">ABS(C230-B230)/B230</f>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B231">
+        <v>1.5</v>
+      </c>
+      <c r="C231">
+        <v>1.4639</v>
+      </c>
+      <c r="D231" s="4">
+        <f t="shared" si="17"/>
+        <v>2.4066666666666681E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B232">
+        <v>1683</v>
+      </c>
+      <c r="C232">
+        <v>1683</v>
+      </c>
+      <c r="D232" s="4"/>
+    </row>
+    <row r="233" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B233">
+        <v>1235</v>
+      </c>
+      <c r="C233">
+        <v>1235</v>
+      </c>
+      <c r="D233" s="4"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B234" s="19"/>
+      <c r="C234" s="19"/>
+      <c r="D234" s="20">
+        <f>AVERAGE(D211:D233)</f>
+        <v>0.22268827247871306</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A131:D131"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="1">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2290000000000</v>
+      </c>
+      <c r="D3" s="4">
+        <f>ABS(C3-B3)/B3</f>
+        <v>2.1367521367521368E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>81500000000000</v>
+      </c>
+      <c r="D4" s="4">
+        <f>ABS(C4-B4)/B4</f>
+        <v>8.666666666666667E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9200000000000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8630000000000</v>
+      </c>
+      <c r="D5" s="4">
+        <f>ABS(C5-B5)/B5</f>
+        <v>6.1956521739130438E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C6">
+        <v>1058.77</v>
+      </c>
+      <c r="D6" s="4">
+        <f>ABS(C6-B6)/B6</f>
+        <v>1.9657407407407426E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1041</v>
+      </c>
+      <c r="C7">
+        <v>1183.73</v>
+      </c>
+      <c r="D7" s="4">
+        <f>ABS(C7-B7)/B7</f>
+        <v>0.13710854947166187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C8">
+        <v>4.8079999999999998E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <f>ABS(C8-B8)/B8</f>
+        <v>6.3716814159292048E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="D9" s="4">
+        <f>ABS(C9-B9)/B9</f>
+        <v>1.5903474903474906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>179000</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10:D27" si="0">ABS(C10-B10)/B10</f>
+        <v>1.1049723756906077E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>188000</v>
+      </c>
+      <c r="D11" s="4">
+        <f>ABS(C11-B11)/B11</f>
+        <v>2.5906735751295335E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="3">
+        <v>175000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>172000</v>
+      </c>
+      <c r="D12" s="4">
+        <f>ABS(C12-B12)/B12</f>
+        <v>1.7142857142857144E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C13">
+        <v>130108.95</v>
+      </c>
+      <c r="D13" s="4">
+        <f>ABS(C13-B13)/B13</f>
+        <v>0.30108949999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C14">
+        <v>237446.9</v>
+      </c>
+      <c r="D14" s="4">
+        <f>ABS(C14-B14)/B14</f>
+        <v>0.18723449999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="3">
+        <v>400000</v>
+      </c>
+      <c r="C15">
+        <v>424893.9</v>
+      </c>
+      <c r="D15" s="4">
+        <f>ABS(C15-B15)/B15</f>
+        <v>6.2234750000000061E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C16">
+        <v>27208</v>
+      </c>
+      <c r="D16" s="4">
+        <f>ABS(C16-B16)/B16</f>
+        <v>1.7208000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17">
+        <v>0.75</v>
+      </c>
+      <c r="C17">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D17" s="4">
+        <f>ABS(C17-B17)/B17</f>
+        <v>2.2666666666666686E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18">
+        <v>0.49869999999999998</v>
+      </c>
+      <c r="D18" s="4">
+        <f>ABS(C18-B18)/B18</f>
+        <v>2.6000000000000467E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19">
+        <v>0.3</v>
+      </c>
+      <c r="C19">
+        <v>0.28289999999999998</v>
+      </c>
+      <c r="D19" s="4">
+        <f>ABS(C19-B19)/B19</f>
+        <v>5.7000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0.94</v>
+      </c>
+      <c r="C20">
+        <v>0.88060000000000005</v>
+      </c>
+      <c r="D20" s="4">
+        <f>ABS(C20-B20)/B20</f>
+        <v>6.3191489361702019E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>0.94</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C22">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D22" s="4">
+        <f>ABS(C22-B22)/B22</f>
+        <v>2.8846153846153872E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C23">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="D23" s="4">
+        <f>ABS(C23-B23)/B23</f>
+        <v>0.22760800842992618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4.4996000000000001E-5</v>
+      </c>
+      <c r="D24" s="4">
+        <f>ABS(C24-B24)/B24</f>
+        <v>2.1475595913734411E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3.3599999999999998E-4</v>
+      </c>
+      <c r="D25" s="4">
+        <f>ABS(C25-B25)/B25</f>
+        <v>0.18727915194346287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3399999999999976E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27">
+        <v>1.5</v>
+      </c>
+      <c r="C27">
+        <v>1.3906000000000001</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>7.2933333333333294E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" ref="D28" si="1">ABS(C28-B28)/B28</f>
+        <v>3.9666666666666739E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>1683</v>
+      </c>
+      <c r="C29">
+        <v>1683</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>1235</v>
+      </c>
+      <c r="C30">
+        <v>1235</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20">
+        <f>AVERAGE(D3:D30)</f>
+        <v>0.20211784415887502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3880000000000</v>
+      </c>
+      <c r="D34" s="4">
+        <f>ABS(C34-B34)/B34</f>
+        <v>0.65811965811965811</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C35" s="3">
+        <v>99500000000000</v>
+      </c>
+      <c r="D35" s="4">
+        <f>ABS(C35-B35)/B35</f>
+        <v>0.32666666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="3">
+        <v>9200000000000</v>
+      </c>
+      <c r="C36" s="3">
+        <v>13200000000000</v>
+      </c>
+      <c r="D36" s="4">
+        <f>ABS(C36-B36)/B36</f>
+        <v>0.43478260869565216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C37">
+        <v>1506.78</v>
+      </c>
+      <c r="D37" s="4">
+        <f>ABS(C37-B37)/B37</f>
+        <v>0.39516666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>1041</v>
+      </c>
+      <c r="C38">
+        <v>2638.3</v>
+      </c>
+      <c r="D38" s="4">
+        <f>ABS(C38-B38)/B38</f>
+        <v>1.534390009606148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C39">
+        <v>9.2939999999999995E-2</v>
+      </c>
+      <c r="D39" s="4">
+        <f>ABS(C39-B39)/B39</f>
+        <v>1.0561946902654868</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.54369999999999996</v>
+      </c>
+      <c r="D40" s="4">
+        <f>ABS(C40-B40)/B40</f>
+        <v>1.099227799227799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C41" s="3">
+        <v>156000</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" ref="D41:D58" si="2">ABS(C41-B41)/B41</f>
+        <v>0.13812154696132597</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C42" s="3">
+        <v>149000</v>
+      </c>
+      <c r="D42" s="4">
+        <f>ABS(C42-B42)/B42</f>
+        <v>0.22797927461139897</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="3">
+        <v>175000</v>
+      </c>
+      <c r="C43" s="3">
+        <v>285000</v>
+      </c>
+      <c r="D43" s="4">
+        <f>ABS(C43-B43)/B43</f>
+        <v>0.62857142857142856</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C44">
+        <v>272682.03999999998</v>
+      </c>
+      <c r="D44" s="4">
+        <f>ABS(C44-B44)/B44</f>
+        <v>1.7268203999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C45">
+        <v>473951.8</v>
+      </c>
+      <c r="D45" s="4">
+        <f>ABS(C45-B45)/B45</f>
+        <v>1.3697589999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="3">
+        <v>400000</v>
+      </c>
+      <c r="C46">
+        <v>831263.9</v>
+      </c>
+      <c r="D46" s="4">
+        <f>ABS(C46-B46)/B46</f>
+        <v>1.07815975</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C47">
+        <v>19298.599999999999</v>
+      </c>
+      <c r="D47" s="4">
+        <f>ABS(C47-B47)/B47</f>
+        <v>0.92985999999999991</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48">
+        <v>0.75</v>
+      </c>
+      <c r="C48">
+        <v>0.498</v>
+      </c>
+      <c r="D48" s="4">
+        <f>ABS(C48-B48)/B48</f>
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49">
+        <v>0.5</v>
+      </c>
+      <c r="C49">
+        <v>0.437</v>
+      </c>
+      <c r="D49" s="4">
+        <f>ABS(C49-B49)/B49</f>
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50">
+        <v>0.3</v>
+      </c>
+      <c r="C50">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="D50" s="4">
+        <f>ABS(C50-B50)/B50</f>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>0.94</v>
+      </c>
+      <c r="C51">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="D51" s="4">
+        <f>ABS(C51-B51)/B51</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52">
+        <v>0.94</v>
+      </c>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C53">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D53" s="4">
+        <f>ABS(C53-B53)/B53</f>
+        <v>0.30128205128205138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C54">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D54" s="4">
+        <f>ABS(C54-B54)/B54</f>
+        <v>0.7597471022128558</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C55" s="3">
+        <v>7.127E-5</v>
+      </c>
+      <c r="D55" s="4">
+        <f>ABS(C55-B55)/B55</f>
+        <v>0.61793416572077187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C56" s="3">
+        <v>4.7800000000000002E-4</v>
+      </c>
+      <c r="D56" s="4">
+        <f>ABS(C56-B56)/B56</f>
+        <v>0.68904593639575984</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>2.02</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" ref="D57:D62" si="3">ABS(C57-B57)/B57</f>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58">
+        <v>1.5</v>
+      </c>
+      <c r="C58">
+        <v>2.7</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="3"/>
+        <v>0.80000000000000016</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>7.29</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="3"/>
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>1683</v>
+      </c>
+      <c r="C60">
+        <v>1683</v>
+      </c>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61">
+        <v>1235</v>
+      </c>
+      <c r="C61">
+        <v>1235</v>
+      </c>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20">
+        <f>AVERAGE(D34:D61)</f>
+        <v>0.74255315020014678</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+    </row>
+    <row r="64" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C65" s="3">
+        <v>2110000000000</v>
+      </c>
+      <c r="D65" s="4">
+        <f>ABS(C65-B65)/B65</f>
+        <v>9.8290598290598288E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C66" s="3">
+        <v>69700000000000</v>
+      </c>
+      <c r="D66" s="4">
+        <f>ABS(C66-B66)/B66</f>
+        <v>7.0666666666666669E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="3">
+        <v>9200000000000</v>
+      </c>
+      <c r="C67" s="3">
+        <v>9450000000000</v>
+      </c>
+      <c r="D67" s="4">
+        <f>ABS(C67-B67)/B67</f>
+        <v>2.717391304347826E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C68">
+        <v>1049.1400000000001</v>
+      </c>
+      <c r="D68" s="4">
+        <f>ABS(C68-B68)/B68</f>
+        <v>2.8574074074073981E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69">
+        <v>1041</v>
+      </c>
+      <c r="C69">
+        <v>745.76</v>
+      </c>
+      <c r="D69" s="4">
+        <f>ABS(C69-B69)/B69</f>
+        <v>0.28361191162343902</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C70">
+        <v>0.1036</v>
+      </c>
+      <c r="D70" s="4">
+        <f>ABS(C70-B70)/B70</f>
+        <v>1.2920353982300885</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C71">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="D71" s="4">
+        <f>ABS(C71-B71)/B71</f>
+        <v>0.51081081081081081</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C72" s="3">
+        <v>187000</v>
+      </c>
+      <c r="D72" s="4">
+        <f t="shared" ref="D72:D89" si="4">ABS(C72-B72)/B72</f>
+        <v>3.3149171270718231E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C73" s="3">
+        <v>189000</v>
+      </c>
+      <c r="D73" s="4">
+        <f>ABS(C73-B73)/B73</f>
+        <v>2.072538860103627E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="3">
+        <v>175000</v>
+      </c>
+      <c r="C74" s="3">
+        <v>176000</v>
+      </c>
+      <c r="D74" s="4">
+        <f>ABS(C74-B74)/B74</f>
+        <v>5.7142857142857143E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C75">
+        <v>399427.9</v>
+      </c>
+      <c r="D75" s="4">
+        <f>ABS(C75-B75)/B75</f>
+        <v>2.9942790000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C76">
+        <v>228391.78</v>
+      </c>
+      <c r="D76" s="4">
+        <f>ABS(C76-B76)/B76</f>
+        <v>0.1419589</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="3">
+        <v>400000</v>
+      </c>
+      <c r="C77">
+        <v>390347.54</v>
+      </c>
+      <c r="D77" s="4">
+        <f>ABS(C77-B77)/B77</f>
+        <v>2.4131150000000053E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C78">
+        <v>17881.89</v>
+      </c>
+      <c r="D78" s="4">
+        <f>ABS(C78-B78)/B78</f>
+        <v>0.78818899999999992</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>0.75</v>
+      </c>
+      <c r="C79">
+        <v>0.69110000000000005</v>
+      </c>
+      <c r="D79" s="4">
+        <f>ABS(C79-B79)/B79</f>
+        <v>7.8533333333333274E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>0.5</v>
+      </c>
+      <c r="C80">
+        <v>0.5262</v>
+      </c>
+      <c r="D80" s="4">
+        <f>ABS(C80-B80)/B80</f>
+        <v>5.2400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81">
+        <v>0.3</v>
+      </c>
+      <c r="C81">
+        <v>0.29320000000000002</v>
+      </c>
+      <c r="D81" s="4">
+        <f>ABS(C81-B81)/B81</f>
+        <v>2.2666666666666578E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82">
+        <v>0.94</v>
+      </c>
+      <c r="C82">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="D82" s="4">
+        <f>ABS(C82-B82)/B82</f>
+        <v>8.1914893617020534E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83">
+        <v>0.94</v>
+      </c>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C84">
+        <v>0.30740000000000001</v>
+      </c>
+      <c r="D84" s="4">
+        <f>ABS(C84-B84)/B84</f>
+        <v>1.4743589743589721E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C85">
+        <v>0.2233</v>
+      </c>
+      <c r="D85" s="4">
+        <f>ABS(C85-B85)/B85</f>
+        <v>1.3530031612223394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C86" s="3">
+        <v>4.9700000000000002E-5</v>
+      </c>
+      <c r="D86" s="4">
+        <f>ABS(C86-B86)/B86</f>
+        <v>0.12826333711691265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C87" s="3">
+        <v>9.8560000000000005E-5</v>
+      </c>
+      <c r="D87" s="4">
+        <f>ABS(C87-B87)/B87</f>
+        <v>0.65173144876325084</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1.036</v>
+      </c>
+      <c r="D88" s="4">
+        <f t="shared" ref="D88:D93" si="5">ABS(C88-B88)/B88</f>
+        <v>3.6000000000000032E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1.5</v>
+      </c>
+      <c r="C89">
+        <v>1.476</v>
+      </c>
+      <c r="D89" s="4">
+        <f t="shared" si="5"/>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>3.05</v>
+      </c>
+      <c r="D90" s="4">
+        <f t="shared" si="5"/>
+        <v>1.6666666666666607E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91">
+        <v>1683</v>
+      </c>
+      <c r="C91">
+        <v>1683</v>
+      </c>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92">
+        <v>1235</v>
+      </c>
+      <c r="C92">
+        <v>1235</v>
+      </c>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="20">
+        <f>AVERAGE(D65:D92)</f>
+        <v>0.34790039844798626</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+    </row>
+    <row r="95" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C96" s="3">
+        <v>4140000000000</v>
+      </c>
+      <c r="D96" s="4">
+        <f>ABS(C96-B96)/B96</f>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C97" s="3">
+        <v>106000000000000</v>
+      </c>
+      <c r="D97" s="4">
+        <f>ABS(C97-B97)/B97</f>
+        <v>0.41333333333333333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="3">
+        <v>9200000000000</v>
+      </c>
+      <c r="C98" s="3">
+        <v>16600000000000</v>
+      </c>
+      <c r="D98" s="4">
+        <f>ABS(C98-B98)/B98</f>
+        <v>0.80434782608695654</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C99">
+        <v>1595.86</v>
+      </c>
+      <c r="D99" s="4">
+        <f>ABS(C99-B99)/B99</f>
+        <v>0.47764814814814804</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100">
+        <v>1041</v>
+      </c>
+      <c r="C100">
+        <v>2035.33</v>
+      </c>
+      <c r="D100" s="4">
+        <f>ABS(C100-B100)/B100</f>
+        <v>0.95516810758885684</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C101">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="D101" s="4">
+        <f>ABS(C101-B101)/B101</f>
+        <v>0.8982300884955754</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C102">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D102" s="4">
+        <f>ABS(C102-B102)/B102</f>
+        <v>0.89575289575289563</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C103" s="3">
+        <v>209000</v>
+      </c>
+      <c r="D103" s="4">
+        <f t="shared" ref="D103:D120" si="6">ABS(C103-B103)/B103</f>
+        <v>0.15469613259668508</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B104" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C104" s="3">
+        <v>146000</v>
+      </c>
+      <c r="D104" s="4">
+        <f>ABS(C104-B104)/B104</f>
+        <v>0.24352331606217617</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3">
+        <v>175000</v>
+      </c>
+      <c r="C105" s="3">
+        <v>261000</v>
+      </c>
+      <c r="D105" s="4">
+        <f>ABS(C105-B105)/B105</f>
+        <v>0.49142857142857144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C106">
+        <v>220040</v>
+      </c>
+      <c r="D106" s="4">
+        <f>ABS(C106-B106)/B106</f>
+        <v>1.2003999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B107" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C107">
+        <v>433347</v>
+      </c>
+      <c r="D107" s="4">
+        <f>ABS(C107-B107)/B107</f>
+        <v>1.1667350000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B108" s="3">
+        <v>400000</v>
+      </c>
+      <c r="C108">
+        <v>832306</v>
+      </c>
+      <c r="D108" s="4">
+        <f>ABS(C108-B108)/B108</f>
+        <v>1.080765</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C109">
+        <v>26063.3</v>
+      </c>
+      <c r="D109" s="4">
+        <f>ABS(C109-B109)/B109</f>
+        <v>1.60633</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B110">
+        <v>0.75</v>
+      </c>
+      <c r="C110">
+        <v>0.4607</v>
+      </c>
+      <c r="D110" s="4">
+        <f>ABS(C110-B110)/B110</f>
+        <v>0.38573333333333332</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B111">
+        <v>0.5</v>
+      </c>
+      <c r="C111">
+        <v>0.43859999999999999</v>
+      </c>
+      <c r="D111" s="4">
+        <f>ABS(C111-B111)/B111</f>
+        <v>0.12280000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112">
+        <v>0.3</v>
+      </c>
+      <c r="C112">
+        <v>0.49209999999999998</v>
+      </c>
+      <c r="D112" s="4">
+        <f>ABS(C112-B112)/B112</f>
+        <v>0.64033333333333331</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113">
+        <v>0.94</v>
+      </c>
+      <c r="C113">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="D113" s="4">
+        <f>ABS(C113-B113)/B113</f>
+        <v>0.30425531914893611</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114">
+        <v>0.94</v>
+      </c>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C115">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D115" s="4">
+        <f>ABS(C115-B115)/B115</f>
+        <v>0.24038461538461542</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C116">
+        <v>0.152</v>
+      </c>
+      <c r="D116" s="4">
+        <f>ABS(C116-B116)/B116</f>
+        <v>0.60168598524762906</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C117" s="3">
+        <v>6.4197999999999998E-5</v>
+      </c>
+      <c r="D117" s="4">
+        <f>ABS(C117-B117)/B117</f>
+        <v>0.45738933030646989</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C118" s="3">
+        <v>5.0370000000000005E-4</v>
+      </c>
+      <c r="D118" s="4">
+        <f>ABS(C118-B118)/B118</f>
+        <v>0.77985865724381642</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>2.2723</v>
+      </c>
+      <c r="D119" s="4">
+        <f t="shared" ref="D119:D124" si="7">ABS(C119-B119)/B119</f>
+        <v>1.2723</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B120">
+        <v>1.5</v>
+      </c>
+      <c r="C120">
+        <v>2.9805999999999999</v>
+      </c>
+      <c r="D120" s="4">
+        <f t="shared" si="7"/>
+        <v>0.98706666666666665</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>6.0659999999999998</v>
+      </c>
+      <c r="D121" s="4">
+        <f t="shared" si="7"/>
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122">
+        <v>1683</v>
+      </c>
+      <c r="C122">
+        <v>1683</v>
+      </c>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123">
+        <v>1235</v>
+      </c>
+      <c r="C123">
+        <v>1235</v>
+      </c>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="20">
+        <f>AVERAGE(D96:D123)</f>
+        <v>0.71885585717555045</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+    </row>
+    <row r="126" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B127" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C127" s="3">
+        <v>4140000000000</v>
+      </c>
+      <c r="D127" s="4">
+        <f>ABS(C127-B127)/B127</f>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B128" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C128" s="3">
+        <v>106000000000000</v>
+      </c>
+      <c r="D128" s="4">
+        <f>ABS(C128-B128)/B128</f>
+        <v>0.41333333333333333</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B129" s="3">
+        <v>9200000000000</v>
+      </c>
+      <c r="C129" s="3">
+        <v>16600000000000</v>
+      </c>
+      <c r="D129" s="4">
+        <f>ABS(C129-B129)/B129</f>
+        <v>0.80434782608695654</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C130">
+        <v>1595.86</v>
+      </c>
+      <c r="D130" s="4">
+        <f>ABS(C130-B130)/B130</f>
+        <v>0.47764814814814804</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131">
+        <v>1041</v>
+      </c>
+      <c r="C131">
+        <v>2035.33</v>
+      </c>
+      <c r="D131" s="4">
+        <f>ABS(C131-B131)/B131</f>
+        <v>0.95516810758885684</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C132">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="D132" s="4">
+        <f>ABS(C132-B132)/B132</f>
+        <v>0.8982300884955754</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C133">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D133" s="4">
+        <f>ABS(C133-B133)/B133</f>
+        <v>0.89575289575289563</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B134" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C134" s="3">
+        <v>209000</v>
+      </c>
+      <c r="D134" s="4">
+        <f t="shared" ref="D134:D151" si="8">ABS(C134-B134)/B134</f>
+        <v>0.15469613259668508</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B135" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C135" s="3">
+        <v>146000</v>
+      </c>
+      <c r="D135" s="4">
+        <f>ABS(C135-B135)/B135</f>
+        <v>0.24352331606217617</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B136" s="3">
+        <v>175000</v>
+      </c>
+      <c r="C136" s="3">
+        <v>261000</v>
+      </c>
+      <c r="D136" s="4">
+        <f>ABS(C136-B136)/B136</f>
+        <v>0.49142857142857144</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B137" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C137">
+        <v>220040</v>
+      </c>
+      <c r="D137" s="4">
+        <f>ABS(C137-B137)/B137</f>
+        <v>1.2003999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B138" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C138">
+        <v>433347</v>
+      </c>
+      <c r="D138" s="4">
+        <f>ABS(C138-B138)/B138</f>
+        <v>1.1667350000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B139" s="3">
+        <v>400000</v>
+      </c>
+      <c r="C139">
+        <v>832306</v>
+      </c>
+      <c r="D139" s="4">
+        <f>ABS(C139-B139)/B139</f>
+        <v>1.080765</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C140">
+        <v>26063.3</v>
+      </c>
+      <c r="D140" s="4">
+        <f>ABS(C140-B140)/B140</f>
+        <v>1.60633</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B141">
+        <v>0.75</v>
+      </c>
+      <c r="C141">
+        <v>0.4607</v>
+      </c>
+      <c r="D141" s="4">
+        <f>ABS(C141-B141)/B141</f>
+        <v>0.38573333333333332</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B142">
+        <v>0.5</v>
+      </c>
+      <c r="C142">
+        <v>0.43859999999999999</v>
+      </c>
+      <c r="D142" s="4">
+        <f>ABS(C142-B142)/B142</f>
+        <v>0.12280000000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B143">
+        <v>0.3</v>
+      </c>
+      <c r="C143">
+        <v>0.49209999999999998</v>
+      </c>
+      <c r="D143" s="4">
+        <f>ABS(C143-B143)/B143</f>
+        <v>0.64033333333333331</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144">
+        <v>0.94</v>
+      </c>
+      <c r="C144">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="D144" s="4">
+        <f>ABS(C144-B144)/B144</f>
+        <v>0.30425531914893611</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145">
+        <v>0.94</v>
+      </c>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C146">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D146" s="4">
+        <f>ABS(C146-B146)/B146</f>
+        <v>0.24038461538461542</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C147">
+        <v>0.152</v>
+      </c>
+      <c r="D147" s="4">
+        <f>ABS(C147-B147)/B147</f>
+        <v>0.60168598524762906</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C148" s="3">
+        <v>6.4197999999999998E-5</v>
+      </c>
+      <c r="D148" s="4">
+        <f>ABS(C148-B148)/B148</f>
+        <v>0.45738933030646989</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C149" s="3">
+        <v>5.0370000000000005E-4</v>
+      </c>
+      <c r="D149" s="4">
+        <f>ABS(C149-B149)/B149</f>
+        <v>0.77985865724381642</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>2.2723</v>
+      </c>
+      <c r="D150" s="4">
+        <f t="shared" ref="D150:D155" si="9">ABS(C150-B150)/B150</f>
+        <v>1.2723</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B151">
+        <v>1.5</v>
+      </c>
+      <c r="C151">
+        <v>2.9805999999999999</v>
+      </c>
+      <c r="D151" s="4">
+        <f t="shared" si="9"/>
+        <v>0.98706666666666665</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>6.0659999999999998</v>
+      </c>
+      <c r="D152" s="4">
+        <f t="shared" si="9"/>
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153">
+        <v>1683</v>
+      </c>
+      <c r="C153">
+        <v>1683</v>
+      </c>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154">
+        <v>1235</v>
+      </c>
+      <c r="C154">
+        <v>1235</v>
+      </c>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="20">
+        <f>AVERAGE(D127:D154)</f>
+        <v>0.71885585717555045</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B156" s="17"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
+    </row>
+    <row r="157" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B158" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C158" s="3">
+        <v>4140000000000</v>
+      </c>
+      <c r="D158" s="4">
+        <f>ABS(C158-B158)/B158</f>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B159" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C159" s="3">
+        <v>106000000000000</v>
+      </c>
+      <c r="D159" s="4">
+        <f>ABS(C159-B159)/B159</f>
+        <v>0.41333333333333333</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B160" s="3">
+        <v>9200000000000</v>
+      </c>
+      <c r="C160" s="3">
+        <v>16600000000000</v>
+      </c>
+      <c r="D160" s="4">
+        <f>ABS(C160-B160)/B160</f>
+        <v>0.80434782608695654</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C161">
+        <v>1595.86</v>
+      </c>
+      <c r="D161" s="4">
+        <f>ABS(C161-B161)/B161</f>
+        <v>0.47764814814814804</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162">
+        <v>1041</v>
+      </c>
+      <c r="C162">
+        <v>2035.33</v>
+      </c>
+      <c r="D162" s="4">
+        <f>ABS(C162-B162)/B162</f>
+        <v>0.95516810758885684</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C163">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="D163" s="4">
+        <f>ABS(C163-B163)/B163</f>
+        <v>0.8982300884955754</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C164">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D164" s="4">
+        <f>ABS(C164-B164)/B164</f>
+        <v>0.89575289575289563</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B165" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C165" s="3">
+        <v>209000</v>
+      </c>
+      <c r="D165" s="4">
+        <f t="shared" ref="D165:D182" si="10">ABS(C165-B165)/B165</f>
+        <v>0.15469613259668508</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B166" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C166" s="3">
+        <v>146000</v>
+      </c>
+      <c r="D166" s="4">
+        <f>ABS(C166-B166)/B166</f>
+        <v>0.24352331606217617</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B167" s="3">
+        <v>175000</v>
+      </c>
+      <c r="C167" s="3">
+        <v>261000</v>
+      </c>
+      <c r="D167" s="4">
+        <f>ABS(C167-B167)/B167</f>
+        <v>0.49142857142857144</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B168" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C168">
+        <v>220040</v>
+      </c>
+      <c r="D168" s="4">
+        <f>ABS(C168-B168)/B168</f>
+        <v>1.2003999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B169" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C169">
+        <v>433347</v>
+      </c>
+      <c r="D169" s="4">
+        <f>ABS(C169-B169)/B169</f>
+        <v>1.1667350000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B170" s="3">
+        <v>400000</v>
+      </c>
+      <c r="C170">
+        <v>832306</v>
+      </c>
+      <c r="D170" s="4">
+        <f>ABS(C170-B170)/B170</f>
+        <v>1.080765</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C171">
+        <v>26063.3</v>
+      </c>
+      <c r="D171" s="4">
+        <f>ABS(C171-B171)/B171</f>
+        <v>1.60633</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B172">
+        <v>0.75</v>
+      </c>
+      <c r="C172">
+        <v>0.4607</v>
+      </c>
+      <c r="D172" s="4">
+        <f>ABS(C172-B172)/B172</f>
+        <v>0.38573333333333332</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B173">
+        <v>0.5</v>
+      </c>
+      <c r="C173">
+        <v>0.43859999999999999</v>
+      </c>
+      <c r="D173" s="4">
+        <f>ABS(C173-B173)/B173</f>
+        <v>0.12280000000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B174">
+        <v>0.3</v>
+      </c>
+      <c r="C174">
+        <v>0.49209999999999998</v>
+      </c>
+      <c r="D174" s="4">
+        <f>ABS(C174-B174)/B174</f>
+        <v>0.64033333333333331</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175">
+        <v>0.94</v>
+      </c>
+      <c r="C175">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="D175" s="4">
+        <f>ABS(C175-B175)/B175</f>
+        <v>0.30425531914893611</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B176">
+        <v>0.94</v>
+      </c>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C177">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D177" s="4">
+        <f>ABS(C177-B177)/B177</f>
+        <v>0.24038461538461542</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C178">
+        <v>0.152</v>
+      </c>
+      <c r="D178" s="4">
+        <f>ABS(C178-B178)/B178</f>
+        <v>0.60168598524762906</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C179" s="3">
+        <v>6.4197999999999998E-5</v>
+      </c>
+      <c r="D179" s="4">
+        <f>ABS(C179-B179)/B179</f>
+        <v>0.45738933030646989</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C180" s="3">
+        <v>5.0370000000000005E-4</v>
+      </c>
+      <c r="D180" s="4">
+        <f>ABS(C180-B180)/B180</f>
+        <v>0.77985865724381642</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>2.2723</v>
+      </c>
+      <c r="D181" s="4">
+        <f t="shared" ref="D181:D186" si="11">ABS(C181-B181)/B181</f>
+        <v>1.2723</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B182">
+        <v>1.5</v>
+      </c>
+      <c r="C182">
+        <v>2.9805999999999999</v>
+      </c>
+      <c r="D182" s="4">
+        <f t="shared" si="11"/>
+        <v>0.98706666666666665</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183">
+        <v>6.0659999999999998</v>
+      </c>
+      <c r="D183" s="4">
+        <f t="shared" si="11"/>
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184">
+        <v>1683</v>
+      </c>
+      <c r="C184">
+        <v>1683</v>
+      </c>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185">
+        <v>1235</v>
+      </c>
+      <c r="C185">
+        <v>1235</v>
+      </c>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B186" s="19"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="20">
+        <f>AVERAGE(D158:D185)</f>
+        <v>0.71885585717555045</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B187" s="17"/>
+      <c r="C187" s="17"/>
+      <c r="D187" s="17"/>
+    </row>
+    <row r="188" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B189" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C189" s="3">
+        <v>3810000000000</v>
+      </c>
+      <c r="D189" s="4">
+        <f>ABS(C189-B189)/B189</f>
+        <v>0.62820512820512819</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B190" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C190" s="3">
+        <v>115000000000000</v>
+      </c>
+      <c r="D190" s="4">
+        <f>ABS(C190-B190)/B190</f>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B191" s="3">
+        <v>9200000000000</v>
+      </c>
+      <c r="C191" s="3">
+        <v>2420000000000</v>
+      </c>
+      <c r="D191" s="4">
+        <f>ABS(C191-B191)/B191</f>
+        <v>0.7369565217391304</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C192">
+        <v>980.74</v>
+      </c>
+      <c r="D192" s="4">
+        <f>ABS(C192-B192)/B192</f>
+        <v>9.1907407407407396E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193">
+        <v>1041</v>
+      </c>
+      <c r="C193">
+        <v>396.62</v>
+      </c>
+      <c r="D193" s="4">
+        <f>ABS(C193-B193)/B193</f>
+        <v>0.61900096061479348</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C194">
+        <v>0.18029999999999999</v>
+      </c>
+      <c r="D194" s="4">
+        <f>ABS(C194-B194)/B194</f>
+        <v>2.9889380530973453</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C195">
+        <v>1.0185999999999999</v>
+      </c>
+      <c r="D195" s="4">
+        <f>ABS(C195-B195)/B195</f>
+        <v>2.9328185328185326</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B196" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C196" s="3">
+        <v>169000</v>
+      </c>
+      <c r="D196" s="4">
+        <f t="shared" ref="D196:D213" si="12">ABS(C196-B196)/B196</f>
+        <v>6.6298342541436461E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B197" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C197" s="3">
+        <v>427000</v>
+      </c>
+      <c r="D197" s="4">
+        <f>ABS(C197-B197)/B197</f>
+        <v>1.2124352331606219</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B198" s="3">
+        <v>175000</v>
+      </c>
+      <c r="C198" s="3">
+        <v>444000</v>
+      </c>
+      <c r="D198" s="4">
+        <f>ABS(C198-B198)/B198</f>
+        <v>1.5371428571428571</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B199" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C199">
+        <v>294040</v>
+      </c>
+      <c r="D199" s="4">
+        <f>ABS(C199-B199)/B199</f>
+        <v>1.9403999999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B200" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C200">
+        <v>240940.9</v>
+      </c>
+      <c r="D200" s="4">
+        <f>ABS(C200-B200)/B200</f>
+        <v>0.20470449999999998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B201" s="3">
+        <v>400000</v>
+      </c>
+      <c r="C201">
+        <v>103642.622</v>
+      </c>
+      <c r="D201" s="4">
+        <f>ABS(C201-B201)/B201</f>
+        <v>0.74089344500000009</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C202">
+        <v>10284.879999999999</v>
+      </c>
+      <c r="D202" s="4">
+        <f>ABS(C202-B202)/B202</f>
+        <v>2.848799999999992E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B203">
+        <v>0.75</v>
+      </c>
+      <c r="C203">
+        <v>0.435</v>
+      </c>
+      <c r="D203" s="4">
+        <f>ABS(C203-B203)/B203</f>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B204">
+        <v>0.5</v>
+      </c>
+      <c r="C204">
+        <v>0.48659999999999998</v>
+      </c>
+      <c r="D204" s="4">
+        <f>ABS(C204-B204)/B204</f>
+        <v>2.6800000000000046E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B205">
+        <v>0.3</v>
+      </c>
+      <c r="C205">
+        <v>0.77</v>
+      </c>
+      <c r="D205" s="4">
+        <f>ABS(C205-B205)/B205</f>
+        <v>1.5666666666666669</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206">
+        <v>0.94</v>
+      </c>
+      <c r="C206">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="D206" s="4">
+        <f>ABS(C206-B206)/B206</f>
+        <v>3.4680851063829746E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B207">
+        <v>0.94</v>
+      </c>
+      <c r="D207" s="4"/>
+    </row>
+    <row r="208" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C208">
+        <v>0.29580000000000001</v>
+      </c>
+      <c r="D208" s="4">
+        <f>ABS(C208-B208)/B208</f>
+        <v>5.1923076923076898E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C209">
+        <v>0.24629999999999999</v>
+      </c>
+      <c r="D209" s="4">
+        <f>ABS(C209-B209)/B209</f>
+        <v>1.5953635405690199</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C210" s="3">
+        <v>4.9066000000000001E-5</v>
+      </c>
+      <c r="D210" s="4">
+        <f>ABS(C210-B210)/B210</f>
+        <v>0.11387060158910331</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C211" s="3">
+        <v>7.1190000000000001E-5</v>
+      </c>
+      <c r="D211" s="4">
+        <f>ABS(C211-B211)/B211</f>
+        <v>0.7484452296819788</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>1.778</v>
+      </c>
+      <c r="D212" s="4">
+        <f t="shared" ref="D212:D217" si="13">ABS(C212-B212)/B212</f>
+        <v>0.77800000000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B213">
+        <v>1.5</v>
+      </c>
+      <c r="C213">
+        <v>4.8819999999999997</v>
+      </c>
+      <c r="D213" s="4">
+        <f t="shared" si="13"/>
+        <v>2.2546666666666666</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>2.7008000000000001</v>
+      </c>
+      <c r="D214" s="4">
+        <f t="shared" si="13"/>
+        <v>9.9733333333333299E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215">
+        <v>1683</v>
+      </c>
+      <c r="C215">
+        <v>1683</v>
+      </c>
+      <c r="D215" s="4"/>
+    </row>
+    <row r="216" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216">
+        <v>1235</v>
+      </c>
+      <c r="C216">
+        <v>1235</v>
+      </c>
+      <c r="D216" s="4"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B217" s="19"/>
+      <c r="C217" s="19"/>
+      <c r="D217" s="20">
+        <f>AVERAGE(D189:D216)</f>
+        <v>0.87806689126217041</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B218" s="17"/>
+      <c r="C218" s="17"/>
+      <c r="D218" s="17"/>
+    </row>
+    <row r="219" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B220" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C220" s="3">
+        <v>2440000000000</v>
+      </c>
+      <c r="D220" s="4">
+        <f>ABS(C220-B220)/B220</f>
+        <v>4.2735042735042736E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B221" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C221" s="3">
+        <v>75100000000000</v>
+      </c>
+      <c r="D221" s="4">
+        <f>ABS(C221-B221)/B221</f>
+        <v>1.3333333333333333E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B222" s="3">
+        <v>9200000000000</v>
+      </c>
+      <c r="C222" s="3">
+        <v>8920000000000</v>
+      </c>
+      <c r="D222" s="4">
+        <f>ABS(C222-B222)/B222</f>
+        <v>3.0434782608695653E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C223">
+        <v>1064.33</v>
+      </c>
+      <c r="D223" s="4">
+        <f>ABS(C223-B223)/B223</f>
+        <v>1.4509259259259326E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B224">
+        <v>1041</v>
+      </c>
+      <c r="C224">
+        <v>1480.422</v>
+      </c>
+      <c r="D224" s="4">
+        <f>ABS(C224-B224)/B224</f>
+        <v>0.42211527377521618</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B225" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C225">
+        <v>4.3490000000000001E-2</v>
+      </c>
+      <c r="D225" s="4">
+        <f>ABS(C225-B225)/B225</f>
+        <v>3.7831858407079567E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B226" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C226">
+        <v>0.3075</v>
+      </c>
+      <c r="D226" s="4">
+        <f>ABS(C226-B226)/B226</f>
+        <v>0.18725868725868722</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B227" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C227" s="3">
+        <v>172000</v>
+      </c>
+      <c r="D227" s="4">
+        <f t="shared" ref="D227:D244" si="14">ABS(C227-B227)/B227</f>
+        <v>4.9723756906077346E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B228" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C228" s="3">
+        <v>179000</v>
+      </c>
+      <c r="D228" s="4">
+        <f>ABS(C228-B228)/B228</f>
+        <v>7.2538860103626937E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B229" s="3">
+        <v>175000</v>
+      </c>
+      <c r="C229" s="3">
+        <v>165000</v>
+      </c>
+      <c r="D229" s="4">
+        <f>ABS(C229-B229)/B229</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B230" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C230">
+        <v>46032.4</v>
+      </c>
+      <c r="D230" s="4">
+        <f>ABS(C230-B230)/B230</f>
+        <v>0.53967599999999993</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B231" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C231">
+        <v>346578.5</v>
+      </c>
+      <c r="D231" s="4">
+        <f>ABS(C231-B231)/B231</f>
+        <v>0.73289249999999995</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B232" s="3">
+        <v>400000</v>
+      </c>
+      <c r="C232">
+        <v>410845.15</v>
+      </c>
+      <c r="D232" s="4">
+        <f>ABS(C232-B232)/B232</f>
+        <v>2.7112875000000057E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B233" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C233">
+        <v>26922.84</v>
+      </c>
+      <c r="D233" s="4">
+        <f>ABS(C233-B233)/B233</f>
+        <v>1.6922840000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B234">
+        <v>0.75</v>
+      </c>
+      <c r="C234">
+        <v>0.74450000000000005</v>
+      </c>
+      <c r="D234" s="4">
+        <f>ABS(C234-B234)/B234</f>
+        <v>7.3333333333332655E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B235">
+        <v>0.5</v>
+      </c>
+      <c r="C235">
+        <v>0.4889</v>
+      </c>
+      <c r="D235" s="4">
+        <f>ABS(C235-B235)/B235</f>
+        <v>2.2199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B236">
+        <v>0.3</v>
+      </c>
+      <c r="C236">
+        <v>0.31290000000000001</v>
+      </c>
+      <c r="D236" s="4">
+        <f>ABS(C236-B236)/B236</f>
+        <v>4.300000000000008E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B237">
+        <v>0.94</v>
+      </c>
+      <c r="C237">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="D237" s="4">
+        <f>ABS(C237-B237)/B237</f>
+        <v>0.1823404255319149</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B238">
+        <v>0.94</v>
+      </c>
+      <c r="D238" s="4"/>
+    </row>
+    <row r="239" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C239">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="D239" s="4">
+        <f>ABS(C239-B239)/B239</f>
+        <v>3.653846153846161E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C240">
+        <v>0.126</v>
+      </c>
+      <c r="D240" s="4">
+        <f>ABS(C240-B240)/B240</f>
+        <v>0.32771338250790311</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B241" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C241" s="3">
+        <v>3.3059999999999999E-5</v>
+      </c>
+      <c r="D241" s="4">
+        <f>ABS(C241-B241)/B241</f>
+        <v>0.24948921679909197</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B242" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C242" s="3">
+        <v>2.4439999999999998E-4</v>
+      </c>
+      <c r="D242" s="4">
+        <f>ABS(C242-B242)/B242</f>
+        <v>0.13639575971731455</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="D243" s="4">
+        <f t="shared" ref="D243:D248" si="15">ABS(C243-B243)/B243</f>
+        <v>3.8999999999999924E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B244">
+        <v>1.5</v>
+      </c>
+      <c r="C244">
+        <v>1.5569999999999999</v>
+      </c>
+      <c r="D244" s="4">
+        <f t="shared" si="15"/>
+        <v>3.7999999999999957E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B245">
+        <v>3</v>
+      </c>
+      <c r="C245">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="D245" s="4">
+        <f t="shared" si="15"/>
+        <v>7.5000000000000025E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B246">
+        <v>1683</v>
+      </c>
+      <c r="C246">
+        <v>1683</v>
+      </c>
+      <c r="D246" s="4"/>
+    </row>
+    <row r="247" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B247">
+        <v>1235</v>
+      </c>
+      <c r="C247">
+        <v>1235</v>
+      </c>
+      <c r="D247" s="4"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B248" s="19"/>
+      <c r="C248" s="19"/>
+      <c r="D248" s="20">
+        <f>AVERAGE(D220:D247)</f>
+        <v>0.20258398663831578</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B249" s="17"/>
+      <c r="C249" s="17"/>
+      <c r="D249" s="17"/>
+    </row>
+    <row r="250" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B251" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C251" s="3">
+        <v>2440000000000</v>
+      </c>
+      <c r="D251" s="4">
+        <f>ABS(C251-B251)/B251</f>
+        <v>4.2735042735042736E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B252" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C252" s="3">
+        <v>75100000000000</v>
+      </c>
+      <c r="D252" s="4">
+        <f>ABS(C252-B252)/B252</f>
+        <v>1.3333333333333333E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B253" s="3">
+        <v>9200000000000</v>
+      </c>
+      <c r="C253" s="3">
+        <v>8920000000000</v>
+      </c>
+      <c r="D253" s="4">
+        <f>ABS(C253-B253)/B253</f>
+        <v>3.0434782608695653E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B254" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C254">
+        <v>1064.33</v>
+      </c>
+      <c r="D254" s="4">
+        <f>ABS(C254-B254)/B254</f>
+        <v>1.4509259259259326E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B255">
+        <v>1041</v>
+      </c>
+      <c r="C255">
+        <v>1480.422</v>
+      </c>
+      <c r="D255" s="4">
+        <f>ABS(C255-B255)/B255</f>
+        <v>0.42211527377521618</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B256" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C256">
+        <v>4.3490000000000001E-2</v>
+      </c>
+      <c r="D256" s="4">
+        <f>ABS(C256-B256)/B256</f>
+        <v>3.7831858407079567E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B257" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C257">
+        <v>0.3075</v>
+      </c>
+      <c r="D257" s="4">
+        <f>ABS(C257-B257)/B257</f>
+        <v>0.18725868725868722</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B258" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C258" s="3">
+        <v>172000</v>
+      </c>
+      <c r="D258" s="4">
+        <f t="shared" ref="D258:D275" si="16">ABS(C258-B258)/B258</f>
+        <v>4.9723756906077346E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B259" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C259" s="3">
+        <v>179000</v>
+      </c>
+      <c r="D259" s="4">
+        <f>ABS(C259-B259)/B259</f>
+        <v>7.2538860103626937E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B260" s="3">
+        <v>175000</v>
+      </c>
+      <c r="C260" s="3">
+        <v>165000</v>
+      </c>
+      <c r="D260" s="4">
+        <f>ABS(C260-B260)/B260</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B261" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C261">
+        <v>46032.4</v>
+      </c>
+      <c r="D261" s="4">
+        <f>ABS(C261-B261)/B261</f>
+        <v>0.53967599999999993</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B262" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C262">
+        <v>346578.5</v>
+      </c>
+      <c r="D262" s="4">
+        <f>ABS(C262-B262)/B262</f>
+        <v>0.73289249999999995</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B263" s="3">
+        <v>400000</v>
+      </c>
+      <c r="C263">
+        <v>410845.15</v>
+      </c>
+      <c r="D263" s="4">
+        <f>ABS(C263-B263)/B263</f>
+        <v>2.7112875000000057E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B264" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C264">
+        <v>26922.84</v>
+      </c>
+      <c r="D264" s="4">
+        <f>ABS(C264-B264)/B264</f>
+        <v>1.6922840000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B265">
+        <v>0.75</v>
+      </c>
+      <c r="C265">
+        <v>0.74450000000000005</v>
+      </c>
+      <c r="D265" s="4">
+        <f>ABS(C265-B265)/B265</f>
+        <v>7.3333333333332655E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B266">
+        <v>0.5</v>
+      </c>
+      <c r="C266">
+        <v>0.4889</v>
+      </c>
+      <c r="D266" s="4">
+        <f>ABS(C266-B266)/B266</f>
+        <v>2.2199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B267">
+        <v>0.3</v>
+      </c>
+      <c r="C267">
+        <v>0.31290000000000001</v>
+      </c>
+      <c r="D267" s="4">
+        <f>ABS(C267-B267)/B267</f>
+        <v>4.300000000000008E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268">
+        <v>0.94</v>
+      </c>
+      <c r="C268">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="D268" s="4">
+        <f>ABS(C268-B268)/B268</f>
+        <v>0.1823404255319149</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B269">
+        <v>0.94</v>
+      </c>
+      <c r="D269" s="4"/>
+    </row>
+    <row r="270" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C270">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="D270" s="4">
+        <f>ABS(C270-B270)/B270</f>
+        <v>3.653846153846161E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B271">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C271">
+        <v>0.126</v>
+      </c>
+      <c r="D271" s="4">
+        <f>ABS(C271-B271)/B271</f>
+        <v>0.32771338250790311</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B272" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C272" s="3">
+        <v>3.3059999999999999E-5</v>
+      </c>
+      <c r="D272" s="4">
+        <f>ABS(C272-B272)/B272</f>
+        <v>0.24948921679909197</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B273" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C273" s="3">
+        <v>2.4439999999999998E-4</v>
+      </c>
+      <c r="D273" s="4">
+        <f>ABS(C273-B273)/B273</f>
+        <v>0.13639575971731455</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="D274" s="4">
+        <f t="shared" ref="D274:D279" si="17">ABS(C274-B274)/B274</f>
+        <v>3.8999999999999924E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B275">
+        <v>1.5</v>
+      </c>
+      <c r="C275">
+        <v>1.5569999999999999</v>
+      </c>
+      <c r="D275" s="4">
+        <f t="shared" si="17"/>
+        <v>3.7999999999999957E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B276">
+        <v>3</v>
+      </c>
+      <c r="C276">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="D276" s="4">
+        <f t="shared" si="17"/>
+        <v>7.5000000000000025E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B277">
+        <v>1683</v>
+      </c>
+      <c r="C277">
+        <v>1683</v>
+      </c>
+      <c r="D277" s="4"/>
+    </row>
+    <row r="278" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B278">
+        <v>1235</v>
+      </c>
+      <c r="C278">
+        <v>1235</v>
+      </c>
+      <c r="D278" s="4"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B279" s="19"/>
+      <c r="C279" s="19"/>
+      <c r="D279" s="20">
+        <f>AVERAGE(D251:D278)</f>
+        <v>0.20258398663831578</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A249:D249"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A156:D156"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="113">
   <si>
     <t>Input parameters</t>
   </si>
@@ -171,9 +171,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>10 kW/m2 validation</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -190,12 +187,6 @@
   </si>
   <si>
     <t>1 Mass + TGA + F Temp</t>
-  </si>
-  <si>
-    <t>60 kW/m2 validation</t>
-  </si>
-  <si>
-    <t>100 kW/m2 validation</t>
   </si>
   <si>
     <t>4 Mass</t>
@@ -365,6 +356,25 @@
   <si>
     <t>0.73-169.23%</t>
   </si>
+  <si>
+    <t>10 kW/m2 NM SE</t>
+  </si>
+  <si>
+    <t>60 kW/m2 NM SE</t>
+  </si>
+  <si>
+    <t>100 kW/m2 NM SE</t>
+  </si>
+  <si>
+    <t>NM: Normalized mass
+SE: Standard error</t>
+  </si>
+  <si>
+    <t>Average SE</t>
+  </si>
+  <si>
+    <t>Good for low heat flux</t>
+  </si>
 </sst>
 </file>
 
@@ -400,7 +410,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +432,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -521,14 +537,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,64 +834,69 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
-    <sheetView topLeftCell="A7" workbookViewId="1">
-      <selection sqref="A1:G1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -877,13 +904,13 @@
         <v>1.2545999999999999</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -891,13 +918,13 @@
         <v>0.47799999999999998</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -905,13 +932,13 @@
         <v>0.36809999999999998</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -919,13 +946,13 @@
         <v>0.27350000000000002</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -933,27 +960,27 @@
         <v>5.4800000000000001E-2</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4">
         <v>0.47689999999999999</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -961,13 +988,13 @@
         <v>0.1825</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -975,13 +1002,13 @@
         <v>0.66779999999999995</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -989,13 +1016,13 @@
         <v>0.66610000000000003</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1003,399 +1030,601 @@
         <v>0.32590000000000002</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="4">
         <v>0.29320000000000002</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17">
+        <v>5.67571366083333E-2</v>
+      </c>
+      <c r="E17">
+        <v>2.2975011999999601E-3</v>
+      </c>
+      <c r="F17">
+        <v>2.91952928333335E-3</v>
+      </c>
+      <c r="G17">
+        <f>AVERAGE(D17:F17)</f>
+        <v>2.0658055697222202E-2</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18">
+        <v>4.8458532313333302E-2</v>
+      </c>
+      <c r="E18">
+        <v>9.4896049166666603E-4</v>
+      </c>
+      <c r="F18">
+        <v>1.07952635833331E-3</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G25" si="0">AVERAGE(D18:F18)</f>
+        <v>1.6829006387777758E-2</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.75639999999999996</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20">
+        <v>4.2059522093333301E-2</v>
+      </c>
+      <c r="E20">
+        <v>5.7508876666663596E-4</v>
+      </c>
+      <c r="F20">
+        <v>1.5910884250000001E-3</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1.4741899761666644E-2</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.3952</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21">
+        <v>1.02705163433333E-2</v>
+      </c>
+      <c r="E21">
+        <v>3.7336756749999302E-3</v>
+      </c>
+      <c r="F21">
+        <v>5.14287990833331E-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>6.3823573088888468E-3</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.4516</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22">
+        <v>9.9509812685000004E-2</v>
+      </c>
+      <c r="E22">
+        <v>4.1109891333333398E-3</v>
+      </c>
+      <c r="F22">
+        <v>3.5190149749999701E-3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>3.5713272264444436E-2</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.42709999999999998</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23">
+        <v>3.7636890781666599E-2</v>
+      </c>
+      <c r="E23">
+        <v>6.1944456666666002E-4</v>
+      </c>
+      <c r="F23">
+        <v>9.7961919166671802E-4</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1.3078651513333326E-2</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.64629999999999999</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24">
+        <v>1.73429586583333E-2</v>
+      </c>
+      <c r="E24">
+        <v>4.8946217749999696E-3</v>
+      </c>
+      <c r="F24">
+        <v>6.1586565416666796E-3</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>9.465412324999983E-3</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25">
+        <v>8.0970326166666603E-4</v>
+      </c>
+      <c r="E25">
+        <v>6.4136093250000198E-3</v>
+      </c>
+      <c r="F25">
+        <v>5.84483229166662E-3</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>4.3560482927777686E-3</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" t="s">
         <v>45</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.2021</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28">
+        <v>1.8085282163333299E-2</v>
+      </c>
+      <c r="E28">
+        <v>4.1717878750000001E-3</v>
+      </c>
+      <c r="F28">
+        <v>4.5225786999999896E-3</v>
+      </c>
+      <c r="G28">
+        <f>AVERAGE(D28:F28)</f>
+        <v>8.9265495794444288E-3</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29">
+        <v>0.17225772079499899</v>
+      </c>
+      <c r="E29">
+        <v>8.2298392249999901E-3</v>
+      </c>
+      <c r="F29">
+        <v>1.32987478833333E-2</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(D29:F29)</f>
+        <v>6.459543596777742E-2</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30">
+        <v>6.2844071950000002E-3</v>
+      </c>
+      <c r="E30">
+        <v>2.05704210833332E-3</v>
+      </c>
+      <c r="F30">
+        <v>1.87939215833335E-3</v>
+      </c>
+      <c r="G30">
+        <f>AVERAGE(D30:F30)</f>
+        <v>3.4069471538888904E-3</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.71889999999999998</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31">
+        <v>0.17473352948333301</v>
+      </c>
+      <c r="E31">
+        <v>5.4623136999999902E-3</v>
+      </c>
+      <c r="F31">
+        <v>1.1184766858333301E-2</v>
+      </c>
+      <c r="G31">
+        <f>AVERAGE(D31:F31)</f>
+        <v>6.3793536680555443E-2</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>52</v>
       </c>
-      <c r="F16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="H33" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="C22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0.28520000000000001</v>
-      </c>
-      <c r="C23" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0.75639999999999996</v>
-      </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0.3952</v>
-      </c>
-      <c r="C26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0.4516</v>
-      </c>
-      <c r="C27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0.42709999999999998</v>
-      </c>
-      <c r="C28" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0.64629999999999999</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0.22270000000000001</v>
-      </c>
-      <c r="C30" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0.2021</v>
-      </c>
-      <c r="C33" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
       <c r="B34" s="4">
-        <v>0.74260000000000004</v>
+        <v>0.87809999999999999</v>
       </c>
       <c r="C34" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>3.7005961699999898E-3</v>
+      </c>
+      <c r="E34">
+        <v>9.4177127333333194E-3</v>
+      </c>
+      <c r="F34">
+        <v>1.5955972508333301E-2</v>
+      </c>
+      <c r="G34">
+        <f>AVERAGE(D34:F34)</f>
+        <v>9.6914271372222031E-3</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B35" s="4">
-        <v>0.34789999999999999</v>
+        <v>0.2026</v>
       </c>
       <c r="C35" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>6.9319584164999906E-2</v>
+      </c>
+      <c r="E35">
+        <v>3.4208122083333298E-3</v>
+      </c>
+      <c r="F35">
+        <v>3.8920943249999801E-3</v>
+      </c>
+      <c r="G35">
+        <f>AVERAGE(D35:F35)</f>
+        <v>2.5544163566111073E-2</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0.71889999999999998</v>
-      </c>
-      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="4">
-        <v>0.87809999999999999</v>
-      </c>
-      <c r="C39" t="s">
-        <v>108</v>
-      </c>
-      <c r="G39" s="8" t="s">
+      <c r="H42" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0.2026</v>
-      </c>
-      <c r="C40" t="s">
-        <v>109</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>35</v>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2949,12 +3178,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2964,10 +3193,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3203,7 +3432,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>0.73380000000000001</v>
@@ -3230,7 +3459,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D21" s="4">
         <f>AVERAGE(D3:D20)</f>
@@ -3238,12 +3467,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -3253,10 +3482,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3492,7 +3721,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B40">
         <v>0.73380000000000001</v>
@@ -3519,7 +3748,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D42" s="4">
         <f>AVERAGE(D24:D41)</f>
@@ -3527,12 +3756,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -3542,10 +3771,10 @@
         <v>18</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3772,7 +4001,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>0.73380000000000001</v>
@@ -3796,7 +4025,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D63" s="4">
         <f>AVERAGE(D45:D62)</f>
@@ -3804,12 +4033,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
     </row>
     <row r="65" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
@@ -3819,10 +4048,10 @@
         <v>18</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4049,7 +4278,7 @@
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B82">
         <v>0.73380000000000001</v>
@@ -4073,7 +4302,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D84" s="4">
         <f>AVERAGE(D66:D83)</f>
@@ -4081,12 +4310,12 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
+      <c r="A85" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
     </row>
     <row r="86" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -4096,10 +4325,10 @@
         <v>18</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4326,7 +4555,7 @@
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B103">
         <v>0.73380000000000001</v>
@@ -4350,7 +4579,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D105" s="4">
         <f>AVERAGE(D87:D104)</f>
@@ -4358,12 +4587,12 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
+      <c r="A106" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
@@ -4373,10 +4602,10 @@
         <v>18</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4603,7 +4832,7 @@
     </row>
     <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B124">
         <v>0.73380000000000001</v>
@@ -4627,7 +4856,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D126" s="4">
         <f>AVERAGE(D108:D125)</f>
@@ -4635,12 +4864,12 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
+      <c r="A127" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
     </row>
     <row r="128" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -4650,10 +4879,10 @@
         <v>18</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4880,7 +5109,7 @@
     </row>
     <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B145">
         <v>0.73380000000000001</v>
@@ -4904,7 +5133,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D147" s="4">
         <f>AVERAGE(D129:D146)</f>
@@ -4912,12 +5141,12 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="17" t="s">
+      <c r="A148" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B148" s="17"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
     </row>
     <row r="149" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
@@ -4927,10 +5156,10 @@
         <v>18</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5157,7 +5386,7 @@
     </row>
     <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B166">
         <v>0.73380000000000001</v>
@@ -5181,7 +5410,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D168" s="4">
         <f>AVERAGE(D150:D167)</f>
@@ -5189,12 +5418,12 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="17" t="s">
+      <c r="A169" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B169" s="17"/>
-      <c r="C169" s="17"/>
-      <c r="D169" s="17"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
     </row>
     <row r="170" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
@@ -5204,10 +5433,10 @@
         <v>18</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5434,7 +5663,7 @@
     </row>
     <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B187">
         <v>0.73380000000000001</v>
@@ -5458,7 +5687,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D189" s="4">
         <f>AVERAGE(D171:D188)</f>
@@ -5466,12 +5695,12 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B190" s="17"/>
-      <c r="C190" s="17"/>
-      <c r="D190" s="17"/>
+      <c r="A190" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="20"/>
     </row>
     <row r="191" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -5481,10 +5710,10 @@
         <v>18</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5711,7 +5940,7 @@
     </row>
     <row r="208" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B208">
         <v>0.73380000000000001</v>
@@ -5735,7 +5964,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D210" s="4">
         <f>AVERAGE(D192:D209)</f>
@@ -5743,12 +5972,12 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B211" s="17"/>
-      <c r="C211" s="17"/>
-      <c r="D211" s="17"/>
+      <c r="A211" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B211" s="20"/>
+      <c r="C211" s="20"/>
+      <c r="D211" s="20"/>
     </row>
     <row r="212" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -5758,10 +5987,10 @@
         <v>18</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5988,7 +6217,7 @@
     </row>
     <row r="229" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B229">
         <v>0.73380000000000001</v>
@@ -6012,7 +6241,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D231" s="4">
         <f>AVERAGE(D213:D230)</f>
@@ -6020,12 +6249,12 @@
       </c>
     </row>
     <row r="232" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B232" s="17"/>
-      <c r="C232" s="17"/>
-      <c r="D232" s="17"/>
+      <c r="A232" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B232" s="20"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="20"/>
     </row>
     <row r="233" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
@@ -6035,10 +6264,10 @@
         <v>18</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6229,7 +6458,7 @@
     </row>
     <row r="250" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B250">
         <v>0.73380000000000001</v>
@@ -6250,7 +6479,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D252" s="4">
         <f>AVERAGE(D234:D251)</f>
@@ -6259,11 +6488,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A85:D85"/>
     <mergeCell ref="A211:D211"/>
     <mergeCell ref="A232:D232"/>
     <mergeCell ref="A106:D106"/>
@@ -6271,6 +6495,11 @@
     <mergeCell ref="A148:D148"/>
     <mergeCell ref="A169:D169"/>
     <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A85:D85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6294,12 +6523,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6309,15 +6538,15 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3">
         <v>2340000000000</v>
@@ -6326,13 +6555,13 @@
         <v>802000000000</v>
       </c>
       <c r="D3" s="4">
-        <f>ABS(C3-B3)/B3</f>
+        <f t="shared" ref="D3:D8" si="0">ABS(C3-B3)/B3</f>
         <v>0.65726495726495726</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3">
         <v>75000000000000</v>
@@ -6341,7 +6570,7 @@
         <v>69300000000000</v>
       </c>
       <c r="D4" s="4">
-        <f>ABS(C4-B4)/B4</f>
+        <f t="shared" si="0"/>
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
@@ -6356,7 +6585,7 @@
         <v>1236.68</v>
       </c>
       <c r="D5" s="4">
-        <f>ABS(C5-B5)/B5</f>
+        <f t="shared" si="0"/>
         <v>0.14507407407407413</v>
       </c>
     </row>
@@ -6371,7 +6600,7 @@
         <v>695.9</v>
       </c>
       <c r="D6" s="4">
-        <f>ABS(C6-B6)/B6</f>
+        <f t="shared" si="0"/>
         <v>0.3315081652257445</v>
       </c>
     </row>
@@ -6386,7 +6615,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="D7" s="4">
-        <f>ABS(C7-B7)/B7</f>
+        <f t="shared" si="0"/>
         <v>0.61504424778761058</v>
       </c>
     </row>
@@ -6401,13 +6630,13 @@
         <v>6.4906487703679697E-2</v>
       </c>
       <c r="D8" s="4">
-        <f>ABS(C8-B8)/B8</f>
+        <f t="shared" si="0"/>
         <v>0.74939580037189313</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3">
         <v>181000</v>
@@ -6416,13 +6645,13 @@
         <v>174000</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" ref="D9:D22" si="0">ABS(C9-B9)/B9</f>
+        <f t="shared" ref="D9:D22" si="1">ABS(C9-B9)/B9</f>
         <v>3.8674033149171269E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B10" s="3">
         <v>193000</v>
@@ -6431,13 +6660,13 @@
         <v>663000</v>
       </c>
       <c r="D10" s="4">
-        <f>ABS(C10-B10)/B10</f>
+        <f t="shared" ref="D10:D16" si="2">ABS(C10-B10)/B10</f>
         <v>2.4352331606217619</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3">
         <v>100000</v>
@@ -6446,13 +6675,13 @@
         <v>105464</v>
       </c>
       <c r="D11" s="4">
-        <f>ABS(C11-B11)/B11</f>
+        <f t="shared" si="2"/>
         <v>5.4640000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B12" s="3">
         <v>200000</v>
@@ -6461,7 +6690,7 @@
         <v>357553</v>
       </c>
       <c r="D12" s="4">
-        <f>ABS(C12-B12)/B12</f>
+        <f t="shared" si="2"/>
         <v>0.78776500000000005</v>
       </c>
     </row>
@@ -6476,13 +6705,13 @@
         <v>20368</v>
       </c>
       <c r="D13" s="4">
-        <f>ABS(C13-B13)/B13</f>
+        <f t="shared" si="2"/>
         <v>1.0367999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B14">
         <v>0.75</v>
@@ -6491,13 +6720,13 @@
         <v>0.57840000000000003</v>
       </c>
       <c r="D14" s="4">
-        <f>ABS(C14-B14)/B14</f>
+        <f t="shared" si="2"/>
         <v>0.22879999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15">
         <v>0.5</v>
@@ -6506,7 +6735,7 @@
         <v>0.99367000000000005</v>
       </c>
       <c r="D15" s="4">
-        <f>ABS(C15-B15)/B15</f>
+        <f t="shared" si="2"/>
         <v>0.98734000000000011</v>
       </c>
     </row>
@@ -6521,7 +6750,7 @@
         <v>0.96862000000000004</v>
       </c>
       <c r="D16" s="4">
-        <f>ABS(C16-B16)/B16</f>
+        <f t="shared" si="2"/>
         <v>3.0446808510638395E-2</v>
       </c>
     </row>
@@ -6596,7 +6825,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -6605,13 +6834,13 @@
         <v>3.4722</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4722</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>1.5</v>
@@ -6620,7 +6849,7 @@
         <v>5.96</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ref="D23" si="1">ABS(C23-B23)/B23</f>
+        <f t="shared" ref="D23" si="3">ABS(C23-B23)/B23</f>
         <v>2.9733333333333332</v>
       </c>
     </row>
@@ -6649,23 +6878,23 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20">
+      <c r="A26" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19">
         <f>AVERAGE(D3:D25)</f>
         <v>0.80132687063028885</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="A27" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -6675,15 +6904,15 @@
         <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B29" s="3">
         <v>2340000000000</v>
@@ -6692,13 +6921,13 @@
         <v>2410000000000</v>
       </c>
       <c r="D29" s="4">
-        <f>ABS(C29-B29)/B29</f>
+        <f t="shared" ref="D29:D34" si="4">ABS(C29-B29)/B29</f>
         <v>2.9914529914529916E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B30" s="3">
         <v>75000000000000</v>
@@ -6707,7 +6936,7 @@
         <v>80000000000000</v>
       </c>
       <c r="D30" s="4">
-        <f>ABS(C30-B30)/B30</f>
+        <f t="shared" si="4"/>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
@@ -6722,7 +6951,7 @@
         <v>1156.6099999999999</v>
       </c>
       <c r="D31" s="4">
-        <f>ABS(C31-B31)/B31</f>
+        <f t="shared" si="4"/>
         <v>7.0935185185185087E-2</v>
       </c>
     </row>
@@ -6737,7 +6966,7 @@
         <v>1444.57</v>
       </c>
       <c r="D32" s="4">
-        <f>ABS(C32-B32)/B32</f>
+        <f t="shared" si="4"/>
         <v>0.38767531219980783</v>
       </c>
     </row>
@@ -6752,7 +6981,7 @@
         <v>4.0689999999999997E-2</v>
       </c>
       <c r="D33" s="4">
-        <f>ABS(C33-B33)/B33</f>
+        <f t="shared" si="4"/>
         <v>9.9778761061946913E-2</v>
       </c>
     </row>
@@ -6767,13 +6996,13 @@
         <v>7.1069999999999994E-2</v>
       </c>
       <c r="D34" s="4">
-        <f>ABS(C34-B34)/B34</f>
+        <f t="shared" si="4"/>
         <v>0.72559845559845559</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B35" s="3">
         <v>181000</v>
@@ -6782,13 +7011,13 @@
         <v>178000</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" ref="D35:D48" si="2">ABS(C35-B35)/B35</f>
+        <f t="shared" ref="D35" si="5">ABS(C35-B35)/B35</f>
         <v>1.6574585635359115E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B36" s="3">
         <v>193000</v>
@@ -6797,13 +7026,13 @@
         <v>188000</v>
       </c>
       <c r="D36" s="4">
-        <f>ABS(C36-B36)/B36</f>
+        <f t="shared" ref="D36:D42" si="6">ABS(C36-B36)/B36</f>
         <v>2.5906735751295335E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B37" s="3">
         <v>100000</v>
@@ -6812,13 +7041,13 @@
         <v>134561.60000000001</v>
       </c>
       <c r="D37" s="4">
-        <f>ABS(C37-B37)/B37</f>
+        <f t="shared" si="6"/>
         <v>0.34561600000000003</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B38" s="3">
         <v>200000</v>
@@ -6827,7 +7056,7 @@
         <v>203992.1</v>
       </c>
       <c r="D38" s="4">
-        <f>ABS(C38-B38)/B38</f>
+        <f t="shared" si="6"/>
         <v>1.996050000000003E-2</v>
       </c>
     </row>
@@ -6842,13 +7071,13 @@
         <v>8004.33</v>
       </c>
       <c r="D39" s="4">
-        <f>ABS(C39-B39)/B39</f>
+        <f t="shared" si="6"/>
         <v>0.19956699999999999</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0.75</v>
@@ -6857,13 +7086,13 @@
         <v>0.76419999999999999</v>
       </c>
       <c r="D40" s="4">
-        <f>ABS(C40-B40)/B40</f>
+        <f t="shared" si="6"/>
         <v>1.8933333333333319E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0.5</v>
@@ -6872,7 +7101,7 @@
         <v>0.51659999999999995</v>
       </c>
       <c r="D41" s="4">
-        <f>ABS(C41-B41)/B41</f>
+        <f t="shared" si="6"/>
         <v>3.3199999999999896E-2</v>
       </c>
     </row>
@@ -6887,7 +7116,7 @@
         <v>0.91959999999999997</v>
       </c>
       <c r="D42" s="4">
-        <f>ABS(C42-B42)/B42</f>
+        <f t="shared" si="6"/>
         <v>2.1702127659574442E-2</v>
       </c>
     </row>
@@ -6962,7 +7191,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6971,13 +7200,13 @@
         <v>0.96</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" ref="D48:D52" si="3">ABS(C48-B48)/B48</f>
+        <f t="shared" ref="D48:D49" si="7">ABS(C48-B48)/B48</f>
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B49">
         <v>1.5</v>
@@ -6986,7 +7215,7 @@
         <v>1.4950000000000001</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.3333333333332624E-3</v>
       </c>
     </row>
@@ -7015,23 +7244,23 @@
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20">
+      <c r="A52" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="19">
         <f>AVERAGE(D29:D51)</f>
         <v>0.28520726335993923</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -7041,35 +7270,35 @@
         <v>18</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B55" s="3">
         <v>2340000000000</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="4">
-        <f>ABS(C55-B55)/B55</f>
+        <f t="shared" ref="D55:D60" si="8">ABS(C55-B55)/B55</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B56" s="3">
         <v>75000000000000</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="4">
-        <f>ABS(C56-B56)/B56</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7081,7 +7310,7 @@
         <v>1080</v>
       </c>
       <c r="D57" s="4">
-        <f>ABS(C57-B57)/B57</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7093,7 +7322,7 @@
         <v>1041</v>
       </c>
       <c r="D58" s="4">
-        <f>ABS(C58-B58)/B58</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7105,7 +7334,7 @@
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="D59" s="4">
-        <f>ABS(C59-B59)/B59</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7117,57 +7346,57 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="D60" s="4">
-        <f>ABS(C60-B60)/B60</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B61" s="3">
         <v>181000</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="4">
-        <f t="shared" ref="D61:D74" si="4">ABS(C61-B61)/B61</f>
+        <f t="shared" ref="D61" si="9">ABS(C61-B61)/B61</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B62" s="3">
         <v>193000</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="4">
-        <f>ABS(C62-B62)/B62</f>
+        <f t="shared" ref="D62:D68" si="10">ABS(C62-B62)/B62</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B63" s="3">
         <v>100000</v>
       </c>
       <c r="D63" s="4">
-        <f>ABS(C63-B63)/B63</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B64" s="3">
         <v>200000</v>
       </c>
       <c r="D64" s="4">
-        <f>ABS(C64-B64)/B64</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7179,31 +7408,31 @@
         <v>10000</v>
       </c>
       <c r="D65" s="4">
-        <f>ABS(C65-B65)/B65</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B66">
         <v>0.75</v>
       </c>
       <c r="D66" s="4">
-        <f>ABS(C66-B66)/B66</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B67">
         <v>0.5</v>
       </c>
       <c r="D67" s="4">
-        <f>ABS(C67-B67)/B67</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7215,7 +7444,7 @@
         <v>0.94</v>
       </c>
       <c r="D68" s="4">
-        <f>ABS(C68-B68)/B68</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7280,25 +7509,25 @@
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" ref="D74:D78" si="5">ABS(C74-B74)/B74</f>
+        <f t="shared" ref="D74:D75" si="11">ABS(C74-B74)/B74</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B75">
         <v>1.5</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7321,23 +7550,23 @@
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="20">
+      <c r="A78" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="19">
         <f>AVERAGE(D55:D77)</f>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
     </row>
     <row r="80" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
@@ -7347,15 +7576,15 @@
         <v>18</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B81" s="3">
         <v>2340000000000</v>
@@ -7364,13 +7593,13 @@
         <v>2410000000000</v>
       </c>
       <c r="D81" s="4">
-        <f>ABS(C81-B81)/B81</f>
+        <f t="shared" ref="D81:D86" si="12">ABS(C81-B81)/B81</f>
         <v>2.9914529914529916E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B82" s="3">
         <v>75000000000000</v>
@@ -7379,7 +7608,7 @@
         <v>173000000000000</v>
       </c>
       <c r="D82" s="4">
-        <f>ABS(C82-B82)/B82</f>
+        <f t="shared" si="12"/>
         <v>1.3066666666666666</v>
       </c>
     </row>
@@ -7394,7 +7623,7 @@
         <v>1120.6300000000001</v>
       </c>
       <c r="D83" s="4">
-        <f>ABS(C83-B83)/B83</f>
+        <f t="shared" si="12"/>
         <v>3.7620370370370471E-2</v>
       </c>
     </row>
@@ -7409,7 +7638,7 @@
         <v>260.2878</v>
       </c>
       <c r="D84" s="4">
-        <f>ABS(C84-B84)/B84</f>
+        <f t="shared" si="12"/>
         <v>0.74996368876080688</v>
       </c>
     </row>
@@ -7424,7 +7653,7 @@
         <v>1.315E-2</v>
       </c>
       <c r="D85" s="4">
-        <f>ABS(C85-B85)/B85</f>
+        <f t="shared" si="12"/>
         <v>0.7090707964601769</v>
       </c>
     </row>
@@ -7439,13 +7668,13 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="D86" s="4">
-        <f>ABS(C86-B86)/B86</f>
+        <f t="shared" si="12"/>
         <v>6.1776061776061826E-2</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B87" s="3">
         <v>181000</v>
@@ -7454,13 +7683,13 @@
         <v>174000</v>
       </c>
       <c r="D87" s="4">
-        <f t="shared" ref="D87:D100" si="6">ABS(C87-B87)/B87</f>
+        <f t="shared" ref="D87" si="13">ABS(C87-B87)/B87</f>
         <v>3.8674033149171269E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B88" s="3">
         <v>193000</v>
@@ -7469,13 +7698,13 @@
         <v>415000</v>
       </c>
       <c r="D88" s="4">
-        <f>ABS(C88-B88)/B88</f>
+        <f t="shared" ref="D88:D94" si="14">ABS(C88-B88)/B88</f>
         <v>1.150259067357513</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B89" s="3">
         <v>100000</v>
@@ -7484,13 +7713,13 @@
         <v>174888.24</v>
       </c>
       <c r="D89" s="4">
-        <f>ABS(C89-B89)/B89</f>
+        <f t="shared" si="14"/>
         <v>0.74888239999999995</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B90" s="3">
         <v>200000</v>
@@ -7499,7 +7728,7 @@
         <v>763732.7</v>
       </c>
       <c r="D90" s="4">
-        <f>ABS(C90-B90)/B90</f>
+        <f t="shared" si="14"/>
         <v>2.8186635</v>
       </c>
     </row>
@@ -7514,13 +7743,13 @@
         <v>20311.75</v>
       </c>
       <c r="D91" s="4">
-        <f>ABS(C91-B91)/B91</f>
+        <f t="shared" si="14"/>
         <v>1.031175</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B92">
         <v>0.75</v>
@@ -7529,13 +7758,13 @@
         <v>0.5786</v>
       </c>
       <c r="D92" s="4">
-        <f>ABS(C92-B92)/B92</f>
+        <f t="shared" si="14"/>
         <v>0.22853333333333334</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B93">
         <v>0.5</v>
@@ -7544,7 +7773,7 @@
         <v>0.64659999999999995</v>
       </c>
       <c r="D93" s="4">
-        <f>ABS(C93-B93)/B93</f>
+        <f t="shared" si="14"/>
         <v>0.29319999999999991</v>
       </c>
     </row>
@@ -7559,7 +7788,7 @@
         <v>0.89851440000000005</v>
       </c>
       <c r="D94" s="4">
-        <f>ABS(C94-B94)/B94</f>
+        <f t="shared" si="14"/>
         <v>4.4133617021276494E-2</v>
       </c>
     </row>
@@ -7634,7 +7863,7 @@
     </row>
     <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -7643,13 +7872,13 @@
         <v>1.964</v>
       </c>
       <c r="D100" s="4">
-        <f t="shared" ref="D100:D104" si="7">ABS(C100-B100)/B100</f>
+        <f t="shared" ref="D100:D101" si="15">ABS(C100-B100)/B100</f>
         <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B101">
         <v>1.5</v>
@@ -7658,7 +7887,7 @@
         <v>3.8698600000000001</v>
       </c>
       <c r="D101" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.5799066666666668</v>
       </c>
     </row>
@@ -7687,23 +7916,23 @@
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="20">
+      <c r="A104" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="19">
         <f>AVERAGE(D81:D103)</f>
         <v>0.75636963317060546</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
+      <c r="A105" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
     </row>
     <row r="106" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
@@ -7713,15 +7942,15 @@
         <v>18</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B107" s="3">
         <v>2340000000000</v>
@@ -7730,13 +7959,13 @@
         <v>3970000000000</v>
       </c>
       <c r="D107" s="4">
-        <f>ABS(C107-B107)/B107</f>
+        <f t="shared" ref="D107:D112" si="16">ABS(C107-B107)/B107</f>
         <v>0.69658119658119655</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B108" s="3">
         <v>75000000000000</v>
@@ -7745,7 +7974,7 @@
         <v>33200000000000</v>
       </c>
       <c r="D108" s="4">
-        <f>ABS(C108-B108)/B108</f>
+        <f t="shared" si="16"/>
         <v>0.55733333333333335</v>
       </c>
     </row>
@@ -7760,7 +7989,7 @@
         <v>1091.789</v>
       </c>
       <c r="D109" s="4">
-        <f>ABS(C109-B109)/B109</f>
+        <f t="shared" si="16"/>
         <v>1.0915740740740729E-2</v>
       </c>
     </row>
@@ -7775,7 +8004,7 @@
         <v>1083.4749999999999</v>
       </c>
       <c r="D110" s="4">
-        <f>ABS(C110-B110)/B110</f>
+        <f t="shared" si="16"/>
         <v>4.0802113352545542E-2</v>
       </c>
     </row>
@@ -7790,7 +8019,7 @@
         <v>5.9659999999999998E-2</v>
       </c>
       <c r="D111" s="4">
-        <f>ABS(C111-B111)/B111</f>
+        <f t="shared" si="16"/>
         <v>0.31991150442477878</v>
       </c>
     </row>
@@ -7805,13 +8034,13 @@
         <v>0.192</v>
       </c>
       <c r="D112" s="4">
-        <f>ABS(C112-B112)/B112</f>
+        <f t="shared" si="16"/>
         <v>0.25868725868725867</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B113" s="3">
         <v>181000</v>
@@ -7820,13 +8049,13 @@
         <v>450000</v>
       </c>
       <c r="D113" s="4">
-        <f t="shared" ref="D113:D126" si="8">ABS(C113-B113)/B113</f>
+        <f t="shared" ref="D113" si="17">ABS(C113-B113)/B113</f>
         <v>1.4861878453038675</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B114" s="3">
         <v>193000</v>
@@ -7835,13 +8064,13 @@
         <v>187000</v>
       </c>
       <c r="D114" s="4">
-        <f>ABS(C114-B114)/B114</f>
+        <f t="shared" ref="D114:D120" si="18">ABS(C114-B114)/B114</f>
         <v>3.1088082901554404E-2</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B115" s="3">
         <v>100000</v>
@@ -7850,13 +8079,13 @@
         <v>356367</v>
       </c>
       <c r="D115" s="4">
-        <f>ABS(C115-B115)/B115</f>
+        <f t="shared" si="18"/>
         <v>2.5636700000000001</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B116" s="3">
         <v>200000</v>
@@ -7865,7 +8094,7 @@
         <v>166498</v>
       </c>
       <c r="D116" s="4">
-        <f>ABS(C116-B116)/B116</f>
+        <f t="shared" si="18"/>
         <v>0.16750999999999999</v>
       </c>
     </row>
@@ -7880,13 +8109,13 @@
         <v>10656</v>
       </c>
       <c r="D117" s="4">
-        <f>ABS(C117-B117)/B117</f>
+        <f t="shared" si="18"/>
         <v>6.5600000000000006E-2</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B118">
         <v>0.75</v>
@@ -7895,13 +8124,13 @@
         <v>0.999</v>
       </c>
       <c r="D118" s="4">
-        <f>ABS(C118-B118)/B118</f>
+        <f t="shared" si="18"/>
         <v>0.33200000000000002</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B119">
         <v>0.5</v>
@@ -7910,7 +8139,7 @@
         <v>0.58199999999999996</v>
       </c>
       <c r="D119" s="4">
-        <f>ABS(C119-B119)/B119</f>
+        <f t="shared" si="18"/>
         <v>0.16399999999999992</v>
       </c>
     </row>
@@ -7925,7 +8154,7 @@
         <v>0.9526</v>
       </c>
       <c r="D120" s="4">
-        <f>ABS(C120-B120)/B120</f>
+        <f t="shared" si="18"/>
         <v>1.3404255319148996E-2</v>
       </c>
     </row>
@@ -8000,7 +8229,7 @@
     </row>
     <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -8009,13 +8238,13 @@
         <v>1.4097999999999999</v>
       </c>
       <c r="D126" s="4">
-        <f t="shared" ref="D126:D130" si="9">ABS(C126-B126)/B126</f>
+        <f t="shared" ref="D126:D127" si="19">ABS(C126-B126)/B126</f>
         <v>0.40979999999999994</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B127">
         <v>1.5</v>
@@ -8024,7 +8253,7 @@
         <v>1.2955000000000001</v>
       </c>
       <c r="D127" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.13633333333333328</v>
       </c>
     </row>
@@ -8053,23 +8282,23 @@
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="20">
+      <c r="A130" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="19">
         <f>AVERAGE(D107:D129)</f>
         <v>0.39518984895509751</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="17" t="s">
+      <c r="A131" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
     </row>
     <row r="132" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -8079,15 +8308,15 @@
         <v>18</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B133" s="3">
         <v>2340000000000</v>
@@ -8096,13 +8325,13 @@
         <v>2370000000000</v>
       </c>
       <c r="D133" s="4">
-        <f>ABS(C133-B133)/B133</f>
+        <f t="shared" ref="D133:D138" si="20">ABS(C133-B133)/B133</f>
         <v>1.282051282051282E-2</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B134" s="3">
         <v>75000000000000</v>
@@ -8111,7 +8340,7 @@
         <v>74800000000000</v>
       </c>
       <c r="D134" s="4">
-        <f>ABS(C134-B134)/B134</f>
+        <f t="shared" si="20"/>
         <v>2.6666666666666666E-3</v>
       </c>
     </row>
@@ -8126,7 +8355,7 @@
         <v>1270.3800000000001</v>
       </c>
       <c r="D135" s="4">
-        <f>ABS(C135-B135)/B135</f>
+        <f t="shared" si="20"/>
         <v>0.17627777777777787</v>
       </c>
     </row>
@@ -8141,7 +8370,7 @@
         <v>2692.7</v>
       </c>
       <c r="D136" s="4">
-        <f>ABS(C136-B136)/B136</f>
+        <f t="shared" si="20"/>
         <v>1.5866474543707971</v>
       </c>
     </row>
@@ -8156,7 +8385,7 @@
         <v>8.6599999999999996E-2</v>
       </c>
       <c r="D137" s="4">
-        <f>ABS(C137-B137)/B137</f>
+        <f t="shared" si="20"/>
         <v>0.9159292035398231</v>
       </c>
     </row>
@@ -8171,13 +8400,13 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="D138" s="4">
-        <f>ABS(C138-B138)/B138</f>
+        <f t="shared" si="20"/>
         <v>1.7528957528957527</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B139" s="3">
         <v>181000</v>
@@ -8186,13 +8415,13 @@
         <v>174000</v>
       </c>
       <c r="D139" s="4">
-        <f t="shared" ref="D139:D152" si="10">ABS(C139-B139)/B139</f>
+        <f t="shared" ref="D139" si="21">ABS(C139-B139)/B139</f>
         <v>3.8674033149171269E-2</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B140" s="3">
         <v>193000</v>
@@ -8201,13 +8430,13 @@
         <v>183000</v>
       </c>
       <c r="D140" s="4">
-        <f>ABS(C140-B140)/B140</f>
+        <f t="shared" ref="D140:D146" si="22">ABS(C140-B140)/B140</f>
         <v>5.181347150259067E-2</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B141" s="3">
         <v>100000</v>
@@ -8216,13 +8445,13 @@
         <v>140255</v>
       </c>
       <c r="D141" s="4">
-        <f>ABS(C141-B141)/B141</f>
+        <f t="shared" si="22"/>
         <v>0.40255000000000002</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B142" s="3">
         <v>200000</v>
@@ -8231,7 +8460,7 @@
         <v>249845.7</v>
       </c>
       <c r="D142" s="4">
-        <f>ABS(C142-B142)/B142</f>
+        <f t="shared" si="22"/>
         <v>0.24922850000000005</v>
       </c>
     </row>
@@ -8246,13 +8475,13 @@
         <v>19186.86</v>
       </c>
       <c r="D143" s="4">
-        <f>ABS(C143-B143)/B143</f>
+        <f t="shared" si="22"/>
         <v>0.91868600000000011</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B144">
         <v>0.75</v>
@@ -8261,13 +8490,13 @@
         <v>0.72230000000000005</v>
       </c>
       <c r="D144" s="4">
-        <f>ABS(C144-B144)/B144</f>
+        <f t="shared" si="22"/>
         <v>3.6933333333333263E-2</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B145">
         <v>0.5</v>
@@ -8276,7 +8505,7 @@
         <v>0.5302</v>
       </c>
       <c r="D145" s="4">
-        <f>ABS(C145-B145)/B145</f>
+        <f t="shared" si="22"/>
         <v>6.0400000000000009E-2</v>
       </c>
     </row>
@@ -8291,7 +8520,7 @@
         <v>0.93279999999999996</v>
       </c>
       <c r="D146" s="4">
-        <f>ABS(C146-B146)/B146</f>
+        <f t="shared" si="22"/>
         <v>7.6595744680850904E-3</v>
       </c>
     </row>
@@ -8366,7 +8595,7 @@
     </row>
     <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -8375,13 +8604,13 @@
         <v>0.97199999999999998</v>
       </c>
       <c r="D152" s="4">
-        <f t="shared" ref="D152:D156" si="11">ABS(C152-B152)/B152</f>
+        <f t="shared" ref="D152:D153" si="23">ABS(C152-B152)/B152</f>
         <v>2.8000000000000025E-2</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B153">
         <v>1.5</v>
@@ -8390,7 +8619,7 @@
         <v>1.494</v>
       </c>
       <c r="D153" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>4.0000000000000036E-3</v>
       </c>
     </row>
@@ -8419,23 +8648,23 @@
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B156" s="19"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="20">
+      <c r="A156" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B156" s="18"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="19">
         <f>AVERAGE(D133:D155)</f>
         <v>0.45160656562906476</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="17" t="s">
+      <c r="A157" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B157" s="17"/>
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
     </row>
     <row r="158" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
@@ -8445,15 +8674,15 @@
         <v>18</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B159" s="3">
         <v>2340000000000</v>
@@ -8462,13 +8691,13 @@
         <v>2340000000000</v>
       </c>
       <c r="D159" s="4">
-        <f>ABS(C159-B159)/B159</f>
+        <f t="shared" ref="D159:D164" si="24">ABS(C159-B159)/B159</f>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B160" s="3">
         <v>75000000000000</v>
@@ -8477,7 +8706,7 @@
         <v>74200000000000</v>
       </c>
       <c r="D160" s="4">
-        <f>ABS(C160-B160)/B160</f>
+        <f t="shared" si="24"/>
         <v>1.0666666666666666E-2</v>
       </c>
     </row>
@@ -8492,7 +8721,7 @@
         <v>1125.3699999999999</v>
       </c>
       <c r="D161" s="4">
-        <f>ABS(C161-B161)/B161</f>
+        <f t="shared" si="24"/>
         <v>4.2009259259259156E-2</v>
       </c>
     </row>
@@ -8507,7 +8736,7 @@
         <v>2041.87</v>
       </c>
       <c r="D162" s="4">
-        <f>ABS(C162-B162)/B162</f>
+        <f t="shared" si="24"/>
         <v>0.96145052833813627</v>
       </c>
     </row>
@@ -8522,7 +8751,7 @@
         <v>0.11138000000000001</v>
       </c>
       <c r="D163" s="4">
-        <f>ABS(C163-B163)/B163</f>
+        <f t="shared" si="24"/>
         <v>1.4641592920353987</v>
       </c>
     </row>
@@ -8537,13 +8766,13 @@
         <v>0.58660000000000001</v>
       </c>
       <c r="D164" s="4">
-        <f>ABS(C164-B164)/B164</f>
+        <f t="shared" si="24"/>
         <v>1.2648648648648648</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B165" s="3">
         <v>181000</v>
@@ -8552,13 +8781,13 @@
         <v>178000</v>
       </c>
       <c r="D165" s="4">
-        <f t="shared" ref="D165:D178" si="12">ABS(C165-B165)/B165</f>
+        <f t="shared" ref="D165" si="25">ABS(C165-B165)/B165</f>
         <v>1.6574585635359115E-2</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B166" s="3">
         <v>193000</v>
@@ -8567,13 +8796,13 @@
         <v>189000</v>
       </c>
       <c r="D166" s="4">
-        <f>ABS(C166-B166)/B166</f>
+        <f t="shared" ref="D166:D172" si="26">ABS(C166-B166)/B166</f>
         <v>2.072538860103627E-2</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B167" s="3">
         <v>100000</v>
@@ -8582,13 +8811,13 @@
         <v>237945.86</v>
       </c>
       <c r="D167" s="4">
-        <f>ABS(C167-B167)/B167</f>
+        <f t="shared" si="26"/>
         <v>1.3794585999999998</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B168" s="3">
         <v>200000</v>
@@ -8597,7 +8826,7 @@
         <v>178233</v>
       </c>
       <c r="D168" s="4">
-        <f>ABS(C168-B168)/B168</f>
+        <f t="shared" si="26"/>
         <v>0.108835</v>
       </c>
     </row>
@@ -8612,13 +8841,13 @@
         <v>23391</v>
       </c>
       <c r="D169" s="4">
-        <f>ABS(C169-B169)/B169</f>
+        <f t="shared" si="26"/>
         <v>1.3391</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B170">
         <v>0.75</v>
@@ -8627,13 +8856,13 @@
         <v>0.747</v>
       </c>
       <c r="D170" s="4">
-        <f>ABS(C170-B170)/B170</f>
+        <f t="shared" si="26"/>
         <v>4.0000000000000036E-3</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B171">
         <v>0.5</v>
@@ -8642,7 +8871,7 @@
         <v>0.51349999999999996</v>
       </c>
       <c r="D171" s="4">
-        <f>ABS(C171-B171)/B171</f>
+        <f t="shared" si="26"/>
         <v>2.6999999999999913E-2</v>
       </c>
     </row>
@@ -8657,7 +8886,7 @@
         <v>0.93740000000000001</v>
       </c>
       <c r="D172" s="4">
-        <f>ABS(C172-B172)/B172</f>
+        <f t="shared" si="26"/>
         <v>2.7659574468084426E-3</v>
       </c>
     </row>
@@ -8732,7 +8961,7 @@
     </row>
     <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -8741,13 +8970,13 @@
         <v>1.0297000000000001</v>
       </c>
       <c r="D178" s="4">
-        <f t="shared" ref="D178:D182" si="13">ABS(C178-B178)/B178</f>
+        <f t="shared" ref="D178:D179" si="27">ABS(C178-B178)/B178</f>
         <v>2.970000000000006E-2</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B179">
         <v>1.5</v>
@@ -8756,7 +8985,7 @@
         <v>1.4970000000000001</v>
       </c>
       <c r="D179" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>1.9999999999999276E-3</v>
       </c>
     </row>
@@ -8785,23 +9014,23 @@
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B182" s="19"/>
-      <c r="C182" s="19"/>
-      <c r="D182" s="20">
+      <c r="A182" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B182" s="18"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="19">
         <f>AVERAGE(D159:D181)</f>
         <v>0.42713444610874268</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B183" s="17"/>
-      <c r="C183" s="17"/>
-      <c r="D183" s="17"/>
+      <c r="A183" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="20"/>
     </row>
     <row r="184" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
@@ -8811,15 +9040,15 @@
         <v>18</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B185" s="3">
         <v>2340000000000</v>
@@ -8828,13 +9057,13 @@
         <v>5210000000000</v>
       </c>
       <c r="D185" s="4">
-        <f>ABS(C185-B185)/B185</f>
+        <f t="shared" ref="D185:D190" si="28">ABS(C185-B185)/B185</f>
         <v>1.2264957264957266</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B186" s="3">
         <v>75000000000000</v>
@@ -8843,7 +9072,7 @@
         <v>18800000000000</v>
       </c>
       <c r="D186" s="4">
-        <f>ABS(C186-B186)/B186</f>
+        <f t="shared" si="28"/>
         <v>0.7493333333333333</v>
       </c>
     </row>
@@ -8858,7 +9087,7 @@
         <v>1081.5</v>
       </c>
       <c r="D187" s="4">
-        <f>ABS(C187-B187)/B187</f>
+        <f t="shared" si="28"/>
         <v>1.3888888888888889E-3</v>
       </c>
     </row>
@@ -8873,7 +9102,7 @@
         <v>730.62599999999998</v>
       </c>
       <c r="D188" s="4">
-        <f>ABS(C188-B188)/B188</f>
+        <f t="shared" si="28"/>
         <v>0.29814985590778098</v>
       </c>
     </row>
@@ -8888,7 +9117,7 @@
         <v>0.11459999999999999</v>
       </c>
       <c r="D189" s="4">
-        <f>ABS(C189-B189)/B189</f>
+        <f t="shared" si="28"/>
         <v>1.5353982300884954</v>
       </c>
     </row>
@@ -8903,13 +9132,13 @@
         <v>0.66449999999999998</v>
       </c>
       <c r="D190" s="4">
-        <f>ABS(C190-B190)/B190</f>
+        <f t="shared" si="28"/>
         <v>1.5656370656370655</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B191" s="3">
         <v>181000</v>
@@ -8918,13 +9147,13 @@
         <v>178000</v>
       </c>
       <c r="D191" s="4">
-        <f t="shared" ref="D191:D204" si="14">ABS(C191-B191)/B191</f>
+        <f t="shared" ref="D191" si="29">ABS(C191-B191)/B191</f>
         <v>1.6574585635359115E-2</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B192" s="3">
         <v>193000</v>
@@ -8933,13 +9162,13 @@
         <v>224000</v>
       </c>
       <c r="D192" s="4">
-        <f>ABS(C192-B192)/B192</f>
+        <f t="shared" ref="D192:D198" si="30">ABS(C192-B192)/B192</f>
         <v>0.16062176165803108</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B193" s="3">
         <v>100000</v>
@@ -8948,13 +9177,13 @@
         <v>166029.14000000001</v>
       </c>
       <c r="D193" s="4">
-        <f>ABS(C193-B193)/B193</f>
+        <f t="shared" si="30"/>
         <v>0.66029140000000019</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B194" s="3">
         <v>200000</v>
@@ -8963,7 +9192,7 @@
         <v>397450.4</v>
       </c>
       <c r="D194" s="4">
-        <f>ABS(C194-B194)/B194</f>
+        <f t="shared" si="30"/>
         <v>0.98725200000000013</v>
       </c>
     </row>
@@ -8978,13 +9207,13 @@
         <v>39998.86</v>
       </c>
       <c r="D195" s="4">
-        <f>ABS(C195-B195)/B195</f>
+        <f t="shared" si="30"/>
         <v>2.9998860000000001</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B196">
         <v>0.75</v>
@@ -8993,13 +9222,13 @@
         <v>0.58199999999999996</v>
       </c>
       <c r="D196" s="4">
-        <f>ABS(C196-B196)/B196</f>
+        <f t="shared" si="30"/>
         <v>0.22400000000000006</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B197">
         <v>0.5</v>
@@ -9008,7 +9237,7 @@
         <v>0.64090000000000003</v>
       </c>
       <c r="D197" s="4">
-        <f>ABS(C197-B197)/B197</f>
+        <f t="shared" si="30"/>
         <v>0.28180000000000005</v>
       </c>
     </row>
@@ -9023,7 +9252,7 @@
         <v>0.96155000000000002</v>
       </c>
       <c r="D198" s="4">
-        <f>ABS(C198-B198)/B198</f>
+        <f t="shared" si="30"/>
         <v>2.2925531914893691E-2</v>
       </c>
     </row>
@@ -9098,7 +9327,7 @@
     </row>
     <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -9107,13 +9336,13 @@
         <v>1.236</v>
       </c>
       <c r="D204" s="4">
-        <f t="shared" ref="D204:D208" si="15">ABS(C204-B204)/B204</f>
+        <f t="shared" ref="D204:D205" si="31">ABS(C204-B204)/B204</f>
         <v>0.23599999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B205">
         <v>1.5</v>
@@ -9122,7 +9351,7 @@
         <v>2.2054</v>
       </c>
       <c r="D205" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>0.47026666666666667</v>
       </c>
     </row>
@@ -9151,23 +9380,23 @@
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B208" s="19"/>
-      <c r="C208" s="19"/>
-      <c r="D208" s="20">
+      <c r="A208" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B208" s="18"/>
+      <c r="C208" s="18"/>
+      <c r="D208" s="19">
         <f>AVERAGE(D185:D207)</f>
         <v>0.64630643433824708</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B209" s="17"/>
-      <c r="C209" s="17"/>
-      <c r="D209" s="17"/>
+      <c r="A209" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B209" s="20"/>
+      <c r="C209" s="20"/>
+      <c r="D209" s="20"/>
     </row>
     <row r="210" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
@@ -9177,15 +9406,15 @@
         <v>18</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B211" s="3">
         <v>2340000000000</v>
@@ -9194,13 +9423,13 @@
         <v>2490000000000</v>
       </c>
       <c r="D211" s="4">
-        <f>ABS(C211-B211)/B211</f>
+        <f t="shared" ref="D211:D216" si="32">ABS(C211-B211)/B211</f>
         <v>6.4102564102564097E-2</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B212" s="3">
         <v>75000000000000</v>
@@ -9209,7 +9438,7 @@
         <v>69600000000000</v>
       </c>
       <c r="D212" s="4">
-        <f>ABS(C212-B212)/B212</f>
+        <f t="shared" si="32"/>
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
@@ -9224,7 +9453,7 @@
         <v>1097.8499999999999</v>
       </c>
       <c r="D213" s="4">
-        <f>ABS(C213-B213)/B213</f>
+        <f t="shared" si="32"/>
         <v>1.6527777777777693E-2</v>
       </c>
     </row>
@@ -9239,7 +9468,7 @@
         <v>615.32000000000005</v>
       </c>
       <c r="D214" s="4">
-        <f>ABS(C214-B214)/B214</f>
+        <f t="shared" si="32"/>
         <v>0.4089145052833813</v>
       </c>
     </row>
@@ -9254,7 +9483,7 @@
         <v>3.6400000000000002E-2</v>
       </c>
       <c r="D215" s="4">
-        <f>ABS(C215-B215)/B215</f>
+        <f t="shared" si="32"/>
         <v>0.19469026548672558</v>
       </c>
     </row>
@@ -9269,13 +9498,13 @@
         <v>0.84116000000000002</v>
       </c>
       <c r="D216" s="4">
-        <f>ABS(C216-B216)/B216</f>
+        <f t="shared" si="32"/>
         <v>2.2477220077220075</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B217" s="3">
         <v>181000</v>
@@ -9284,13 +9513,13 @@
         <v>180000</v>
       </c>
       <c r="D217" s="4">
-        <f t="shared" ref="D217:D230" si="16">ABS(C217-B217)/B217</f>
+        <f t="shared" ref="D217" si="33">ABS(C217-B217)/B217</f>
         <v>5.5248618784530384E-3</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B218" s="3">
         <v>193000</v>
@@ -9299,13 +9528,13 @@
         <v>193000</v>
       </c>
       <c r="D218" s="4">
-        <f>ABS(C218-B218)/B218</f>
+        <f t="shared" ref="D218:D224" si="34">ABS(C218-B218)/B218</f>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B219" s="3">
         <v>100000</v>
@@ -9314,13 +9543,13 @@
         <v>146090.4</v>
       </c>
       <c r="D219" s="4">
-        <f>ABS(C219-B219)/B219</f>
+        <f t="shared" si="34"/>
         <v>0.46090399999999992</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B220" s="3">
         <v>200000</v>
@@ -9329,7 +9558,7 @@
         <v>183230.8</v>
       </c>
       <c r="D220" s="4">
-        <f>ABS(C220-B220)/B220</f>
+        <f t="shared" si="34"/>
         <v>8.3846000000000059E-2</v>
       </c>
     </row>
@@ -9344,13 +9573,13 @@
         <v>9769.35</v>
       </c>
       <c r="D221" s="4">
-        <f>ABS(C221-B221)/B221</f>
+        <f t="shared" si="34"/>
         <v>2.3064999999999964E-2</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B222">
         <v>0.75</v>
@@ -9359,13 +9588,13 @@
         <v>0.68</v>
       </c>
       <c r="D222" s="4">
-        <f>ABS(C222-B222)/B222</f>
+        <f t="shared" si="34"/>
         <v>9.3333333333333268E-2</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B223">
         <v>0.5</v>
@@ -9374,7 +9603,7 @@
         <v>0.51770000000000005</v>
       </c>
       <c r="D223" s="4">
-        <f>ABS(C223-B223)/B223</f>
+        <f t="shared" si="34"/>
         <v>3.5400000000000098E-2</v>
       </c>
     </row>
@@ -9389,7 +9618,7 @@
         <v>0.94869999999999999</v>
       </c>
       <c r="D224" s="4">
-        <f>ABS(C224-B224)/B224</f>
+        <f t="shared" si="34"/>
         <v>9.2553191489362138E-3</v>
       </c>
     </row>
@@ -9464,7 +9693,7 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -9473,13 +9702,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D230" s="4">
-        <f t="shared" ref="D230:D234" si="17">ABS(C230-B230)/B230</f>
+        <f t="shared" ref="D230:D231" si="35">ABS(C230-B230)/B230</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B231">
         <v>1.5</v>
@@ -9488,7 +9717,7 @@
         <v>1.4639</v>
       </c>
       <c r="D231" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>2.4066666666666681E-2</v>
       </c>
     </row>
@@ -9517,12 +9746,12 @@
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B234" s="19"/>
-      <c r="C234" s="19"/>
-      <c r="D234" s="20">
+      <c r="A234" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B234" s="18"/>
+      <c r="C234" s="18"/>
+      <c r="D234" s="19">
         <f>AVERAGE(D211:D233)</f>
         <v>0.22268827247871306</v>
       </c>
@@ -9550,8 +9779,8 @@
     <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="1">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="1">
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9560,12 +9789,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9575,15 +9804,15 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3">
         <v>2340000000000</v>
@@ -9592,13 +9821,13 @@
         <v>2290000000000</v>
       </c>
       <c r="D3" s="4">
-        <f>ABS(C3-B3)/B3</f>
+        <f t="shared" ref="D3:D9" si="0">ABS(C3-B3)/B3</f>
         <v>2.1367521367521368E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3">
         <v>75000000000000</v>
@@ -9607,13 +9836,13 @@
         <v>81500000000000</v>
       </c>
       <c r="D4" s="4">
-        <f>ABS(C4-B4)/B4</f>
+        <f t="shared" si="0"/>
         <v>8.666666666666667E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B5" s="3">
         <v>9200000000000</v>
@@ -9622,7 +9851,7 @@
         <v>8630000000000</v>
       </c>
       <c r="D5" s="4">
-        <f>ABS(C5-B5)/B5</f>
+        <f t="shared" si="0"/>
         <v>6.1956521739130438E-2</v>
       </c>
     </row>
@@ -9637,7 +9866,7 @@
         <v>1058.77</v>
       </c>
       <c r="D6" s="4">
-        <f>ABS(C6-B6)/B6</f>
+        <f t="shared" si="0"/>
         <v>1.9657407407407426E-2</v>
       </c>
     </row>
@@ -9652,7 +9881,7 @@
         <v>1183.73</v>
       </c>
       <c r="D7" s="4">
-        <f>ABS(C7-B7)/B7</f>
+        <f t="shared" si="0"/>
         <v>0.13710854947166187</v>
       </c>
     </row>
@@ -9667,7 +9896,7 @@
         <v>4.8079999999999998E-2</v>
       </c>
       <c r="D8" s="4">
-        <f>ABS(C8-B8)/B8</f>
+        <f t="shared" si="0"/>
         <v>6.3716814159292048E-2</v>
       </c>
     </row>
@@ -9682,13 +9911,13 @@
         <v>0.67090000000000005</v>
       </c>
       <c r="D9" s="4">
-        <f>ABS(C9-B9)/B9</f>
+        <f t="shared" si="0"/>
         <v>1.5903474903474906</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B10" s="3">
         <v>181000</v>
@@ -9697,13 +9926,13 @@
         <v>179000</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" ref="D10:D27" si="0">ABS(C10-B10)/B10</f>
+        <f t="shared" ref="D10:D27" si="1">ABS(C10-B10)/B10</f>
         <v>1.1049723756906077E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="3">
         <v>193000</v>
@@ -9712,13 +9941,13 @@
         <v>188000</v>
       </c>
       <c r="D11" s="4">
-        <f>ABS(C11-B11)/B11</f>
+        <f t="shared" ref="D11:D20" si="2">ABS(C11-B11)/B11</f>
         <v>2.5906735751295335E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B12" s="3">
         <v>175000</v>
@@ -9727,13 +9956,13 @@
         <v>172000</v>
       </c>
       <c r="D12" s="4">
-        <f>ABS(C12-B12)/B12</f>
+        <f t="shared" si="2"/>
         <v>1.7142857142857144E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" s="3">
         <v>100000</v>
@@ -9742,13 +9971,13 @@
         <v>130108.95</v>
       </c>
       <c r="D13" s="4">
-        <f>ABS(C13-B13)/B13</f>
+        <f t="shared" si="2"/>
         <v>0.30108949999999995</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B14" s="3">
         <v>200000</v>
@@ -9757,13 +9986,13 @@
         <v>237446.9</v>
       </c>
       <c r="D14" s="4">
-        <f>ABS(C14-B14)/B14</f>
+        <f t="shared" si="2"/>
         <v>0.18723449999999997</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B15" s="3">
         <v>400000</v>
@@ -9772,7 +10001,7 @@
         <v>424893.9</v>
       </c>
       <c r="D15" s="4">
-        <f>ABS(C15-B15)/B15</f>
+        <f t="shared" si="2"/>
         <v>6.2234750000000061E-2</v>
       </c>
     </row>
@@ -9787,13 +10016,13 @@
         <v>27208</v>
       </c>
       <c r="D16" s="4">
-        <f>ABS(C16-B16)/B16</f>
+        <f t="shared" si="2"/>
         <v>1.7208000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B17">
         <v>0.75</v>
@@ -9802,13 +10031,13 @@
         <v>0.76700000000000002</v>
       </c>
       <c r="D17" s="4">
-        <f>ABS(C17-B17)/B17</f>
+        <f t="shared" si="2"/>
         <v>2.2666666666666686E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B18">
         <v>0.5</v>
@@ -9817,13 +10046,13 @@
         <v>0.49869999999999998</v>
       </c>
       <c r="D18" s="4">
-        <f>ABS(C18-B18)/B18</f>
+        <f t="shared" si="2"/>
         <v>2.6000000000000467E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B19">
         <v>0.3</v>
@@ -9832,7 +10061,7 @@
         <v>0.28289999999999998</v>
       </c>
       <c r="D19" s="4">
-        <f>ABS(C19-B19)/B19</f>
+        <f t="shared" si="2"/>
         <v>5.7000000000000016E-2</v>
       </c>
     </row>
@@ -9847,7 +10076,7 @@
         <v>0.88060000000000005</v>
       </c>
       <c r="D20" s="4">
-        <f>ABS(C20-B20)/B20</f>
+        <f t="shared" si="2"/>
         <v>6.3191489361702019E-2</v>
       </c>
     </row>
@@ -9922,7 +10151,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -9931,13 +10160,13 @@
         <v>0.97660000000000002</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3399999999999976E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B27">
         <v>1.5</v>
@@ -9946,13 +10175,13 @@
         <v>1.3906000000000001</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2933333333333294E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -9961,7 +10190,7 @@
         <v>3.1190000000000002</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" ref="D28" si="1">ABS(C28-B28)/B28</f>
+        <f t="shared" ref="D28" si="3">ABS(C28-B28)/B28</f>
         <v>3.9666666666666739E-2</v>
       </c>
     </row>
@@ -9990,23 +10219,23 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20">
+      <c r="A31" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19">
         <f>AVERAGE(D3:D30)</f>
         <v>0.20211784415887502</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
     </row>
     <row r="33" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -10016,15 +10245,15 @@
         <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B34" s="3">
         <v>2340000000000</v>
@@ -10033,13 +10262,13 @@
         <v>3880000000000</v>
       </c>
       <c r="D34" s="4">
-        <f>ABS(C34-B34)/B34</f>
+        <f t="shared" ref="D34:D40" si="4">ABS(C34-B34)/B34</f>
         <v>0.65811965811965811</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B35" s="3">
         <v>75000000000000</v>
@@ -10048,13 +10277,13 @@
         <v>99500000000000</v>
       </c>
       <c r="D35" s="4">
-        <f>ABS(C35-B35)/B35</f>
+        <f t="shared" si="4"/>
         <v>0.32666666666666666</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B36" s="3">
         <v>9200000000000</v>
@@ -10063,7 +10292,7 @@
         <v>13200000000000</v>
       </c>
       <c r="D36" s="4">
-        <f>ABS(C36-B36)/B36</f>
+        <f t="shared" si="4"/>
         <v>0.43478260869565216</v>
       </c>
     </row>
@@ -10078,7 +10307,7 @@
         <v>1506.78</v>
       </c>
       <c r="D37" s="4">
-        <f>ABS(C37-B37)/B37</f>
+        <f t="shared" si="4"/>
         <v>0.39516666666666667</v>
       </c>
     </row>
@@ -10093,7 +10322,7 @@
         <v>2638.3</v>
       </c>
       <c r="D38" s="4">
-        <f>ABS(C38-B38)/B38</f>
+        <f t="shared" si="4"/>
         <v>1.534390009606148</v>
       </c>
     </row>
@@ -10108,7 +10337,7 @@
         <v>9.2939999999999995E-2</v>
       </c>
       <c r="D39" s="4">
-        <f>ABS(C39-B39)/B39</f>
+        <f t="shared" si="4"/>
         <v>1.0561946902654868</v>
       </c>
     </row>
@@ -10123,13 +10352,13 @@
         <v>0.54369999999999996</v>
       </c>
       <c r="D40" s="4">
-        <f>ABS(C40-B40)/B40</f>
+        <f t="shared" si="4"/>
         <v>1.099227799227799</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B41" s="3">
         <v>181000</v>
@@ -10138,13 +10367,13 @@
         <v>156000</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" ref="D41:D58" si="2">ABS(C41-B41)/B41</f>
+        <f t="shared" ref="D41" si="5">ABS(C41-B41)/B41</f>
         <v>0.13812154696132597</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B42" s="3">
         <v>193000</v>
@@ -10153,13 +10382,13 @@
         <v>149000</v>
       </c>
       <c r="D42" s="4">
-        <f>ABS(C42-B42)/B42</f>
+        <f t="shared" ref="D42:D51" si="6">ABS(C42-B42)/B42</f>
         <v>0.22797927461139897</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B43" s="3">
         <v>175000</v>
@@ -10168,13 +10397,13 @@
         <v>285000</v>
       </c>
       <c r="D43" s="4">
-        <f>ABS(C43-B43)/B43</f>
+        <f t="shared" si="6"/>
         <v>0.62857142857142856</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B44" s="3">
         <v>100000</v>
@@ -10183,13 +10412,13 @@
         <v>272682.03999999998</v>
       </c>
       <c r="D44" s="4">
-        <f>ABS(C44-B44)/B44</f>
+        <f t="shared" si="6"/>
         <v>1.7268203999999998</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B45" s="3">
         <v>200000</v>
@@ -10198,13 +10427,13 @@
         <v>473951.8</v>
       </c>
       <c r="D45" s="4">
-        <f>ABS(C45-B45)/B45</f>
+        <f t="shared" si="6"/>
         <v>1.3697589999999999</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B46" s="3">
         <v>400000</v>
@@ -10213,7 +10442,7 @@
         <v>831263.9</v>
       </c>
       <c r="D46" s="4">
-        <f>ABS(C46-B46)/B46</f>
+        <f t="shared" si="6"/>
         <v>1.07815975</v>
       </c>
     </row>
@@ -10228,13 +10457,13 @@
         <v>19298.599999999999</v>
       </c>
       <c r="D47" s="4">
-        <f>ABS(C47-B47)/B47</f>
+        <f t="shared" si="6"/>
         <v>0.92985999999999991</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B48">
         <v>0.75</v>
@@ -10243,13 +10472,13 @@
         <v>0.498</v>
       </c>
       <c r="D48" s="4">
-        <f>ABS(C48-B48)/B48</f>
+        <f t="shared" si="6"/>
         <v>0.33600000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B49">
         <v>0.5</v>
@@ -10258,13 +10487,13 @@
         <v>0.437</v>
       </c>
       <c r="D49" s="4">
-        <f>ABS(C49-B49)/B49</f>
+        <f t="shared" si="6"/>
         <v>0.126</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B50">
         <v>0.3</v>
@@ -10273,7 +10502,7 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="D50" s="4">
-        <f>ABS(C50-B50)/B50</f>
+        <f t="shared" si="6"/>
         <v>0.63</v>
       </c>
     </row>
@@ -10288,7 +10517,7 @@
         <v>0.70499999999999996</v>
       </c>
       <c r="D51" s="4">
-        <f>ABS(C51-B51)/B51</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
     </row>
@@ -10363,7 +10592,7 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -10372,13 +10601,13 @@
         <v>2.02</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" ref="D57:D62" si="3">ABS(C57-B57)/B57</f>
+        <f t="shared" ref="D57:D59" si="7">ABS(C57-B57)/B57</f>
         <v>1.02</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B58">
         <v>1.5</v>
@@ -10387,13 +10616,13 @@
         <v>2.7</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.80000000000000016</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -10402,7 +10631,7 @@
         <v>7.29</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.43</v>
       </c>
     </row>
@@ -10431,23 +10660,23 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20">
+      <c r="A62" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="19">
         <f>AVERAGE(D34:D61)</f>
         <v>0.74255315020014678</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
     </row>
     <row r="64" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -10457,15 +10686,15 @@
         <v>18</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B65" s="3">
         <v>2340000000000</v>
@@ -10474,13 +10703,13 @@
         <v>2110000000000</v>
       </c>
       <c r="D65" s="4">
-        <f>ABS(C65-B65)/B65</f>
+        <f t="shared" ref="D65:D71" si="8">ABS(C65-B65)/B65</f>
         <v>9.8290598290598288E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B66" s="3">
         <v>75000000000000</v>
@@ -10489,13 +10718,13 @@
         <v>69700000000000</v>
       </c>
       <c r="D66" s="4">
-        <f>ABS(C66-B66)/B66</f>
+        <f t="shared" si="8"/>
         <v>7.0666666666666669E-2</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B67" s="3">
         <v>9200000000000</v>
@@ -10504,7 +10733,7 @@
         <v>9450000000000</v>
       </c>
       <c r="D67" s="4">
-        <f>ABS(C67-B67)/B67</f>
+        <f t="shared" si="8"/>
         <v>2.717391304347826E-2</v>
       </c>
     </row>
@@ -10519,7 +10748,7 @@
         <v>1049.1400000000001</v>
       </c>
       <c r="D68" s="4">
-        <f>ABS(C68-B68)/B68</f>
+        <f t="shared" si="8"/>
         <v>2.8574074074073981E-2</v>
       </c>
     </row>
@@ -10534,7 +10763,7 @@
         <v>745.76</v>
       </c>
       <c r="D69" s="4">
-        <f>ABS(C69-B69)/B69</f>
+        <f t="shared" si="8"/>
         <v>0.28361191162343902</v>
       </c>
     </row>
@@ -10549,7 +10778,7 @@
         <v>0.1036</v>
       </c>
       <c r="D70" s="4">
-        <f>ABS(C70-B70)/B70</f>
+        <f t="shared" si="8"/>
         <v>1.2920353982300885</v>
       </c>
     </row>
@@ -10564,13 +10793,13 @@
         <v>0.12670000000000001</v>
       </c>
       <c r="D71" s="4">
-        <f>ABS(C71-B71)/B71</f>
+        <f t="shared" si="8"/>
         <v>0.51081081081081081</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B72" s="3">
         <v>181000</v>
@@ -10579,13 +10808,13 @@
         <v>187000</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" ref="D72:D89" si="4">ABS(C72-B72)/B72</f>
+        <f t="shared" ref="D72" si="9">ABS(C72-B72)/B72</f>
         <v>3.3149171270718231E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B73" s="3">
         <v>193000</v>
@@ -10594,13 +10823,13 @@
         <v>189000</v>
       </c>
       <c r="D73" s="4">
-        <f>ABS(C73-B73)/B73</f>
+        <f t="shared" ref="D73:D82" si="10">ABS(C73-B73)/B73</f>
         <v>2.072538860103627E-2</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B74" s="3">
         <v>175000</v>
@@ -10609,13 +10838,13 @@
         <v>176000</v>
       </c>
       <c r="D74" s="4">
-        <f>ABS(C74-B74)/B74</f>
+        <f t="shared" si="10"/>
         <v>5.7142857142857143E-3</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B75" s="3">
         <v>100000</v>
@@ -10624,13 +10853,13 @@
         <v>399427.9</v>
       </c>
       <c r="D75" s="4">
-        <f>ABS(C75-B75)/B75</f>
+        <f t="shared" si="10"/>
         <v>2.9942790000000001</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B76" s="3">
         <v>200000</v>
@@ -10639,13 +10868,13 @@
         <v>228391.78</v>
       </c>
       <c r="D76" s="4">
-        <f>ABS(C76-B76)/B76</f>
+        <f t="shared" si="10"/>
         <v>0.1419589</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B77" s="3">
         <v>400000</v>
@@ -10654,7 +10883,7 @@
         <v>390347.54</v>
       </c>
       <c r="D77" s="4">
-        <f>ABS(C77-B77)/B77</f>
+        <f t="shared" si="10"/>
         <v>2.4131150000000053E-2</v>
       </c>
     </row>
@@ -10669,13 +10898,13 @@
         <v>17881.89</v>
       </c>
       <c r="D78" s="4">
-        <f>ABS(C78-B78)/B78</f>
+        <f t="shared" si="10"/>
         <v>0.78818899999999992</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>0.75</v>
@@ -10684,13 +10913,13 @@
         <v>0.69110000000000005</v>
       </c>
       <c r="D79" s="4">
-        <f>ABS(C79-B79)/B79</f>
+        <f t="shared" si="10"/>
         <v>7.8533333333333274E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>0.5</v>
@@ -10699,13 +10928,13 @@
         <v>0.5262</v>
       </c>
       <c r="D80" s="4">
-        <f>ABS(C80-B80)/B80</f>
+        <f t="shared" si="10"/>
         <v>5.2400000000000002E-2</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B81">
         <v>0.3</v>
@@ -10714,7 +10943,7 @@
         <v>0.29320000000000002</v>
       </c>
       <c r="D81" s="4">
-        <f>ABS(C81-B81)/B81</f>
+        <f t="shared" si="10"/>
         <v>2.2666666666666578E-2</v>
       </c>
     </row>
@@ -10729,7 +10958,7 @@
         <v>0.93230000000000002</v>
       </c>
       <c r="D82" s="4">
-        <f>ABS(C82-B82)/B82</f>
+        <f t="shared" si="10"/>
         <v>8.1914893617020534E-3</v>
       </c>
     </row>
@@ -10804,7 +11033,7 @@
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -10813,13 +11042,13 @@
         <v>1.036</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" ref="D88:D93" si="5">ABS(C88-B88)/B88</f>
+        <f t="shared" ref="D88:D90" si="11">ABS(C88-B88)/B88</f>
         <v>3.6000000000000032E-2</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B89">
         <v>1.5</v>
@@ -10828,13 +11057,13 @@
         <v>1.476</v>
       </c>
       <c r="D89" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.6000000000000014E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -10843,7 +11072,7 @@
         <v>3.05</v>
       </c>
       <c r="D90" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1.6666666666666607E-2</v>
       </c>
     </row>
@@ -10872,23 +11101,23 @@
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="20">
+      <c r="A93" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="19">
         <f>AVERAGE(D65:D92)</f>
         <v>0.34790039844798626</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
     </row>
     <row r="95" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
@@ -10898,15 +11127,15 @@
         <v>18</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B96" s="3">
         <v>2340000000000</v>
@@ -10915,13 +11144,13 @@
         <v>4140000000000</v>
       </c>
       <c r="D96" s="4">
-        <f>ABS(C96-B96)/B96</f>
+        <f t="shared" ref="D96:D102" si="12">ABS(C96-B96)/B96</f>
         <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B97" s="3">
         <v>75000000000000</v>
@@ -10930,13 +11159,13 @@
         <v>106000000000000</v>
       </c>
       <c r="D97" s="4">
-        <f>ABS(C97-B97)/B97</f>
+        <f t="shared" si="12"/>
         <v>0.41333333333333333</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B98" s="3">
         <v>9200000000000</v>
@@ -10945,7 +11174,7 @@
         <v>16600000000000</v>
       </c>
       <c r="D98" s="4">
-        <f>ABS(C98-B98)/B98</f>
+        <f t="shared" si="12"/>
         <v>0.80434782608695654</v>
       </c>
     </row>
@@ -10960,7 +11189,7 @@
         <v>1595.86</v>
       </c>
       <c r="D99" s="4">
-        <f>ABS(C99-B99)/B99</f>
+        <f t="shared" si="12"/>
         <v>0.47764814814814804</v>
       </c>
     </row>
@@ -10975,7 +11204,7 @@
         <v>2035.33</v>
       </c>
       <c r="D100" s="4">
-        <f>ABS(C100-B100)/B100</f>
+        <f t="shared" si="12"/>
         <v>0.95516810758885684</v>
       </c>
     </row>
@@ -10990,7 +11219,7 @@
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="D101" s="4">
-        <f>ABS(C101-B101)/B101</f>
+        <f t="shared" si="12"/>
         <v>0.8982300884955754</v>
       </c>
     </row>
@@ -11005,13 +11234,13 @@
         <v>0.49099999999999999</v>
       </c>
       <c r="D102" s="4">
-        <f>ABS(C102-B102)/B102</f>
+        <f t="shared" si="12"/>
         <v>0.89575289575289563</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B103" s="3">
         <v>181000</v>
@@ -11020,13 +11249,13 @@
         <v>209000</v>
       </c>
       <c r="D103" s="4">
-        <f t="shared" ref="D103:D120" si="6">ABS(C103-B103)/B103</f>
+        <f t="shared" ref="D103" si="13">ABS(C103-B103)/B103</f>
         <v>0.15469613259668508</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B104" s="3">
         <v>193000</v>
@@ -11035,13 +11264,13 @@
         <v>146000</v>
       </c>
       <c r="D104" s="4">
-        <f>ABS(C104-B104)/B104</f>
+        <f t="shared" ref="D104:D113" si="14">ABS(C104-B104)/B104</f>
         <v>0.24352331606217617</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B105" s="3">
         <v>175000</v>
@@ -11050,13 +11279,13 @@
         <v>261000</v>
       </c>
       <c r="D105" s="4">
-        <f>ABS(C105-B105)/B105</f>
+        <f t="shared" si="14"/>
         <v>0.49142857142857144</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B106" s="3">
         <v>100000</v>
@@ -11065,13 +11294,13 @@
         <v>220040</v>
       </c>
       <c r="D106" s="4">
-        <f>ABS(C106-B106)/B106</f>
+        <f t="shared" si="14"/>
         <v>1.2003999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B107" s="3">
         <v>200000</v>
@@ -11080,13 +11309,13 @@
         <v>433347</v>
       </c>
       <c r="D107" s="4">
-        <f>ABS(C107-B107)/B107</f>
+        <f t="shared" si="14"/>
         <v>1.1667350000000001</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B108" s="3">
         <v>400000</v>
@@ -11095,7 +11324,7 @@
         <v>832306</v>
       </c>
       <c r="D108" s="4">
-        <f>ABS(C108-B108)/B108</f>
+        <f t="shared" si="14"/>
         <v>1.080765</v>
       </c>
     </row>
@@ -11110,13 +11339,13 @@
         <v>26063.3</v>
       </c>
       <c r="D109" s="4">
-        <f>ABS(C109-B109)/B109</f>
+        <f t="shared" si="14"/>
         <v>1.60633</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B110">
         <v>0.75</v>
@@ -11125,13 +11354,13 @@
         <v>0.4607</v>
       </c>
       <c r="D110" s="4">
-        <f>ABS(C110-B110)/B110</f>
+        <f t="shared" si="14"/>
         <v>0.38573333333333332</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B111">
         <v>0.5</v>
@@ -11140,13 +11369,13 @@
         <v>0.43859999999999999</v>
       </c>
       <c r="D111" s="4">
-        <f>ABS(C111-B111)/B111</f>
+        <f t="shared" si="14"/>
         <v>0.12280000000000002</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B112">
         <v>0.3</v>
@@ -11155,7 +11384,7 @@
         <v>0.49209999999999998</v>
       </c>
       <c r="D112" s="4">
-        <f>ABS(C112-B112)/B112</f>
+        <f t="shared" si="14"/>
         <v>0.64033333333333331</v>
       </c>
     </row>
@@ -11170,7 +11399,7 @@
         <v>0.65400000000000003</v>
       </c>
       <c r="D113" s="4">
-        <f>ABS(C113-B113)/B113</f>
+        <f t="shared" si="14"/>
         <v>0.30425531914893611</v>
       </c>
     </row>
@@ -11245,7 +11474,7 @@
     </row>
     <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -11254,13 +11483,13 @@
         <v>2.2723</v>
       </c>
       <c r="D119" s="4">
-        <f t="shared" ref="D119:D124" si="7">ABS(C119-B119)/B119</f>
+        <f t="shared" ref="D119:D121" si="15">ABS(C119-B119)/B119</f>
         <v>1.2723</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B120">
         <v>1.5</v>
@@ -11269,13 +11498,13 @@
         <v>2.9805999999999999</v>
       </c>
       <c r="D120" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.98706666666666665</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -11284,7 +11513,7 @@
         <v>6.0659999999999998</v>
       </c>
       <c r="D121" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.022</v>
       </c>
     </row>
@@ -11313,23 +11542,23 @@
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="20">
+      <c r="A124" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="19">
         <f>AVERAGE(D96:D123)</f>
         <v>0.71885585717555045</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B125" s="17"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
+      <c r="A125" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
     </row>
     <row r="126" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -11339,15 +11568,15 @@
         <v>18</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B127" s="3">
         <v>2340000000000</v>
@@ -11356,13 +11585,13 @@
         <v>4140000000000</v>
       </c>
       <c r="D127" s="4">
-        <f>ABS(C127-B127)/B127</f>
+        <f t="shared" ref="D127:D133" si="16">ABS(C127-B127)/B127</f>
         <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B128" s="3">
         <v>75000000000000</v>
@@ -11371,13 +11600,13 @@
         <v>106000000000000</v>
       </c>
       <c r="D128" s="4">
-        <f>ABS(C128-B128)/B128</f>
+        <f t="shared" si="16"/>
         <v>0.41333333333333333</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B129" s="3">
         <v>9200000000000</v>
@@ -11386,7 +11615,7 @@
         <v>16600000000000</v>
       </c>
       <c r="D129" s="4">
-        <f>ABS(C129-B129)/B129</f>
+        <f t="shared" si="16"/>
         <v>0.80434782608695654</v>
       </c>
     </row>
@@ -11401,7 +11630,7 @@
         <v>1595.86</v>
       </c>
       <c r="D130" s="4">
-        <f>ABS(C130-B130)/B130</f>
+        <f t="shared" si="16"/>
         <v>0.47764814814814804</v>
       </c>
     </row>
@@ -11416,7 +11645,7 @@
         <v>2035.33</v>
       </c>
       <c r="D131" s="4">
-        <f>ABS(C131-B131)/B131</f>
+        <f t="shared" si="16"/>
         <v>0.95516810758885684</v>
       </c>
     </row>
@@ -11431,7 +11660,7 @@
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="D132" s="4">
-        <f>ABS(C132-B132)/B132</f>
+        <f t="shared" si="16"/>
         <v>0.8982300884955754</v>
       </c>
     </row>
@@ -11446,13 +11675,13 @@
         <v>0.49099999999999999</v>
       </c>
       <c r="D133" s="4">
-        <f>ABS(C133-B133)/B133</f>
+        <f t="shared" si="16"/>
         <v>0.89575289575289563</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B134" s="3">
         <v>181000</v>
@@ -11461,13 +11690,13 @@
         <v>209000</v>
       </c>
       <c r="D134" s="4">
-        <f t="shared" ref="D134:D151" si="8">ABS(C134-B134)/B134</f>
+        <f t="shared" ref="D134" si="17">ABS(C134-B134)/B134</f>
         <v>0.15469613259668508</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B135" s="3">
         <v>193000</v>
@@ -11476,13 +11705,13 @@
         <v>146000</v>
       </c>
       <c r="D135" s="4">
-        <f>ABS(C135-B135)/B135</f>
+        <f t="shared" ref="D135:D144" si="18">ABS(C135-B135)/B135</f>
         <v>0.24352331606217617</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B136" s="3">
         <v>175000</v>
@@ -11491,13 +11720,13 @@
         <v>261000</v>
       </c>
       <c r="D136" s="4">
-        <f>ABS(C136-B136)/B136</f>
+        <f t="shared" si="18"/>
         <v>0.49142857142857144</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B137" s="3">
         <v>100000</v>
@@ -11506,13 +11735,13 @@
         <v>220040</v>
       </c>
       <c r="D137" s="4">
-        <f>ABS(C137-B137)/B137</f>
+        <f t="shared" si="18"/>
         <v>1.2003999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B138" s="3">
         <v>200000</v>
@@ -11521,13 +11750,13 @@
         <v>433347</v>
       </c>
       <c r="D138" s="4">
-        <f>ABS(C138-B138)/B138</f>
+        <f t="shared" si="18"/>
         <v>1.1667350000000001</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B139" s="3">
         <v>400000</v>
@@ -11536,7 +11765,7 @@
         <v>832306</v>
       </c>
       <c r="D139" s="4">
-        <f>ABS(C139-B139)/B139</f>
+        <f t="shared" si="18"/>
         <v>1.080765</v>
       </c>
     </row>
@@ -11551,13 +11780,13 @@
         <v>26063.3</v>
       </c>
       <c r="D140" s="4">
-        <f>ABS(C140-B140)/B140</f>
+        <f t="shared" si="18"/>
         <v>1.60633</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B141">
         <v>0.75</v>
@@ -11566,13 +11795,13 @@
         <v>0.4607</v>
       </c>
       <c r="D141" s="4">
-        <f>ABS(C141-B141)/B141</f>
+        <f t="shared" si="18"/>
         <v>0.38573333333333332</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B142">
         <v>0.5</v>
@@ -11581,13 +11810,13 @@
         <v>0.43859999999999999</v>
       </c>
       <c r="D142" s="4">
-        <f>ABS(C142-B142)/B142</f>
+        <f t="shared" si="18"/>
         <v>0.12280000000000002</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B143">
         <v>0.3</v>
@@ -11596,7 +11825,7 @@
         <v>0.49209999999999998</v>
       </c>
       <c r="D143" s="4">
-        <f>ABS(C143-B143)/B143</f>
+        <f t="shared" si="18"/>
         <v>0.64033333333333331</v>
       </c>
     </row>
@@ -11611,7 +11840,7 @@
         <v>0.65400000000000003</v>
       </c>
       <c r="D144" s="4">
-        <f>ABS(C144-B144)/B144</f>
+        <f t="shared" si="18"/>
         <v>0.30425531914893611</v>
       </c>
     </row>
@@ -11686,7 +11915,7 @@
     </row>
     <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -11695,13 +11924,13 @@
         <v>2.2723</v>
       </c>
       <c r="D150" s="4">
-        <f t="shared" ref="D150:D155" si="9">ABS(C150-B150)/B150</f>
+        <f t="shared" ref="D150:D152" si="19">ABS(C150-B150)/B150</f>
         <v>1.2723</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B151">
         <v>1.5</v>
@@ -11710,13 +11939,13 @@
         <v>2.9805999999999999</v>
       </c>
       <c r="D151" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.98706666666666665</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B152">
         <v>3</v>
@@ -11725,7 +11954,7 @@
         <v>6.0659999999999998</v>
       </c>
       <c r="D152" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1.022</v>
       </c>
     </row>
@@ -11754,23 +11983,23 @@
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B155" s="19"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="20">
+      <c r="A155" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="19">
         <f>AVERAGE(D127:D154)</f>
         <v>0.71885585717555045</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B156" s="17"/>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
+      <c r="A156" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
     </row>
     <row r="157" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
@@ -11780,15 +12009,15 @@
         <v>18</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B158" s="3">
         <v>2340000000000</v>
@@ -11797,13 +12026,13 @@
         <v>4140000000000</v>
       </c>
       <c r="D158" s="4">
-        <f>ABS(C158-B158)/B158</f>
+        <f t="shared" ref="D158:D164" si="20">ABS(C158-B158)/B158</f>
         <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B159" s="3">
         <v>75000000000000</v>
@@ -11812,13 +12041,13 @@
         <v>106000000000000</v>
       </c>
       <c r="D159" s="4">
-        <f>ABS(C159-B159)/B159</f>
+        <f t="shared" si="20"/>
         <v>0.41333333333333333</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B160" s="3">
         <v>9200000000000</v>
@@ -11827,7 +12056,7 @@
         <v>16600000000000</v>
       </c>
       <c r="D160" s="4">
-        <f>ABS(C160-B160)/B160</f>
+        <f t="shared" si="20"/>
         <v>0.80434782608695654</v>
       </c>
     </row>
@@ -11842,7 +12071,7 @@
         <v>1595.86</v>
       </c>
       <c r="D161" s="4">
-        <f>ABS(C161-B161)/B161</f>
+        <f t="shared" si="20"/>
         <v>0.47764814814814804</v>
       </c>
     </row>
@@ -11857,7 +12086,7 @@
         <v>2035.33</v>
       </c>
       <c r="D162" s="4">
-        <f>ABS(C162-B162)/B162</f>
+        <f t="shared" si="20"/>
         <v>0.95516810758885684</v>
       </c>
     </row>
@@ -11872,7 +12101,7 @@
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="D163" s="4">
-        <f>ABS(C163-B163)/B163</f>
+        <f t="shared" si="20"/>
         <v>0.8982300884955754</v>
       </c>
     </row>
@@ -11887,13 +12116,13 @@
         <v>0.49099999999999999</v>
       </c>
       <c r="D164" s="4">
-        <f>ABS(C164-B164)/B164</f>
+        <f t="shared" si="20"/>
         <v>0.89575289575289563</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B165" s="3">
         <v>181000</v>
@@ -11902,13 +12131,13 @@
         <v>209000</v>
       </c>
       <c r="D165" s="4">
-        <f t="shared" ref="D165:D182" si="10">ABS(C165-B165)/B165</f>
+        <f t="shared" ref="D165" si="21">ABS(C165-B165)/B165</f>
         <v>0.15469613259668508</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B166" s="3">
         <v>193000</v>
@@ -11917,13 +12146,13 @@
         <v>146000</v>
       </c>
       <c r="D166" s="4">
-        <f>ABS(C166-B166)/B166</f>
+        <f t="shared" ref="D166:D175" si="22">ABS(C166-B166)/B166</f>
         <v>0.24352331606217617</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B167" s="3">
         <v>175000</v>
@@ -11932,13 +12161,13 @@
         <v>261000</v>
       </c>
       <c r="D167" s="4">
-        <f>ABS(C167-B167)/B167</f>
+        <f t="shared" si="22"/>
         <v>0.49142857142857144</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B168" s="3">
         <v>100000</v>
@@ -11947,13 +12176,13 @@
         <v>220040</v>
       </c>
       <c r="D168" s="4">
-        <f>ABS(C168-B168)/B168</f>
+        <f t="shared" si="22"/>
         <v>1.2003999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B169" s="3">
         <v>200000</v>
@@ -11962,13 +12191,13 @@
         <v>433347</v>
       </c>
       <c r="D169" s="4">
-        <f>ABS(C169-B169)/B169</f>
+        <f t="shared" si="22"/>
         <v>1.1667350000000001</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B170" s="3">
         <v>400000</v>
@@ -11977,7 +12206,7 @@
         <v>832306</v>
       </c>
       <c r="D170" s="4">
-        <f>ABS(C170-B170)/B170</f>
+        <f t="shared" si="22"/>
         <v>1.080765</v>
       </c>
     </row>
@@ -11992,13 +12221,13 @@
         <v>26063.3</v>
       </c>
       <c r="D171" s="4">
-        <f>ABS(C171-B171)/B171</f>
+        <f t="shared" si="22"/>
         <v>1.60633</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B172">
         <v>0.75</v>
@@ -12007,13 +12236,13 @@
         <v>0.4607</v>
       </c>
       <c r="D172" s="4">
-        <f>ABS(C172-B172)/B172</f>
+        <f t="shared" si="22"/>
         <v>0.38573333333333332</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B173">
         <v>0.5</v>
@@ -12022,13 +12251,13 @@
         <v>0.43859999999999999</v>
       </c>
       <c r="D173" s="4">
-        <f>ABS(C173-B173)/B173</f>
+        <f t="shared" si="22"/>
         <v>0.12280000000000002</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B174">
         <v>0.3</v>
@@ -12037,7 +12266,7 @@
         <v>0.49209999999999998</v>
       </c>
       <c r="D174" s="4">
-        <f>ABS(C174-B174)/B174</f>
+        <f t="shared" si="22"/>
         <v>0.64033333333333331</v>
       </c>
     </row>
@@ -12052,7 +12281,7 @@
         <v>0.65400000000000003</v>
       </c>
       <c r="D175" s="4">
-        <f>ABS(C175-B175)/B175</f>
+        <f t="shared" si="22"/>
         <v>0.30425531914893611</v>
       </c>
     </row>
@@ -12127,7 +12356,7 @@
     </row>
     <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -12136,13 +12365,13 @@
         <v>2.2723</v>
       </c>
       <c r="D181" s="4">
-        <f t="shared" ref="D181:D186" si="11">ABS(C181-B181)/B181</f>
+        <f t="shared" ref="D181:D183" si="23">ABS(C181-B181)/B181</f>
         <v>1.2723</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B182">
         <v>1.5</v>
@@ -12151,13 +12380,13 @@
         <v>2.9805999999999999</v>
       </c>
       <c r="D182" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0.98706666666666665</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -12166,7 +12395,7 @@
         <v>6.0659999999999998</v>
       </c>
       <c r="D183" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.022</v>
       </c>
     </row>
@@ -12195,23 +12424,23 @@
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B186" s="19"/>
-      <c r="C186" s="19"/>
-      <c r="D186" s="20">
+      <c r="A186" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B186" s="18"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="19">
         <f>AVERAGE(D158:D185)</f>
         <v>0.71885585717555045</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B187" s="17"/>
-      <c r="C187" s="17"/>
-      <c r="D187" s="17"/>
+      <c r="A187" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="20"/>
     </row>
     <row r="188" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
@@ -12221,15 +12450,15 @@
         <v>18</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B189" s="3">
         <v>2340000000000</v>
@@ -12238,13 +12467,13 @@
         <v>3810000000000</v>
       </c>
       <c r="D189" s="4">
-        <f>ABS(C189-B189)/B189</f>
+        <f t="shared" ref="D189:D195" si="24">ABS(C189-B189)/B189</f>
         <v>0.62820512820512819</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B190" s="3">
         <v>75000000000000</v>
@@ -12253,13 +12482,13 @@
         <v>115000000000000</v>
       </c>
       <c r="D190" s="4">
-        <f>ABS(C190-B190)/B190</f>
+        <f t="shared" si="24"/>
         <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B191" s="3">
         <v>9200000000000</v>
@@ -12268,7 +12497,7 @@
         <v>2420000000000</v>
       </c>
       <c r="D191" s="4">
-        <f>ABS(C191-B191)/B191</f>
+        <f t="shared" si="24"/>
         <v>0.7369565217391304</v>
       </c>
     </row>
@@ -12283,7 +12512,7 @@
         <v>980.74</v>
       </c>
       <c r="D192" s="4">
-        <f>ABS(C192-B192)/B192</f>
+        <f t="shared" si="24"/>
         <v>9.1907407407407396E-2</v>
       </c>
     </row>
@@ -12298,7 +12527,7 @@
         <v>396.62</v>
       </c>
       <c r="D193" s="4">
-        <f>ABS(C193-B193)/B193</f>
+        <f t="shared" si="24"/>
         <v>0.61900096061479348</v>
       </c>
     </row>
@@ -12313,7 +12542,7 @@
         <v>0.18029999999999999</v>
       </c>
       <c r="D194" s="4">
-        <f>ABS(C194-B194)/B194</f>
+        <f t="shared" si="24"/>
         <v>2.9889380530973453</v>
       </c>
     </row>
@@ -12328,13 +12557,13 @@
         <v>1.0185999999999999</v>
       </c>
       <c r="D195" s="4">
-        <f>ABS(C195-B195)/B195</f>
+        <f t="shared" si="24"/>
         <v>2.9328185328185326</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B196" s="3">
         <v>181000</v>
@@ -12343,13 +12572,13 @@
         <v>169000</v>
       </c>
       <c r="D196" s="4">
-        <f t="shared" ref="D196:D213" si="12">ABS(C196-B196)/B196</f>
+        <f t="shared" ref="D196" si="25">ABS(C196-B196)/B196</f>
         <v>6.6298342541436461E-2</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B197" s="3">
         <v>193000</v>
@@ -12358,13 +12587,13 @@
         <v>427000</v>
       </c>
       <c r="D197" s="4">
-        <f>ABS(C197-B197)/B197</f>
+        <f t="shared" ref="D197:D206" si="26">ABS(C197-B197)/B197</f>
         <v>1.2124352331606219</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B198" s="3">
         <v>175000</v>
@@ -12373,13 +12602,13 @@
         <v>444000</v>
       </c>
       <c r="D198" s="4">
-        <f>ABS(C198-B198)/B198</f>
+        <f t="shared" si="26"/>
         <v>1.5371428571428571</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B199" s="3">
         <v>100000</v>
@@ -12388,13 +12617,13 @@
         <v>294040</v>
       </c>
       <c r="D199" s="4">
-        <f>ABS(C199-B199)/B199</f>
+        <f t="shared" si="26"/>
         <v>1.9403999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B200" s="3">
         <v>200000</v>
@@ -12403,13 +12632,13 @@
         <v>240940.9</v>
       </c>
       <c r="D200" s="4">
-        <f>ABS(C200-B200)/B200</f>
+        <f t="shared" si="26"/>
         <v>0.20470449999999998</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B201" s="3">
         <v>400000</v>
@@ -12418,7 +12647,7 @@
         <v>103642.622</v>
       </c>
       <c r="D201" s="4">
-        <f>ABS(C201-B201)/B201</f>
+        <f t="shared" si="26"/>
         <v>0.74089344500000009</v>
       </c>
     </row>
@@ -12433,13 +12662,13 @@
         <v>10284.879999999999</v>
       </c>
       <c r="D202" s="4">
-        <f>ABS(C202-B202)/B202</f>
+        <f t="shared" si="26"/>
         <v>2.848799999999992E-2</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B203">
         <v>0.75</v>
@@ -12448,13 +12677,13 @@
         <v>0.435</v>
       </c>
       <c r="D203" s="4">
-        <f>ABS(C203-B203)/B203</f>
+        <f t="shared" si="26"/>
         <v>0.42</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B204">
         <v>0.5</v>
@@ -12463,13 +12692,13 @@
         <v>0.48659999999999998</v>
       </c>
       <c r="D204" s="4">
-        <f>ABS(C204-B204)/B204</f>
+        <f t="shared" si="26"/>
         <v>2.6800000000000046E-2</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B205">
         <v>0.3</v>
@@ -12478,7 +12707,7 @@
         <v>0.77</v>
       </c>
       <c r="D205" s="4">
-        <f>ABS(C205-B205)/B205</f>
+        <f t="shared" si="26"/>
         <v>1.5666666666666669</v>
       </c>
     </row>
@@ -12493,7 +12722,7 @@
         <v>0.90739999999999998</v>
       </c>
       <c r="D206" s="4">
-        <f>ABS(C206-B206)/B206</f>
+        <f t="shared" si="26"/>
         <v>3.4680851063829746E-2</v>
       </c>
     </row>
@@ -12568,7 +12797,7 @@
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -12577,13 +12806,13 @@
         <v>1.778</v>
       </c>
       <c r="D212" s="4">
-        <f t="shared" ref="D212:D217" si="13">ABS(C212-B212)/B212</f>
+        <f t="shared" ref="D212:D214" si="27">ABS(C212-B212)/B212</f>
         <v>0.77800000000000002</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B213">
         <v>1.5</v>
@@ -12592,13 +12821,13 @@
         <v>4.8819999999999997</v>
       </c>
       <c r="D213" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>2.2546666666666666</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B214">
         <v>3</v>
@@ -12607,7 +12836,7 @@
         <v>2.7008000000000001</v>
       </c>
       <c r="D214" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>9.9733333333333299E-2</v>
       </c>
     </row>
@@ -12636,23 +12865,23 @@
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B217" s="19"/>
-      <c r="C217" s="19"/>
-      <c r="D217" s="20">
+      <c r="A217" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B217" s="18"/>
+      <c r="C217" s="18"/>
+      <c r="D217" s="19">
         <f>AVERAGE(D189:D216)</f>
         <v>0.87806689126217041</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="17" t="s">
+      <c r="A218" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B218" s="17"/>
-      <c r="C218" s="17"/>
-      <c r="D218" s="17"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="20"/>
+      <c r="D218" s="20"/>
     </row>
     <row r="219" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
@@ -12662,15 +12891,15 @@
         <v>18</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B220" s="3">
         <v>2340000000000</v>
@@ -12679,13 +12908,13 @@
         <v>2440000000000</v>
       </c>
       <c r="D220" s="4">
-        <f>ABS(C220-B220)/B220</f>
+        <f t="shared" ref="D220:D226" si="28">ABS(C220-B220)/B220</f>
         <v>4.2735042735042736E-2</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B221" s="3">
         <v>75000000000000</v>
@@ -12694,13 +12923,13 @@
         <v>75100000000000</v>
       </c>
       <c r="D221" s="4">
-        <f>ABS(C221-B221)/B221</f>
+        <f t="shared" si="28"/>
         <v>1.3333333333333333E-3</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B222" s="3">
         <v>9200000000000</v>
@@ -12709,7 +12938,7 @@
         <v>8920000000000</v>
       </c>
       <c r="D222" s="4">
-        <f>ABS(C222-B222)/B222</f>
+        <f t="shared" si="28"/>
         <v>3.0434782608695653E-2</v>
       </c>
     </row>
@@ -12724,7 +12953,7 @@
         <v>1064.33</v>
       </c>
       <c r="D223" s="4">
-        <f>ABS(C223-B223)/B223</f>
+        <f t="shared" si="28"/>
         <v>1.4509259259259326E-2</v>
       </c>
     </row>
@@ -12739,7 +12968,7 @@
         <v>1480.422</v>
       </c>
       <c r="D224" s="4">
-        <f>ABS(C224-B224)/B224</f>
+        <f t="shared" si="28"/>
         <v>0.42211527377521618</v>
       </c>
     </row>
@@ -12754,7 +12983,7 @@
         <v>4.3490000000000001E-2</v>
       </c>
       <c r="D225" s="4">
-        <f>ABS(C225-B225)/B225</f>
+        <f t="shared" si="28"/>
         <v>3.7831858407079567E-2</v>
       </c>
     </row>
@@ -12769,13 +12998,13 @@
         <v>0.3075</v>
       </c>
       <c r="D226" s="4">
-        <f>ABS(C226-B226)/B226</f>
+        <f t="shared" si="28"/>
         <v>0.18725868725868722</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B227" s="3">
         <v>181000</v>
@@ -12784,13 +13013,13 @@
         <v>172000</v>
       </c>
       <c r="D227" s="4">
-        <f t="shared" ref="D227:D244" si="14">ABS(C227-B227)/B227</f>
+        <f t="shared" ref="D227" si="29">ABS(C227-B227)/B227</f>
         <v>4.9723756906077346E-2</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B228" s="3">
         <v>193000</v>
@@ -12799,13 +13028,13 @@
         <v>179000</v>
       </c>
       <c r="D228" s="4">
-        <f>ABS(C228-B228)/B228</f>
+        <f t="shared" ref="D228:D237" si="30">ABS(C228-B228)/B228</f>
         <v>7.2538860103626937E-2</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B229" s="3">
         <v>175000</v>
@@ -12814,13 +13043,13 @@
         <v>165000</v>
       </c>
       <c r="D229" s="4">
-        <f>ABS(C229-B229)/B229</f>
+        <f t="shared" si="30"/>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B230" s="3">
         <v>100000</v>
@@ -12829,13 +13058,13 @@
         <v>46032.4</v>
       </c>
       <c r="D230" s="4">
-        <f>ABS(C230-B230)/B230</f>
+        <f t="shared" si="30"/>
         <v>0.53967599999999993</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B231" s="3">
         <v>200000</v>
@@ -12844,13 +13073,13 @@
         <v>346578.5</v>
       </c>
       <c r="D231" s="4">
-        <f>ABS(C231-B231)/B231</f>
+        <f t="shared" si="30"/>
         <v>0.73289249999999995</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B232" s="3">
         <v>400000</v>
@@ -12859,7 +13088,7 @@
         <v>410845.15</v>
       </c>
       <c r="D232" s="4">
-        <f>ABS(C232-B232)/B232</f>
+        <f t="shared" si="30"/>
         <v>2.7112875000000057E-2</v>
       </c>
     </row>
@@ -12874,13 +13103,13 @@
         <v>26922.84</v>
       </c>
       <c r="D233" s="4">
-        <f>ABS(C233-B233)/B233</f>
+        <f t="shared" si="30"/>
         <v>1.6922840000000001</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B234">
         <v>0.75</v>
@@ -12889,13 +13118,13 @@
         <v>0.74450000000000005</v>
       </c>
       <c r="D234" s="4">
-        <f>ABS(C234-B234)/B234</f>
+        <f t="shared" si="30"/>
         <v>7.3333333333332655E-3</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B235">
         <v>0.5</v>
@@ -12904,13 +13133,13 @@
         <v>0.4889</v>
       </c>
       <c r="D235" s="4">
-        <f>ABS(C235-B235)/B235</f>
+        <f t="shared" si="30"/>
         <v>2.2199999999999998E-2</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B236">
         <v>0.3</v>
@@ -12919,7 +13148,7 @@
         <v>0.31290000000000001</v>
       </c>
       <c r="D236" s="4">
-        <f>ABS(C236-B236)/B236</f>
+        <f t="shared" si="30"/>
         <v>4.300000000000008E-2</v>
       </c>
     </row>
@@ -12934,7 +13163,7 @@
         <v>0.76859999999999995</v>
       </c>
       <c r="D237" s="4">
-        <f>ABS(C237-B237)/B237</f>
+        <f t="shared" si="30"/>
         <v>0.1823404255319149</v>
       </c>
     </row>
@@ -13009,7 +13238,7 @@
     </row>
     <row r="243" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -13018,13 +13247,13 @@
         <v>1.0389999999999999</v>
       </c>
       <c r="D243" s="4">
-        <f t="shared" ref="D243:D248" si="15">ABS(C243-B243)/B243</f>
+        <f t="shared" ref="D243:D245" si="31">ABS(C243-B243)/B243</f>
         <v>3.8999999999999924E-2</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B244">
         <v>1.5</v>
@@ -13033,13 +13262,13 @@
         <v>1.5569999999999999</v>
       </c>
       <c r="D244" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>3.7999999999999957E-2</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B245">
         <v>3</v>
@@ -13048,7 +13277,7 @@
         <v>2.7749999999999999</v>
       </c>
       <c r="D245" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v>7.5000000000000025E-2</v>
       </c>
     </row>
@@ -13077,23 +13306,23 @@
       <c r="D247" s="4"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B248" s="19"/>
-      <c r="C248" s="19"/>
-      <c r="D248" s="20">
+      <c r="A248" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B248" s="18"/>
+      <c r="C248" s="18"/>
+      <c r="D248" s="19">
         <f>AVERAGE(D220:D247)</f>
         <v>0.20258398663831578</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B249" s="17"/>
-      <c r="C249" s="17"/>
-      <c r="D249" s="17"/>
+      <c r="A249" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B249" s="20"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="20"/>
     </row>
     <row r="250" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
@@ -13103,15 +13332,15 @@
         <v>18</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B251" s="3">
         <v>2340000000000</v>
@@ -13120,13 +13349,13 @@
         <v>2440000000000</v>
       </c>
       <c r="D251" s="4">
-        <f>ABS(C251-B251)/B251</f>
+        <f t="shared" ref="D251:D257" si="32">ABS(C251-B251)/B251</f>
         <v>4.2735042735042736E-2</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B252" s="3">
         <v>75000000000000</v>
@@ -13135,13 +13364,13 @@
         <v>75100000000000</v>
       </c>
       <c r="D252" s="4">
-        <f>ABS(C252-B252)/B252</f>
+        <f t="shared" si="32"/>
         <v>1.3333333333333333E-3</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B253" s="3">
         <v>9200000000000</v>
@@ -13150,7 +13379,7 @@
         <v>8920000000000</v>
       </c>
       <c r="D253" s="4">
-        <f>ABS(C253-B253)/B253</f>
+        <f t="shared" si="32"/>
         <v>3.0434782608695653E-2</v>
       </c>
     </row>
@@ -13165,7 +13394,7 @@
         <v>1064.33</v>
       </c>
       <c r="D254" s="4">
-        <f>ABS(C254-B254)/B254</f>
+        <f t="shared" si="32"/>
         <v>1.4509259259259326E-2</v>
       </c>
     </row>
@@ -13180,7 +13409,7 @@
         <v>1480.422</v>
       </c>
       <c r="D255" s="4">
-        <f>ABS(C255-B255)/B255</f>
+        <f t="shared" si="32"/>
         <v>0.42211527377521618</v>
       </c>
     </row>
@@ -13195,7 +13424,7 @@
         <v>4.3490000000000001E-2</v>
       </c>
       <c r="D256" s="4">
-        <f>ABS(C256-B256)/B256</f>
+        <f t="shared" si="32"/>
         <v>3.7831858407079567E-2</v>
       </c>
     </row>
@@ -13210,13 +13439,13 @@
         <v>0.3075</v>
       </c>
       <c r="D257" s="4">
-        <f>ABS(C257-B257)/B257</f>
+        <f t="shared" si="32"/>
         <v>0.18725868725868722</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B258" s="3">
         <v>181000</v>
@@ -13225,13 +13454,13 @@
         <v>172000</v>
       </c>
       <c r="D258" s="4">
-        <f t="shared" ref="D258:D275" si="16">ABS(C258-B258)/B258</f>
+        <f t="shared" ref="D258" si="33">ABS(C258-B258)/B258</f>
         <v>4.9723756906077346E-2</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B259" s="3">
         <v>193000</v>
@@ -13240,13 +13469,13 @@
         <v>179000</v>
       </c>
       <c r="D259" s="4">
-        <f>ABS(C259-B259)/B259</f>
+        <f t="shared" ref="D259:D268" si="34">ABS(C259-B259)/B259</f>
         <v>7.2538860103626937E-2</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B260" s="3">
         <v>175000</v>
@@ -13255,13 +13484,13 @@
         <v>165000</v>
       </c>
       <c r="D260" s="4">
-        <f>ABS(C260-B260)/B260</f>
+        <f t="shared" si="34"/>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B261" s="3">
         <v>100000</v>
@@ -13270,13 +13499,13 @@
         <v>46032.4</v>
       </c>
       <c r="D261" s="4">
-        <f>ABS(C261-B261)/B261</f>
+        <f t="shared" si="34"/>
         <v>0.53967599999999993</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B262" s="3">
         <v>200000</v>
@@ -13285,13 +13514,13 @@
         <v>346578.5</v>
       </c>
       <c r="D262" s="4">
-        <f>ABS(C262-B262)/B262</f>
+        <f t="shared" si="34"/>
         <v>0.73289249999999995</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B263" s="3">
         <v>400000</v>
@@ -13300,7 +13529,7 @@
         <v>410845.15</v>
       </c>
       <c r="D263" s="4">
-        <f>ABS(C263-B263)/B263</f>
+        <f t="shared" si="34"/>
         <v>2.7112875000000057E-2</v>
       </c>
     </row>
@@ -13315,13 +13544,13 @@
         <v>26922.84</v>
       </c>
       <c r="D264" s="4">
-        <f>ABS(C264-B264)/B264</f>
+        <f t="shared" si="34"/>
         <v>1.6922840000000001</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B265">
         <v>0.75</v>
@@ -13330,13 +13559,13 @@
         <v>0.74450000000000005</v>
       </c>
       <c r="D265" s="4">
-        <f>ABS(C265-B265)/B265</f>
+        <f t="shared" si="34"/>
         <v>7.3333333333332655E-3</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B266">
         <v>0.5</v>
@@ -13345,13 +13574,13 @@
         <v>0.4889</v>
       </c>
       <c r="D266" s="4">
-        <f>ABS(C266-B266)/B266</f>
+        <f t="shared" si="34"/>
         <v>2.2199999999999998E-2</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B267">
         <v>0.3</v>
@@ -13360,7 +13589,7 @@
         <v>0.31290000000000001</v>
       </c>
       <c r="D267" s="4">
-        <f>ABS(C267-B267)/B267</f>
+        <f t="shared" si="34"/>
         <v>4.300000000000008E-2</v>
       </c>
     </row>
@@ -13375,7 +13604,7 @@
         <v>0.76859999999999995</v>
       </c>
       <c r="D268" s="4">
-        <f>ABS(C268-B268)/B268</f>
+        <f t="shared" si="34"/>
         <v>0.1823404255319149</v>
       </c>
     </row>
@@ -13450,7 +13679,7 @@
     </row>
     <row r="274" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -13459,13 +13688,13 @@
         <v>1.0389999999999999</v>
       </c>
       <c r="D274" s="4">
-        <f t="shared" ref="D274:D279" si="17">ABS(C274-B274)/B274</f>
+        <f t="shared" ref="D274:D276" si="35">ABS(C274-B274)/B274</f>
         <v>3.8999999999999924E-2</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B275">
         <v>1.5</v>
@@ -13474,13 +13703,13 @@
         <v>1.5569999999999999</v>
       </c>
       <c r="D275" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>3.7999999999999957E-2</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B276">
         <v>3</v>
@@ -13489,7 +13718,7 @@
         <v>2.7749999999999999</v>
       </c>
       <c r="D276" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>7.5000000000000025E-2</v>
       </c>
     </row>
@@ -13518,12 +13747,12 @@
       <c r="D278" s="4"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B279" s="19"/>
-      <c r="C279" s="19"/>
-      <c r="D279" s="20">
+      <c r="A279" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B279" s="18"/>
+      <c r="C279" s="18"/>
+      <c r="D279" s="19">
         <f>AVERAGE(D251:D278)</f>
         <v>0.20258398663831578</v>
       </c>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,8 +4,8 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="114">
   <si>
     <t>Input parameters</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Average</t>
   </si>
   <si>
-    <t>running_home</t>
-  </si>
-  <si>
     <t>running_office</t>
   </si>
   <si>
@@ -374,6 +371,12 @@
   </si>
   <si>
     <t>Good for low heat flux</t>
+  </si>
+  <si>
+    <t>8.29-250.02%</t>
+  </si>
+  <si>
+    <t>4.57-176.55%</t>
   </si>
 </sst>
 </file>
@@ -542,13 +545,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -836,11 +839,11 @@
   </sheetPr>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,16 +862,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -881,16 +884,16 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
         <v>107</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>108</v>
       </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
         <v>45</v>
@@ -904,7 +907,7 @@
         <v>1.2545999999999999</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>34</v>
@@ -918,7 +921,7 @@
         <v>0.47799999999999998</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>30</v>
@@ -932,7 +935,7 @@
         <v>0.36809999999999998</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>30</v>
@@ -946,7 +949,7 @@
         <v>0.27350000000000002</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>30</v>
@@ -960,7 +963,7 @@
         <v>5.4800000000000001E-2</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>30</v>
@@ -974,7 +977,7 @@
         <v>0.47689999999999999</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>44</v>
@@ -988,7 +991,7 @@
         <v>0.1825</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>30</v>
@@ -1002,7 +1005,7 @@
         <v>0.66779999999999995</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>30</v>
@@ -1016,7 +1019,7 @@
         <v>0.66610000000000003</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>34</v>
@@ -1030,7 +1033,7 @@
         <v>0.32590000000000002</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>44</v>
@@ -1044,7 +1047,7 @@
         <v>0.29320000000000002</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>44</v>
@@ -1059,16 +1062,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1081,16 +1084,16 @@
         <v>48</v>
       </c>
       <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
         <v>107</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>108</v>
       </c>
-      <c r="F16" t="s">
-        <v>109</v>
-      </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" t="s">
         <v>45</v>
@@ -1104,7 +1107,7 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17">
         <v>5.67571366083333E-2</v>
@@ -1131,7 +1134,7 @@
         <v>0.28520000000000001</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18">
         <v>4.8458532313333302E-2</v>
@@ -1166,7 +1169,7 @@
         <v>0.75639999999999996</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20">
         <v>4.2059522093333301E-2</v>
@@ -1193,7 +1196,7 @@
         <v>0.3952</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21">
         <v>1.02705163433333E-2</v>
@@ -1220,7 +1223,7 @@
         <v>0.4516</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22">
         <v>9.9509812685000004E-2</v>
@@ -1247,7 +1250,7 @@
         <v>0.42709999999999998</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23">
         <v>3.7636890781666599E-2</v>
@@ -1274,7 +1277,7 @@
         <v>0.64629999999999999</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24">
         <v>1.73429586583333E-2</v>
@@ -1301,7 +1304,7 @@
         <v>0.22270000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25">
         <v>8.0970326166666603E-4</v>
@@ -1321,16 +1324,16 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1343,16 +1346,16 @@
         <v>48</v>
       </c>
       <c r="D27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" t="s">
         <v>107</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>108</v>
       </c>
-      <c r="F27" t="s">
-        <v>109</v>
-      </c>
       <c r="G27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H27" t="s">
         <v>45</v>
@@ -1366,7 +1369,7 @@
         <v>0.2021</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28">
         <v>1.8085282163333299E-2</v>
@@ -1393,7 +1396,7 @@
         <v>0.74260000000000004</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29">
         <v>0.17225772079499899</v>
@@ -1420,7 +1423,7 @@
         <v>0.34789999999999999</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30">
         <v>6.2844071950000002E-3</v>
@@ -1447,7 +1450,7 @@
         <v>0.71889999999999998</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31">
         <v>0.17473352948333301</v>
@@ -1470,8 +1473,27 @@
       <c r="A32" t="s">
         <v>51</v>
       </c>
+      <c r="B32" s="4">
+        <v>0.61560000000000004</v>
+      </c>
+      <c r="C32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32">
+        <v>0.13735832918833299</v>
+      </c>
+      <c r="E32">
+        <v>4.6736408083333401E-3</v>
+      </c>
+      <c r="F32">
+        <v>3.4981999833333202E-3</v>
+      </c>
+      <c r="G32">
+        <f>AVERAGE(D32:F32)</f>
+        <v>4.8510056659999884E-2</v>
+      </c>
       <c r="H32" s="13" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1479,7 +1501,7 @@
         <v>52</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1490,7 +1512,7 @@
         <v>0.87809999999999999</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34">
         <v>3.7005961699999898E-3</v>
@@ -1506,7 +1528,7 @@
         <v>9.6914271372222031E-3</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1517,7 +1539,7 @@
         <v>0.2026</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35">
         <v>6.9319584164999906E-2</v>
@@ -1540,8 +1562,27 @@
       <c r="A36" t="s">
         <v>47</v>
       </c>
+      <c r="B36" s="4">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36">
+        <v>4.1863751386666599E-2</v>
+      </c>
+      <c r="E36">
+        <v>1.2767784558333301E-2</v>
+      </c>
+      <c r="F36">
+        <v>1.8572534416666599E-2</v>
+      </c>
+      <c r="G36">
+        <f>AVERAGE(D36:F36)</f>
+        <v>2.4401356787222165E-2</v>
+      </c>
       <c r="H36" s="16" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1553,16 +1594,16 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1575,16 +1616,16 @@
         <v>48</v>
       </c>
       <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
         <v>107</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>108</v>
       </c>
-      <c r="F39" t="s">
-        <v>109</v>
-      </c>
       <c r="G39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H39" t="s">
         <v>45</v>
@@ -1615,8 +1656,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>110</v>
+      <c r="A44" s="20" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3178,12 +3219,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3432,7 +3473,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0.73380000000000001</v>
@@ -3467,12 +3508,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -3721,7 +3762,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40">
         <v>0.73380000000000001</v>
@@ -3756,12 +3797,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -4001,7 +4042,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61">
         <v>0.73380000000000001</v>
@@ -4033,12 +4074,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
     </row>
     <row r="65" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
@@ -4278,7 +4319,7 @@
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B82">
         <v>0.73380000000000001</v>
@@ -4310,12 +4351,12 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
+      <c r="A85" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
     </row>
     <row r="86" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -4555,7 +4596,7 @@
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B103">
         <v>0.73380000000000001</v>
@@ -4587,12 +4628,12 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
+      <c r="A106" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
     </row>
     <row r="107" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
@@ -4832,7 +4873,7 @@
     </row>
     <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B124">
         <v>0.73380000000000001</v>
@@ -4864,12 +4905,12 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B127" s="20"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="20"/>
+      <c r="A127" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B127" s="22"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
     </row>
     <row r="128" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -5109,7 +5150,7 @@
     </row>
     <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B145">
         <v>0.73380000000000001</v>
@@ -5141,12 +5182,12 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="20" t="s">
+      <c r="A148" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B148" s="20"/>
-      <c r="C148" s="20"/>
-      <c r="D148" s="20"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="22"/>
     </row>
     <row r="149" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
@@ -5386,7 +5427,7 @@
     </row>
     <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B166">
         <v>0.73380000000000001</v>
@@ -5418,12 +5459,12 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="20" t="s">
+      <c r="A169" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B169" s="20"/>
-      <c r="C169" s="20"/>
-      <c r="D169" s="20"/>
+      <c r="B169" s="22"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="22"/>
     </row>
     <row r="170" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
@@ -5663,7 +5704,7 @@
     </row>
     <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B187">
         <v>0.73380000000000001</v>
@@ -5695,12 +5736,12 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B190" s="20"/>
-      <c r="C190" s="20"/>
-      <c r="D190" s="20"/>
+      <c r="A190" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B190" s="22"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="22"/>
     </row>
     <row r="191" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -5940,7 +5981,7 @@
     </row>
     <row r="208" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B208">
         <v>0.73380000000000001</v>
@@ -5972,12 +6013,12 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B211" s="20"/>
-      <c r="C211" s="20"/>
-      <c r="D211" s="20"/>
+      <c r="A211" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B211" s="22"/>
+      <c r="C211" s="22"/>
+      <c r="D211" s="22"/>
     </row>
     <row r="212" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -6217,7 +6258,7 @@
     </row>
     <row r="229" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B229">
         <v>0.73380000000000001</v>
@@ -6249,12 +6290,12 @@
       </c>
     </row>
     <row r="232" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B232" s="20"/>
-      <c r="C232" s="20"/>
-      <c r="D232" s="20"/>
+      <c r="A232" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B232" s="22"/>
+      <c r="C232" s="22"/>
+      <c r="D232" s="22"/>
     </row>
     <row r="233" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
@@ -6458,7 +6499,7 @@
     </row>
     <row r="250" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B250">
         <v>0.73380000000000001</v>
@@ -6488,6 +6529,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A85:D85"/>
     <mergeCell ref="A211:D211"/>
     <mergeCell ref="A232:D232"/>
     <mergeCell ref="A106:D106"/>
@@ -6495,11 +6541,6 @@
     <mergeCell ref="A148:D148"/>
     <mergeCell ref="A169:D169"/>
     <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A85:D85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6513,8 +6554,8 @@
     <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:D26"/>
+    <sheetView topLeftCell="A22" workbookViewId="1">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6523,12 +6564,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6546,7 +6587,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3">
         <v>2340000000000</v>
@@ -6561,7 +6602,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3">
         <v>75000000000000</v>
@@ -6636,7 +6677,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="3">
         <v>181000</v>
@@ -6651,7 +6692,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="3">
         <v>193000</v>
@@ -6666,7 +6707,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="3">
         <v>100000</v>
@@ -6681,7 +6722,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="3">
         <v>200000</v>
@@ -6711,7 +6752,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>0.75</v>
@@ -6726,7 +6767,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>0.5</v>
@@ -6825,7 +6866,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -6840,7 +6881,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23">
         <v>1.5</v>
@@ -6889,12 +6930,12 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="A27" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -6912,7 +6953,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="3">
         <v>2340000000000</v>
@@ -6927,7 +6968,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="3">
         <v>75000000000000</v>
@@ -7002,7 +7043,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="3">
         <v>181000</v>
@@ -7017,7 +7058,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="3">
         <v>193000</v>
@@ -7032,7 +7073,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="3">
         <v>100000</v>
@@ -7047,7 +7088,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="3">
         <v>200000</v>
@@ -7077,7 +7118,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40">
         <v>0.75</v>
@@ -7092,7 +7133,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41">
         <v>0.5</v>
@@ -7191,7 +7232,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -7206,7 +7247,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49">
         <v>1.5</v>
@@ -7255,12 +7296,12 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -7278,7 +7319,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B55" s="3">
         <v>2340000000000</v>
@@ -7291,7 +7332,7 @@
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B56" s="3">
         <v>75000000000000</v>
@@ -7352,7 +7393,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" s="3">
         <v>181000</v>
@@ -7365,7 +7406,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B62" s="3">
         <v>193000</v>
@@ -7378,7 +7419,7 @@
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" s="3">
         <v>100000</v>
@@ -7390,7 +7431,7 @@
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64" s="3">
         <v>200000</v>
@@ -7414,7 +7455,7 @@
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66">
         <v>0.75</v>
@@ -7426,7 +7467,7 @@
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67">
         <v>0.5</v>
@@ -7509,7 +7550,7 @@
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -7521,7 +7562,7 @@
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75">
         <v>1.5</v>
@@ -7561,12 +7602,12 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
     </row>
     <row r="80" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
@@ -7584,7 +7625,7 @@
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="3">
         <v>2340000000000</v>
@@ -7599,7 +7640,7 @@
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="3">
         <v>75000000000000</v>
@@ -7674,7 +7715,7 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B87" s="3">
         <v>181000</v>
@@ -7689,7 +7730,7 @@
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B88" s="3">
         <v>193000</v>
@@ -7704,7 +7745,7 @@
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B89" s="3">
         <v>100000</v>
@@ -7719,7 +7760,7 @@
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B90" s="3">
         <v>200000</v>
@@ -7749,7 +7790,7 @@
     </row>
     <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B92">
         <v>0.75</v>
@@ -7764,7 +7805,7 @@
     </row>
     <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B93">
         <v>0.5</v>
@@ -7863,7 +7904,7 @@
     </row>
     <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -7878,7 +7919,7 @@
     </row>
     <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B101">
         <v>1.5</v>
@@ -7927,12 +7968,12 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
+      <c r="A105" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
     </row>
     <row r="106" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
@@ -7950,7 +7991,7 @@
     </row>
     <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B107" s="3">
         <v>2340000000000</v>
@@ -7965,7 +8006,7 @@
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B108" s="3">
         <v>75000000000000</v>
@@ -8040,7 +8081,7 @@
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B113" s="3">
         <v>181000</v>
@@ -8055,7 +8096,7 @@
     </row>
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B114" s="3">
         <v>193000</v>
@@ -8070,7 +8111,7 @@
     </row>
     <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B115" s="3">
         <v>100000</v>
@@ -8085,7 +8126,7 @@
     </row>
     <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B116" s="3">
         <v>200000</v>
@@ -8115,7 +8156,7 @@
     </row>
     <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B118">
         <v>0.75</v>
@@ -8130,7 +8171,7 @@
     </row>
     <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B119">
         <v>0.5</v>
@@ -8229,7 +8270,7 @@
     </row>
     <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -8244,7 +8285,7 @@
     </row>
     <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B127">
         <v>1.5</v>
@@ -8293,12 +8334,12 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="20" t="s">
+      <c r="A131" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B131" s="20"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="22"/>
     </row>
     <row r="132" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -8316,7 +8357,7 @@
     </row>
     <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B133" s="3">
         <v>2340000000000</v>
@@ -8331,7 +8372,7 @@
     </row>
     <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B134" s="3">
         <v>75000000000000</v>
@@ -8406,7 +8447,7 @@
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B139" s="3">
         <v>181000</v>
@@ -8421,7 +8462,7 @@
     </row>
     <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B140" s="3">
         <v>193000</v>
@@ -8436,7 +8477,7 @@
     </row>
     <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B141" s="3">
         <v>100000</v>
@@ -8451,7 +8492,7 @@
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B142" s="3">
         <v>200000</v>
@@ -8481,7 +8522,7 @@
     </row>
     <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B144">
         <v>0.75</v>
@@ -8496,7 +8537,7 @@
     </row>
     <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B145">
         <v>0.5</v>
@@ -8595,7 +8636,7 @@
     </row>
     <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -8610,7 +8651,7 @@
     </row>
     <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B153">
         <v>1.5</v>
@@ -8659,12 +8700,12 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="20" t="s">
+      <c r="A157" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B157" s="20"/>
-      <c r="C157" s="20"/>
-      <c r="D157" s="20"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="22"/>
     </row>
     <row r="158" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
@@ -8682,7 +8723,7 @@
     </row>
     <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B159" s="3">
         <v>2340000000000</v>
@@ -8697,7 +8738,7 @@
     </row>
     <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B160" s="3">
         <v>75000000000000</v>
@@ -8772,7 +8813,7 @@
     </row>
     <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B165" s="3">
         <v>181000</v>
@@ -8787,7 +8828,7 @@
     </row>
     <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B166" s="3">
         <v>193000</v>
@@ -8802,7 +8843,7 @@
     </row>
     <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B167" s="3">
         <v>100000</v>
@@ -8817,7 +8858,7 @@
     </row>
     <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B168" s="3">
         <v>200000</v>
@@ -8847,7 +8888,7 @@
     </row>
     <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B170">
         <v>0.75</v>
@@ -8862,7 +8903,7 @@
     </row>
     <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B171">
         <v>0.5</v>
@@ -8961,7 +9002,7 @@
     </row>
     <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -8976,7 +9017,7 @@
     </row>
     <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B179">
         <v>1.5</v>
@@ -9025,12 +9066,12 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B183" s="20"/>
-      <c r="C183" s="20"/>
-      <c r="D183" s="20"/>
+      <c r="A183" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B183" s="22"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="22"/>
     </row>
     <row r="184" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
@@ -9048,7 +9089,7 @@
     </row>
     <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B185" s="3">
         <v>2340000000000</v>
@@ -9063,7 +9104,7 @@
     </row>
     <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B186" s="3">
         <v>75000000000000</v>
@@ -9138,7 +9179,7 @@
     </row>
     <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B191" s="3">
         <v>181000</v>
@@ -9153,7 +9194,7 @@
     </row>
     <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B192" s="3">
         <v>193000</v>
@@ -9168,7 +9209,7 @@
     </row>
     <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B193" s="3">
         <v>100000</v>
@@ -9183,7 +9224,7 @@
     </row>
     <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B194" s="3">
         <v>200000</v>
@@ -9213,7 +9254,7 @@
     </row>
     <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B196">
         <v>0.75</v>
@@ -9228,7 +9269,7 @@
     </row>
     <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B197">
         <v>0.5</v>
@@ -9327,7 +9368,7 @@
     </row>
     <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -9342,7 +9383,7 @@
     </row>
     <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B205">
         <v>1.5</v>
@@ -9391,12 +9432,12 @@
       </c>
     </row>
     <row r="209" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B209" s="20"/>
-      <c r="C209" s="20"/>
-      <c r="D209" s="20"/>
+      <c r="A209" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B209" s="22"/>
+      <c r="C209" s="22"/>
+      <c r="D209" s="22"/>
     </row>
     <row r="210" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
@@ -9414,7 +9455,7 @@
     </row>
     <row r="211" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B211" s="3">
         <v>2340000000000</v>
@@ -9429,7 +9470,7 @@
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B212" s="3">
         <v>75000000000000</v>
@@ -9504,7 +9545,7 @@
     </row>
     <row r="217" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B217" s="3">
         <v>181000</v>
@@ -9519,7 +9560,7 @@
     </row>
     <row r="218" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B218" s="3">
         <v>193000</v>
@@ -9534,7 +9575,7 @@
     </row>
     <row r="219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B219" s="3">
         <v>100000</v>
@@ -9549,7 +9590,7 @@
     </row>
     <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B220" s="3">
         <v>200000</v>
@@ -9579,7 +9620,7 @@
     </row>
     <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B222">
         <v>0.75</v>
@@ -9594,7 +9635,7 @@
     </row>
     <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B223">
         <v>0.5</v>
@@ -9693,7 +9734,7 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -9708,7 +9749,7 @@
     </row>
     <row r="231" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B231">
         <v>1.5</v>
@@ -9776,11 +9817,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D279"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="K183" sqref="K183"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="1">
-      <selection activeCell="C226" sqref="C226"/>
+    <sheetView topLeftCell="A94" workbookViewId="1">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9789,12 +9830,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9812,7 +9853,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3">
         <v>2340000000000</v>
@@ -9827,7 +9868,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3">
         <v>75000000000000</v>
@@ -9842,7 +9883,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="3">
         <v>9200000000000</v>
@@ -9917,7 +9958,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="3">
         <v>181000</v>
@@ -9932,7 +9973,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="3">
         <v>193000</v>
@@ -9947,7 +9988,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="3">
         <v>175000</v>
@@ -9962,7 +10003,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="3">
         <v>100000</v>
@@ -9977,7 +10018,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="3">
         <v>200000</v>
@@ -9992,7 +10033,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="3">
         <v>400000</v>
@@ -10022,7 +10063,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <v>0.75</v>
@@ -10037,7 +10078,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18">
         <v>0.5</v>
@@ -10052,7 +10093,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19">
         <v>0.3</v>
@@ -10151,7 +10192,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -10166,7 +10207,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27">
         <v>1.5</v>
@@ -10181,7 +10222,7 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -10230,12 +10271,12 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -10253,7 +10294,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="3">
         <v>2340000000000</v>
@@ -10268,7 +10309,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="3">
         <v>75000000000000</v>
@@ -10283,7 +10324,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" s="3">
         <v>9200000000000</v>
@@ -10358,7 +10399,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" s="3">
         <v>181000</v>
@@ -10373,7 +10414,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="3">
         <v>193000</v>
@@ -10388,7 +10429,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" s="3">
         <v>175000</v>
@@ -10403,7 +10444,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" s="3">
         <v>100000</v>
@@ -10418,7 +10459,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="3">
         <v>200000</v>
@@ -10433,7 +10474,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="3">
         <v>400000</v>
@@ -10463,7 +10504,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B48">
         <v>0.75</v>
@@ -10478,7 +10519,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B49">
         <v>0.5</v>
@@ -10493,7 +10534,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B50">
         <v>0.3</v>
@@ -10592,7 +10633,7 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -10607,7 +10648,7 @@
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B58">
         <v>1.5</v>
@@ -10622,7 +10663,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -10671,12 +10712,12 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
     </row>
     <row r="64" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -10694,7 +10735,7 @@
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="3">
         <v>2340000000000</v>
@@ -10709,7 +10750,7 @@
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B66" s="3">
         <v>75000000000000</v>
@@ -10724,7 +10765,7 @@
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B67" s="3">
         <v>9200000000000</v>
@@ -10799,7 +10840,7 @@
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B72" s="3">
         <v>181000</v>
@@ -10814,7 +10855,7 @@
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B73" s="3">
         <v>193000</v>
@@ -10829,7 +10870,7 @@
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B74" s="3">
         <v>175000</v>
@@ -10844,7 +10885,7 @@
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" s="3">
         <v>100000</v>
@@ -10859,7 +10900,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76" s="3">
         <v>200000</v>
@@ -10874,7 +10915,7 @@
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B77" s="3">
         <v>400000</v>
@@ -10904,7 +10945,7 @@
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79">
         <v>0.75</v>
@@ -10919,7 +10960,7 @@
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80">
         <v>0.5</v>
@@ -10934,7 +10975,7 @@
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B81">
         <v>0.3</v>
@@ -11033,7 +11074,7 @@
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -11048,7 +11089,7 @@
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B89">
         <v>1.5</v>
@@ -11063,7 +11104,7 @@
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -11112,12 +11153,12 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
     </row>
     <row r="95" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
@@ -11135,7 +11176,7 @@
     </row>
     <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B96" s="3">
         <v>2340000000000</v>
@@ -11150,7 +11191,7 @@
     </row>
     <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B97" s="3">
         <v>75000000000000</v>
@@ -11165,7 +11206,7 @@
     </row>
     <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="3">
         <v>9200000000000</v>
@@ -11240,7 +11281,7 @@
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B103" s="3">
         <v>181000</v>
@@ -11255,7 +11296,7 @@
     </row>
     <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B104" s="3">
         <v>193000</v>
@@ -11270,7 +11311,7 @@
     </row>
     <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" s="3">
         <v>175000</v>
@@ -11285,7 +11326,7 @@
     </row>
     <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B106" s="3">
         <v>100000</v>
@@ -11300,7 +11341,7 @@
     </row>
     <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B107" s="3">
         <v>200000</v>
@@ -11315,7 +11356,7 @@
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B108" s="3">
         <v>400000</v>
@@ -11345,7 +11386,7 @@
     </row>
     <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B110">
         <v>0.75</v>
@@ -11360,7 +11401,7 @@
     </row>
     <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B111">
         <v>0.5</v>
@@ -11375,7 +11416,7 @@
     </row>
     <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B112">
         <v>0.3</v>
@@ -11474,7 +11515,7 @@
     </row>
     <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -11489,7 +11530,7 @@
     </row>
     <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B120">
         <v>1.5</v>
@@ -11504,7 +11545,7 @@
     </row>
     <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -11553,12 +11594,12 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="20" t="s">
+      <c r="A125" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B125" s="20"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="20"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
     </row>
     <row r="126" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -11576,47 +11617,47 @@
     </row>
     <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B127" s="3">
         <v>2340000000000</v>
       </c>
       <c r="C127" s="3">
-        <v>4140000000000</v>
+        <v>2110000000000</v>
       </c>
       <c r="D127" s="4">
         <f t="shared" ref="D127:D133" si="16">ABS(C127-B127)/B127</f>
-        <v>0.76923076923076927</v>
+        <v>9.8290598290598288E-2</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B128" s="3">
         <v>75000000000000</v>
       </c>
       <c r="C128" s="3">
-        <v>106000000000000</v>
+        <v>70800000000000</v>
       </c>
       <c r="D128" s="4">
         <f t="shared" si="16"/>
-        <v>0.41333333333333333</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B129" s="3">
         <v>9200000000000</v>
       </c>
       <c r="C129" s="3">
-        <v>16600000000000</v>
+        <v>9620000000000</v>
       </c>
       <c r="D129" s="4">
         <f t="shared" si="16"/>
-        <v>0.80434782608695654</v>
+        <v>4.5652173913043478E-2</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11627,11 +11668,11 @@
         <v>1080</v>
       </c>
       <c r="C130">
-        <v>1595.86</v>
+        <v>1362.4</v>
       </c>
       <c r="D130" s="4">
         <f t="shared" si="16"/>
-        <v>0.47764814814814804</v>
+        <v>0.26148148148148159</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11642,11 +11683,11 @@
         <v>1041</v>
       </c>
       <c r="C131">
-        <v>2035.33</v>
+        <v>2551.6</v>
       </c>
       <c r="D131" s="4">
         <f t="shared" si="16"/>
-        <v>0.95516810758885684</v>
+        <v>1.4511047070124878</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11657,11 +11698,11 @@
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="C132">
-        <v>8.5800000000000001E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D132" s="4">
         <f t="shared" si="16"/>
-        <v>0.8982300884955754</v>
+        <v>1.7654867256637172</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11672,101 +11713,101 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="C133">
-        <v>0.49099999999999999</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="D133" s="4">
         <f t="shared" si="16"/>
-        <v>0.89575289575289563</v>
+        <v>0.79536679536679544</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B134" s="3">
         <v>181000</v>
       </c>
       <c r="C134" s="3">
-        <v>209000</v>
+        <v>306000</v>
       </c>
       <c r="D134" s="4">
         <f t="shared" ref="D134" si="17">ABS(C134-B134)/B134</f>
-        <v>0.15469613259668508</v>
+        <v>0.69060773480662985</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B135" s="3">
         <v>193000</v>
       </c>
       <c r="C135" s="3">
-        <v>146000</v>
+        <v>159000</v>
       </c>
       <c r="D135" s="4">
         <f t="shared" ref="D135:D144" si="18">ABS(C135-B135)/B135</f>
-        <v>0.24352331606217617</v>
+        <v>0.17616580310880828</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B136" s="3">
         <v>175000</v>
       </c>
       <c r="C136" s="3">
-        <v>261000</v>
+        <v>216000</v>
       </c>
       <c r="D136" s="4">
         <f t="shared" si="18"/>
-        <v>0.49142857142857144</v>
+        <v>0.23428571428571429</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B137" s="3">
         <v>100000</v>
       </c>
       <c r="C137">
-        <v>220040</v>
+        <v>208191</v>
       </c>
       <c r="D137" s="4">
         <f t="shared" si="18"/>
-        <v>1.2003999999999999</v>
+        <v>1.0819099999999999</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B138" s="3">
         <v>200000</v>
       </c>
       <c r="C138">
-        <v>433347</v>
+        <v>342383</v>
       </c>
       <c r="D138" s="4">
         <f t="shared" si="18"/>
-        <v>1.1667350000000001</v>
+        <v>0.71191499999999996</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B139" s="3">
         <v>400000</v>
       </c>
       <c r="C139">
-        <v>832306</v>
+        <v>1001190.5</v>
       </c>
       <c r="D139" s="4">
         <f t="shared" si="18"/>
-        <v>1.080765</v>
+        <v>1.5029762499999999</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11777,56 +11818,56 @@
         <v>10000</v>
       </c>
       <c r="C140">
-        <v>26063.3</v>
+        <v>14034</v>
       </c>
       <c r="D140" s="4">
         <f t="shared" si="18"/>
-        <v>1.60633</v>
+        <v>0.40339999999999998</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B141">
         <v>0.75</v>
       </c>
       <c r="C141">
-        <v>0.4607</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D141" s="4">
         <f t="shared" si="18"/>
-        <v>0.38573333333333332</v>
+        <v>0.20400000000000004</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B142">
         <v>0.5</v>
       </c>
       <c r="C142">
-        <v>0.43859999999999999</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D142" s="4">
         <f t="shared" si="18"/>
-        <v>0.12280000000000002</v>
+        <v>0.10399999999999998</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B143">
         <v>0.3</v>
       </c>
       <c r="C143">
-        <v>0.49209999999999998</v>
+        <v>0.52</v>
       </c>
       <c r="D143" s="4">
         <f t="shared" si="18"/>
-        <v>0.64033333333333331</v>
+        <v>0.7333333333333335</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11837,11 +11878,11 @@
         <v>0.94</v>
       </c>
       <c r="C144">
-        <v>0.65400000000000003</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="D144" s="4">
         <f t="shared" si="18"/>
-        <v>0.30425531914893611</v>
+        <v>0.1744680851063829</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11861,11 +11902,11 @@
         <v>0.312</v>
       </c>
       <c r="C146">
-        <v>0.38700000000000001</v>
+        <v>0.27950000000000003</v>
       </c>
       <c r="D146" s="4">
         <f>ABS(C146-B146)/B146</f>
-        <v>0.24038461538461542</v>
+        <v>0.10416666666666659</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11876,11 +11917,11 @@
         <v>9.4899999999999998E-2</v>
       </c>
       <c r="C147">
-        <v>0.152</v>
+        <v>8.3650000000000002E-2</v>
       </c>
       <c r="D147" s="4">
         <f>ABS(C147-B147)/B147</f>
-        <v>0.60168598524762906</v>
+        <v>0.11854583772391988</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11891,11 +11932,11 @@
         <v>4.405E-5</v>
       </c>
       <c r="C148" s="3">
-        <v>6.4197999999999998E-5</v>
+        <v>7.6000000000000004E-5</v>
       </c>
       <c r="D148" s="4">
         <f>ABS(C148-B148)/B148</f>
-        <v>0.45738933030646989</v>
+        <v>0.72531214528944388</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -11906,56 +11947,56 @@
         <v>2.8299999999999999E-4</v>
       </c>
       <c r="C149" s="3">
-        <v>5.0370000000000005E-4</v>
+        <v>6.4499999999999996E-4</v>
       </c>
       <c r="D149" s="4">
         <f>ABS(C149-B149)/B149</f>
-        <v>0.77985865724381642</v>
+        <v>1.2791519434628975</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
       <c r="C150">
-        <v>2.2723</v>
+        <v>1.3</v>
       </c>
       <c r="D150" s="4">
         <f t="shared" ref="D150:D152" si="19">ABS(C150-B150)/B150</f>
-        <v>1.2723</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B151">
         <v>1.5</v>
       </c>
       <c r="C151">
-        <v>2.9805999999999999</v>
+        <v>2.95</v>
       </c>
       <c r="D151" s="4">
         <f t="shared" si="19"/>
-        <v>0.98706666666666665</v>
+        <v>0.96666666666666679</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B152">
         <v>3</v>
       </c>
       <c r="C152">
-        <v>6.0659999999999998</v>
+        <v>7.22</v>
       </c>
       <c r="D152" s="4">
         <f t="shared" si="19"/>
-        <v>1.022</v>
+        <v>1.4066666666666665</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11990,16 +12031,16 @@
       <c r="C155" s="18"/>
       <c r="D155" s="19">
         <f>AVERAGE(D127:D154)</f>
-        <v>0.71885585717555045</v>
+        <v>0.6156381731538102</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="20" t="s">
+      <c r="A156" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B156" s="20"/>
-      <c r="C156" s="20"/>
-      <c r="D156" s="20"/>
+      <c r="B156" s="22"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="22"/>
     </row>
     <row r="157" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
@@ -12017,7 +12058,7 @@
     </row>
     <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B158" s="3">
         <v>2340000000000</v>
@@ -12032,7 +12073,7 @@
     </row>
     <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B159" s="3">
         <v>75000000000000</v>
@@ -12047,7 +12088,7 @@
     </row>
     <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B160" s="3">
         <v>9200000000000</v>
@@ -12122,7 +12163,7 @@
     </row>
     <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B165" s="3">
         <v>181000</v>
@@ -12137,7 +12178,7 @@
     </row>
     <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B166" s="3">
         <v>193000</v>
@@ -12152,7 +12193,7 @@
     </row>
     <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B167" s="3">
         <v>175000</v>
@@ -12167,7 +12208,7 @@
     </row>
     <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B168" s="3">
         <v>100000</v>
@@ -12182,7 +12223,7 @@
     </row>
     <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B169" s="3">
         <v>200000</v>
@@ -12197,7 +12238,7 @@
     </row>
     <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B170" s="3">
         <v>400000</v>
@@ -12227,7 +12268,7 @@
     </row>
     <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B172">
         <v>0.75</v>
@@ -12242,7 +12283,7 @@
     </row>
     <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B173">
         <v>0.5</v>
@@ -12257,7 +12298,7 @@
     </row>
     <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B174">
         <v>0.3</v>
@@ -12356,7 +12397,7 @@
     </row>
     <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -12371,7 +12412,7 @@
     </row>
     <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B182">
         <v>1.5</v>
@@ -12386,7 +12427,7 @@
     </row>
     <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -12435,12 +12476,12 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B187" s="20"/>
-      <c r="C187" s="20"/>
-      <c r="D187" s="20"/>
+      <c r="A187" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B187" s="22"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="22"/>
     </row>
     <row r="188" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
@@ -12458,7 +12499,7 @@
     </row>
     <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B189" s="3">
         <v>2340000000000</v>
@@ -12473,7 +12514,7 @@
     </row>
     <row r="190" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B190" s="3">
         <v>75000000000000</v>
@@ -12488,7 +12529,7 @@
     </row>
     <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B191" s="3">
         <v>9200000000000</v>
@@ -12563,7 +12604,7 @@
     </row>
     <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B196" s="3">
         <v>181000</v>
@@ -12578,7 +12619,7 @@
     </row>
     <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B197" s="3">
         <v>193000</v>
@@ -12593,7 +12634,7 @@
     </row>
     <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B198" s="3">
         <v>175000</v>
@@ -12608,7 +12649,7 @@
     </row>
     <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B199" s="3">
         <v>100000</v>
@@ -12623,7 +12664,7 @@
     </row>
     <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B200" s="3">
         <v>200000</v>
@@ -12638,7 +12679,7 @@
     </row>
     <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B201" s="3">
         <v>400000</v>
@@ -12668,7 +12709,7 @@
     </row>
     <row r="203" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B203">
         <v>0.75</v>
@@ -12683,7 +12724,7 @@
     </row>
     <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B204">
         <v>0.5</v>
@@ -12698,7 +12739,7 @@
     </row>
     <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B205">
         <v>0.3</v>
@@ -12797,7 +12838,7 @@
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -12812,7 +12853,7 @@
     </row>
     <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B213">
         <v>1.5</v>
@@ -12827,7 +12868,7 @@
     </row>
     <row r="214" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B214">
         <v>3</v>
@@ -12876,12 +12917,12 @@
       </c>
     </row>
     <row r="218" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="20" t="s">
+      <c r="A218" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B218" s="20"/>
-      <c r="C218" s="20"/>
-      <c r="D218" s="20"/>
+      <c r="B218" s="22"/>
+      <c r="C218" s="22"/>
+      <c r="D218" s="22"/>
     </row>
     <row r="219" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
@@ -12899,7 +12940,7 @@
     </row>
     <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B220" s="3">
         <v>2340000000000</v>
@@ -12914,7 +12955,7 @@
     </row>
     <row r="221" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B221" s="3">
         <v>75000000000000</v>
@@ -12929,7 +12970,7 @@
     </row>
     <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B222" s="3">
         <v>9200000000000</v>
@@ -13004,7 +13045,7 @@
     </row>
     <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B227" s="3">
         <v>181000</v>
@@ -13019,7 +13060,7 @@
     </row>
     <row r="228" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B228" s="3">
         <v>193000</v>
@@ -13034,7 +13075,7 @@
     </row>
     <row r="229" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B229" s="3">
         <v>175000</v>
@@ -13049,7 +13090,7 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B230" s="3">
         <v>100000</v>
@@ -13064,7 +13105,7 @@
     </row>
     <row r="231" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B231" s="3">
         <v>200000</v>
@@ -13079,7 +13120,7 @@
     </row>
     <row r="232" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B232" s="3">
         <v>400000</v>
@@ -13109,7 +13150,7 @@
     </row>
     <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B234">
         <v>0.75</v>
@@ -13124,7 +13165,7 @@
     </row>
     <row r="235" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B235">
         <v>0.5</v>
@@ -13139,7 +13180,7 @@
     </row>
     <row r="236" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B236">
         <v>0.3</v>
@@ -13238,7 +13279,7 @@
     </row>
     <row r="243" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -13253,7 +13294,7 @@
     </row>
     <row r="244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B244">
         <v>1.5</v>
@@ -13268,7 +13309,7 @@
     </row>
     <row r="245" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B245">
         <v>3</v>
@@ -13317,12 +13358,12 @@
       </c>
     </row>
     <row r="249" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B249" s="20"/>
-      <c r="C249" s="20"/>
-      <c r="D249" s="20"/>
+      <c r="A249" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B249" s="22"/>
+      <c r="C249" s="22"/>
+      <c r="D249" s="22"/>
     </row>
     <row r="250" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
@@ -13340,47 +13381,47 @@
     </row>
     <row r="251" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B251" s="3">
         <v>2340000000000</v>
       </c>
       <c r="C251" s="3">
-        <v>2440000000000</v>
+        <v>1790000000000</v>
       </c>
       <c r="D251" s="4">
         <f t="shared" ref="D251:D257" si="32">ABS(C251-B251)/B251</f>
-        <v>4.2735042735042736E-2</v>
+        <v>0.23504273504273504</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B252" s="3">
         <v>75000000000000</v>
       </c>
       <c r="C252" s="3">
-        <v>75100000000000</v>
+        <v>95500000000000</v>
       </c>
       <c r="D252" s="4">
         <f t="shared" si="32"/>
-        <v>1.3333333333333333E-3</v>
+        <v>0.27333333333333332</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B253" s="3">
         <v>9200000000000</v>
       </c>
       <c r="C253" s="3">
-        <v>8920000000000</v>
+        <v>17200000000000</v>
       </c>
       <c r="D253" s="4">
         <f t="shared" si="32"/>
-        <v>3.0434782608695653E-2</v>
+        <v>0.86956521739130432</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13390,12 +13431,12 @@
       <c r="B254" s="5">
         <v>1080</v>
       </c>
-      <c r="C254">
-        <v>1064.33</v>
+      <c r="C254" s="5">
+        <v>873.28700000000003</v>
       </c>
       <c r="D254" s="4">
         <f t="shared" si="32"/>
-        <v>1.4509259259259326E-2</v>
+        <v>0.19140092592592589</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13405,12 +13446,12 @@
       <c r="B255">
         <v>1041</v>
       </c>
-      <c r="C255">
-        <v>1480.422</v>
+      <c r="C255" s="5">
+        <v>819.22500000000002</v>
       </c>
       <c r="D255" s="4">
         <f t="shared" si="32"/>
-        <v>0.42211527377521618</v>
+        <v>0.21304034582132564</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -13420,12 +13461,12 @@
       <c r="B256" s="5">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="C256">
-        <v>4.3490000000000001E-2</v>
+      <c r="C256" s="5">
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="D256" s="4">
         <f t="shared" si="32"/>
-        <v>3.7831858407079567E-2</v>
+        <v>0.4712389380530973</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -13435,102 +13476,102 @@
       <c r="B257" s="5">
         <v>0.25900000000000001</v>
       </c>
-      <c r="C257">
-        <v>0.3075</v>
+      <c r="C257" s="5">
+        <v>0.52449999999999997</v>
       </c>
       <c r="D257" s="4">
         <f t="shared" si="32"/>
-        <v>0.18725868725868722</v>
+        <v>1.0250965250965249</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B258" s="3">
         <v>181000</v>
       </c>
       <c r="C258" s="3">
-        <v>172000</v>
+        <v>166000</v>
       </c>
       <c r="D258" s="4">
         <f t="shared" ref="D258" si="33">ABS(C258-B258)/B258</f>
-        <v>4.9723756906077346E-2</v>
+        <v>8.2872928176795577E-2</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B259" s="3">
         <v>193000</v>
       </c>
       <c r="C259" s="3">
-        <v>179000</v>
+        <v>425000</v>
       </c>
       <c r="D259" s="4">
         <f t="shared" ref="D259:D268" si="34">ABS(C259-B259)/B259</f>
-        <v>7.2538860103626937E-2</v>
+        <v>1.2020725388601037</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B260" s="3">
         <v>175000</v>
       </c>
       <c r="C260" s="3">
-        <v>165000</v>
+        <v>266000</v>
       </c>
       <c r="D260" s="4">
         <f t="shared" si="34"/>
-        <v>5.7142857142857141E-2</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B261" s="3">
         <v>100000</v>
       </c>
-      <c r="C261">
-        <v>46032.4</v>
+      <c r="C261" s="3">
+        <v>290700</v>
       </c>
       <c r="D261" s="4">
         <f t="shared" si="34"/>
-        <v>0.53967599999999993</v>
+        <v>1.907</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B262" s="3">
         <v>200000</v>
       </c>
-      <c r="C262">
-        <v>346578.5</v>
+      <c r="C262" s="3">
+        <v>692109</v>
       </c>
       <c r="D262" s="4">
         <f t="shared" si="34"/>
-        <v>0.73289249999999995</v>
+        <v>2.4605450000000002</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B263" s="3">
         <v>400000</v>
       </c>
-      <c r="C263">
-        <v>410845.15</v>
+      <c r="C263" s="3">
+        <v>1400061</v>
       </c>
       <c r="D263" s="4">
         <f t="shared" si="34"/>
-        <v>2.7112875000000057E-2</v>
+        <v>2.5001525</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13540,57 +13581,57 @@
       <c r="B264" s="3">
         <v>10000</v>
       </c>
-      <c r="C264">
-        <v>26922.84</v>
+      <c r="C264" s="3">
+        <v>7697.5</v>
       </c>
       <c r="D264" s="4">
         <f t="shared" si="34"/>
-        <v>1.6922840000000001</v>
+        <v>0.23025000000000001</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B265">
         <v>0.75</v>
       </c>
-      <c r="C265">
-        <v>0.74450000000000005</v>
+      <c r="C265" s="3">
+        <v>0.43559999999999999</v>
       </c>
       <c r="D265" s="4">
         <f t="shared" si="34"/>
-        <v>7.3333333333332655E-3</v>
+        <v>0.41920000000000002</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B266">
         <v>0.5</v>
       </c>
-      <c r="C266">
-        <v>0.4889</v>
+      <c r="C266" s="3">
+        <v>0.629</v>
       </c>
       <c r="D266" s="4">
         <f t="shared" si="34"/>
-        <v>2.2199999999999998E-2</v>
+        <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B267">
         <v>0.3</v>
       </c>
-      <c r="C267">
-        <v>0.31290000000000001</v>
+      <c r="C267" s="3">
+        <v>0.47499999999999998</v>
       </c>
       <c r="D267" s="4">
         <f t="shared" si="34"/>
-        <v>4.300000000000008E-2</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13600,12 +13641,12 @@
       <c r="B268">
         <v>0.94</v>
       </c>
-      <c r="C268">
-        <v>0.76859999999999995</v>
+      <c r="C268" s="3">
+        <v>0.80200000000000005</v>
       </c>
       <c r="D268" s="4">
         <f t="shared" si="34"/>
-        <v>0.1823404255319149</v>
+        <v>0.14680851063829778</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13624,12 +13665,12 @@
       <c r="B270" s="5">
         <v>0.312</v>
       </c>
-      <c r="C270">
-        <v>0.30059999999999998</v>
+      <c r="C270" s="3">
+        <v>0.2326</v>
       </c>
       <c r="D270" s="4">
         <f>ABS(C270-B270)/B270</f>
-        <v>3.653846153846161E-2</v>
+        <v>0.25448717948717947</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13639,12 +13680,12 @@
       <c r="B271">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="C271">
-        <v>0.126</v>
+      <c r="C271" s="3">
+        <v>0.1439</v>
       </c>
       <c r="D271" s="4">
         <f>ABS(C271-B271)/B271</f>
-        <v>0.32771338250790311</v>
+        <v>0.51633298208640677</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -13655,11 +13696,11 @@
         <v>4.405E-5</v>
       </c>
       <c r="C272" s="3">
-        <v>3.3059999999999999E-5</v>
+        <v>5.1600000000000001E-5</v>
       </c>
       <c r="D272" s="4">
         <f>ABS(C272-B272)/B272</f>
-        <v>0.24948921679909197</v>
+        <v>0.17139614074914872</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -13670,56 +13711,56 @@
         <v>2.8299999999999999E-4</v>
       </c>
       <c r="C273" s="3">
-        <v>2.4439999999999998E-4</v>
+        <v>2.52E-4</v>
       </c>
       <c r="D273" s="4">
         <f>ABS(C273-B273)/B273</f>
-        <v>0.13639575971731455</v>
+        <v>0.10954063604240281</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B274">
         <v>1</v>
       </c>
-      <c r="C274">
-        <v>1.0389999999999999</v>
+      <c r="C274" s="3">
+        <v>1.65</v>
       </c>
       <c r="D274" s="4">
         <f t="shared" ref="D274:D276" si="35">ABS(C274-B274)/B274</f>
-        <v>3.8999999999999924E-2</v>
+        <v>0.64999999999999991</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B275">
         <v>1.5</v>
       </c>
-      <c r="C275">
-        <v>1.5569999999999999</v>
+      <c r="C275" s="3">
+        <v>4.5</v>
       </c>
       <c r="D275" s="4">
         <f t="shared" si="35"/>
-        <v>3.7999999999999957E-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B276">
         <v>3</v>
       </c>
-      <c r="C276">
-        <v>2.7749999999999999</v>
+      <c r="C276" s="3">
+        <v>3.4449999999999998</v>
       </c>
       <c r="D276" s="4">
         <f t="shared" si="35"/>
-        <v>7.5000000000000025E-2</v>
+        <v>0.14833333333333329</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13754,7 +13795,7 @@
       <c r="C279" s="18"/>
       <c r="D279" s="19">
         <f>AVERAGE(D251:D278)</f>
-        <v>0.20258398663831578</v>
+        <v>0.69756172413485018</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{37526896-57D3-48A5-8AA7-4FC857EBBA95}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,10 @@
     <sheet name="E_Glass_linear_full_mass_fbtemp" sheetId="10" r:id="rId14"/>
     <sheet name="multiReactionCharringHybrid" sheetId="11" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$2:$H$11</definedName>
+  </definedNames>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="113">
   <si>
     <t>Input parameters</t>
   </si>
@@ -150,9 +153,6 @@
     <t>1 Mass + DSC</t>
   </si>
   <si>
-    <t>1 Mass + DSC + B Temp</t>
-  </si>
-  <si>
     <t>1 Mass</t>
   </si>
   <si>
@@ -162,19 +162,10 @@
     <t>Three reactions charring</t>
   </si>
   <si>
-    <t>10 kW X/100 kW O</t>
-  </si>
-  <si>
     <t>2 Mass + TGA</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>1 Mass + F Temp</t>
   </si>
   <si>
     <t>1 Mass + B Temp</t>
@@ -186,16 +177,10 @@
     <t>Average Parameter Error</t>
   </si>
   <si>
-    <t>1 Mass + TGA + F Temp</t>
-  </si>
-  <si>
     <t>4 Mass</t>
   </si>
   <si>
     <t>5 Mass</t>
-  </si>
-  <si>
-    <t>ready to run</t>
   </si>
   <si>
     <t>Optimized results</t>
@@ -205,9 +190,6 @@
   </si>
   <si>
     <t>Average</t>
-  </si>
-  <si>
-    <t>running_office</t>
   </si>
   <si>
     <t>Xi</t>
@@ -253,15 +235,6 @@
   </si>
   <si>
     <t>[0.45% 287.61%]</t>
-  </si>
-  <si>
-    <t>[2.21% 297.28%]</t>
-  </si>
-  <si>
-    <t>[0.5% 158.17%]</t>
-  </si>
-  <si>
-    <t>[0.16% 203.76%]</t>
   </si>
   <si>
     <t>Xi1</t>
@@ -370,19 +343,46 @@
     <t>Average SE</t>
   </si>
   <si>
-    <t>Good for low heat flux</t>
-  </si>
-  <si>
     <t>8.29-250.02%</t>
   </si>
   <si>
     <t>4.57-176.55%</t>
   </si>
+  <si>
+    <t>1.06-178.45%</t>
+  </si>
+  <si>
+    <t>0.43-187.49%</t>
+  </si>
+  <si>
+    <t>0.85-169.25%</t>
+  </si>
+  <si>
+    <t>Average error ranking</t>
+  </si>
+  <si>
+    <t>10 kW ranking</t>
+  </si>
+  <si>
+    <t>100kW ranking</t>
+  </si>
+  <si>
+    <t>Overall ranking</t>
+  </si>
+  <si>
+    <t>Final ranking</t>
+  </si>
+  <si>
+    <t>2 Mass run 1</t>
+  </si>
+  <si>
+    <t>0.09-74.19%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +441,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -509,15 +515,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,6 +551,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,17 +832,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,827 +855,1422 @@
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>107</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>108</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" t="s">
         <v>110</v>
       </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>39</v>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="B3" s="4">
-        <v>1.2545999999999999</v>
+        <v>5.4800000000000001E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="D3">
+        <v>8.2214543833333299E-4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.84462583333328E-5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.33268083333326E-5</v>
+      </c>
+      <c r="G3" s="3">
+        <f>AVERAGE(D3,F3)</f>
+        <v>4.3273612333333278E-4</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="20">
+        <v>2</v>
+      </c>
+      <c r="J3" s="20">
+        <v>1</v>
+      </c>
+      <c r="K3" s="20">
+        <f>AVERAGE(H3:J3)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L3" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="4">
-        <v>0.47799999999999998</v>
+        <v>0.1825</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>1.4799614949999899E-3</v>
+      </c>
+      <c r="E4">
+        <v>4.1693754166666598E-4</v>
+      </c>
+      <c r="F4">
+        <v>1.4495903333333501E-4</v>
+      </c>
+      <c r="G4" s="3">
+        <f>AVERAGE(D4,F4)</f>
+        <v>8.1246026416666249E-4</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="20">
+        <v>4</v>
+      </c>
+      <c r="J4" s="20">
+        <v>5</v>
+      </c>
+      <c r="K4" s="20">
+        <f>AVERAGE(H4:J4)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="L4" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="4">
         <v>0.36809999999999998</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>1.7272738866666601E-3</v>
+      </c>
+      <c r="E5">
+        <v>2.3032804166666501E-4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5.6247933333335502E-5</v>
+      </c>
+      <c r="G5" s="3">
+        <f>AVERAGE(D5,F5)</f>
+        <v>8.9176090999999779E-4</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="20">
+        <v>6</v>
+      </c>
+      <c r="J5" s="20">
+        <v>2</v>
+      </c>
+      <c r="K5" s="20">
+        <f>AVERAGE(H5:J5)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="L5" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.18329999999999999</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6">
+        <v>2.5446560716666602E-3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>9.8771141666666198E-5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6.0159850000000403E-5</v>
+      </c>
+      <c r="G6" s="3">
+        <f>AVERAGE(D6:F6)</f>
+        <v>9.0119568777777563E-4</v>
+      </c>
+      <c r="H6" s="7">
+        <v>3</v>
+      </c>
+      <c r="I6" s="20">
+        <v>7</v>
+      </c>
+      <c r="J6" s="20">
+        <v>3</v>
+      </c>
+      <c r="K6" s="20">
+        <f>AVERAGE(H6:J6)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="L6" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="4">
         <v>0.27350000000000002</v>
       </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="4">
-        <v>5.4800000000000001E-2</v>
-      </c>
       <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>1.5812660516666601E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.1787021666666599E-4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6.2408208333334704E-5</v>
+      </c>
+      <c r="G7" s="3">
+        <f>AVERAGE(D7,F7)</f>
+        <v>8.2183712999999738E-4</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="20">
+        <v>5</v>
+      </c>
+      <c r="J7" s="20">
+        <v>4</v>
+      </c>
+      <c r="K7" s="20">
+        <f>AVERAGE(H7:J7)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="L7" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B8" s="4">
         <v>0.47689999999999999</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8">
+        <v>2.4983649166666699E-4</v>
+      </c>
+      <c r="E8">
+        <v>3.5794594166666601E-4</v>
+      </c>
+      <c r="F8">
+        <v>6.2972367500000001E-4</v>
+      </c>
+      <c r="G8" s="3">
+        <f>AVERAGE(D8,F8)</f>
+        <v>4.3978008333333347E-4</v>
+      </c>
+      <c r="H8" s="10">
+        <v>6</v>
+      </c>
+      <c r="I8" s="20">
+        <v>1</v>
+      </c>
+      <c r="J8" s="20">
+        <v>7</v>
+      </c>
+      <c r="K8" s="20">
+        <f>AVERAGE(H8:J8)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="L8" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.66779999999999995</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9">
+        <v>1.1034841383333301E-3</v>
+      </c>
+      <c r="E9">
+        <v>5.7031248333333105E-4</v>
+      </c>
+      <c r="F9">
+        <v>2.81357275000001E-4</v>
+      </c>
+      <c r="G9" s="3">
+        <f>AVERAGE(D9,F9)</f>
+        <v>6.9242070666666552E-4</v>
+      </c>
+      <c r="H9" s="7">
+        <v>8</v>
+      </c>
+      <c r="I9" s="20">
+        <v>3</v>
+      </c>
+      <c r="J9" s="20">
+        <v>6</v>
+      </c>
+      <c r="K9" s="20">
+        <f>AVERAGE(H9:J9)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="L9" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>1.69098381433333E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.0817298666666599E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.0068921083333301E-3</v>
+      </c>
+      <c r="G10" s="3">
+        <f>AVERAGE(D10,F10)</f>
+        <v>8.9583651258333154E-3</v>
+      </c>
+      <c r="H10" s="13">
+        <v>7</v>
+      </c>
+      <c r="I10" s="20">
+        <v>8</v>
+      </c>
+      <c r="J10" s="20">
+        <v>8</v>
+      </c>
+      <c r="K10" s="20">
+        <f>AVERAGE(H10:J10)</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="L10" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1.2545999999999999</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>0.17511676241499999</v>
+      </c>
+      <c r="E11">
+        <v>1.19991677916666E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.0718068858333299E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <f>AVERAGE(D11,F11)</f>
+        <v>9.2917415636666639E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>9</v>
+      </c>
+      <c r="I11" s="20">
+        <v>9</v>
+      </c>
+      <c r="J11" s="20">
+        <v>9</v>
+      </c>
+      <c r="K11" s="20">
+        <f>AVERAGE(H11:J11)</f>
+        <v>9</v>
+      </c>
+      <c r="L11" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.42709999999999998</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14">
+        <v>3.7636890781666599E-2</v>
+      </c>
+      <c r="E14">
+        <v>6.1944456666666002E-4</v>
+      </c>
+      <c r="F14">
+        <v>9.7961919166671802E-4</v>
+      </c>
+      <c r="G14">
+        <f>AVERAGE(D14,F14)</f>
+        <v>1.9308254986666658E-2</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f>AVERAGE(H14:J14)</f>
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15">
+        <v>4.8458532313333302E-2</v>
+      </c>
+      <c r="E15">
+        <v>9.4896049166666603E-4</v>
+      </c>
+      <c r="F15">
+        <v>1.07952635833331E-3</v>
+      </c>
+      <c r="G15">
+        <f>AVERAGE(D15,F15)</f>
+        <v>2.4769029335833307E-2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <f>AVERAGE(H15:J15)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.1825</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.66779999999999995</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.66610000000000003</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.32590000000000002</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.29320000000000002</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
+      <c r="B16" s="4">
+        <v>0.22270000000000001</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D16">
+        <v>8.0970326166666603E-4</v>
+      </c>
+      <c r="E16">
+        <v>6.4136093250000198E-3</v>
+      </c>
+      <c r="F16">
+        <v>5.84483229166662E-3</v>
+      </c>
+      <c r="G16">
+        <f>AVERAGE(D16,F16)</f>
+        <v>3.327267776666643E-3</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <f>AVERAGE(H16:J16)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4">
-        <v>0.80300000000000005</v>
+        <v>0.3952</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D17">
-        <v>5.67571366083333E-2</v>
+        <v>1.02705163433333E-2</v>
       </c>
       <c r="E17">
-        <v>2.2975011999999601E-3</v>
+        <v>3.7336756749999302E-3</v>
       </c>
       <c r="F17">
-        <v>2.91952928333335E-3</v>
+        <v>5.14287990833331E-3</v>
       </c>
       <c r="G17">
-        <f>AVERAGE(D17:F17)</f>
-        <v>2.0658055697222202E-2</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <f>AVERAGE(D17,F17)</f>
+        <v>7.7066981258333053E-3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <f>AVERAGE(H17:J17)</f>
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="4">
-        <v>0.28520000000000001</v>
+        <v>0.75639999999999996</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D18">
-        <v>4.8458532313333302E-2</v>
+        <v>4.2059522093333301E-2</v>
       </c>
       <c r="E18">
-        <v>9.4896049166666603E-4</v>
+        <v>5.7508876666663596E-4</v>
       </c>
       <c r="F18">
-        <v>1.07952635833331E-3</v>
+        <v>1.5910884250000001E-3</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:G25" si="0">AVERAGE(D18:F18)</f>
-        <v>1.6829006387777758E-2</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <f>AVERAGE(D18,F18)</f>
+        <v>2.182530525916665E-2</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGE(H18:J18)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="B19" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19">
+        <v>5.4713735700000002E-2</v>
+      </c>
+      <c r="E19">
+        <v>8.1196695833330096E-4</v>
+      </c>
+      <c r="F19">
+        <v>1.97310680833334E-3</v>
+      </c>
+      <c r="G19">
+        <f>AVERAGE(D19,F19)</f>
+        <v>2.8343421254166671E-2</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <f>AVERAGE(H19:J19)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="L19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.64629999999999999</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20">
+        <v>1.73429586583333E-2</v>
+      </c>
+      <c r="E20">
+        <v>4.8946217749999696E-3</v>
+      </c>
+      <c r="F20">
+        <v>6.1586565416666796E-3</v>
+      </c>
+      <c r="G20">
+        <f>AVERAGE(D20,F20)</f>
+        <v>1.1750807599999989E-2</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <f>AVERAGE(H20:J20)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.4516</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21">
+        <v>9.9509812685000004E-2</v>
+      </c>
+      <c r="E21">
+        <v>4.1109891333333398E-3</v>
+      </c>
+      <c r="F21">
+        <v>3.5190149749999701E-3</v>
+      </c>
+      <c r="G21">
+        <f>AVERAGE(D21,F21)</f>
+        <v>5.1514413829999987E-2</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <f>AVERAGE(H21:J21)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="L21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22">
+        <v>5.67571366083333E-2</v>
+      </c>
+      <c r="E22">
+        <v>2.2975011999999601E-3</v>
+      </c>
+      <c r="F22">
+        <v>2.91952928333335E-3</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE(D22,F22)</f>
+        <v>2.9838332945833324E-2</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <f>AVERAGE(H22:J22)</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="L22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25">
+        <v>6.2844071950000002E-3</v>
+      </c>
+      <c r="E25">
+        <v>2.05704210833332E-3</v>
+      </c>
+      <c r="F25">
+        <v>1.87939215833335E-3</v>
+      </c>
+      <c r="G25">
+        <f>AVERAGE(D25,F25)</f>
+        <v>4.0818996766666749E-3</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f>AVERAGE(H25:J25)</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.2853</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26">
+        <v>1.2553363651666601E-2</v>
+      </c>
+      <c r="E26">
+        <v>2.0046184083333299E-3</v>
+      </c>
+      <c r="F26">
+        <v>2.37903820000001E-3</v>
+      </c>
+      <c r="G26">
+        <f>AVERAGE(D26,F26)</f>
+        <v>7.4662009258333051E-3</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <f>AVERAGE(H26:J26)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.2021</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>1.8085282163333299E-2</v>
+      </c>
+      <c r="E27">
+        <v>4.1717878750000001E-3</v>
+      </c>
+      <c r="F27">
+        <v>4.5225786999999896E-3</v>
+      </c>
+      <c r="G27">
+        <f>AVERAGE(D27,F27)</f>
+        <v>1.1303930431666644E-2</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <f>AVERAGE(H27:J27)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.2026</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28">
+        <v>6.9319584164999906E-2</v>
+      </c>
+      <c r="E28">
+        <v>3.4208122083333298E-3</v>
+      </c>
+      <c r="F28">
+        <v>3.8920943249999801E-3</v>
+      </c>
+      <c r="G28">
+        <f>AVERAGE(D28,F28)</f>
+        <v>3.6605839244999945E-2</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <f>AVERAGE(H28:J28)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.61560000000000004</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29">
+        <v>0.13735832918833299</v>
+      </c>
+      <c r="E29">
+        <v>4.6736408083333401E-3</v>
+      </c>
+      <c r="F29">
+        <v>3.4981999833333202E-3</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(D29,F29)</f>
+        <v>7.042826458583315E-2</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <f>AVERAGE(H29:J29)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.62490000000000001</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30">
+        <v>3.2201516409999999E-2</v>
+      </c>
+      <c r="E30">
+        <v>1.2375906833333101E-3</v>
+      </c>
+      <c r="F30">
+        <v>7.3059832916666503E-3</v>
+      </c>
+      <c r="G30">
+        <f>AVERAGE(D30,F30)</f>
+        <v>1.9753749850833325E-2</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <f>AVERAGE(H30:J30)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="L30">
+        <v>6</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.87809999999999999</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31">
+        <v>3.7005961699999898E-3</v>
+      </c>
+      <c r="E31">
+        <v>9.4177127333333194E-3</v>
+      </c>
+      <c r="F31">
+        <v>1.5955972508333301E-2</v>
+      </c>
+      <c r="G31">
+        <f>AVERAGE(D31,F31)</f>
+        <v>9.8282843391666458E-3</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="K31">
+        <f>AVERAGE(H31:J31)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32">
+        <v>4.1863751386666599E-2</v>
+      </c>
+      <c r="E32">
+        <v>1.2767784558333301E-2</v>
+      </c>
+      <c r="F32">
+        <v>1.8572534416666599E-2</v>
+      </c>
+      <c r="G32">
+        <f>AVERAGE(D32,F32)</f>
+        <v>3.0218142901666599E-2</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <f>AVERAGE(H32:J32)</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="L32">
+        <v>8</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="4">
-        <v>0.75639999999999996</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20">
-        <v>4.2059522093333301E-2</v>
-      </c>
-      <c r="E20">
-        <v>5.7508876666663596E-4</v>
-      </c>
-      <c r="F20">
-        <v>1.5910884250000001E-3</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>1.4741899761666644E-2</v>
-      </c>
-      <c r="H20" s="10" t="s">
+      <c r="B33" s="4">
+        <v>0.71889999999999998</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33">
+        <v>0.17473352948333301</v>
+      </c>
+      <c r="E33">
+        <v>5.4623136999999902E-3</v>
+      </c>
+      <c r="F33">
+        <v>1.1184766858333301E-2</v>
+      </c>
+      <c r="G33">
+        <f>AVERAGE(D33,F33)</f>
+        <v>9.2959148170833159E-2</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+      <c r="K33">
+        <f>AVERAGE(H33:J33)</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="L33">
+        <v>9</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34">
+        <v>0.17225772079499899</v>
+      </c>
+      <c r="E34">
+        <v>8.2298392249999901E-3</v>
+      </c>
+      <c r="F34">
+        <v>1.32987478833333E-2</v>
+      </c>
+      <c r="G34">
+        <f>AVERAGE(D34,F34)</f>
+        <v>9.2778234339166141E-2</v>
+      </c>
+      <c r="H34">
+        <v>9</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+      <c r="J34">
+        <v>8</v>
+      </c>
+      <c r="K34">
+        <f>AVERAGE(H34:J34)</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="4">
-        <v>0.3952</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21">
-        <v>1.02705163433333E-2</v>
-      </c>
-      <c r="E21">
-        <v>3.7336756749999302E-3</v>
-      </c>
-      <c r="F21">
-        <v>5.14287990833331E-3</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>6.3823573088888468E-3</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="H39" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.4516</v>
-      </c>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22">
-        <v>9.9509812685000004E-2</v>
-      </c>
-      <c r="E22">
-        <v>4.1109891333333398E-3</v>
-      </c>
-      <c r="F22">
-        <v>3.5190149749999701E-3</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>3.5713272264444436E-2</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0.42709999999999998</v>
-      </c>
-      <c r="C23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23">
-        <v>3.7636890781666599E-2</v>
-      </c>
-      <c r="E23">
-        <v>6.1944456666666002E-4</v>
-      </c>
-      <c r="F23">
-        <v>9.7961919166671802E-4</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>1.3078651513333326E-2</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.64629999999999999</v>
-      </c>
-      <c r="C24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24">
-        <v>1.73429586583333E-2</v>
-      </c>
-      <c r="E24">
-        <v>4.8946217749999696E-3</v>
-      </c>
-      <c r="F24">
-        <v>6.1586565416666796E-3</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>9.465412324999983E-3</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0.22270000000000001</v>
-      </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25">
-        <v>8.0970326166666603E-4</v>
-      </c>
-      <c r="E25">
-        <v>6.4136093250000198E-3</v>
-      </c>
-      <c r="F25">
-        <v>5.84483229166662E-3</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>4.3560482927777686E-3</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0.2021</v>
-      </c>
-      <c r="C28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28">
-        <v>1.8085282163333299E-2</v>
-      </c>
-      <c r="E28">
-        <v>4.1717878750000001E-3</v>
-      </c>
-      <c r="F28">
-        <v>4.5225786999999896E-3</v>
-      </c>
-      <c r="G28">
-        <f>AVERAGE(D28:F28)</f>
-        <v>8.9265495794444288E-3</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0.74260000000000004</v>
-      </c>
-      <c r="C29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29">
-        <v>0.17225772079499899</v>
-      </c>
-      <c r="E29">
-        <v>8.2298392249999901E-3</v>
-      </c>
-      <c r="F29">
-        <v>1.32987478833333E-2</v>
-      </c>
-      <c r="G29">
-        <f>AVERAGE(D29:F29)</f>
-        <v>6.459543596777742E-2</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0.34789999999999999</v>
-      </c>
-      <c r="C30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30">
-        <v>6.2844071950000002E-3</v>
-      </c>
-      <c r="E30">
-        <v>2.05704210833332E-3</v>
-      </c>
-      <c r="F30">
-        <v>1.87939215833335E-3</v>
-      </c>
-      <c r="G30">
-        <f>AVERAGE(D30:F30)</f>
-        <v>3.4069471538888904E-3</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0.71889999999999998</v>
-      </c>
-      <c r="C31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31">
-        <v>0.17473352948333301</v>
-      </c>
-      <c r="E31">
-        <v>5.4623136999999902E-3</v>
-      </c>
-      <c r="F31">
-        <v>1.1184766858333301E-2</v>
-      </c>
-      <c r="G31">
-        <f>AVERAGE(D31:F31)</f>
-        <v>6.3793536680555443E-2</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0.61560000000000004</v>
-      </c>
-      <c r="C32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32">
-        <v>0.13735832918833299</v>
-      </c>
-      <c r="E32">
-        <v>4.6736408083333401E-3</v>
-      </c>
-      <c r="F32">
-        <v>3.4981999833333202E-3</v>
-      </c>
-      <c r="G32">
-        <f>AVERAGE(D32:F32)</f>
-        <v>4.8510056659999884E-2</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.87809999999999999</v>
-      </c>
-      <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34">
-        <v>3.7005961699999898E-3</v>
-      </c>
-      <c r="E34">
-        <v>9.4177127333333194E-3</v>
-      </c>
-      <c r="F34">
-        <v>1.5955972508333301E-2</v>
-      </c>
-      <c r="G34">
-        <f>AVERAGE(D34:F34)</f>
-        <v>9.6914271372222031E-3</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0.2026</v>
-      </c>
-      <c r="C35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35">
-        <v>6.9319584164999906E-2</v>
-      </c>
-      <c r="E35">
-        <v>3.4208122083333298E-3</v>
-      </c>
-      <c r="F35">
-        <v>3.8920943249999801E-3</v>
-      </c>
-      <c r="G35">
-        <f>AVERAGE(D35:F35)</f>
-        <v>2.5544163566111073E-2</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="C36" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36">
-        <v>4.1863751386666599E-2</v>
-      </c>
-      <c r="E36">
-        <v>1.2767784558333301E-2</v>
-      </c>
-      <c r="F36">
-        <v>1.8572534416666599E-2</v>
-      </c>
-      <c r="G36">
-        <f>AVERAGE(D36:F36)</f>
-        <v>2.4401356787222165E-2</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" t="s">
-        <v>108</v>
-      </c>
-      <c r="G39" t="s">
-        <v>110</v>
-      </c>
-      <c r="H39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>109</v>
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:M11">
+    <sortCondition ref="K3:K11"/>
+  </sortState>
   <mergeCells count="4">
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="72" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="77" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1925,13 +2516,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2338,13 +2928,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2635,13 +3224,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2912,13 +3500,12 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3188,13 +3775,12 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -3203,14 +3789,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D252"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D273"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D21"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3219,12 +3802,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3234,10 +3817,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3473,7 +4056,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>0.73380000000000001</v>
@@ -3500,7 +4083,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D21" s="4">
         <f>AVERAGE(D3:D20)</f>
@@ -3508,12 +4091,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -3523,10 +4106,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3762,7 +4345,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>0.73380000000000001</v>
@@ -3789,7 +4372,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D42" s="4">
         <f>AVERAGE(D24:D41)</f>
@@ -3797,12 +4380,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -3812,10 +4395,10 @@
         <v>18</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4042,7 +4625,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B61">
         <v>0.73380000000000001</v>
@@ -4066,7 +4649,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D63" s="4">
         <f>AVERAGE(D45:D62)</f>
@@ -4074,12 +4657,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
     </row>
     <row r="65" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
@@ -4089,10 +4672,10 @@
         <v>18</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4319,7 +4902,7 @@
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B82">
         <v>0.73380000000000001</v>
@@ -4343,7 +4926,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D84" s="4">
         <f>AVERAGE(D66:D83)</f>
@@ -4351,12 +4934,12 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
+      <c r="A85" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
     </row>
     <row r="86" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -4366,10 +4949,10 @@
         <v>18</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4596,7 +5179,7 @@
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B103">
         <v>0.73380000000000001</v>
@@ -4620,7 +5203,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D105" s="4">
         <f>AVERAGE(D87:D104)</f>
@@ -4628,12 +5211,12 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B106" s="22"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
+      <c r="A106" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
     </row>
     <row r="107" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
@@ -4643,10 +5226,10 @@
         <v>18</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4873,7 +5456,7 @@
     </row>
     <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B124">
         <v>0.73380000000000001</v>
@@ -4897,7 +5480,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D126" s="4">
         <f>AVERAGE(D108:D125)</f>
@@ -4905,12 +5488,12 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B127" s="22"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="22"/>
+      <c r="A127" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
     </row>
     <row r="128" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -4920,10 +5503,10 @@
         <v>18</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5150,7 +5733,7 @@
     </row>
     <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B145">
         <v>0.73380000000000001</v>
@@ -5174,7 +5757,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D147" s="4">
         <f>AVERAGE(D129:D146)</f>
@@ -5182,12 +5765,12 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="22" t="s">
+      <c r="A148" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B148" s="22"/>
-      <c r="C148" s="22"/>
-      <c r="D148" s="22"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
     </row>
     <row r="149" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
@@ -5197,10 +5780,10 @@
         <v>18</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5427,7 +6010,7 @@
     </row>
     <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B166">
         <v>0.73380000000000001</v>
@@ -5451,7 +6034,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D168" s="4">
         <f>AVERAGE(D150:D167)</f>
@@ -5459,12 +6042,12 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="22" t="s">
+      <c r="A169" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B169" s="22"/>
-      <c r="C169" s="22"/>
-      <c r="D169" s="22"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
     </row>
     <row r="170" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
@@ -5474,10 +6057,10 @@
         <v>18</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5704,7 +6287,7 @@
     </row>
     <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B187">
         <v>0.73380000000000001</v>
@@ -5728,7 +6311,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D189" s="4">
         <f>AVERAGE(D171:D188)</f>
@@ -5736,12 +6319,12 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B190" s="22"/>
-      <c r="C190" s="22"/>
-      <c r="D190" s="22"/>
+      <c r="A190" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B190" s="19"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="19"/>
     </row>
     <row r="191" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -5751,10 +6334,10 @@
         <v>18</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5981,7 +6564,7 @@
     </row>
     <row r="208" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B208">
         <v>0.73380000000000001</v>
@@ -6005,7 +6588,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D210" s="4">
         <f>AVERAGE(D192:D209)</f>
@@ -6013,12 +6596,12 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B211" s="22"/>
-      <c r="C211" s="22"/>
-      <c r="D211" s="22"/>
+      <c r="A211" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B211" s="19"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="19"/>
     </row>
     <row r="212" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -6028,10 +6611,10 @@
         <v>18</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6258,7 +6841,7 @@
     </row>
     <row r="229" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B229">
         <v>0.73380000000000001</v>
@@ -6282,7 +6865,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D231" s="4">
         <f>AVERAGE(D213:D230)</f>
@@ -6290,12 +6873,12 @@
       </c>
     </row>
     <row r="232" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B232" s="22"/>
-      <c r="C232" s="22"/>
-      <c r="D232" s="22"/>
+      <c r="A232" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B232" s="19"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="19"/>
     </row>
     <row r="233" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
@@ -6305,10 +6888,10 @@
         <v>18</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6499,7 +7082,7 @@
     </row>
     <row r="250" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B250">
         <v>0.73380000000000001</v>
@@ -6520,20 +7103,293 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D252" s="4">
         <f>AVERAGE(D234:D251)</f>
         <v>1</v>
       </c>
     </row>
+    <row r="253" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B253" s="19"/>
+      <c r="C253" s="19"/>
+      <c r="D253" s="19"/>
+    </row>
+    <row r="254" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B255" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C255" s="3">
+        <v>2570000000000</v>
+      </c>
+      <c r="D255" s="4">
+        <f>ABS(C255-B255)/B255</f>
+        <v>9.8290598290598288E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B256" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C256" s="3">
+        <v>182000</v>
+      </c>
+      <c r="D256" s="4">
+        <f t="shared" ref="D256:D266" si="23">ABS(C256-B256)/B256</f>
+        <v>5.5248618784530384E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="D257" s="4">
+        <f t="shared" si="23"/>
+        <v>5.4999999999999494E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C258">
+        <v>99980</v>
+      </c>
+      <c r="D258" s="4">
+        <f t="shared" si="23"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C259">
+        <v>0.31240000000000001</v>
+      </c>
+      <c r="D259" s="4">
+        <f t="shared" si="23"/>
+        <v>1.2820512820513187E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B260" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C260" s="3">
+        <v>4.0324999999999998E-5</v>
+      </c>
+      <c r="D260" s="4">
+        <f t="shared" si="23"/>
+        <v>8.4562996594778714E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B261" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C261">
+        <v>1075</v>
+      </c>
+      <c r="D261" s="4">
+        <f t="shared" si="23"/>
+        <v>4.6296296296296294E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B262" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C262">
+        <v>4.1689999999999998E-2</v>
+      </c>
+      <c r="D262" s="4">
+        <f t="shared" si="23"/>
+        <v>7.7654867256637158E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B263">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C263">
+        <v>0.1217</v>
+      </c>
+      <c r="D263" s="4">
+        <f t="shared" si="23"/>
+        <v>0.28240252897787149</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B264" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C264">
+        <v>2.4800000000000001E-4</v>
+      </c>
+      <c r="D264" s="4">
+        <f t="shared" si="23"/>
+        <v>0.12367491166077733</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B265">
+        <v>1041</v>
+      </c>
+      <c r="C265">
+        <v>1192.3</v>
+      </c>
+      <c r="D265" s="4">
+        <f t="shared" si="23"/>
+        <v>0.14534101825168103</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B266" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C266">
+        <v>6.6850000000000007E-2</v>
+      </c>
+      <c r="D266" s="4">
+        <f t="shared" si="23"/>
+        <v>0.74189189189189186</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B267">
+        <v>1683</v>
+      </c>
+      <c r="D267" s="4"/>
+    </row>
+    <row r="268" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B268">
+        <v>1235</v>
+      </c>
+      <c r="D268" s="4"/>
+    </row>
+    <row r="269" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B269">
+        <v>0.94</v>
+      </c>
+      <c r="C269">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="D269" s="4">
+        <f t="shared" ref="D269" si="24">ABS(C269-B269)/B269</f>
+        <v>8.5106382978725843E-4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B270">
+        <v>0.94</v>
+      </c>
+      <c r="D270" s="4"/>
+    </row>
+    <row r="271" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B271">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D271" s="4"/>
+    </row>
+    <row r="272" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B272" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C272">
+        <v>19939</v>
+      </c>
+      <c r="D272" s="4">
+        <f>ABS(C272-B272)/B272</f>
+        <v>0.99390000000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D273" s="4">
+        <f>AVERAGE(D255:D272)</f>
+        <v>0.18326474425315409</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A85:D85"/>
+  <mergeCells count="13">
+    <mergeCell ref="A253:D253"/>
     <mergeCell ref="A211:D211"/>
     <mergeCell ref="A232:D232"/>
     <mergeCell ref="A106:D106"/>
@@ -6541,6 +7397,11 @@
     <mergeCell ref="A148:D148"/>
     <mergeCell ref="A169:D169"/>
     <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A85:D85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6548,14 +7409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D234"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
-    <sheetView topLeftCell="A22" workbookViewId="1">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="E255" sqref="E255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6564,12 +7422,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6579,15 +7437,15 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3">
         <v>2340000000000</v>
@@ -6602,7 +7460,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3">
         <v>75000000000000</v>
@@ -6677,7 +7535,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3">
         <v>181000</v>
@@ -6692,7 +7550,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3">
         <v>193000</v>
@@ -6707,7 +7565,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3">
         <v>100000</v>
@@ -6722,7 +7580,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B12" s="3">
         <v>200000</v>
@@ -6752,7 +7610,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B14">
         <v>0.75</v>
@@ -6767,7 +7625,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B15">
         <v>0.5</v>
@@ -6866,7 +7724,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -6881,7 +7739,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B23">
         <v>1.5</v>
@@ -6919,23 +7777,23 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19">
+      <c r="A26" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16">
         <f>AVERAGE(D3:D25)</f>
         <v>0.80132687063028885</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -6945,15 +7803,15 @@
         <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B29" s="3">
         <v>2340000000000</v>
@@ -6968,7 +7826,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B30" s="3">
         <v>75000000000000</v>
@@ -7043,7 +7901,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B35" s="3">
         <v>181000</v>
@@ -7058,7 +7916,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B36" s="3">
         <v>193000</v>
@@ -7073,7 +7931,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B37" s="3">
         <v>100000</v>
@@ -7088,7 +7946,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B38" s="3">
         <v>200000</v>
@@ -7118,7 +7976,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B40">
         <v>0.75</v>
@@ -7133,7 +7991,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B41">
         <v>0.5</v>
@@ -7232,7 +8090,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -7247,7 +8105,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B49">
         <v>1.5</v>
@@ -7285,23 +8143,23 @@
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="19">
+      <c r="A52" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16">
         <f>AVERAGE(D29:D51)</f>
         <v>0.28520726335993923</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
     </row>
     <row r="54" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -7311,36 +8169,40 @@
         <v>18</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B55" s="3">
         <v>2340000000000</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3">
+        <v>4130000000000</v>
+      </c>
       <c r="D55" s="4">
         <f t="shared" ref="D55:D60" si="8">ABS(C55-B55)/B55</f>
-        <v>1</v>
+        <v>0.7649572649572649</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B56" s="3">
         <v>75000000000000</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3">
+        <v>134000000000000</v>
+      </c>
       <c r="D56" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.78666666666666663</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7350,9 +8212,12 @@
       <c r="B57" s="5">
         <v>1080</v>
       </c>
+      <c r="C57">
+        <v>1005.46</v>
+      </c>
       <c r="D57" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>6.9018518518518479E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7362,9 +8227,12 @@
       <c r="B58">
         <v>1041</v>
       </c>
+      <c r="C58">
+        <v>1457.88</v>
+      </c>
       <c r="D58" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.40046109510086464</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7374,9 +8242,12 @@
       <c r="B59" s="5">
         <v>4.5199999999999997E-2</v>
       </c>
+      <c r="C59">
+        <v>0.1217</v>
+      </c>
       <c r="D59" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>1.6924778761061952</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7386,59 +8257,72 @@
       <c r="B60" s="5">
         <v>0.25900000000000001</v>
       </c>
+      <c r="C60">
+        <v>0.27360000000000001</v>
+      </c>
       <c r="D60" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5.6370656370656379E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B61" s="3">
         <v>181000</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3">
+        <v>179000</v>
+      </c>
       <c r="D61" s="4">
         <f t="shared" ref="D61" si="9">ABS(C61-B61)/B61</f>
-        <v>1</v>
+        <v>1.1049723756906077E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B62" s="3">
         <v>193000</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="3">
+        <v>209000</v>
+      </c>
       <c r="D62" s="4">
         <f t="shared" ref="D62:D68" si="10">ABS(C62-B62)/B62</f>
-        <v>1</v>
+        <v>8.2901554404145081E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B63" s="3">
         <v>100000</v>
       </c>
+      <c r="C63">
+        <v>148078</v>
+      </c>
       <c r="D63" s="4">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.48077999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B64" s="3">
         <v>200000</v>
       </c>
+      <c r="C64">
+        <v>370852</v>
+      </c>
       <c r="D64" s="4">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.85426000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7448,33 +8332,42 @@
       <c r="B65" s="3">
         <v>10000</v>
       </c>
+      <c r="C65">
+        <v>2500</v>
+      </c>
       <c r="D65" s="4">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>0.75</v>
       </c>
+      <c r="C66">
+        <v>0.58860000000000001</v>
+      </c>
       <c r="D66" s="4">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.21519999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>0.5</v>
       </c>
+      <c r="C67">
+        <v>0.36249999999999999</v>
+      </c>
       <c r="D67" s="4">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7484,9 +8377,12 @@
       <c r="B68">
         <v>0.94</v>
       </c>
+      <c r="C68">
+        <v>0.94799999999999995</v>
+      </c>
       <c r="D68" s="4">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>8.5106382978723492E-3</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7505,9 +8401,12 @@
       <c r="B70" s="5">
         <v>0.312</v>
       </c>
+      <c r="C70">
+        <v>0.29980000000000001</v>
+      </c>
       <c r="D70" s="4">
         <f>ABS(C70-B70)/B70</f>
-        <v>1</v>
+        <v>3.9102564102564068E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7517,9 +8416,12 @@
       <c r="B71">
         <v>9.4899999999999998E-2</v>
       </c>
+      <c r="C71">
+        <v>0.1022</v>
+      </c>
       <c r="D71" s="4">
         <f>ABS(C71-B71)/B71</f>
-        <v>1</v>
+        <v>7.6923076923076941E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7529,10 +8431,12 @@
       <c r="B72" s="3">
         <v>4.405E-5</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="3">
+        <v>3.6980000000000002E-5</v>
+      </c>
       <c r="D72" s="4">
         <f>ABS(C72-B72)/B72</f>
-        <v>1</v>
+        <v>0.16049943246311008</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7542,34 +8446,42 @@
       <c r="B73" s="5">
         <v>2.8299999999999999E-4</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="3">
+        <v>3.1500000000000001E-4</v>
+      </c>
       <c r="D73" s="4">
         <f>ABS(C73-B73)/B73</f>
-        <v>1</v>
+        <v>0.11307420494699653</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
+      <c r="C74">
+        <v>1.131</v>
+      </c>
       <c r="D74" s="4">
         <f t="shared" ref="D74:D75" si="11">ABS(C74-B74)/B74</f>
-        <v>1</v>
+        <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>1.5</v>
       </c>
+      <c r="C75">
+        <v>2.9140000000000001</v>
+      </c>
       <c r="D75" s="4">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.94266666666666676</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7591,23 +8503,23 @@
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19">
+      <c r="A78" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="16">
         <f>AVERAGE(D55:D77)</f>
-        <v>1</v>
+        <v>0.39554599696407522</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
     </row>
     <row r="80" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
@@ -7617,15 +8529,15 @@
         <v>18</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B81" s="3">
         <v>2340000000000</v>
@@ -7640,7 +8552,7 @@
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B82" s="3">
         <v>75000000000000</v>
@@ -7715,7 +8627,7 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B87" s="3">
         <v>181000</v>
@@ -7730,7 +8642,7 @@
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B88" s="3">
         <v>193000</v>
@@ -7745,7 +8657,7 @@
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B89" s="3">
         <v>100000</v>
@@ -7760,7 +8672,7 @@
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B90" s="3">
         <v>200000</v>
@@ -7790,7 +8702,7 @@
     </row>
     <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B92">
         <v>0.75</v>
@@ -7805,7 +8717,7 @@
     </row>
     <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B93">
         <v>0.5</v>
@@ -7904,7 +8816,7 @@
     </row>
     <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -7919,7 +8831,7 @@
     </row>
     <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B101">
         <v>1.5</v>
@@ -7957,23 +8869,23 @@
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="19">
+      <c r="A104" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="16">
         <f>AVERAGE(D81:D103)</f>
         <v>0.75636963317060546</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B105" s="22"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
+      <c r="A105" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
     </row>
     <row r="106" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
@@ -7983,15 +8895,15 @@
         <v>18</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B107" s="3">
         <v>2340000000000</v>
@@ -8006,7 +8918,7 @@
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B108" s="3">
         <v>75000000000000</v>
@@ -8081,7 +8993,7 @@
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B113" s="3">
         <v>181000</v>
@@ -8096,7 +9008,7 @@
     </row>
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B114" s="3">
         <v>193000</v>
@@ -8111,7 +9023,7 @@
     </row>
     <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B115" s="3">
         <v>100000</v>
@@ -8126,7 +9038,7 @@
     </row>
     <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B116" s="3">
         <v>200000</v>
@@ -8156,7 +9068,7 @@
     </row>
     <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B118">
         <v>0.75</v>
@@ -8171,7 +9083,7 @@
     </row>
     <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B119">
         <v>0.5</v>
@@ -8270,7 +9182,7 @@
     </row>
     <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -8285,7 +9197,7 @@
     </row>
     <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B127">
         <v>1.5</v>
@@ -8323,23 +9235,23 @@
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="19">
+      <c r="A130" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="16">
         <f>AVERAGE(D107:D129)</f>
         <v>0.39518984895509751</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="22" t="s">
+      <c r="A131" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B131" s="22"/>
-      <c r="C131" s="22"/>
-      <c r="D131" s="22"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
     </row>
     <row r="132" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -8349,15 +9261,15 @@
         <v>18</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B133" s="3">
         <v>2340000000000</v>
@@ -8372,7 +9284,7 @@
     </row>
     <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B134" s="3">
         <v>75000000000000</v>
@@ -8447,7 +9359,7 @@
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B139" s="3">
         <v>181000</v>
@@ -8462,7 +9374,7 @@
     </row>
     <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B140" s="3">
         <v>193000</v>
@@ -8477,7 +9389,7 @@
     </row>
     <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B141" s="3">
         <v>100000</v>
@@ -8492,7 +9404,7 @@
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B142" s="3">
         <v>200000</v>
@@ -8522,7 +9434,7 @@
     </row>
     <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B144">
         <v>0.75</v>
@@ -8537,7 +9449,7 @@
     </row>
     <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B145">
         <v>0.5</v>
@@ -8636,7 +9548,7 @@
     </row>
     <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -8651,7 +9563,7 @@
     </row>
     <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B153">
         <v>1.5</v>
@@ -8689,23 +9601,23 @@
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B156" s="18"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="19">
+      <c r="A156" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B156" s="15"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="16">
         <f>AVERAGE(D133:D155)</f>
         <v>0.45160656562906476</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B157" s="22"/>
-      <c r="C157" s="22"/>
-      <c r="D157" s="22"/>
+      <c r="A157" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B157" s="19"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
     </row>
     <row r="158" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
@@ -8715,15 +9627,15 @@
         <v>18</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B159" s="3">
         <v>2340000000000</v>
@@ -8738,7 +9650,7 @@
     </row>
     <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B160" s="3">
         <v>75000000000000</v>
@@ -8813,7 +9725,7 @@
     </row>
     <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B165" s="3">
         <v>181000</v>
@@ -8828,7 +9740,7 @@
     </row>
     <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B166" s="3">
         <v>193000</v>
@@ -8843,7 +9755,7 @@
     </row>
     <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B167" s="3">
         <v>100000</v>
@@ -8858,7 +9770,7 @@
     </row>
     <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B168" s="3">
         <v>200000</v>
@@ -8888,7 +9800,7 @@
     </row>
     <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B170">
         <v>0.75</v>
@@ -8903,7 +9815,7 @@
     </row>
     <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B171">
         <v>0.5</v>
@@ -9002,7 +9914,7 @@
     </row>
     <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -9017,7 +9929,7 @@
     </row>
     <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B179">
         <v>1.5</v>
@@ -9055,23 +9967,23 @@
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B182" s="18"/>
-      <c r="C182" s="18"/>
-      <c r="D182" s="19">
+      <c r="A182" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B182" s="15"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="16">
         <f>AVERAGE(D159:D181)</f>
         <v>0.42713444610874268</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B183" s="22"/>
-      <c r="C183" s="22"/>
-      <c r="D183" s="22"/>
+      <c r="A183" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B183" s="19"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
     </row>
     <row r="184" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
@@ -9081,15 +9993,15 @@
         <v>18</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B185" s="3">
         <v>2340000000000</v>
@@ -9104,7 +10016,7 @@
     </row>
     <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B186" s="3">
         <v>75000000000000</v>
@@ -9179,7 +10091,7 @@
     </row>
     <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B191" s="3">
         <v>181000</v>
@@ -9194,7 +10106,7 @@
     </row>
     <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B192" s="3">
         <v>193000</v>
@@ -9209,7 +10121,7 @@
     </row>
     <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B193" s="3">
         <v>100000</v>
@@ -9224,7 +10136,7 @@
     </row>
     <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B194" s="3">
         <v>200000</v>
@@ -9254,7 +10166,7 @@
     </row>
     <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B196">
         <v>0.75</v>
@@ -9269,7 +10181,7 @@
     </row>
     <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B197">
         <v>0.5</v>
@@ -9368,7 +10280,7 @@
     </row>
     <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -9383,7 +10295,7 @@
     </row>
     <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B205">
         <v>1.5</v>
@@ -9421,23 +10333,23 @@
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B208" s="18"/>
-      <c r="C208" s="18"/>
-      <c r="D208" s="19">
+      <c r="A208" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B208" s="15"/>
+      <c r="C208" s="15"/>
+      <c r="D208" s="16">
         <f>AVERAGE(D185:D207)</f>
         <v>0.64630643433824708</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B209" s="22"/>
-      <c r="C209" s="22"/>
-      <c r="D209" s="22"/>
+      <c r="A209" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B209" s="19"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="19"/>
     </row>
     <row r="210" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
@@ -9447,15 +10359,15 @@
         <v>18</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B211" s="3">
         <v>2340000000000</v>
@@ -9470,7 +10382,7 @@
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B212" s="3">
         <v>75000000000000</v>
@@ -9545,7 +10457,7 @@
     </row>
     <row r="217" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B217" s="3">
         <v>181000</v>
@@ -9560,7 +10472,7 @@
     </row>
     <row r="218" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B218" s="3">
         <v>193000</v>
@@ -9575,7 +10487,7 @@
     </row>
     <row r="219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B219" s="3">
         <v>100000</v>
@@ -9590,7 +10502,7 @@
     </row>
     <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B220" s="3">
         <v>200000</v>
@@ -9620,7 +10532,7 @@
     </row>
     <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B222">
         <v>0.75</v>
@@ -9635,7 +10547,7 @@
     </row>
     <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B223">
         <v>0.5</v>
@@ -9734,7 +10646,7 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -9749,7 +10661,7 @@
     </row>
     <row r="231" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B231">
         <v>1.5</v>
@@ -9787,18 +10699,379 @@
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B234" s="18"/>
-      <c r="C234" s="18"/>
-      <c r="D234" s="19">
+      <c r="A234" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B234" s="15"/>
+      <c r="C234" s="15"/>
+      <c r="D234" s="16">
         <f>AVERAGE(D211:D233)</f>
         <v>0.22268827247871306</v>
       </c>
     </row>
+    <row r="235" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B235" s="19"/>
+      <c r="C235" s="19"/>
+      <c r="D235" s="19"/>
+    </row>
+    <row r="236" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B237" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C237" s="3">
+        <v>4050000000000</v>
+      </c>
+      <c r="D237" s="4">
+        <f t="shared" ref="D237:D250" si="36">ABS(C237-B237)/B237</f>
+        <v>0.73076923076923073</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B238" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C238" s="3">
+        <v>40200000000000</v>
+      </c>
+      <c r="D238" s="4">
+        <f t="shared" si="36"/>
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B239" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C239">
+        <v>1099</v>
+      </c>
+      <c r="D239" s="4">
+        <f t="shared" si="36"/>
+        <v>1.7592592592592594E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B240">
+        <v>1041</v>
+      </c>
+      <c r="C240">
+        <v>262.27300000000002</v>
+      </c>
+      <c r="D240" s="4">
+        <f t="shared" si="36"/>
+        <v>0.74805667627281458</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C241">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="D241" s="4">
+        <f t="shared" si="36"/>
+        <v>1.2898230088495575</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B242" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C242">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="D242" s="4">
+        <f t="shared" si="36"/>
+        <v>0.72664092664092661</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B243" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C243" s="3">
+        <v>170000</v>
+      </c>
+      <c r="D243" s="4">
+        <f t="shared" si="36"/>
+        <v>6.0773480662983423E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B244" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C244" s="3">
+        <v>350000</v>
+      </c>
+      <c r="D244" s="4">
+        <f t="shared" si="36"/>
+        <v>0.81347150259067358</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B245" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C245">
+        <v>167766</v>
+      </c>
+      <c r="D245" s="4">
+        <f t="shared" si="36"/>
+        <v>0.67766000000000004</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B246" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C246">
+        <v>389742</v>
+      </c>
+      <c r="D246" s="4">
+        <f t="shared" si="36"/>
+        <v>0.94871000000000005</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B247" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C247">
+        <v>28167</v>
+      </c>
+      <c r="D247" s="4">
+        <f t="shared" si="36"/>
+        <v>1.8167</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B248">
+        <v>0.75</v>
+      </c>
+      <c r="C248">
+        <v>0.57889999999999997</v>
+      </c>
+      <c r="D248" s="4">
+        <f t="shared" si="36"/>
+        <v>0.22813333333333338</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B249">
+        <v>0.5</v>
+      </c>
+      <c r="C249">
+        <v>0.56889999999999996</v>
+      </c>
+      <c r="D249" s="4">
+        <f t="shared" si="36"/>
+        <v>0.13779999999999992</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B250">
+        <v>0.94</v>
+      </c>
+      <c r="C250">
+        <v>0.86140000000000005</v>
+      </c>
+      <c r="D250" s="4">
+        <f t="shared" si="36"/>
+        <v>8.3617021276595635E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B251">
+        <v>0.94</v>
+      </c>
+      <c r="D251" s="4"/>
+    </row>
+    <row r="252" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C252">
+        <v>0.28770000000000001</v>
+      </c>
+      <c r="D252" s="4">
+        <f>ABS(C252-B252)/B252</f>
+        <v>7.7884615384615344E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B253">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C253">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="D253" s="4">
+        <f>ABS(C253-B253)/B253</f>
+        <v>4.7418335089568012E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B254" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C254" s="3">
+        <v>7.1340000000000005E-5</v>
+      </c>
+      <c r="D254" s="4">
+        <f>ABS(C254-B254)/B254</f>
+        <v>0.61952326901248589</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B255" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C255" s="3">
+        <v>2.02E-4</v>
+      </c>
+      <c r="D255" s="4">
+        <f>ABS(C255-B255)/B255</f>
+        <v>0.28621908127208479</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="D256" s="4">
+        <f t="shared" ref="D256:D257" si="37">ABS(C256-B256)/B256</f>
+        <v>1.2879999999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B257">
+        <v>1.5</v>
+      </c>
+      <c r="C257">
+        <v>4.1050000000000004</v>
+      </c>
+      <c r="D257" s="4">
+        <f t="shared" si="37"/>
+        <v>1.736666666666667</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B258">
+        <v>1683</v>
+      </c>
+      <c r="D258" s="4"/>
+    </row>
+    <row r="259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B259">
+        <v>1235</v>
+      </c>
+      <c r="D259" s="4"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B260" s="15"/>
+      <c r="C260" s="15"/>
+      <c r="D260" s="16">
+        <f>AVERAGE(D237:D259)</f>
+        <v>0.63997298702070649</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A235:D235"/>
     <mergeCell ref="A157:D157"/>
     <mergeCell ref="A183:D183"/>
     <mergeCell ref="A209:D209"/>
@@ -9814,14 +11087,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D279"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="K183" sqref="K183"/>
-    </sheetView>
-    <sheetView topLeftCell="A94" workbookViewId="1">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="E302" sqref="E302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9830,12 +11100,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9845,15 +11115,15 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3">
         <v>2340000000000</v>
@@ -9868,7 +11138,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3">
         <v>75000000000000</v>
@@ -9883,7 +11153,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3">
         <v>9200000000000</v>
@@ -9958,7 +11228,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B10" s="3">
         <v>181000</v>
@@ -9973,7 +11243,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3">
         <v>193000</v>
@@ -9988,7 +11258,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B12" s="3">
         <v>175000</v>
@@ -10003,7 +11273,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B13" s="3">
         <v>100000</v>
@@ -10018,7 +11288,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3">
         <v>200000</v>
@@ -10033,7 +11303,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B15" s="3">
         <v>400000</v>
@@ -10063,7 +11333,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B17">
         <v>0.75</v>
@@ -10078,7 +11348,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B18">
         <v>0.5</v>
@@ -10093,7 +11363,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B19">
         <v>0.3</v>
@@ -10192,7 +11462,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -10207,7 +11477,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B27">
         <v>1.5</v>
@@ -10222,7 +11492,7 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -10260,23 +11530,23 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19">
+      <c r="A31" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16">
         <f>AVERAGE(D3:D30)</f>
         <v>0.20211784415887502</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -10286,15 +11556,15 @@
         <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B34" s="3">
         <v>2340000000000</v>
@@ -10309,7 +11579,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B35" s="3">
         <v>75000000000000</v>
@@ -10324,7 +11594,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B36" s="3">
         <v>9200000000000</v>
@@ -10399,7 +11669,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B41" s="3">
         <v>181000</v>
@@ -10414,7 +11684,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B42" s="3">
         <v>193000</v>
@@ -10429,7 +11699,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B43" s="3">
         <v>175000</v>
@@ -10444,7 +11714,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B44" s="3">
         <v>100000</v>
@@ -10459,7 +11729,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B45" s="3">
         <v>200000</v>
@@ -10474,7 +11744,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B46" s="3">
         <v>400000</v>
@@ -10504,7 +11774,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B48">
         <v>0.75</v>
@@ -10519,7 +11789,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B49">
         <v>0.5</v>
@@ -10534,7 +11804,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>0.3</v>
@@ -10633,7 +11903,7 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -10648,7 +11918,7 @@
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B58">
         <v>1.5</v>
@@ -10663,7 +11933,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -10701,23 +11971,23 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19">
+      <c r="A62" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16">
         <f>AVERAGE(D34:D61)</f>
         <v>0.74255315020014678</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="A63" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
     </row>
     <row r="64" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -10727,15 +11997,15 @@
         <v>18</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B65" s="3">
         <v>2340000000000</v>
@@ -10750,7 +12020,7 @@
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B66" s="3">
         <v>75000000000000</v>
@@ -10765,7 +12035,7 @@
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B67" s="3">
         <v>9200000000000</v>
@@ -10840,7 +12110,7 @@
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B72" s="3">
         <v>181000</v>
@@ -10855,7 +12125,7 @@
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B73" s="3">
         <v>193000</v>
@@ -10870,7 +12140,7 @@
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B74" s="3">
         <v>175000</v>
@@ -10885,7 +12155,7 @@
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B75" s="3">
         <v>100000</v>
@@ -10900,7 +12170,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B76" s="3">
         <v>200000</v>
@@ -10915,7 +12185,7 @@
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B77" s="3">
         <v>400000</v>
@@ -10945,7 +12215,7 @@
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B79">
         <v>0.75</v>
@@ -10960,7 +12230,7 @@
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B80">
         <v>0.5</v>
@@ -10975,7 +12245,7 @@
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B81">
         <v>0.3</v>
@@ -11074,7 +12344,7 @@
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -11089,7 +12359,7 @@
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B89">
         <v>1.5</v>
@@ -11104,7 +12374,7 @@
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -11142,23 +12412,23 @@
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="19">
+      <c r="A93" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="16">
         <f>AVERAGE(D65:D92)</f>
         <v>0.34790039844798626</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
@@ -11168,15 +12438,15 @@
         <v>18</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B96" s="3">
         <v>2340000000000</v>
@@ -11191,7 +12461,7 @@
     </row>
     <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B97" s="3">
         <v>75000000000000</v>
@@ -11206,7 +12476,7 @@
     </row>
     <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B98" s="3">
         <v>9200000000000</v>
@@ -11281,7 +12551,7 @@
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B103" s="3">
         <v>181000</v>
@@ -11296,7 +12566,7 @@
     </row>
     <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B104" s="3">
         <v>193000</v>
@@ -11311,7 +12581,7 @@
     </row>
     <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B105" s="3">
         <v>175000</v>
@@ -11326,7 +12596,7 @@
     </row>
     <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B106" s="3">
         <v>100000</v>
@@ -11341,7 +12611,7 @@
     </row>
     <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B107" s="3">
         <v>200000</v>
@@ -11356,7 +12626,7 @@
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B108" s="3">
         <v>400000</v>
@@ -11386,7 +12656,7 @@
     </row>
     <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B110">
         <v>0.75</v>
@@ -11401,7 +12671,7 @@
     </row>
     <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B111">
         <v>0.5</v>
@@ -11416,7 +12686,7 @@
     </row>
     <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B112">
         <v>0.3</v>
@@ -11515,7 +12785,7 @@
     </row>
     <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -11530,7 +12800,7 @@
     </row>
     <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B120">
         <v>1.5</v>
@@ -11545,7 +12815,7 @@
     </row>
     <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -11583,23 +12853,23 @@
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="19">
+      <c r="A124" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="16">
         <f>AVERAGE(D96:D123)</f>
         <v>0.71885585717555045</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
+      <c r="A125" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
     </row>
     <row r="126" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -11609,15 +12879,15 @@
         <v>18</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B127" s="3">
         <v>2340000000000</v>
@@ -11632,7 +12902,7 @@
     </row>
     <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B128" s="3">
         <v>75000000000000</v>
@@ -11647,7 +12917,7 @@
     </row>
     <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B129" s="3">
         <v>9200000000000</v>
@@ -11722,7 +12992,7 @@
     </row>
     <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B134" s="3">
         <v>181000</v>
@@ -11737,7 +13007,7 @@
     </row>
     <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B135" s="3">
         <v>193000</v>
@@ -11752,7 +13022,7 @@
     </row>
     <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B136" s="3">
         <v>175000</v>
@@ -11767,7 +13037,7 @@
     </row>
     <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B137" s="3">
         <v>100000</v>
@@ -11782,7 +13052,7 @@
     </row>
     <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B138" s="3">
         <v>200000</v>
@@ -11797,7 +13067,7 @@
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B139" s="3">
         <v>400000</v>
@@ -11827,7 +13097,7 @@
     </row>
     <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B141">
         <v>0.75</v>
@@ -11842,7 +13112,7 @@
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B142">
         <v>0.5</v>
@@ -11857,7 +13127,7 @@
     </row>
     <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B143">
         <v>0.3</v>
@@ -11956,7 +13226,7 @@
     </row>
     <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -11971,7 +13241,7 @@
     </row>
     <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B151">
         <v>1.5</v>
@@ -11986,7 +13256,7 @@
     </row>
     <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B152">
         <v>3</v>
@@ -12024,23 +13294,23 @@
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="19">
+      <c r="A155" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="16">
         <f>AVERAGE(D127:D154)</f>
         <v>0.6156381731538102</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B156" s="22"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="22"/>
+      <c r="A156" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
     </row>
     <row r="157" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
@@ -12050,55 +13320,55 @@
         <v>18</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B158" s="3">
         <v>2340000000000</v>
       </c>
       <c r="C158" s="3">
-        <v>4140000000000</v>
+        <v>5060000000000</v>
       </c>
       <c r="D158" s="4">
         <f t="shared" ref="D158:D164" si="20">ABS(C158-B158)/B158</f>
-        <v>0.76923076923076927</v>
+        <v>1.1623931623931625</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B159" s="3">
         <v>75000000000000</v>
       </c>
       <c r="C159" s="3">
-        <v>106000000000000</v>
+        <v>77600000000000</v>
       </c>
       <c r="D159" s="4">
         <f t="shared" si="20"/>
-        <v>0.41333333333333333</v>
+        <v>3.4666666666666665E-2</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B160" s="3">
         <v>9200000000000</v>
       </c>
       <c r="C160" s="3">
-        <v>16600000000000</v>
+        <v>9550000000000</v>
       </c>
       <c r="D160" s="4">
         <f t="shared" si="20"/>
-        <v>0.80434782608695654</v>
+        <v>3.8043478260869568E-2</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12109,11 +13379,11 @@
         <v>1080</v>
       </c>
       <c r="C161">
-        <v>1595.86</v>
+        <v>1020.46</v>
       </c>
       <c r="D161" s="4">
         <f t="shared" si="20"/>
-        <v>0.47764814814814804</v>
+        <v>5.5129629629629598E-2</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12124,11 +13394,11 @@
         <v>1041</v>
       </c>
       <c r="C162">
-        <v>2035.33</v>
+        <v>1843.9</v>
       </c>
       <c r="D162" s="4">
         <f t="shared" si="20"/>
-        <v>0.95516810758885684</v>
+        <v>0.77127761767531233</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12139,11 +13409,11 @@
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="C163">
-        <v>8.5800000000000001E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D163" s="4">
         <f t="shared" si="20"/>
-        <v>0.8982300884955754</v>
+        <v>1.2787610619469028</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12154,101 +13424,101 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="C164">
-        <v>0.49099999999999999</v>
+        <v>0.50739999999999996</v>
       </c>
       <c r="D164" s="4">
         <f t="shared" si="20"/>
-        <v>0.89575289575289563</v>
+        <v>0.95907335907335889</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B165" s="3">
         <v>181000</v>
       </c>
       <c r="C165" s="3">
-        <v>209000</v>
+        <v>398000</v>
       </c>
       <c r="D165" s="4">
         <f t="shared" ref="D165" si="21">ABS(C165-B165)/B165</f>
-        <v>0.15469613259668508</v>
+        <v>1.1988950276243093</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B166" s="3">
         <v>193000</v>
       </c>
       <c r="C166" s="3">
-        <v>146000</v>
+        <v>187000</v>
       </c>
       <c r="D166" s="4">
         <f t="shared" ref="D166:D175" si="22">ABS(C166-B166)/B166</f>
-        <v>0.24352331606217617</v>
+        <v>3.1088082901554404E-2</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B167" s="3">
         <v>175000</v>
       </c>
       <c r="C167" s="3">
-        <v>261000</v>
+        <v>347000</v>
       </c>
       <c r="D167" s="4">
         <f t="shared" si="22"/>
-        <v>0.49142857142857144</v>
+        <v>0.98285714285714287</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B168" s="3">
         <v>100000</v>
       </c>
       <c r="C168">
-        <v>220040</v>
+        <v>278454.5</v>
       </c>
       <c r="D168" s="4">
         <f t="shared" si="22"/>
-        <v>1.2003999999999999</v>
+        <v>1.784545</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B169" s="3">
         <v>200000</v>
       </c>
       <c r="C169">
-        <v>433347</v>
+        <v>285061.65999999997</v>
       </c>
       <c r="D169" s="4">
         <f t="shared" si="22"/>
-        <v>1.1667350000000001</v>
+        <v>0.42530829999999986</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B170" s="3">
         <v>400000</v>
       </c>
       <c r="C170">
-        <v>832306</v>
+        <v>708082.8</v>
       </c>
       <c r="D170" s="4">
         <f t="shared" si="22"/>
-        <v>1.080765</v>
+        <v>0.77020700000000009</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12259,56 +13529,56 @@
         <v>10000</v>
       </c>
       <c r="C171">
-        <v>26063.3</v>
+        <v>21621.119999999999</v>
       </c>
       <c r="D171" s="4">
         <f t="shared" si="22"/>
-        <v>1.60633</v>
+        <v>1.1621119999999998</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B172">
         <v>0.75</v>
       </c>
       <c r="C172">
-        <v>0.4607</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D172" s="4">
         <f t="shared" si="22"/>
-        <v>0.38573333333333332</v>
+        <v>0.17466666666666666</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B173">
         <v>0.5</v>
       </c>
       <c r="C173">
-        <v>0.43859999999999999</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="D173" s="4">
         <f t="shared" si="22"/>
-        <v>0.12280000000000002</v>
+        <v>0.11199999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B174">
         <v>0.3</v>
       </c>
       <c r="C174">
-        <v>0.49209999999999998</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D174" s="4">
         <f t="shared" si="22"/>
-        <v>0.64033333333333331</v>
+        <v>0.76000000000000012</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12319,11 +13589,11 @@
         <v>0.94</v>
       </c>
       <c r="C175">
-        <v>0.65400000000000003</v>
+        <v>0.95</v>
       </c>
       <c r="D175" s="4">
         <f t="shared" si="22"/>
-        <v>0.30425531914893611</v>
+        <v>1.0638297872340436E-2</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12343,11 +13613,11 @@
         <v>0.312</v>
       </c>
       <c r="C177">
-        <v>0.38700000000000001</v>
+        <v>0.28870000000000001</v>
       </c>
       <c r="D177" s="4">
         <f>ABS(C177-B177)/B177</f>
-        <v>0.24038461538461542</v>
+        <v>7.4679487179487136E-2</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12358,11 +13628,11 @@
         <v>9.4899999999999998E-2</v>
       </c>
       <c r="C178">
-        <v>0.152</v>
+        <v>0.1089</v>
       </c>
       <c r="D178" s="4">
         <f>ABS(C178-B178)/B178</f>
-        <v>0.60168598524762906</v>
+        <v>0.14752370916754476</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12373,11 +13643,11 @@
         <v>4.405E-5</v>
       </c>
       <c r="C179" s="3">
-        <v>6.4197999999999998E-5</v>
+        <v>9.2200000000000005E-5</v>
       </c>
       <c r="D179" s="4">
         <f>ABS(C179-B179)/B179</f>
-        <v>0.45738933030646989</v>
+        <v>1.0930760499432464</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -12388,56 +13658,56 @@
         <v>2.8299999999999999E-4</v>
       </c>
       <c r="C180" s="3">
-        <v>5.0370000000000005E-4</v>
+        <v>3.3189999999999999E-4</v>
       </c>
       <c r="D180" s="4">
         <f>ABS(C180-B180)/B180</f>
-        <v>0.77985865724381642</v>
+        <v>0.17279151943462898</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
       <c r="C181">
-        <v>2.2723</v>
+        <v>2.3580000000000001</v>
       </c>
       <c r="D181" s="4">
         <f t="shared" ref="D181:D183" si="23">ABS(C181-B181)/B181</f>
-        <v>1.2723</v>
+        <v>1.3580000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B182">
         <v>1.5</v>
       </c>
       <c r="C182">
-        <v>2.9805999999999999</v>
+        <v>1.0356000000000001</v>
       </c>
       <c r="D182" s="4">
         <f t="shared" si="23"/>
-        <v>0.98706666666666665</v>
+        <v>0.30959999999999993</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B183">
         <v>3</v>
       </c>
       <c r="C183">
-        <v>6.0659999999999998</v>
+        <v>5.2649999999999997</v>
       </c>
       <c r="D183" s="4">
         <f t="shared" si="23"/>
-        <v>1.022</v>
+        <v>0.75499999999999989</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12465,23 +13735,23 @@
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B186" s="18"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="19">
+      <c r="A186" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B186" s="15"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="16">
         <f>AVERAGE(D158:D185)</f>
-        <v>0.71885585717555045</v>
+        <v>0.62489333037171291</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B187" s="22"/>
-      <c r="C187" s="22"/>
-      <c r="D187" s="22"/>
+      <c r="A187" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B187" s="19"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="19"/>
     </row>
     <row r="188" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
@@ -12491,15 +13761,15 @@
         <v>18</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B189" s="3">
         <v>2340000000000</v>
@@ -12514,7 +13784,7 @@
     </row>
     <row r="190" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B190" s="3">
         <v>75000000000000</v>
@@ -12529,7 +13799,7 @@
     </row>
     <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B191" s="3">
         <v>9200000000000</v>
@@ -12604,7 +13874,7 @@
     </row>
     <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B196" s="3">
         <v>181000</v>
@@ -12619,7 +13889,7 @@
     </row>
     <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B197" s="3">
         <v>193000</v>
@@ -12634,7 +13904,7 @@
     </row>
     <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B198" s="3">
         <v>175000</v>
@@ -12649,7 +13919,7 @@
     </row>
     <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B199" s="3">
         <v>100000</v>
@@ -12664,7 +13934,7 @@
     </row>
     <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B200" s="3">
         <v>200000</v>
@@ -12679,7 +13949,7 @@
     </row>
     <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B201" s="3">
         <v>400000</v>
@@ -12709,7 +13979,7 @@
     </row>
     <row r="203" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B203">
         <v>0.75</v>
@@ -12724,7 +13994,7 @@
     </row>
     <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B204">
         <v>0.5</v>
@@ -12739,7 +14009,7 @@
     </row>
     <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B205">
         <v>0.3</v>
@@ -12838,7 +14108,7 @@
     </row>
     <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -12853,7 +14123,7 @@
     </row>
     <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B213">
         <v>1.5</v>
@@ -12868,7 +14138,7 @@
     </row>
     <row r="214" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B214">
         <v>3</v>
@@ -12906,23 +14176,23 @@
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B217" s="18"/>
-      <c r="C217" s="18"/>
-      <c r="D217" s="19">
+      <c r="A217" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B217" s="15"/>
+      <c r="C217" s="15"/>
+      <c r="D217" s="16">
         <f>AVERAGE(D189:D216)</f>
         <v>0.87806689126217041</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="22" t="s">
+      <c r="A218" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B218" s="22"/>
-      <c r="C218" s="22"/>
-      <c r="D218" s="22"/>
+      <c r="B218" s="19"/>
+      <c r="C218" s="19"/>
+      <c r="D218" s="19"/>
     </row>
     <row r="219" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
@@ -12932,15 +14202,15 @@
         <v>18</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B220" s="3">
         <v>2340000000000</v>
@@ -12955,7 +14225,7 @@
     </row>
     <row r="221" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B221" s="3">
         <v>75000000000000</v>
@@ -12970,7 +14240,7 @@
     </row>
     <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B222" s="3">
         <v>9200000000000</v>
@@ -13045,7 +14315,7 @@
     </row>
     <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B227" s="3">
         <v>181000</v>
@@ -13060,7 +14330,7 @@
     </row>
     <row r="228" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B228" s="3">
         <v>193000</v>
@@ -13075,7 +14345,7 @@
     </row>
     <row r="229" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B229" s="3">
         <v>175000</v>
@@ -13090,7 +14360,7 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B230" s="3">
         <v>100000</v>
@@ -13105,7 +14375,7 @@
     </row>
     <row r="231" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B231" s="3">
         <v>200000</v>
@@ -13120,7 +14390,7 @@
     </row>
     <row r="232" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B232" s="3">
         <v>400000</v>
@@ -13150,7 +14420,7 @@
     </row>
     <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B234">
         <v>0.75</v>
@@ -13165,7 +14435,7 @@
     </row>
     <row r="235" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B235">
         <v>0.5</v>
@@ -13180,7 +14450,7 @@
     </row>
     <row r="236" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B236">
         <v>0.3</v>
@@ -13279,7 +14549,7 @@
     </row>
     <row r="243" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -13294,7 +14564,7 @@
     </row>
     <row r="244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B244">
         <v>1.5</v>
@@ -13309,7 +14579,7 @@
     </row>
     <row r="245" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B245">
         <v>3</v>
@@ -13347,23 +14617,23 @@
       <c r="D247" s="4"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B248" s="18"/>
-      <c r="C248" s="18"/>
-      <c r="D248" s="19">
+      <c r="A248" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B248" s="15"/>
+      <c r="C248" s="15"/>
+      <c r="D248" s="16">
         <f>AVERAGE(D220:D247)</f>
         <v>0.20258398663831578</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B249" s="22"/>
-      <c r="C249" s="22"/>
-      <c r="D249" s="22"/>
+      <c r="A249" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B249" s="19"/>
+      <c r="C249" s="19"/>
+      <c r="D249" s="19"/>
     </row>
     <row r="250" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
@@ -13373,15 +14643,15 @@
         <v>18</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B251" s="3">
         <v>2340000000000</v>
@@ -13396,7 +14666,7 @@
     </row>
     <row r="252" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B252" s="3">
         <v>75000000000000</v>
@@ -13411,7 +14681,7 @@
     </row>
     <row r="253" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B253" s="3">
         <v>9200000000000</v>
@@ -13486,7 +14756,7 @@
     </row>
     <row r="258" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B258" s="3">
         <v>181000</v>
@@ -13501,7 +14771,7 @@
     </row>
     <row r="259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B259" s="3">
         <v>193000</v>
@@ -13516,7 +14786,7 @@
     </row>
     <row r="260" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B260" s="3">
         <v>175000</v>
@@ -13531,7 +14801,7 @@
     </row>
     <row r="261" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B261" s="3">
         <v>100000</v>
@@ -13546,7 +14816,7 @@
     </row>
     <row r="262" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B262" s="3">
         <v>200000</v>
@@ -13561,7 +14831,7 @@
     </row>
     <row r="263" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B263" s="3">
         <v>400000</v>
@@ -13591,7 +14861,7 @@
     </row>
     <row r="265" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B265">
         <v>0.75</v>
@@ -13606,7 +14876,7 @@
     </row>
     <row r="266" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B266">
         <v>0.5</v>
@@ -13621,7 +14891,7 @@
     </row>
     <row r="267" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B267">
         <v>0.3</v>
@@ -13720,7 +14990,7 @@
     </row>
     <row r="274" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -13735,7 +15005,7 @@
     </row>
     <row r="275" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B275">
         <v>1.5</v>
@@ -13750,7 +15020,7 @@
     </row>
     <row r="276" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B276">
         <v>3</v>
@@ -13788,18 +15058,460 @@
       <c r="D278" s="4"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B279" s="18"/>
-      <c r="C279" s="18"/>
-      <c r="D279" s="19">
+      <c r="A279" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B279" s="15"/>
+      <c r="C279" s="15"/>
+      <c r="D279" s="16">
         <f>AVERAGE(D251:D278)</f>
         <v>0.69756172413485018</v>
       </c>
     </row>
+    <row r="280" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B280" s="19"/>
+      <c r="C280" s="19"/>
+      <c r="D280" s="19"/>
+    </row>
+    <row r="281" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B282" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C282" s="3">
+        <v>2330000000000</v>
+      </c>
+      <c r="D282" s="4">
+        <f t="shared" ref="D282:D299" si="36">ABS(C282-B282)/B282</f>
+        <v>4.2735042735042739E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B283" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C283" s="3">
+        <v>72200000000000</v>
+      </c>
+      <c r="D283" s="4">
+        <f t="shared" si="36"/>
+        <v>3.7333333333333336E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B284" s="3">
+        <v>9200000000000</v>
+      </c>
+      <c r="C284" s="3">
+        <v>8280000000000</v>
+      </c>
+      <c r="D284" s="4">
+        <f t="shared" si="36"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B285" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C285" s="5">
+        <v>1101.03</v>
+      </c>
+      <c r="D285" s="4">
+        <f t="shared" si="36"/>
+        <v>1.9472222222222196E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B286">
+        <v>1041</v>
+      </c>
+      <c r="C286" s="5">
+        <v>714.13199999999995</v>
+      </c>
+      <c r="D286" s="4">
+        <f t="shared" si="36"/>
+        <v>0.31399423631123924</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B287" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C287" s="5">
+        <v>0.1217</v>
+      </c>
+      <c r="D287" s="4">
+        <f t="shared" si="36"/>
+        <v>1.6924778761061952</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B288" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C288" s="5">
+        <v>0.74460000000000004</v>
+      </c>
+      <c r="D288" s="4">
+        <f t="shared" si="36"/>
+        <v>1.874903474903475</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B289" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C289" s="3">
+        <v>182000</v>
+      </c>
+      <c r="D289" s="4">
+        <f t="shared" si="36"/>
+        <v>5.5248618784530384E-3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B290" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C290" s="3">
+        <v>194000</v>
+      </c>
+      <c r="D290" s="4">
+        <f t="shared" si="36"/>
+        <v>5.1813471502590676E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B291" s="3">
+        <v>175000</v>
+      </c>
+      <c r="C291" s="3">
+        <v>174000</v>
+      </c>
+      <c r="D291" s="4">
+        <f t="shared" si="36"/>
+        <v>5.7142857142857143E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B292" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C292" s="3">
+        <v>90455.18</v>
+      </c>
+      <c r="D292" s="4">
+        <f t="shared" si="36"/>
+        <v>9.5448200000000066E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B293" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C293" s="3">
+        <v>201452</v>
+      </c>
+      <c r="D293" s="4">
+        <f t="shared" si="36"/>
+        <v>7.26E-3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B294" s="3">
+        <v>400000</v>
+      </c>
+      <c r="C294" s="3">
+        <v>389808</v>
+      </c>
+      <c r="D294" s="4">
+        <f t="shared" si="36"/>
+        <v>2.5479999999999999E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B295" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C295" s="3">
+        <v>25312.6</v>
+      </c>
+      <c r="D295" s="4">
+        <f t="shared" si="36"/>
+        <v>1.5312599999999998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B296">
+        <v>0.75</v>
+      </c>
+      <c r="C296" s="3">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D296" s="4">
+        <f t="shared" si="36"/>
+        <v>8.7999999999999926E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B297">
+        <v>0.5</v>
+      </c>
+      <c r="C297" s="3">
+        <v>0.46089999999999998</v>
+      </c>
+      <c r="D297" s="4">
+        <f t="shared" si="36"/>
+        <v>7.8200000000000047E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B298">
+        <v>0.3</v>
+      </c>
+      <c r="C298" s="3">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="D298" s="4">
+        <f t="shared" si="36"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B299">
+        <v>0.94</v>
+      </c>
+      <c r="C299" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D299" s="4">
+        <f t="shared" si="36"/>
+        <v>3.8297872340425566E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B300">
+        <v>0.94</v>
+      </c>
+      <c r="D300" s="4"/>
+    </row>
+    <row r="301" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B301" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C301" s="3">
+        <v>0.318</v>
+      </c>
+      <c r="D301" s="4">
+        <f>ABS(C301-B301)/B301</f>
+        <v>1.9230769230769249E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B302">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C302" s="3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D302" s="4">
+        <f>ABS(C302-B302)/B302</f>
+        <v>0.17808219178082191</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B303" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C303" s="3">
+        <v>7.1470000000000005E-5</v>
+      </c>
+      <c r="D303" s="4">
+        <f>ABS(C303-B303)/B303</f>
+        <v>0.62247446083995472</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B304" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C304" s="3">
+        <v>3.3799999999999998E-4</v>
+      </c>
+      <c r="D304" s="4">
+        <f>ABS(C304-B304)/B304</f>
+        <v>0.19434628975265011</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305" s="3">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="D305" s="4">
+        <f t="shared" ref="D305:D307" si="37">ABS(C305-B305)/B305</f>
+        <v>5.4000000000000048E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B306">
+        <v>1.5</v>
+      </c>
+      <c r="C306" s="3">
+        <v>1.508</v>
+      </c>
+      <c r="D306" s="4">
+        <f t="shared" si="37"/>
+        <v>5.3333333333333384E-3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B307">
+        <v>3</v>
+      </c>
+      <c r="C307" s="3">
+        <v>2.8620000000000001</v>
+      </c>
+      <c r="D307" s="4">
+        <f t="shared" si="37"/>
+        <v>4.5999999999999965E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B308">
+        <v>1683</v>
+      </c>
+      <c r="C308">
+        <v>1683</v>
+      </c>
+      <c r="D308" s="4"/>
+    </row>
+    <row r="309" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B309">
+        <v>1235</v>
+      </c>
+      <c r="C309">
+        <v>1235</v>
+      </c>
+      <c r="D309" s="4"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B310" s="15"/>
+      <c r="C310" s="15"/>
+      <c r="D310" s="16">
+        <f>AVERAGE(D282:D309)</f>
+        <v>0.28529153036683685</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A280:D280"/>
     <mergeCell ref="A187:D187"/>
     <mergeCell ref="A218:D218"/>
     <mergeCell ref="A249:D249"/>
@@ -13815,13 +15527,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14121,13 +15832,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14368,13 +16078,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14718,13 +16427,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14976,13 +16684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F20"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -3,28 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1FAD5525-0286-4914-B176-BD6C24BDC9D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3F6B992C-3835-4385-B9E0-F8AD6986E064}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_new" sheetId="16" r:id="rId1"/>
     <sheet name="Summary" sheetId="12" r:id="rId2"/>
-    <sheet name="twoReacChar" sheetId="14" r:id="rId3"/>
-    <sheet name="singleReacChar" sheetId="13" r:id="rId4"/>
-    <sheet name="threeReacChar_new" sheetId="17" r:id="rId5"/>
-    <sheet name="threeReacChar" sheetId="15" r:id="rId6"/>
-    <sheet name="PMMA_const_full" sheetId="1" r:id="rId7"/>
-    <sheet name="PMMA_const_hybrid" sheetId="2" r:id="rId8"/>
-    <sheet name="PMMA_linear_full" sheetId="3" r:id="rId9"/>
-    <sheet name="PMMA_linear_hybrid" sheetId="4" r:id="rId10"/>
-    <sheet name="E_Glass_const_full" sheetId="5" r:id="rId11"/>
-    <sheet name="E_Glass_const_hybrid" sheetId="8" r:id="rId12"/>
-    <sheet name="E_Glass_linear_full" sheetId="6" r:id="rId13"/>
-    <sheet name="E_Glass_linear_hybrid" sheetId="7" r:id="rId14"/>
-    <sheet name="E_Glass_linear_full_2mass" sheetId="9" r:id="rId15"/>
-    <sheet name="E_Glass_linear_full_mass_fbtemp" sheetId="10" r:id="rId16"/>
-    <sheet name="multiReactionCharringHybrid" sheetId="11" r:id="rId17"/>
+    <sheet name="twoReacChar_new" sheetId="18" r:id="rId3"/>
+    <sheet name="twoReacChar" sheetId="14" r:id="rId4"/>
+    <sheet name="singleReacChar" sheetId="13" r:id="rId5"/>
+    <sheet name="threeReacChar_new" sheetId="17" r:id="rId6"/>
+    <sheet name="threeReacChar" sheetId="15" r:id="rId7"/>
+    <sheet name="PMMA_const_full" sheetId="1" r:id="rId8"/>
+    <sheet name="PMMA_const_hybrid" sheetId="2" r:id="rId9"/>
+    <sheet name="PMMA_linear_full" sheetId="3" r:id="rId10"/>
+    <sheet name="PMMA_linear_hybrid" sheetId="4" r:id="rId11"/>
+    <sheet name="E_Glass_const_full" sheetId="5" r:id="rId12"/>
+    <sheet name="E_Glass_const_hybrid" sheetId="8" r:id="rId13"/>
+    <sheet name="E_Glass_linear_full" sheetId="6" r:id="rId14"/>
+    <sheet name="E_Glass_linear_hybrid" sheetId="7" r:id="rId15"/>
+    <sheet name="E_Glass_linear_full_2mass" sheetId="9" r:id="rId16"/>
+    <sheet name="E_Glass_linear_full_mass_fbtemp" sheetId="10" r:id="rId17"/>
+    <sheet name="multiReactionCharringHybrid" sheetId="11" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Summary!$A$2:$H$11</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="113">
   <si>
     <t>Input parameters</t>
   </si>
@@ -842,7 +843,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,39 +1340,32 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4">
-        <v>0.42709999999999998</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
+        <v>0.34158323043164218</v>
       </c>
       <c r="D14">
-        <v>3.7636890781666599E-2</v>
+        <v>2.1579126099999998E-3</v>
       </c>
       <c r="E14">
-        <v>6.1944456666666002E-4</v>
+        <v>8.4038371666671002E-4</v>
       </c>
       <c r="F14">
-        <v>9.7961919166671802E-4</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ref="G14:G22" si="1">AVERAGE(D14,F14)</f>
-        <v>1.9308254986666658E-2</v>
-      </c>
-      <c r="H14">
-        <v>4</v>
+        <v>1.0733040416666399E-3</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:K22" si="2">AVERAGE(H14:J14)</f>
-        <v>3</v>
+        <f t="shared" ref="K14:K22" si="1">AVERAGE(H14:J14)</f>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1382,76 +1376,62 @@
         <v>26</v>
       </c>
       <c r="B15" s="4">
-        <v>0.28520000000000001</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
+        <v>0.51212070529243281</v>
       </c>
       <c r="D15">
-        <v>4.8458532313333302E-2</v>
+        <v>5.1922447655000002E-2</v>
       </c>
       <c r="E15">
-        <v>9.4896049166666603E-4</v>
+        <v>4.1376640833333898E-3</v>
       </c>
       <c r="F15">
-        <v>1.07952635833331E-3</v>
-      </c>
-      <c r="G15">
+        <v>4.1944234999999504E-3</v>
+      </c>
+      <c r="H15" s="13">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="1"/>
-        <v>2.4769029335833307E-2</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>6</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>35</v>
+      <c r="A16" t="s">
+        <v>31</v>
       </c>
       <c r="B16" s="4">
-        <v>0.22270000000000001</v>
-      </c>
-      <c r="C16" t="s">
-        <v>83</v>
+        <v>0.52105753765888752</v>
       </c>
       <c r="D16">
-        <v>8.0970326166666603E-4</v>
+        <v>1.6241305915E-2</v>
       </c>
       <c r="E16">
-        <v>6.4136093250000198E-3</v>
+        <v>4.0566907749999704E-3</v>
       </c>
       <c r="F16">
-        <v>5.84483229166662E-3</v>
-      </c>
-      <c r="G16">
+        <v>5.4004657333333603E-3</v>
+      </c>
+      <c r="H16" s="13">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="1"/>
-        <v>3.327267776666643E-3</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>8</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>3</v>
@@ -1459,38 +1439,31 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" s="4">
-        <v>0.3952</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
+        <v>0.87817022059682459</v>
       </c>
       <c r="D17">
-        <v>1.02705163433333E-2</v>
+        <v>6.2282453336666599E-2</v>
       </c>
       <c r="E17">
-        <v>3.7336756749999302E-3</v>
+        <v>9.5295443333330099E-4</v>
       </c>
       <c r="F17">
-        <v>5.14287990833331E-3</v>
-      </c>
-      <c r="G17">
+        <v>2.4021427166666799E-3</v>
+      </c>
+      <c r="H17" s="13">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="1"/>
-        <v>7.7066981258333053E-3</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17">
-        <v>7</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L17">
@@ -1499,159 +1472,71 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4">
-        <v>0.75639999999999996</v>
-      </c>
-      <c r="C18" t="s">
-        <v>78</v>
+        <v>0.69563584816694646</v>
       </c>
       <c r="D18">
-        <v>4.2059522093333301E-2</v>
+        <v>2.7930817001666601E-2</v>
       </c>
       <c r="E18">
-        <v>5.7508876666663596E-4</v>
+        <v>4.5533835083333297E-3</v>
       </c>
       <c r="F18">
-        <v>1.5910884250000001E-3</v>
-      </c>
-      <c r="G18">
+        <v>5.6449125250000497E-3</v>
+      </c>
+      <c r="H18" s="13">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="1"/>
-        <v>2.182530525916665E-2</v>
-      </c>
-      <c r="H18">
-        <v>8</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
-        <v>5.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="L18">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19">
-        <v>5.4713735700000002E-2</v>
-      </c>
-      <c r="E19">
-        <v>8.1196695833330096E-4</v>
-      </c>
-      <c r="F19">
-        <v>1.97310680833334E-3</v>
-      </c>
-      <c r="G19">
+      <c r="A19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="K19" t="e">
         <f t="shared" si="1"/>
-        <v>2.8343421254166671E-2</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
-      </c>
-      <c r="I19">
-        <v>7</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="2"/>
-        <v>5.666666666666667</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.64629999999999999</v>
-      </c>
-      <c r="C20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20">
-        <v>1.73429586583333E-2</v>
-      </c>
-      <c r="E20">
-        <v>4.8946217749999696E-3</v>
-      </c>
-      <c r="F20">
-        <v>6.1586565416666796E-3</v>
-      </c>
-      <c r="G20">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="K20" t="e">
         <f t="shared" si="1"/>
-        <v>1.1750807599999989E-2</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <v>9</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
-        <v>6.333333333333333</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L20">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="4">
-        <v>0.4516</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21">
-        <v>9.9509812685000004E-2</v>
-      </c>
-      <c r="E21">
-        <v>4.1109891333333398E-3</v>
-      </c>
-      <c r="F21">
-        <v>3.5190149749999701E-3</v>
-      </c>
-      <c r="G21">
+      <c r="B21" s="4"/>
+      <c r="K21" t="e">
         <f t="shared" si="1"/>
-        <v>5.1514413829999987E-2</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="I21">
-        <v>9</v>
-      </c>
-      <c r="J21">
-        <v>6</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
-        <v>6.666666666666667</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L21">
         <v>8</v>
@@ -1661,37 +1546,10 @@
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="4">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="C22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22">
-        <v>5.67571366083333E-2</v>
-      </c>
-      <c r="E22">
-        <v>2.2975011999999601E-3</v>
-      </c>
-      <c r="F22">
-        <v>2.91952928333335E-3</v>
-      </c>
-      <c r="G22">
+      <c r="B22" s="4"/>
+      <c r="K22" t="e">
         <f t="shared" si="1"/>
-        <v>2.9838332945833324E-2</v>
-      </c>
-      <c r="H22">
-        <v>9</v>
-      </c>
-      <c r="I22">
-        <v>8</v>
-      </c>
-      <c r="J22">
-        <v>5</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="2"/>
-        <v>7.333333333333333</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L22">
         <v>9</v>
@@ -1756,108 +1614,123 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>36</v>
+      <c r="A25" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="B25" s="4">
-        <v>0.25632038128931056</v>
-      </c>
-      <c r="C25" t="s">
-        <v>95</v>
+        <v>0.17651186222037757</v>
       </c>
       <c r="D25">
-        <v>1.070559527E-2</v>
+        <v>2.7652746999999998E-2</v>
       </c>
       <c r="E25">
-        <v>3.4493361666666799E-3</v>
+        <v>1.416158E-3</v>
       </c>
       <c r="F25">
-        <v>3.0589841583333402E-3</v>
+        <v>2.1444390000000002E-3</v>
       </c>
       <c r="G25">
         <f>AVERAGE(D25,F25)</f>
-        <v>6.88228971416667E-3</v>
+        <v>1.4898593E-2</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25">
         <f>AVERAGE(H25:J25)</f>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>35</v>
+      <c r="A26" t="s">
+        <v>36</v>
       </c>
       <c r="B26" s="4">
-        <v>0.299295476643549</v>
+        <v>0.25632038128931056</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D26">
-        <v>8.2740798133333297E-3</v>
+        <v>1.070559527E-2</v>
       </c>
       <c r="E26">
-        <v>7.8026004833333601E-3</v>
+        <v>3.4493361666666799E-3</v>
       </c>
       <c r="F26">
-        <v>8.4879595083333301E-3</v>
+        <v>3.0589841583333402E-3</v>
       </c>
       <c r="G26">
         <f>AVERAGE(D26,F26)</f>
-        <v>8.381019660833329E-3</v>
+        <v>6.88228971416667E-3</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26">
         <v>2</v>
       </c>
       <c r="K26">
         <f>AVERAGE(H26:J26)</f>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.299295476643549</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27">
+        <v>8.2740798133333297E-3</v>
+      </c>
+      <c r="E27">
+        <v>7.8026004833333601E-3</v>
+      </c>
+      <c r="F27">
+        <v>8.4879595083333301E-3</v>
+      </c>
+      <c r="G27">
+        <f>AVERAGE(D27,F27)</f>
+        <v>8.381019660833329E-3</v>
+      </c>
       <c r="H27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27">
         <f>AVERAGE(H27:J27)</f>
-        <v>2.6666666666666665</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="L27">
         <v>3</v>
@@ -1890,17 +1763,17 @@
         <v>1.6288669894166601E-2</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <v>3</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K28">
         <f>AVERAGE(H28:J28)</f>
-        <v>3</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="L28">
         <v>4</v>
@@ -1910,71 +1783,62 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4"/>
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1.150242872218624</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29">
+        <v>7.9335362866666606E-2</v>
+      </c>
+      <c r="E29">
+        <v>1.55031014333333E-2</v>
+      </c>
+      <c r="F29">
+        <v>2.05842343583333E-2</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(D29,F29)</f>
+        <v>4.9959798612499953E-2</v>
+      </c>
       <c r="H29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29">
         <f>AVERAGE(H29:J29)</f>
-        <v>3.3333333333333335</v>
+        <v>5</v>
       </c>
       <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="K30" t="e">
+        <f>AVERAGE(H30:J30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30">
         <v>3</v>
       </c>
-      <c r="M29" s="13" t="s">
+      <c r="M30" s="13" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1.150242872218624</v>
-      </c>
-      <c r="C30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30">
-        <v>7.9335362866666606E-2</v>
-      </c>
-      <c r="E30">
-        <v>1.55031014333333E-2</v>
-      </c>
-      <c r="F30">
-        <v>2.05842343583333E-2</v>
-      </c>
-      <c r="G30">
-        <f>AVERAGE(D30,F30)</f>
-        <v>4.9959798612499953E-2</v>
-      </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="I30">
-        <v>4</v>
-      </c>
-      <c r="J30">
-        <v>4</v>
-      </c>
-      <c r="K30">
-        <f>AVERAGE(H30:J30)</f>
-        <v>4</v>
-      </c>
-      <c r="L30">
-        <v>8</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1982,18 +1846,9 @@
         <v>46</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="H31">
-        <v>5</v>
-      </c>
-      <c r="I31">
-        <v>8</v>
-      </c>
-      <c r="J31">
-        <v>3</v>
-      </c>
-      <c r="K31">
+      <c r="K31" t="e">
         <f>AVERAGE(H31:J31)</f>
-        <v>5.333333333333333</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L31">
         <v>5</v>
@@ -2007,18 +1862,9 @@
         <v>47</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="H32">
-        <v>6</v>
-      </c>
-      <c r="I32">
-        <v>5</v>
-      </c>
-      <c r="J32">
-        <v>6</v>
-      </c>
-      <c r="K32">
+      <c r="K32" t="e">
         <f>AVERAGE(H32:J32)</f>
-        <v>5.666666666666667</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L32">
         <v>6</v>
@@ -2032,18 +1878,9 @@
         <v>28</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="H33">
-        <v>8</v>
-      </c>
-      <c r="I33">
-        <v>10</v>
-      </c>
-      <c r="J33">
-        <v>7</v>
-      </c>
-      <c r="K33">
+      <c r="K33" t="e">
         <f>AVERAGE(H33:J33)</f>
-        <v>8.3333333333333339</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L33">
         <v>9</v>
@@ -2057,18 +1894,9 @@
         <v>27</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="H34">
-        <v>9</v>
-      </c>
-      <c r="I34">
-        <v>9</v>
-      </c>
-      <c r="J34">
-        <v>8</v>
-      </c>
-      <c r="K34">
+      <c r="K34" t="e">
         <f>AVERAGE(H34:J34)</f>
-        <v>8.6666666666666661</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L34">
         <v>10</v>
@@ -2160,6 +1988,355 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50800000000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>50300000000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>ABS(C2-B2)/B2</f>
+        <v>9.8425196850393699E-3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44500000000</v>
+      </c>
+      <c r="F2" s="4">
+        <f>ABS(E2-B2)/B2</f>
+        <v>0.12401574803149606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>157000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>157000</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>141000</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F18" si="1">ABS(E3-B3)/B3</f>
+        <v>0.10191082802547771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.91</v>
+      </c>
+      <c r="C4">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5384615384615398E-2</v>
+      </c>
+      <c r="E4">
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3692307692307688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>788000</v>
+      </c>
+      <c r="C5">
+        <v>791511</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.4555837563451774E-3</v>
+      </c>
+      <c r="E5">
+        <v>871085.81</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.10543884517766504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>8.5940000000000003E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.38172661870503599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="C7">
+        <v>2.6200000000000003E-4</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>7.6923076923078801E-3</v>
+      </c>
+      <c r="E7">
+        <v>4.1550000000000002E-4</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.59807692307692328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>203.3433</v>
+      </c>
+      <c r="C8">
+        <v>195.59</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8129114654871815E-2</v>
+      </c>
+      <c r="E8">
+        <v>813.36249999999995</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>2.9999473796284408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3.9780000000000002</v>
+      </c>
+      <c r="C9">
+        <v>4.0119999999999996</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>8.5470085470083865E-3</v>
+      </c>
+      <c r="E9">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>6.410256410256418E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1189.3699999999999</v>
+      </c>
+      <c r="C14">
+        <v>1189.3699999999999</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14">
+        <v>1189.3699999999999</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.8</v>
+      </c>
+      <c r="C16">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7500000000000033E-3</v>
+      </c>
+      <c r="E16">
+        <v>0.68140000000000001</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>0.14825000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+      <c r="C18">
+        <v>1000.365</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6500000000000909E-4</v>
+      </c>
+      <c r="E18">
+        <v>671.21</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.32878999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <f>AVERAGE(D2:D18)</f>
+        <v>8.8166149720188026E-3</v>
+      </c>
+      <c r="F19" s="4">
+        <f>AVERAGE(F2:F18)</f>
+        <v>0.72214896759783709</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -2416,7 +2593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -2769,7 +2946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -3020,7 +3197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -3432,7 +3609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -3728,7 +3905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -4004,7 +4181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -4279,7 +4456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5727,6 +5904,3686 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D5BA7-5E2A-4D4E-B8B0-9CEB31C8D6D1}">
+  <dimension ref="A1:D260"/>
+  <sheetViews>
+    <sheetView topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="D208" sqref="D208"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>802000000000</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D23" si="0">ABS(C3-B3)/B3</f>
+        <v>0.65726495726495726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>69300000000000</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C5">
+        <v>1236.68</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14507407407407413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1041</v>
+      </c>
+      <c r="C6">
+        <v>695.9</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3315081652257445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C7">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.61504424778761058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C8">
+        <v>6.4906487703679697E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.74939580037189313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>174000</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8674033149171269E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>663000</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4352331606217619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C11">
+        <v>105464</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>5.4640000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C12">
+        <v>357553</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.78776500000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C13">
+        <v>20368</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0367999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14">
+        <v>0.75</v>
+      </c>
+      <c r="C14">
+        <v>0.57840000000000003</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22879999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>0.99367000000000005</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.98734000000000011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.94</v>
+      </c>
+      <c r="C16">
+        <v>0.96862000000000004</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0446808510638395E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.94</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C18">
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <f>ABS(C18-B18)/B18</f>
+        <v>4.7115384615384587E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D19" s="4">
+        <f>ABS(C19-B19)/B19</f>
+        <v>1.7081138040042152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.8264999999999999E-5</v>
+      </c>
+      <c r="D20" s="4">
+        <f>ABS(C20-B20)/B20</f>
+        <v>0.58535754824063568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2.6420000000000003E-4</v>
+      </c>
+      <c r="D21" s="4">
+        <f>ABS(C21-B21)/B21</f>
+        <v>6.6431095406360316E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>3.4722</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <v>1.5</v>
+      </c>
+      <c r="C23">
+        <v>5.96</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9733333333333332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>1683</v>
+      </c>
+      <c r="C24">
+        <v>1683</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>1235</v>
+      </c>
+      <c r="C25">
+        <v>1235</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16">
+        <f>AVERAGE(D3:D25)</f>
+        <v>0.80132687063028885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2570000000000</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" ref="D29:D42" si="1">ABS(C29-B29)/B29</f>
+        <v>9.8290598290598288E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C30" s="3">
+        <v>76600000000000</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C31">
+        <v>1172.5999999999999</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="1"/>
+        <v>8.5740740740740659E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>1041</v>
+      </c>
+      <c r="C32">
+        <v>878.8</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="1"/>
+        <v>0.15581171950048034</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C33">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="1"/>
+        <v>9.7345132743362858E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C34">
+        <v>1.0347999999999999</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="1"/>
+        <v>2.9953667953667948</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C35" s="3">
+        <v>178000</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6574585635359115E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C36" s="3">
+        <v>188000</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5906735751295335E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C37">
+        <v>113536</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="1"/>
+        <v>0.13536000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C38">
+        <v>211442</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="1"/>
+        <v>5.7209999999999997E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C39">
+        <v>39983.589999999997</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="1"/>
+        <v>2.9983589999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40">
+        <v>0.75</v>
+      </c>
+      <c r="C40">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4000000000000021E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41">
+        <v>0.5</v>
+      </c>
+      <c r="C41">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="1"/>
+        <v>4.2000000000000037E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>0.94</v>
+      </c>
+      <c r="C42">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="1"/>
+        <v>8.1914893617020534E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>0.94</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C44">
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="D44" s="4">
+        <f>ABS(C44-B44)/B44</f>
+        <v>0.14358974358974361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.1191</v>
+      </c>
+      <c r="D45" s="4">
+        <f>ABS(C45-B45)/B45</f>
+        <v>0.25500526870389884</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1.76E-4</v>
+      </c>
+      <c r="D46" s="4">
+        <f>ABS(C46-B46)/B46</f>
+        <v>2.9954597048808167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2.72E-4</v>
+      </c>
+      <c r="D47" s="4">
+        <f>ABS(C47-B47)/B47</f>
+        <v>3.886925795053002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" ref="D48:D49" si="2">ABS(C48-B48)/B48</f>
+        <v>8.999999999999897E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49">
+        <v>1.5</v>
+      </c>
+      <c r="C49">
+        <v>1.4415</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="2"/>
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>1683</v>
+      </c>
+      <c r="C50">
+        <v>1683</v>
+      </c>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>1235</v>
+      </c>
+      <c r="C51">
+        <v>1235</v>
+      </c>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16">
+        <f>AVERAGE(D29:D51)</f>
+        <v>0.51212070529243281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C55" s="3">
+        <v>630000000000</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" ref="D55:D68" si="3">ABS(C55-B55)/B55</f>
+        <v>0.73076923076923073</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C56" s="3">
+        <v>111000000000000</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C57">
+        <v>1118.5999999999999</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" si="3"/>
+        <v>3.5740740740740656E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>1041</v>
+      </c>
+      <c r="C58">
+        <v>265.39999999999998</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="3"/>
+        <v>0.74505283381364074</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C59">
+        <v>0.17036999999999999</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7692477876106198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C60">
+        <v>6.54E-2</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" si="3"/>
+        <v>0.74749034749034748</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C61" s="3">
+        <v>648000</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" si="3"/>
+        <v>2.5801104972375692</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C62" s="3">
+        <v>184000</v>
+      </c>
+      <c r="D62" s="4">
+        <f t="shared" si="3"/>
+        <v>4.6632124352331605E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C63">
+        <v>389964</v>
+      </c>
+      <c r="D63" s="4">
+        <f t="shared" si="3"/>
+        <v>2.8996400000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C64">
+        <v>177717</v>
+      </c>
+      <c r="D64" s="4">
+        <f t="shared" si="3"/>
+        <v>0.111415</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C65">
+        <v>29313</v>
+      </c>
+      <c r="D65" s="4">
+        <f t="shared" si="3"/>
+        <v>1.9313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>0.75</v>
+      </c>
+      <c r="C66">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="D66" s="4">
+        <f t="shared" si="3"/>
+        <v>3.46666666666667E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>0.5</v>
+      </c>
+      <c r="C67">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D67" s="4">
+        <f t="shared" si="3"/>
+        <v>0.15799999999999992</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>0.94</v>
+      </c>
+      <c r="C68">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="D68" s="4">
+        <f t="shared" si="3"/>
+        <v>7.914893617021268E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69">
+        <v>0.94</v>
+      </c>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C70">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="D70" s="4">
+        <f>ABS(C70-B70)/B70</f>
+        <v>8.0128205128205204E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C71">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="D71" s="4">
+        <f>ABS(C71-B71)/B71</f>
+        <v>0.21074815595363544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1.0399999999999999E-4</v>
+      </c>
+      <c r="D72" s="4">
+        <f>ABS(C72-B72)/B72</f>
+        <v>1.3609534619750283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2.5290000000000002E-4</v>
+      </c>
+      <c r="D73" s="4">
+        <f>ABS(C73-B73)/B73</f>
+        <v>0.10636042402826845</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>2.774</v>
+      </c>
+      <c r="D74" s="4">
+        <f t="shared" ref="D74:D75" si="4">ABS(C74-B74)/B74</f>
+        <v>1.774</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1.5</v>
+      </c>
+      <c r="C75">
+        <v>2.5230000000000001</v>
+      </c>
+      <c r="D75" s="4">
+        <f t="shared" si="4"/>
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>1683</v>
+      </c>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77">
+        <v>1235</v>
+      </c>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="16">
+        <f>AVERAGE(D55:D77)</f>
+        <v>0.87817022059682459</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C81" s="3">
+        <v>2410000000000</v>
+      </c>
+      <c r="D81" s="4">
+        <f t="shared" ref="D81:D94" si="5">ABS(C81-B81)/B81</f>
+        <v>2.9914529914529916E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C82" s="3">
+        <v>173000000000000</v>
+      </c>
+      <c r="D82" s="4">
+        <f t="shared" si="5"/>
+        <v>1.3066666666666666</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C83">
+        <v>1120.6300000000001</v>
+      </c>
+      <c r="D83" s="4">
+        <f t="shared" si="5"/>
+        <v>3.7620370370370471E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84">
+        <v>1041</v>
+      </c>
+      <c r="C84">
+        <v>260.2878</v>
+      </c>
+      <c r="D84" s="4">
+        <f t="shared" si="5"/>
+        <v>0.74996368876080688</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C85">
+        <v>1.315E-2</v>
+      </c>
+      <c r="D85" s="4">
+        <f t="shared" si="5"/>
+        <v>0.7090707964601769</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C86">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D86" s="4">
+        <f t="shared" si="5"/>
+        <v>6.1776061776061826E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C87" s="3">
+        <v>174000</v>
+      </c>
+      <c r="D87" s="4">
+        <f t="shared" si="5"/>
+        <v>3.8674033149171269E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B88" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C88" s="3">
+        <v>415000</v>
+      </c>
+      <c r="D88" s="4">
+        <f t="shared" si="5"/>
+        <v>1.150259067357513</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C89">
+        <v>174888.24</v>
+      </c>
+      <c r="D89" s="4">
+        <f t="shared" si="5"/>
+        <v>0.74888239999999995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C90">
+        <v>763732.7</v>
+      </c>
+      <c r="D90" s="4">
+        <f t="shared" si="5"/>
+        <v>2.8186635</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C91">
+        <v>20311.75</v>
+      </c>
+      <c r="D91" s="4">
+        <f t="shared" si="5"/>
+        <v>1.031175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92">
+        <v>0.75</v>
+      </c>
+      <c r="C92">
+        <v>0.5786</v>
+      </c>
+      <c r="D92" s="4">
+        <f t="shared" si="5"/>
+        <v>0.22853333333333334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93">
+        <v>0.5</v>
+      </c>
+      <c r="C93">
+        <v>0.64659999999999995</v>
+      </c>
+      <c r="D93" s="4">
+        <f t="shared" si="5"/>
+        <v>0.29319999999999991</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94">
+        <v>0.94</v>
+      </c>
+      <c r="C94">
+        <v>0.89851440000000005</v>
+      </c>
+      <c r="D94" s="4">
+        <f t="shared" si="5"/>
+        <v>4.4133617021276494E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95">
+        <v>0.94</v>
+      </c>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C96">
+        <v>0.26488</v>
+      </c>
+      <c r="D96" s="4">
+        <f>ABS(C96-B96)/B96</f>
+        <v>0.15102564102564101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C97">
+        <v>0.181786</v>
+      </c>
+      <c r="D97" s="4">
+        <f>ABS(C97-B97)/B97</f>
+        <v>0.91555321390937838</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1.1844E-4</v>
+      </c>
+      <c r="D98" s="4">
+        <f>ABS(C98-B98)/B98</f>
+        <v>1.6887627695800227</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1.1896999999999999E-4</v>
+      </c>
+      <c r="D99" s="4">
+        <f>ABS(C99-B99)/B99</f>
+        <v>0.57961130742049471</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1.964</v>
+      </c>
+      <c r="D100" s="4">
+        <f t="shared" ref="D100:D101" si="6">ABS(C100-B100)/B100</f>
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B101">
+        <v>1.5</v>
+      </c>
+      <c r="C101">
+        <v>3.8698600000000001</v>
+      </c>
+      <c r="D101" s="4">
+        <f t="shared" si="6"/>
+        <v>1.5799066666666668</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102">
+        <v>1683</v>
+      </c>
+      <c r="C102">
+        <v>1683</v>
+      </c>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103">
+        <v>1235</v>
+      </c>
+      <c r="C103">
+        <v>1235</v>
+      </c>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="16">
+        <f>AVERAGE(D81:D103)</f>
+        <v>0.75636963317060546</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+    </row>
+    <row r="106" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C107" s="3">
+        <v>8150000000000</v>
+      </c>
+      <c r="D107" s="4">
+        <f t="shared" ref="D107:D120" si="7">ABS(C107-B107)/B107</f>
+        <v>2.482905982905983</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B108" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C108" s="3">
+        <v>19200000000000</v>
+      </c>
+      <c r="D108" s="4">
+        <f t="shared" si="7"/>
+        <v>0.74399999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C109">
+        <v>1093.9000000000001</v>
+      </c>
+      <c r="D109" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2870370370370454E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110">
+        <v>1041</v>
+      </c>
+      <c r="C110">
+        <v>994.9</v>
+      </c>
+      <c r="D110" s="4">
+        <f t="shared" si="7"/>
+        <v>4.42843419788665E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C111">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="D111" s="4">
+        <f t="shared" si="7"/>
+        <v>0.23008849557522124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C112">
+        <v>0.31879999999999997</v>
+      </c>
+      <c r="D112" s="4">
+        <f t="shared" si="7"/>
+        <v>0.23088803088803075</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B113" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C113" s="3">
+        <v>180000</v>
+      </c>
+      <c r="D113" s="4">
+        <f t="shared" si="7"/>
+        <v>5.5248618784530384E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B114" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C114" s="3">
+        <v>657000</v>
+      </c>
+      <c r="D114" s="4">
+        <f t="shared" si="7"/>
+        <v>2.4041450777202074</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B115" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C115">
+        <v>166722</v>
+      </c>
+      <c r="D115" s="4">
+        <f t="shared" si="7"/>
+        <v>0.66722000000000004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B116" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C116">
+        <v>101551</v>
+      </c>
+      <c r="D116" s="4">
+        <f t="shared" si="7"/>
+        <v>0.49224499999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C117">
+        <v>10889</v>
+      </c>
+      <c r="D117" s="4">
+        <f t="shared" si="7"/>
+        <v>8.8900000000000007E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118">
+        <v>0.75</v>
+      </c>
+      <c r="C118">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D118" s="4">
+        <f t="shared" si="7"/>
+        <v>0.22400000000000006</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119">
+        <v>0.5</v>
+      </c>
+      <c r="C119">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D119" s="4">
+        <f t="shared" si="7"/>
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120">
+        <v>0.94</v>
+      </c>
+      <c r="C120">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="D120" s="4">
+        <f t="shared" si="7"/>
+        <v>1.3829787234042566E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121">
+        <v>0.94</v>
+      </c>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C122">
+        <v>0.314</v>
+      </c>
+      <c r="D122" s="4">
+        <f>ABS(C122-B122)/B122</f>
+        <v>6.4102564102564161E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C123">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="D123" s="4">
+        <f>ABS(C123-B123)/B123</f>
+        <v>0.22233930453108544</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C124" s="3">
+        <v>5.2819999999999999E-5</v>
+      </c>
+      <c r="D124" s="4">
+        <f>ABS(C124-B124)/B124</f>
+        <v>0.19909194097616342</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C125" s="3">
+        <v>2.52E-4</v>
+      </c>
+      <c r="D125" s="4">
+        <f>ABS(C125-B125)/B125</f>
+        <v>0.10954063604240281</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1.2398</v>
+      </c>
+      <c r="D126" s="4">
+        <f t="shared" ref="D126:D127" si="8">ABS(C126-B126)/B126</f>
+        <v>0.23980000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B127">
+        <v>1.5</v>
+      </c>
+      <c r="C127">
+        <v>3.0825999999999998</v>
+      </c>
+      <c r="D127" s="4">
+        <f t="shared" si="8"/>
+        <v>1.0550666666666666</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128">
+        <v>1683</v>
+      </c>
+      <c r="C128">
+        <v>1683</v>
+      </c>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129">
+        <v>1235</v>
+      </c>
+      <c r="C129">
+        <v>1235</v>
+      </c>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="16">
+        <f>AVERAGE(D107:D129)</f>
+        <v>0.52105753765888752</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B131" s="21"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
+    </row>
+    <row r="132" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B133" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C133" s="3">
+        <v>2370000000000</v>
+      </c>
+      <c r="D133" s="4">
+        <f t="shared" ref="D133:D146" si="9">ABS(C133-B133)/B133</f>
+        <v>1.282051282051282E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B134" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C134" s="3">
+        <v>74800000000000</v>
+      </c>
+      <c r="D134" s="4">
+        <f t="shared" si="9"/>
+        <v>2.6666666666666666E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C135">
+        <v>1270.3800000000001</v>
+      </c>
+      <c r="D135" s="4">
+        <f t="shared" si="9"/>
+        <v>0.17627777777777787</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136">
+        <v>1041</v>
+      </c>
+      <c r="C136">
+        <v>2692.7</v>
+      </c>
+      <c r="D136" s="4">
+        <f t="shared" si="9"/>
+        <v>1.5866474543707971</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C137">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="D137" s="4">
+        <f t="shared" si="9"/>
+        <v>0.9159292035398231</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C138">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="D138" s="4">
+        <f t="shared" si="9"/>
+        <v>1.7528957528957527</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B139" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C139" s="3">
+        <v>174000</v>
+      </c>
+      <c r="D139" s="4">
+        <f t="shared" si="9"/>
+        <v>3.8674033149171269E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B140" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C140" s="3">
+        <v>183000</v>
+      </c>
+      <c r="D140" s="4">
+        <f t="shared" si="9"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B141" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C141">
+        <v>140255</v>
+      </c>
+      <c r="D141" s="4">
+        <f t="shared" si="9"/>
+        <v>0.40255000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B142" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C142">
+        <v>249845.7</v>
+      </c>
+      <c r="D142" s="4">
+        <f t="shared" si="9"/>
+        <v>0.24922850000000005</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C143">
+        <v>19186.86</v>
+      </c>
+      <c r="D143" s="4">
+        <f t="shared" si="9"/>
+        <v>0.91868600000000011</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B144">
+        <v>0.75</v>
+      </c>
+      <c r="C144">
+        <v>0.72230000000000005</v>
+      </c>
+      <c r="D144" s="4">
+        <f t="shared" si="9"/>
+        <v>3.6933333333333263E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B145">
+        <v>0.5</v>
+      </c>
+      <c r="C145">
+        <v>0.5302</v>
+      </c>
+      <c r="D145" s="4">
+        <f t="shared" si="9"/>
+        <v>6.0400000000000009E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146">
+        <v>0.94</v>
+      </c>
+      <c r="C146">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="D146" s="4">
+        <f t="shared" si="9"/>
+        <v>7.6595744680850904E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147">
+        <v>0.94</v>
+      </c>
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C148">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="D148" s="4">
+        <f>ABS(C148-B148)/B148</f>
+        <v>0.17307692307692304</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C149">
+        <v>0.16750000000000001</v>
+      </c>
+      <c r="D149" s="4">
+        <f>ABS(C149-B149)/B149</f>
+        <v>0.76501580611169662</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C150" s="3">
+        <v>7.8079999999999998E-5</v>
+      </c>
+      <c r="D150" s="4">
+        <f>ABS(C150-B150)/B150</f>
+        <v>0.77253121452894435</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C151" s="3">
+        <v>5.8759999999999997E-4</v>
+      </c>
+      <c r="D151" s="4">
+        <f>ABS(C151-B151)/B151</f>
+        <v>1.0763250883392226</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D152" s="4">
+        <f t="shared" ref="D152:D153" si="10">ABS(C152-B152)/B152</f>
+        <v>2.8000000000000025E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B153">
+        <v>1.5</v>
+      </c>
+      <c r="C153">
+        <v>1.494</v>
+      </c>
+      <c r="D153" s="4">
+        <f t="shared" si="10"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154">
+        <v>1683</v>
+      </c>
+      <c r="C154">
+        <v>1683</v>
+      </c>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155">
+        <v>1235</v>
+      </c>
+      <c r="C155">
+        <v>1235</v>
+      </c>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B156" s="15"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="16">
+        <f>AVERAGE(D133:D155)</f>
+        <v>0.45160656562906476</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B157" s="21"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="21"/>
+    </row>
+    <row r="158" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B159" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C159" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="D159" s="4">
+        <f t="shared" ref="D159:D172" si="11">ABS(C159-B159)/B159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B160" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C160" s="3">
+        <v>74200000000000</v>
+      </c>
+      <c r="D160" s="4">
+        <f t="shared" si="11"/>
+        <v>1.0666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C161">
+        <v>1125.3699999999999</v>
+      </c>
+      <c r="D161" s="4">
+        <f t="shared" si="11"/>
+        <v>4.2009259259259156E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162">
+        <v>1041</v>
+      </c>
+      <c r="C162">
+        <v>2041.87</v>
+      </c>
+      <c r="D162" s="4">
+        <f t="shared" si="11"/>
+        <v>0.96145052833813627</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C163">
+        <v>0.11138000000000001</v>
+      </c>
+      <c r="D163" s="4">
+        <f t="shared" si="11"/>
+        <v>1.4641592920353987</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C164">
+        <v>0.58660000000000001</v>
+      </c>
+      <c r="D164" s="4">
+        <f t="shared" si="11"/>
+        <v>1.2648648648648648</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B165" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C165" s="3">
+        <v>178000</v>
+      </c>
+      <c r="D165" s="4">
+        <f t="shared" si="11"/>
+        <v>1.6574585635359115E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B166" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C166" s="3">
+        <v>189000</v>
+      </c>
+      <c r="D166" s="4">
+        <f t="shared" si="11"/>
+        <v>2.072538860103627E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B167" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C167">
+        <v>237945.86</v>
+      </c>
+      <c r="D167" s="4">
+        <f t="shared" si="11"/>
+        <v>1.3794585999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B168" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C168">
+        <v>178233</v>
+      </c>
+      <c r="D168" s="4">
+        <f t="shared" si="11"/>
+        <v>0.108835</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C169">
+        <v>23391</v>
+      </c>
+      <c r="D169" s="4">
+        <f t="shared" si="11"/>
+        <v>1.3391</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B170">
+        <v>0.75</v>
+      </c>
+      <c r="C170">
+        <v>0.747</v>
+      </c>
+      <c r="D170" s="4">
+        <f t="shared" si="11"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B171">
+        <v>0.5</v>
+      </c>
+      <c r="C171">
+        <v>0.51349999999999996</v>
+      </c>
+      <c r="D171" s="4">
+        <f t="shared" si="11"/>
+        <v>2.6999999999999913E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172">
+        <v>0.94</v>
+      </c>
+      <c r="C172">
+        <v>0.93740000000000001</v>
+      </c>
+      <c r="D172" s="4">
+        <f t="shared" si="11"/>
+        <v>2.7659574468084426E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173">
+        <v>0.94</v>
+      </c>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C174">
+        <v>0.30786999999999998</v>
+      </c>
+      <c r="D174" s="4">
+        <f>ABS(C174-B174)/B174</f>
+        <v>1.3237179487179559E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C175">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="D175" s="4">
+        <f>ABS(C175-B175)/B175</f>
+        <v>0.44889357218124354</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C176" s="3">
+        <v>7.3709999999999997E-5</v>
+      </c>
+      <c r="D176" s="4">
+        <f>ABS(C176-B176)/B176</f>
+        <v>0.67332576617480133</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C177" s="3">
+        <v>4.9069999999999995E-4</v>
+      </c>
+      <c r="D177" s="4">
+        <f>ABS(C177-B177)/B177</f>
+        <v>0.73392226148409878</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>1.0297000000000001</v>
+      </c>
+      <c r="D178" s="4">
+        <f t="shared" ref="D178:D179" si="12">ABS(C178-B178)/B178</f>
+        <v>2.970000000000006E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B179">
+        <v>1.5</v>
+      </c>
+      <c r="C179">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="D179" s="4">
+        <f t="shared" si="12"/>
+        <v>1.9999999999999276E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180">
+        <v>1683</v>
+      </c>
+      <c r="C180">
+        <v>1683</v>
+      </c>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181">
+        <v>1235</v>
+      </c>
+      <c r="C181">
+        <v>1235</v>
+      </c>
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B182" s="15"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="16">
+        <f>AVERAGE(D159:D181)</f>
+        <v>0.42713444610874268</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B183" s="21"/>
+      <c r="C183" s="21"/>
+      <c r="D183" s="21"/>
+    </row>
+    <row r="184" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B185" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C185" s="3">
+        <v>5810000000000</v>
+      </c>
+      <c r="D185" s="4">
+        <f t="shared" ref="D185:D198" si="13">ABS(C185-B185)/B185</f>
+        <v>1.482905982905983</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B186" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C186" s="3">
+        <v>121000000000000</v>
+      </c>
+      <c r="D186" s="4">
+        <f t="shared" si="13"/>
+        <v>0.61333333333333329</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C187">
+        <v>1154.5</v>
+      </c>
+      <c r="D187" s="4">
+        <f t="shared" si="13"/>
+        <v>6.8981481481481477E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188">
+        <v>1041</v>
+      </c>
+      <c r="C188">
+        <v>741.7</v>
+      </c>
+      <c r="D188" s="4">
+        <f t="shared" si="13"/>
+        <v>0.2875120076849183</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C189">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="D189" s="4">
+        <f t="shared" si="13"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C190">
+        <v>0.67720000000000002</v>
+      </c>
+      <c r="D190" s="4">
+        <f t="shared" si="13"/>
+        <v>1.6146718146718146</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B191" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C191" s="3">
+        <v>178000</v>
+      </c>
+      <c r="D191" s="4">
+        <f t="shared" si="13"/>
+        <v>1.6574585635359115E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B192" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C192" s="3">
+        <v>489000</v>
+      </c>
+      <c r="D192" s="4">
+        <f t="shared" si="13"/>
+        <v>1.5336787564766838</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B193" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C193">
+        <v>165915.5</v>
+      </c>
+      <c r="D193" s="4">
+        <f t="shared" si="13"/>
+        <v>0.65915500000000005</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B194" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C194">
+        <v>452698.8</v>
+      </c>
+      <c r="D194" s="4">
+        <f t="shared" si="13"/>
+        <v>1.2634939999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B195" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C195">
+        <v>5866</v>
+      </c>
+      <c r="D195" s="4">
+        <f t="shared" si="13"/>
+        <v>0.41339999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B196">
+        <v>0.75</v>
+      </c>
+      <c r="C196">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D196" s="4">
+        <f t="shared" si="13"/>
+        <v>0.22400000000000006</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B197">
+        <v>0.5</v>
+      </c>
+      <c r="C197">
+        <v>0.68</v>
+      </c>
+      <c r="D197" s="4">
+        <f t="shared" si="13"/>
+        <v>0.3600000000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198">
+        <v>0.94</v>
+      </c>
+      <c r="C198">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="D198" s="4">
+        <f t="shared" si="13"/>
+        <v>3.8829787234042651E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B199">
+        <v>0.94</v>
+      </c>
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C200">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="D200" s="4">
+        <f>ABS(C200-B200)/B200</f>
+        <v>5.4166666666666752E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C201">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="D201" s="4">
+        <f>ABS(C201-B201)/B201</f>
+        <v>0.74920969441517382</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C202" s="3">
+        <v>5.2880000000000002E-5</v>
+      </c>
+      <c r="D202" s="4">
+        <f>ABS(C202-B202)/B202</f>
+        <v>0.20045402951191832</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C203" s="3">
+        <v>3.813E-4</v>
+      </c>
+      <c r="D203" s="4">
+        <f>ABS(C203-B203)/B203</f>
+        <v>0.34734982332155478</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="D204" s="4">
+        <f t="shared" ref="D204:D205" si="14">ABS(C204-B204)/B204</f>
+        <v>0.2430000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B205">
+        <v>1.5</v>
+      </c>
+      <c r="C205">
+        <v>5.9880000000000004</v>
+      </c>
+      <c r="D205" s="4">
+        <f t="shared" si="14"/>
+        <v>2.9920000000000004</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206">
+        <v>1683</v>
+      </c>
+      <c r="C206">
+        <v>1683</v>
+      </c>
+      <c r="D206" s="4"/>
+    </row>
+    <row r="207" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B207">
+        <v>1235</v>
+      </c>
+      <c r="C207">
+        <v>1235</v>
+      </c>
+      <c r="D207" s="4"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B208" s="15"/>
+      <c r="C208" s="15"/>
+      <c r="D208" s="16">
+        <f>AVERAGE(D185:D207)</f>
+        <v>0.69563584816694646</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B209" s="21"/>
+      <c r="C209" s="21"/>
+      <c r="D209" s="21"/>
+    </row>
+    <row r="210" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B211" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C211" s="3">
+        <v>2360000000000</v>
+      </c>
+      <c r="D211" s="4">
+        <f t="shared" ref="D211:D224" si="15">ABS(C211-B211)/B211</f>
+        <v>8.5470085470085479E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B212" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C212" s="3">
+        <v>72500000000000</v>
+      </c>
+      <c r="D212" s="4">
+        <f t="shared" si="15"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C213">
+        <v>1065.3</v>
+      </c>
+      <c r="D213" s="4">
+        <f t="shared" si="15"/>
+        <v>1.3611111111111154E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B214">
+        <v>1041</v>
+      </c>
+      <c r="C214">
+        <v>685.8</v>
+      </c>
+      <c r="D214" s="4">
+        <f t="shared" si="15"/>
+        <v>0.3412103746397695</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C215">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="D215" s="4">
+        <f t="shared" si="15"/>
+        <v>0.70575221238938068</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C216">
+        <v>0.71579999999999999</v>
+      </c>
+      <c r="D216" s="4">
+        <f t="shared" si="15"/>
+        <v>1.7637065637065636</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B217" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C217" s="3">
+        <v>181000</v>
+      </c>
+      <c r="D217" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B218" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C218" s="3">
+        <v>193000</v>
+      </c>
+      <c r="D218" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B219" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C219">
+        <v>120480</v>
+      </c>
+      <c r="D219" s="4">
+        <f t="shared" si="15"/>
+        <v>0.20480000000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B220" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C220">
+        <v>189435</v>
+      </c>
+      <c r="D220" s="4">
+        <f t="shared" si="15"/>
+        <v>5.2824999999999997E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B221" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C221">
+        <v>21200</v>
+      </c>
+      <c r="D221" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B222">
+        <v>0.75</v>
+      </c>
+      <c r="C222">
+        <v>0.73780000000000001</v>
+      </c>
+      <c r="D222" s="4">
+        <f t="shared" si="15"/>
+        <v>1.6266666666666652E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B223">
+        <v>0.5</v>
+      </c>
+      <c r="C223">
+        <v>0.51329999999999998</v>
+      </c>
+      <c r="D223" s="4">
+        <f t="shared" si="15"/>
+        <v>2.6599999999999957E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224">
+        <v>0.94</v>
+      </c>
+      <c r="C224">
+        <v>0.9405</v>
+      </c>
+      <c r="D224" s="4">
+        <f t="shared" si="15"/>
+        <v>5.3191489361708081E-4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B225">
+        <v>0.94</v>
+      </c>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C226">
+        <v>0.30859999999999999</v>
+      </c>
+      <c r="D226" s="4">
+        <f>ABS(C226-B226)/B226</f>
+        <v>1.0897435897435942E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C227">
+        <v>0.2336</v>
+      </c>
+      <c r="D227" s="4">
+        <f>ABS(C227-B227)/B227</f>
+        <v>1.4615384615384615</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C228" s="3">
+        <v>5.1959999999999997E-5</v>
+      </c>
+      <c r="D228" s="4">
+        <f>ABS(C228-B228)/B228</f>
+        <v>0.17956867196367757</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C229" s="3">
+        <v>7.1370000000000003E-5</v>
+      </c>
+      <c r="D229" s="4">
+        <f>ABS(C229-B229)/B229</f>
+        <v>0.74780918727915191</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D230" s="4">
+        <f t="shared" ref="D230:D231" si="16">ABS(C230-B230)/B230</f>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B231">
+        <v>1.5</v>
+      </c>
+      <c r="C231">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="D231" s="4">
+        <f t="shared" si="16"/>
+        <v>4.4666666666666632E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B232">
+        <v>1683</v>
+      </c>
+      <c r="C232">
+        <v>1683</v>
+      </c>
+      <c r="D232" s="4"/>
+    </row>
+    <row r="233" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B233">
+        <v>1235</v>
+      </c>
+      <c r="C233">
+        <v>1235</v>
+      </c>
+      <c r="D233" s="4"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B234" s="15"/>
+      <c r="C234" s="15"/>
+      <c r="D234" s="16">
+        <f>AVERAGE(D211:D233)</f>
+        <v>0.34158323043164218</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B235" s="21"/>
+      <c r="C235" s="21"/>
+      <c r="D235" s="21"/>
+    </row>
+    <row r="236" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B237" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C237" s="3">
+        <v>4050000000000</v>
+      </c>
+      <c r="D237" s="4">
+        <f t="shared" ref="D237:D250" si="17">ABS(C237-B237)/B237</f>
+        <v>0.73076923076923073</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B238" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C238" s="3">
+        <v>40200000000000</v>
+      </c>
+      <c r="D238" s="4">
+        <f t="shared" si="17"/>
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B239" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C239">
+        <v>1099</v>
+      </c>
+      <c r="D239" s="4">
+        <f t="shared" si="17"/>
+        <v>1.7592592592592594E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B240">
+        <v>1041</v>
+      </c>
+      <c r="C240">
+        <v>262.27300000000002</v>
+      </c>
+      <c r="D240" s="4">
+        <f t="shared" si="17"/>
+        <v>0.74805667627281458</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C241">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="D241" s="4">
+        <f t="shared" si="17"/>
+        <v>1.2898230088495575</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B242" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C242">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="D242" s="4">
+        <f t="shared" si="17"/>
+        <v>0.72664092664092661</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B243" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C243" s="3">
+        <v>170000</v>
+      </c>
+      <c r="D243" s="4">
+        <f t="shared" si="17"/>
+        <v>6.0773480662983423E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B244" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C244" s="3">
+        <v>350000</v>
+      </c>
+      <c r="D244" s="4">
+        <f t="shared" si="17"/>
+        <v>0.81347150259067358</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B245" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C245">
+        <v>167766</v>
+      </c>
+      <c r="D245" s="4">
+        <f t="shared" si="17"/>
+        <v>0.67766000000000004</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B246" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C246">
+        <v>389742</v>
+      </c>
+      <c r="D246" s="4">
+        <f t="shared" si="17"/>
+        <v>0.94871000000000005</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B247" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C247">
+        <v>28167</v>
+      </c>
+      <c r="D247" s="4">
+        <f t="shared" si="17"/>
+        <v>1.8167</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B248">
+        <v>0.75</v>
+      </c>
+      <c r="C248">
+        <v>0.57889999999999997</v>
+      </c>
+      <c r="D248" s="4">
+        <f t="shared" si="17"/>
+        <v>0.22813333333333338</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B249">
+        <v>0.5</v>
+      </c>
+      <c r="C249">
+        <v>0.56889999999999996</v>
+      </c>
+      <c r="D249" s="4">
+        <f t="shared" si="17"/>
+        <v>0.13779999999999992</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B250">
+        <v>0.94</v>
+      </c>
+      <c r="C250">
+        <v>0.86140000000000005</v>
+      </c>
+      <c r="D250" s="4">
+        <f t="shared" si="17"/>
+        <v>8.3617021276595635E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B251">
+        <v>0.94</v>
+      </c>
+      <c r="D251" s="4"/>
+    </row>
+    <row r="252" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C252">
+        <v>0.28770000000000001</v>
+      </c>
+      <c r="D252" s="4">
+        <f>ABS(C252-B252)/B252</f>
+        <v>7.7884615384615344E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B253">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C253">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="D253" s="4">
+        <f>ABS(C253-B253)/B253</f>
+        <v>4.7418335089568012E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B254" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C254" s="3">
+        <v>7.1340000000000005E-5</v>
+      </c>
+      <c r="D254" s="4">
+        <f>ABS(C254-B254)/B254</f>
+        <v>0.61952326901248589</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B255" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C255" s="3">
+        <v>2.02E-4</v>
+      </c>
+      <c r="D255" s="4">
+        <f>ABS(C255-B255)/B255</f>
+        <v>0.28621908127208479</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="D256" s="4">
+        <f t="shared" ref="D256:D257" si="18">ABS(C256-B256)/B256</f>
+        <v>1.2879999999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B257">
+        <v>1.5</v>
+      </c>
+      <c r="C257">
+        <v>4.1050000000000004</v>
+      </c>
+      <c r="D257" s="4">
+        <f t="shared" si="18"/>
+        <v>1.736666666666667</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B258">
+        <v>1683</v>
+      </c>
+      <c r="D258" s="4"/>
+    </row>
+    <row r="259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B259">
+        <v>1235</v>
+      </c>
+      <c r="D259" s="4"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B260" s="15"/>
+      <c r="C260" s="15"/>
+      <c r="D260" s="16">
+        <f>AVERAGE(D237:D259)</f>
+        <v>0.63997298702070649</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A131:D131"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D260"/>
   <sheetViews>
@@ -9404,7 +13261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D273"/>
   <sheetViews>
@@ -13024,12 +16881,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9014C0-1993-4555-87B8-73D75236443F}">
   <dimension ref="A1:D310"/>
   <sheetViews>
-    <sheetView topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="D310" sqref="D310"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13069,11 +16926,11 @@
         <v>2340000000000</v>
       </c>
       <c r="C3" s="3">
-        <v>2290000000000</v>
+        <v>2250000000000</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D28" si="0">ABS(C3-B3)/B3</f>
-        <v>2.1367521367521368E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13084,11 +16941,11 @@
         <v>75000000000000</v>
       </c>
       <c r="C4" s="3">
-        <v>81500000000000</v>
+        <v>75300000000000</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>8.666666666666667E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13099,11 +16956,11 @@
         <v>9200000000000</v>
       </c>
       <c r="C5" s="3">
-        <v>8630000000000</v>
+        <v>9120000000000</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>6.1956521739130438E-2</v>
+        <v>8.6956521739130436E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13114,11 +16971,11 @@
         <v>1080</v>
       </c>
       <c r="C6">
-        <v>1058.77</v>
+        <v>1046.5</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9657407407407426E-2</v>
+        <v>3.1018518518518518E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13129,11 +16986,11 @@
         <v>1041</v>
       </c>
       <c r="C7">
-        <v>1183.73</v>
+        <v>1170</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>0.13710854947166187</v>
+        <v>0.1239193083573487</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -13144,11 +17001,11 @@
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="C8">
-        <v>4.8079999999999998E-2</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>6.3716814159292048E-2</v>
+        <v>6.6371681415929576E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -13159,11 +17016,11 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="C9">
-        <v>0.67090000000000005</v>
+        <v>0.45379999999999998</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>1.5903474903474906</v>
+        <v>0.75212355212355197</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13174,11 +17031,11 @@
         <v>181000</v>
       </c>
       <c r="C10" s="3">
-        <v>179000</v>
+        <v>180000</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>1.1049723756906077E-2</v>
+        <v>5.5248618784530384E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13189,11 +17046,11 @@
         <v>193000</v>
       </c>
       <c r="C11" s="3">
-        <v>188000</v>
+        <v>184000</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>2.5906735751295335E-2</v>
+        <v>4.6632124352331605E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13204,11 +17061,11 @@
         <v>175000</v>
       </c>
       <c r="C12" s="3">
-        <v>172000</v>
+        <v>171000</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>1.7142857142857144E-2</v>
+        <v>2.2857142857142857E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13219,11 +17076,11 @@
         <v>100000</v>
       </c>
       <c r="C13">
-        <v>130108.95</v>
+        <v>218012</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>0.30108949999999995</v>
+        <v>1.1801200000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13234,11 +17091,11 @@
         <v>200000</v>
       </c>
       <c r="C14">
-        <v>237446.9</v>
+        <v>268134</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>0.18723449999999997</v>
+        <v>0.34066999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13249,11 +17106,11 @@
         <v>400000</v>
       </c>
       <c r="C15">
-        <v>424893.9</v>
+        <v>406661</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
-        <v>6.2234750000000061E-2</v>
+        <v>1.6652500000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13264,11 +17121,11 @@
         <v>10000</v>
       </c>
       <c r="C16">
-        <v>27208</v>
+        <v>19174</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
-        <v>1.7208000000000001</v>
+        <v>0.91739999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13279,11 +17136,11 @@
         <v>0.75</v>
       </c>
       <c r="C17">
-        <v>0.76700000000000002</v>
+        <v>0.75180000000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>2.2666666666666686E-2</v>
+        <v>2.4000000000000319E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13294,11 +17151,11 @@
         <v>0.5</v>
       </c>
       <c r="C18">
-        <v>0.49869999999999998</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>2.6000000000000467E-3</v>
+        <v>1.6000000000000014E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13309,11 +17166,11 @@
         <v>0.3</v>
       </c>
       <c r="C19">
-        <v>0.28289999999999998</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
-        <v>5.7000000000000016E-2</v>
+        <v>1.6666666666666684E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13324,11 +17181,11 @@
         <v>0.94</v>
       </c>
       <c r="C20">
-        <v>0.88060000000000005</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>6.3191489361702019E-2</v>
+        <v>0.10106382978723402</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13348,11 +17205,11 @@
         <v>0.312</v>
       </c>
       <c r="C22">
-        <v>0.30299999999999999</v>
+        <v>0.28539999999999999</v>
       </c>
       <c r="D22" s="4">
         <f>ABS(C22-B22)/B22</f>
-        <v>2.8846153846153872E-2</v>
+        <v>8.52564102564103E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13363,11 +17220,11 @@
         <v>9.4899999999999998E-2</v>
       </c>
       <c r="C23">
-        <v>7.3300000000000004E-2</v>
+        <v>9.6699999999999994E-2</v>
       </c>
       <c r="D23" s="4">
         <f>ABS(C23-B23)/B23</f>
-        <v>0.22760800842992618</v>
+        <v>1.8967334035827146E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -13378,11 +17235,11 @@
         <v>4.405E-5</v>
       </c>
       <c r="C24" s="3">
-        <v>4.4996000000000001E-5</v>
+        <v>6.6799999999999997E-5</v>
       </c>
       <c r="D24" s="4">
         <f>ABS(C24-B24)/B24</f>
-        <v>2.1475595913734411E-2</v>
+        <v>0.51645856980703742</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -13393,11 +17250,11 @@
         <v>2.8299999999999999E-4</v>
       </c>
       <c r="C25" s="3">
-        <v>3.3599999999999998E-4</v>
+        <v>3.0299999999999999E-4</v>
       </c>
       <c r="D25" s="4">
         <f>ABS(C25-B25)/B25</f>
-        <v>0.18727915194346287</v>
+        <v>7.067137809187278E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13408,11 +17265,11 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0.97660000000000002</v>
+        <v>0.96</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
-        <v>2.3399999999999976E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13423,11 +17280,11 @@
         <v>1.5</v>
       </c>
       <c r="C27">
-        <v>1.3906000000000001</v>
+        <v>1.448</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>7.2933333333333294E-2</v>
+        <v>3.46666666666667E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13438,11 +17295,11 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>3.1190000000000002</v>
+        <v>3.0478000000000001</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="0"/>
-        <v>3.9666666666666739E-2</v>
+        <v>1.5933333333333355E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13477,7 +17334,7 @@
       <c r="C31" s="15"/>
       <c r="D31" s="16">
         <f>AVERAGE(D3:D30)</f>
-        <v>0.20211784415887502</v>
+        <v>0.17651186222037757</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17466,7 +21323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D310"/>
   <sheetViews>
@@ -21906,7 +25763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -22211,7 +26068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -22455,353 +26312,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>50800000000</v>
-      </c>
-      <c r="C2" s="3">
-        <v>50300000000</v>
-      </c>
-      <c r="D2" s="4">
-        <f>ABS(C2-B2)/B2</f>
-        <v>9.8425196850393699E-3</v>
-      </c>
-      <c r="E2" s="3">
-        <v>44500000000</v>
-      </c>
-      <c r="F2" s="4">
-        <f>ABS(E2-B2)/B2</f>
-        <v>0.12401574803149606</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>157000</v>
-      </c>
-      <c r="C3" s="3">
-        <v>157000</v>
-      </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>141000</v>
-      </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F18" si="1">ABS(E3-B3)/B3</f>
-        <v>0.10191082802547771</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.91</v>
-      </c>
-      <c r="C4">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5384615384615398E-2</v>
-      </c>
-      <c r="E4">
-        <v>3.0659999999999998</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="1"/>
-        <v>2.3692307692307688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>788000</v>
-      </c>
-      <c r="C5">
-        <v>791511</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>4.4555837563451774E-3</v>
-      </c>
-      <c r="E5">
-        <v>871085.81</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.10543884517766504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>8.5940000000000003E-2</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.38172661870503599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2.5999999999999998E-4</v>
-      </c>
-      <c r="C7">
-        <v>2.6200000000000003E-4</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>7.6923076923078801E-3</v>
-      </c>
-      <c r="E7">
-        <v>4.1550000000000002E-4</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.59807692307692328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>203.3433</v>
-      </c>
-      <c r="C8">
-        <v>195.59</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>3.8129114654871815E-2</v>
-      </c>
-      <c r="E8">
-        <v>813.36249999999995</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="1"/>
-        <v>2.9999473796284408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>3.9780000000000002</v>
-      </c>
-      <c r="C9">
-        <v>4.0119999999999996</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>8.5470085470083865E-3</v>
-      </c>
-      <c r="E9">
-        <v>3.7229999999999999</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="1"/>
-        <v>6.410256410256418E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1189.3699999999999</v>
-      </c>
-      <c r="C14">
-        <v>1189.3699999999999</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14">
-        <v>1189.3699999999999</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.8</v>
-      </c>
-      <c r="C16">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7500000000000033E-3</v>
-      </c>
-      <c r="E16">
-        <v>0.68140000000000001</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="1"/>
-        <v>0.14825000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1000</v>
-      </c>
-      <c r="C18">
-        <v>1000.365</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>3.6500000000000909E-4</v>
-      </c>
-      <c r="E18">
-        <v>671.21</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.32878999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="4">
-        <f>AVERAGE(D2:D18)</f>
-        <v>8.8166149720188026E-3</v>
-      </c>
-      <c r="F19" s="4">
-        <f>AVERAGE(F2:F18)</f>
-        <v>0.72214896759783709</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3F6B992C-3835-4385-B9E0-F8AD6986E064}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{72DAC1CA-4E14-45B9-8DBB-103A4A1E4B94}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,24 +12,25 @@
     <sheet name="Summary" sheetId="12" r:id="rId2"/>
     <sheet name="twoReacChar_new" sheetId="18" r:id="rId3"/>
     <sheet name="twoReacChar" sheetId="14" r:id="rId4"/>
-    <sheet name="singleReacChar" sheetId="13" r:id="rId5"/>
-    <sheet name="threeReacChar_new" sheetId="17" r:id="rId6"/>
-    <sheet name="threeReacChar" sheetId="15" r:id="rId7"/>
-    <sheet name="PMMA_const_full" sheetId="1" r:id="rId8"/>
-    <sheet name="PMMA_const_hybrid" sheetId="2" r:id="rId9"/>
-    <sheet name="PMMA_linear_full" sheetId="3" r:id="rId10"/>
-    <sheet name="PMMA_linear_hybrid" sheetId="4" r:id="rId11"/>
-    <sheet name="E_Glass_const_full" sheetId="5" r:id="rId12"/>
-    <sheet name="E_Glass_const_hybrid" sheetId="8" r:id="rId13"/>
-    <sheet name="E_Glass_linear_full" sheetId="6" r:id="rId14"/>
-    <sheet name="E_Glass_linear_hybrid" sheetId="7" r:id="rId15"/>
-    <sheet name="E_Glass_linear_full_2mass" sheetId="9" r:id="rId16"/>
-    <sheet name="E_Glass_linear_full_mass_fbtemp" sheetId="10" r:id="rId17"/>
-    <sheet name="multiReactionCharringHybrid" sheetId="11" r:id="rId18"/>
+    <sheet name="singleReacChar_new" sheetId="19" r:id="rId5"/>
+    <sheet name="singleReacChar" sheetId="13" r:id="rId6"/>
+    <sheet name="threeReacChar_new" sheetId="17" r:id="rId7"/>
+    <sheet name="threeReacChar" sheetId="15" r:id="rId8"/>
+    <sheet name="PMMA_const_full" sheetId="1" r:id="rId9"/>
+    <sheet name="PMMA_const_hybrid" sheetId="2" r:id="rId10"/>
+    <sheet name="PMMA_linear_full" sheetId="3" r:id="rId11"/>
+    <sheet name="PMMA_linear_hybrid" sheetId="4" r:id="rId12"/>
+    <sheet name="E_Glass_const_full" sheetId="5" r:id="rId13"/>
+    <sheet name="E_Glass_const_hybrid" sheetId="8" r:id="rId14"/>
+    <sheet name="E_Glass_linear_full" sheetId="6" r:id="rId15"/>
+    <sheet name="E_Glass_linear_hybrid" sheetId="7" r:id="rId16"/>
+    <sheet name="E_Glass_linear_full_2mass" sheetId="9" r:id="rId17"/>
+    <sheet name="E_Glass_linear_full_mass_fbtemp" sheetId="10" r:id="rId18"/>
+    <sheet name="multiReactionCharringHybrid" sheetId="11" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Summary!$A$2:$H$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary_new!$A$2:$H$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary_new!$A$2:$F$11</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="113">
   <si>
     <t>Input parameters</t>
   </si>
@@ -387,7 +388,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,8 +417,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,6 +460,11 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -503,10 +516,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -557,8 +571,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1"/>
+    <xf numFmtId="10" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -840,29 +869,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>32</v>
       </c>
@@ -876,10 +903,8 @@
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -887,400 +912,335 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" t="s">
         <v>98</v>
       </c>
+      <c r="F2" s="23" t="s">
+        <v>106</v>
+      </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" t="s">
         <v>110</v>
       </c>
-      <c r="M2" t="s">
+      <c r="K2" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4">
-        <v>5.4800000000000001E-2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3">
-        <v>8.2214543833333299E-4</v>
+        <v>0.13201347279355144</v>
+      </c>
+      <c r="C3">
+        <v>7.7944945000000003E-4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.32193833333334E-5</v>
       </c>
       <c r="E3" s="3">
-        <v>1.84462583333328E-5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4.33268083333326E-5</v>
-      </c>
-      <c r="G3" s="3">
-        <f>AVERAGE(D3,F3)</f>
-        <v>4.3273612333333278E-4</v>
-      </c>
-      <c r="H3" s="13">
+        <v>7.1966616666665399E-5</v>
+      </c>
+      <c r="F3" s="23">
         <v>1</v>
       </c>
+      <c r="G3" s="18">
+        <v>2</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
       <c r="I3" s="18">
-        <v>2</v>
+        <f>AVERAGE(F3:H3)</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J3" s="18">
         <v>1</v>
       </c>
-      <c r="K3" s="18">
-        <f t="shared" ref="K3:K11" si="0">AVERAGE(H3:J3)</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="L3" s="18">
+      <c r="K3" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.16327569740464185</v>
+      </c>
+      <c r="C4">
+        <v>2.2961526949999899E-3</v>
+      </c>
+      <c r="D4">
+        <v>2.25676208333334E-4</v>
+      </c>
+      <c r="E4">
+        <v>1.15528333333332E-4</v>
+      </c>
+      <c r="F4" s="23">
+        <v>2</v>
+      </c>
+      <c r="G4" s="18">
+        <v>5</v>
+      </c>
+      <c r="H4" s="18">
+        <v>3</v>
+      </c>
+      <c r="I4" s="18">
+        <f>AVERAGE(F4:H4)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J4" s="18">
+        <v>2</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.1777075450986991</v>
+      </c>
+      <c r="C5">
+        <v>1.00803331666665E-4</v>
+      </c>
+      <c r="D5">
+        <v>1.15777758333332E-4</v>
+      </c>
+      <c r="E5">
+        <v>1.73752866666666E-4</v>
+      </c>
+      <c r="F5" s="23">
+        <v>3</v>
+      </c>
+      <c r="G5" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.1825</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4">
-        <v>1.4799614949999899E-3</v>
-      </c>
-      <c r="E4">
-        <v>4.1693754166666598E-4</v>
-      </c>
-      <c r="F4">
-        <v>1.4495903333333501E-4</v>
-      </c>
-      <c r="G4" s="3">
-        <f>AVERAGE(D4,F4)</f>
-        <v>8.1246026416666249E-4</v>
-      </c>
-      <c r="H4" s="13">
+      <c r="H5" s="18">
+        <v>7</v>
+      </c>
+      <c r="I5" s="18">
+        <f>AVERAGE(F5:H5)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="J5" s="18">
+        <v>3</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.55607843012868252</v>
+      </c>
+      <c r="C6">
+        <v>1.63451619999999E-3</v>
+      </c>
+      <c r="D6">
+        <v>1.2694358333333199E-4</v>
+      </c>
+      <c r="E6">
+        <v>1.13227541666665E-4</v>
+      </c>
+      <c r="F6" s="23">
+        <v>7</v>
+      </c>
+      <c r="G6" s="18">
+        <v>4</v>
+      </c>
+      <c r="H6" s="18">
         <v>2</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I6" s="18">
+        <f>AVERAGE(F6:H6)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="J6" s="18">
         <v>4</v>
       </c>
-      <c r="J4" s="18">
-        <v>5</v>
-      </c>
-      <c r="K4" s="18">
-        <f t="shared" si="0"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="L4" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.36809999999999998</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5">
-        <v>1.7272738866666601E-3</v>
-      </c>
-      <c r="E5">
-        <v>2.3032804166666501E-4</v>
-      </c>
-      <c r="F5" s="3">
-        <v>5.6247933333335502E-5</v>
-      </c>
-      <c r="G5" s="3">
-        <f>AVERAGE(D5,F5)</f>
-        <v>8.9176090999999779E-4</v>
-      </c>
-      <c r="H5" s="13">
-        <v>5</v>
-      </c>
-      <c r="I5" s="18">
+      <c r="K6" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.21664504086751163</v>
+      </c>
+      <c r="C7">
+        <v>1.55234504666666E-3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6.7846624999999401E-5</v>
+      </c>
+      <c r="E7">
+        <v>1.66764608333334E-4</v>
+      </c>
+      <c r="F7" s="23">
+        <v>4</v>
+      </c>
+      <c r="G7" s="18">
+        <v>3</v>
+      </c>
+      <c r="H7" s="18">
         <v>6</v>
       </c>
-      <c r="J5" s="18">
-        <v>2</v>
-      </c>
-      <c r="K5" s="18">
-        <f t="shared" si="0"/>
+      <c r="I7" s="18">
+        <f>AVERAGE(F7:H7)</f>
         <v>4.333333333333333</v>
-      </c>
-      <c r="L5" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.18329999999999999</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6">
-        <v>2.5446560716666602E-3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>9.8771141666666198E-5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>6.0159850000000403E-5</v>
-      </c>
-      <c r="G6" s="3">
-        <f>AVERAGE(D6:F6)</f>
-        <v>9.0119568777777563E-4</v>
-      </c>
-      <c r="H6" s="13">
-        <v>3</v>
-      </c>
-      <c r="I6" s="18">
-        <v>7</v>
-      </c>
-      <c r="J6" s="18">
-        <v>3</v>
-      </c>
-      <c r="K6" s="18">
-        <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="L6" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.27350000000000002</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7">
-        <v>1.5812660516666601E-3</v>
-      </c>
-      <c r="E7">
-        <v>1.1787021666666599E-4</v>
-      </c>
-      <c r="F7" s="3">
-        <v>6.2408208333334704E-5</v>
-      </c>
-      <c r="G7" s="3">
-        <f>AVERAGE(D7,F7)</f>
-        <v>8.2183712999999738E-4</v>
-      </c>
-      <c r="H7" s="13">
-        <v>4</v>
-      </c>
-      <c r="I7" s="18">
-        <v>5</v>
       </c>
       <c r="J7" s="18">
         <v>4</v>
       </c>
-      <c r="K7" s="18">
-        <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="L7" s="18">
+      <c r="K7" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.44336035963122095</v>
+      </c>
+      <c r="C8">
+        <v>4.1402768466666604E-3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6.6769783333335301E-5</v>
+      </c>
+      <c r="E8">
+        <v>1.21987391666665E-4</v>
+      </c>
+      <c r="F8" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.47689999999999999</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8">
-        <v>2.4983649166666699E-4</v>
-      </c>
-      <c r="E8">
-        <v>3.5794594166666601E-4</v>
-      </c>
-      <c r="F8">
-        <v>6.2972367500000001E-4</v>
-      </c>
-      <c r="G8" s="3">
-        <f>AVERAGE(D8,F8)</f>
-        <v>4.3978008333333347E-4</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="G8" s="18">
         <v>6</v>
       </c>
+      <c r="H8" s="18">
+        <v>4</v>
+      </c>
       <c r="I8" s="18">
-        <v>1</v>
+        <f>AVERAGE(F8:H8)</f>
+        <v>5</v>
       </c>
       <c r="J8" s="18">
-        <v>7</v>
-      </c>
-      <c r="K8" s="18">
-        <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="L8" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K8" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="4">
-        <v>0.66779999999999995</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
+        <v>0.51745254767425808</v>
+      </c>
+      <c r="C9">
+        <v>4.62134666166666E-3</v>
       </c>
       <c r="D9">
-        <v>1.1034841383333301E-3</v>
+        <v>1.0613310833333201E-4</v>
       </c>
       <c r="E9">
-        <v>5.7031248333333105E-4</v>
-      </c>
-      <c r="F9">
-        <v>2.81357275000001E-4</v>
-      </c>
-      <c r="G9" s="3">
-        <f>AVERAGE(D9,F9)</f>
-        <v>6.9242070666666552E-4</v>
-      </c>
-      <c r="H9" s="13">
+        <v>1.5087704166666599E-4</v>
+      </c>
+      <c r="F9" s="23">
+        <v>6</v>
+      </c>
+      <c r="G9" s="18">
+        <v>7</v>
+      </c>
+      <c r="H9" s="18">
+        <v>5</v>
+      </c>
+      <c r="I9" s="18">
+        <f>AVERAGE(F9:H9)</f>
+        <v>6</v>
+      </c>
+      <c r="J9" s="18">
+        <v>7</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.3385796019562517</v>
+      </c>
+      <c r="C10">
+        <v>0.17567353127166599</v>
+      </c>
+      <c r="D10">
+        <v>1.17759784833333E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.058342015E-2</v>
+      </c>
+      <c r="F10" s="23">
         <v>8</v>
       </c>
-      <c r="I9" s="18">
-        <v>3</v>
-      </c>
-      <c r="J9" s="18">
-        <v>6</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" si="0"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="L9" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10">
-        <v>1.69098381433333E-2</v>
-      </c>
-      <c r="E10">
-        <v>1.0817298666666599E-3</v>
-      </c>
-      <c r="F10">
-        <v>1.0068921083333301E-3</v>
-      </c>
-      <c r="G10" s="3">
-        <f>AVERAGE(D10,F10)</f>
-        <v>8.9583651258333154E-3</v>
-      </c>
-      <c r="H10" s="13">
-        <v>7</v>
+      <c r="G10" s="18">
+        <v>8</v>
+      </c>
+      <c r="H10" s="18">
+        <v>8</v>
       </c>
       <c r="I10" s="18">
+        <f>AVERAGE(F10:H10)</f>
         <v>8</v>
       </c>
       <c r="J10" s="18">
         <v>8</v>
       </c>
-      <c r="K10" s="18">
-        <f t="shared" si="0"/>
-        <v>7.666666666666667</v>
-      </c>
-      <c r="L10" s="18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1.2545999999999999</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11">
-        <v>0.17511676241499999</v>
-      </c>
-      <c r="E11">
-        <v>1.19991677916666E-2</v>
-      </c>
-      <c r="F11">
-        <v>1.0718068858333299E-2</v>
-      </c>
-      <c r="G11" s="3">
-        <f>AVERAGE(D11,F11)</f>
-        <v>9.2917415636666639E-2</v>
-      </c>
-      <c r="H11" s="13">
-        <v>9</v>
-      </c>
-      <c r="I11" s="18">
-        <v>9</v>
-      </c>
-      <c r="J11" s="18">
-        <v>9</v>
-      </c>
-      <c r="K11" s="18">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L11" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K10" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18" t="e">
+        <f>AVERAGE(F11:H11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>33</v>
       </c>
@@ -1294,10 +1254,8 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1305,257 +1263,297 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" t="s">
         <v>98</v>
       </c>
+      <c r="F13" s="23" t="s">
+        <v>106</v>
+      </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J13" t="s">
-        <v>108</v>
-      </c>
-      <c r="K13" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13" t="s">
         <v>110</v>
       </c>
-      <c r="M13" t="s">
+      <c r="K13" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B14" s="4">
-        <v>0.34158323043164218</v>
+        <v>0.23883317759091943</v>
+      </c>
+      <c r="C14">
+        <v>4.8355968900000001E-3</v>
       </c>
       <c r="D14">
-        <v>2.1579126099999998E-3</v>
+        <v>3.72939841666667E-4</v>
       </c>
       <c r="E14">
-        <v>8.4038371666671002E-4</v>
-      </c>
-      <c r="F14">
-        <v>1.0733040416666399E-3</v>
-      </c>
-      <c r="H14" s="13">
+        <v>3.61265474999984E-4</v>
+      </c>
+      <c r="F14" s="23">
         <v>1</v>
       </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
       <c r="I14">
-        <v>1</v>
+        <f>AVERAGE(F14:H14)</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14">
-        <f t="shared" ref="K14:K22" si="1">AVERAGE(H14:J14)</f>
+      <c r="K14" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.34158323043164218</v>
+      </c>
+      <c r="C15">
+        <v>2.1579126099999998E-3</v>
+      </c>
+      <c r="D15">
+        <v>8.4038371666671002E-4</v>
+      </c>
+      <c r="E15">
+        <v>1.0733040416666399E-3</v>
+      </c>
+      <c r="F15" s="23">
+        <v>2</v>
+      </c>
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <f>AVERAGE(F15:H15)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.36297532065304272</v>
+      </c>
+      <c r="C16">
+        <v>2.6115397464999999E-2</v>
+      </c>
+      <c r="D16">
+        <v>4.52773224999997E-3</v>
+      </c>
+      <c r="E16">
+        <v>4.8161608416666798E-3</v>
+      </c>
+      <c r="F16" s="23">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(F16:H16)</f>
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B17" s="25">
         <v>0.51212070529243281</v>
       </c>
-      <c r="D15">
+      <c r="C17" s="24">
         <v>5.1922447655000002E-2</v>
       </c>
-      <c r="E15">
+      <c r="D17" s="24">
         <v>4.1376640833333898E-3</v>
       </c>
-      <c r="F15">
+      <c r="E17" s="24">
         <v>4.1944234999999504E-3</v>
       </c>
-      <c r="H15" s="13">
-        <v>2</v>
-      </c>
-      <c r="I15">
+      <c r="F17" s="26">
         <v>4</v>
       </c>
-      <c r="J15">
+      <c r="G17" s="24">
+        <v>6</v>
+      </c>
+      <c r="H17" s="24">
+        <v>4</v>
+      </c>
+      <c r="I17" s="24">
+        <f>AVERAGE(F17:H17)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="J17" s="24">
+        <v>4</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.52105753765888752</v>
+      </c>
+      <c r="C18">
+        <v>1.6241305915E-2</v>
+      </c>
+      <c r="D18">
+        <v>4.0566907749999704E-3</v>
+      </c>
+      <c r="E18">
+        <v>5.4004657333333603E-3</v>
+      </c>
+      <c r="F18" s="23">
+        <v>5</v>
+      </c>
+      <c r="G18">
         <v>3</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.52105753765888752</v>
-      </c>
-      <c r="D16">
-        <v>1.6241305915E-2</v>
-      </c>
-      <c r="E16">
-        <v>4.0566907749999704E-3</v>
-      </c>
-      <c r="F16">
-        <v>5.4004657333333603E-3</v>
-      </c>
-      <c r="H16" s="13">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.87817022059682459</v>
-      </c>
-      <c r="D17">
-        <v>6.2282453336666599E-2</v>
-      </c>
-      <c r="E17">
-        <v>9.5295443333330099E-4</v>
-      </c>
-      <c r="F17">
-        <v>2.4021427166666799E-3</v>
-      </c>
-      <c r="H17" s="13">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.69563584816694646</v>
-      </c>
-      <c r="D18">
-        <v>2.7930817001666601E-2</v>
-      </c>
-      <c r="E18">
-        <v>4.5533835083333297E-3</v>
-      </c>
-      <c r="F18">
-        <v>5.6449125250000497E-3</v>
-      </c>
-      <c r="H18" s="13">
-        <v>4</v>
+      <c r="H18">
+        <v>6</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <f>AVERAGE(F18:H18)</f>
+        <v>4.666666666666667</v>
       </c>
       <c r="J18">
         <v>5</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L18">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.87817022059682459</v>
+      </c>
+      <c r="C19">
+        <v>6.2282453336666599E-2</v>
+      </c>
+      <c r="D19">
+        <v>9.5295443333330099E-4</v>
+      </c>
+      <c r="E19">
+        <v>2.4021427166666799E-3</v>
+      </c>
+      <c r="F19" s="23">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <f>AVERAGE(F19:H19)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.69563584816694646</v>
+      </c>
+      <c r="C20">
+        <v>2.7930817001666601E-2</v>
+      </c>
+      <c r="D20">
+        <v>4.5533835083333297E-3</v>
+      </c>
+      <c r="E20">
+        <v>5.6449125250000497E-3</v>
+      </c>
+      <c r="F20" s="23">
+        <v>6</v>
+      </c>
+      <c r="G20">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="K19" t="e">
-        <f t="shared" si="1"/>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <f>AVERAGE(F20:H20)</f>
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="I21" t="e">
+        <f>AVERAGE(F21:H21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="K20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="K21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="K22" t="e">
-        <f t="shared" si="1"/>
+      <c r="I22" t="e">
+        <f>AVERAGE(F22:H22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>40</v>
       </c>
@@ -1569,10 +1567,8 @@
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1580,332 +1576,325 @@
         <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" t="s">
         <v>98</v>
       </c>
+      <c r="F24" s="23" t="s">
+        <v>106</v>
+      </c>
       <c r="G24" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J24" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" t="s">
-        <v>109</v>
-      </c>
-      <c r="L24" t="s">
         <v>110</v>
       </c>
-      <c r="M24" t="s">
+      <c r="K24" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B25" s="4">
-        <v>0.17651186222037757</v>
+        <v>0.21909448790662656</v>
+      </c>
+      <c r="C25">
+        <v>4.8355968900000001E-3</v>
       </c>
       <c r="D25">
-        <v>2.7652746999999998E-2</v>
+        <v>3.72939841666667E-4</v>
       </c>
       <c r="E25">
-        <v>1.416158E-3</v>
-      </c>
-      <c r="F25">
-        <v>2.1444390000000002E-3</v>
+        <v>3.61265474999984E-4</v>
+      </c>
+      <c r="F25" s="23">
+        <v>2</v>
       </c>
       <c r="G25">
-        <f>AVERAGE(D25,F25)</f>
-        <v>1.4898593E-2</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <f>AVERAGE(F25:H25)</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
-      <c r="K25">
-        <f>AVERAGE(H25:J25)</f>
-        <v>2</v>
-      </c>
-      <c r="L25">
+      <c r="K25" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.17651186222037757</v>
+      </c>
+      <c r="C26">
+        <v>2.7652746999999998E-2</v>
+      </c>
+      <c r="D26">
+        <v>1.416158E-3</v>
+      </c>
+      <c r="E26">
+        <v>2.1444390000000002E-3</v>
+      </c>
+      <c r="F26" s="23">
         <v>1</v>
       </c>
-      <c r="M25" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0.25632038128931056</v>
-      </c>
-      <c r="C26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26">
-        <v>1.070559527E-2</v>
-      </c>
-      <c r="E26">
-        <v>3.4493361666666799E-3</v>
-      </c>
-      <c r="F26">
-        <v>3.0589841583333402E-3</v>
-      </c>
       <c r="G26">
-        <f>AVERAGE(D26,F26)</f>
-        <v>6.88228971416667E-3</v>
+        <v>5</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <f>AVERAGE(F26:H26)</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="J26">
         <v>2</v>
       </c>
-      <c r="K26">
-        <f>AVERAGE(H26:J26)</f>
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>35</v>
+      <c r="K26" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
       </c>
       <c r="B27" s="4">
-        <v>0.299295476643549</v>
-      </c>
-      <c r="C27" t="s">
-        <v>104</v>
+        <v>0.25632038128931056</v>
+      </c>
+      <c r="C27">
+        <v>1.070559527E-2</v>
       </c>
       <c r="D27">
-        <v>8.2740798133333297E-3</v>
+        <v>3.4493361666666799E-3</v>
       </c>
       <c r="E27">
-        <v>7.8026004833333601E-3</v>
-      </c>
-      <c r="F27">
-        <v>8.4879595083333301E-3</v>
+        <v>3.0589841583333402E-3</v>
+      </c>
+      <c r="F27" s="23">
+        <v>3</v>
       </c>
       <c r="G27">
-        <f>AVERAGE(D27,F27)</f>
-        <v>8.381019660833329E-3</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <f>AVERAGE(F27:H27)</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J27">
         <v>3</v>
       </c>
-      <c r="K27">
-        <f>AVERAGE(H27:J27)</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="L27">
-        <v>3</v>
-      </c>
-      <c r="M27" s="13" t="s">
+      <c r="K27" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="B28" s="4">
-        <v>0.6679301757622631</v>
-      </c>
-      <c r="C28" t="s">
-        <v>94</v>
+        <v>0.299295476643549</v>
+      </c>
+      <c r="C28">
+        <v>8.2740798133333297E-3</v>
       </c>
       <c r="D28">
-        <v>1.9716537846666601E-2</v>
+        <v>7.8026004833333601E-3</v>
       </c>
       <c r="E28">
-        <v>7.2557776833333098E-3</v>
-      </c>
-      <c r="F28">
-        <v>1.28608019416666E-2</v>
+        <v>8.4879595083333301E-3</v>
+      </c>
+      <c r="F28" s="23">
+        <v>4</v>
       </c>
       <c r="G28">
-        <f>AVERAGE(D28,F28)</f>
-        <v>1.6288669894166601E-2</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <f>AVERAGE(F28:H28)</f>
+        <v>3.6666666666666665</v>
       </c>
       <c r="J28">
         <v>4</v>
       </c>
-      <c r="K28">
-        <f>AVERAGE(H28:J28)</f>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="L28">
-        <v>4</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K28" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>1.150242872218624</v>
-      </c>
-      <c r="C29" t="s">
-        <v>101</v>
+        <v>0.82565061061475542</v>
+      </c>
+      <c r="C29">
+        <v>6.2282453336666599E-2</v>
       </c>
       <c r="D29">
-        <v>7.9335362866666606E-2</v>
+        <v>9.5295443333330099E-4</v>
       </c>
       <c r="E29">
-        <v>1.55031014333333E-2</v>
-      </c>
-      <c r="F29">
-        <v>2.05842343583333E-2</v>
+        <v>2.4021427166666799E-3</v>
+      </c>
+      <c r="F29" s="23">
+        <v>6</v>
       </c>
       <c r="G29">
-        <f>AVERAGE(D29,F29)</f>
-        <v>4.9959798612499953E-2</v>
+        <v>6</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I29">
+        <f>AVERAGE(F29:H29)</f>
         <v>5</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
-      <c r="K29">
-        <f>AVERAGE(H29:J29)</f>
+      <c r="K29" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.6679301757622631</v>
+      </c>
+      <c r="C30">
+        <v>1.9716537846666601E-2</v>
+      </c>
+      <c r="D30">
+        <v>7.2557776833333098E-3</v>
+      </c>
+      <c r="E30">
+        <v>1.28608019416666E-2</v>
+      </c>
+      <c r="F30" s="23">
         <v>5</v>
       </c>
-      <c r="L29">
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <f>AVERAGE(F30:H30)</f>
         <v>5</v>
       </c>
-      <c r="M29" s="13" t="s">
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="K30" t="e">
-        <f>AVERAGE(H30:J30)</f>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1.150242872218624</v>
+      </c>
+      <c r="C31">
+        <v>7.9335362866666606E-2</v>
+      </c>
+      <c r="D31">
+        <v>1.55031014333333E-2</v>
+      </c>
+      <c r="E31">
+        <v>2.05842343583333E-2</v>
+      </c>
+      <c r="F31" s="23">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <f>AVERAGE(F31:H31)</f>
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="I32" t="e">
+        <f>AVERAGE(F32:H32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30">
-        <v>3</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="K31" t="e">
-        <f>AVERAGE(H31:J31)</f>
+      <c r="K32" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="I33" t="e">
+        <f>AVERAGE(F33:H33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31">
-        <v>5</v>
-      </c>
-      <c r="M31" s="13" t="s">
+      <c r="K33" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="K32" t="e">
-        <f>AVERAGE(H32:J32)</f>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="I34" t="e">
+        <f>AVERAGE(F34:H34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L32">
-        <v>6</v>
-      </c>
-      <c r="M32" s="13" t="s">
+      <c r="K34" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="K33" t="e">
-        <f>AVERAGE(H33:J33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L33">
-        <v>9</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="K34" t="e">
-        <f>AVERAGE(H34:J34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L34">
-        <v>10</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>39</v>
       </c>
@@ -1914,10 +1903,8 @@
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1925,62 +1912,56 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" t="s">
         <v>98</v>
       </c>
-      <c r="G36" t="s">
-        <v>100</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="F36" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="F37" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="F38" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="F39" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A25:M34">
-    <sortCondition ref="K25:K34"/>
+  <sortState ref="A25:K34">
+    <sortCondition ref="I25:I34"/>
   </sortState>
   <mergeCells count="4">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A35:F35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="77" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1988,6 +1969,252 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50800000000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>46800000000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>ABS(C2-B2)/B2</f>
+        <v>7.874015748031496E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>157000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>156000</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
+        <v>6.369426751592357E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.91</v>
+      </c>
+      <c r="C4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9670329670329697E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>788000</v>
+      </c>
+      <c r="C5">
+        <v>792470</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.6725888324873092E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.249</v>
+      </c>
+      <c r="C6">
+        <v>0.25040000000000001</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>5.6224899598394072E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1886</v>
+      </c>
+      <c r="C8">
+        <v>1898.53</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6436903499469636E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1189.3699999999999</v>
+      </c>
+      <c r="C14">
+        <v>1189.3699999999999</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.8</v>
+      </c>
+      <c r="C16">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6250000000000457E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+      <c r="C18">
+        <v>986.77</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3230000000000018E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <f>AVERAGE(D2:D18)</f>
+        <v>1.8821710380563846E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -2336,7 +2563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -2593,7 +2820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -2946,7 +3173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -3197,7 +3424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -3609,7 +3836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -3905,7 +4132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -4181,7 +4408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -4456,7 +4683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5907,8 +6134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D5BA7-5E2A-4D4E-B8B0-9CEB31C8D6D1}">
   <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="D208" sqref="D208"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7772,11 +7999,11 @@
         <v>2340000000000</v>
       </c>
       <c r="C133" s="3">
-        <v>2370000000000</v>
+        <v>2350000000000</v>
       </c>
       <c r="D133" s="4">
         <f t="shared" ref="D133:D146" si="9">ABS(C133-B133)/B133</f>
-        <v>1.282051282051282E-2</v>
+        <v>4.2735042735042739E-3</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7787,11 +8014,11 @@
         <v>75000000000000</v>
       </c>
       <c r="C134" s="3">
-        <v>74800000000000</v>
+        <v>67500000000000</v>
       </c>
       <c r="D134" s="4">
         <f t="shared" si="9"/>
-        <v>2.6666666666666666E-3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7802,11 +8029,11 @@
         <v>1080</v>
       </c>
       <c r="C135">
-        <v>1270.3800000000001</v>
+        <v>1205.5</v>
       </c>
       <c r="D135" s="4">
         <f t="shared" si="9"/>
-        <v>0.17627777777777787</v>
+        <v>0.1162037037037037</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7817,11 +8044,11 @@
         <v>1041</v>
       </c>
       <c r="C136">
-        <v>2692.7</v>
+        <v>1273.6600000000001</v>
       </c>
       <c r="D136" s="4">
         <f t="shared" si="9"/>
-        <v>1.5866474543707971</v>
+        <v>0.22349663784822293</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7832,11 +8059,11 @@
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="C137">
-        <v>8.6599999999999996E-2</v>
+        <v>1.133E-2</v>
       </c>
       <c r="D137" s="4">
         <f t="shared" si="9"/>
-        <v>0.9159292035398231</v>
+        <v>0.74933628318584067</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7847,11 +8074,11 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="C138">
-        <v>0.71299999999999997</v>
+        <v>7.825E-2</v>
       </c>
       <c r="D138" s="4">
         <f t="shared" si="9"/>
-        <v>1.7528957528957527</v>
+        <v>0.69787644787644798</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7862,11 +8089,11 @@
         <v>181000</v>
       </c>
       <c r="C139" s="3">
-        <v>174000</v>
+        <v>181000</v>
       </c>
       <c r="D139" s="4">
         <f t="shared" si="9"/>
-        <v>3.8674033149171269E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7877,11 +8104,11 @@
         <v>193000</v>
       </c>
       <c r="C140" s="3">
-        <v>183000</v>
+        <v>191000</v>
       </c>
       <c r="D140" s="4">
         <f t="shared" si="9"/>
-        <v>5.181347150259067E-2</v>
+        <v>1.0362694300518135E-2</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7892,11 +8119,11 @@
         <v>100000</v>
       </c>
       <c r="C141">
-        <v>140255</v>
+        <v>25011</v>
       </c>
       <c r="D141" s="4">
         <f t="shared" si="9"/>
-        <v>0.40255000000000002</v>
+        <v>0.74988999999999995</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7907,11 +8134,11 @@
         <v>200000</v>
       </c>
       <c r="C142">
-        <v>249845.7</v>
+        <v>222439</v>
       </c>
       <c r="D142" s="4">
         <f t="shared" si="9"/>
-        <v>0.24922850000000005</v>
+        <v>0.112195</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7922,11 +8149,11 @@
         <v>10000</v>
       </c>
       <c r="C143">
-        <v>19186.86</v>
+        <v>29800.7</v>
       </c>
       <c r="D143" s="4">
         <f t="shared" si="9"/>
-        <v>0.91868600000000011</v>
+        <v>1.98007</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7937,11 +8164,11 @@
         <v>0.75</v>
       </c>
       <c r="C144">
-        <v>0.72230000000000005</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="D144" s="4">
         <f t="shared" si="9"/>
-        <v>3.6933333333333263E-2</v>
+        <v>9.7333333333333272E-2</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7952,11 +8179,11 @@
         <v>0.5</v>
       </c>
       <c r="C145">
-        <v>0.5302</v>
+        <v>0.54359999999999997</v>
       </c>
       <c r="D145" s="4">
         <f t="shared" si="9"/>
-        <v>6.0400000000000009E-2</v>
+        <v>8.7199999999999944E-2</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7967,11 +8194,11 @@
         <v>0.94</v>
       </c>
       <c r="C146">
-        <v>0.93279999999999996</v>
+        <v>1</v>
       </c>
       <c r="D146" s="4">
         <f t="shared" si="9"/>
-        <v>7.6595744680850904E-3</v>
+        <v>6.3829787234042618E-2</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7991,11 +8218,11 @@
         <v>0.312</v>
       </c>
       <c r="C148">
-        <v>0.36599999999999999</v>
+        <v>0.3322</v>
       </c>
       <c r="D148" s="4">
         <f>ABS(C148-B148)/B148</f>
-        <v>0.17307692307692304</v>
+        <v>6.4743589743589736E-2</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8006,11 +8233,11 @@
         <v>9.4899999999999998E-2</v>
       </c>
       <c r="C149">
-        <v>0.16750000000000001</v>
+        <v>3.15E-2</v>
       </c>
       <c r="D149" s="4">
         <f>ABS(C149-B149)/B149</f>
-        <v>0.76501580611169662</v>
+        <v>0.66807165437302418</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8021,11 +8248,11 @@
         <v>4.405E-5</v>
       </c>
       <c r="C150" s="3">
-        <v>7.8079999999999998E-5</v>
+        <v>8.8040000000000004E-5</v>
       </c>
       <c r="D150" s="4">
         <f>ABS(C150-B150)/B150</f>
-        <v>0.77253121452894435</v>
+        <v>0.9986379114642453</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8036,11 +8263,11 @@
         <v>2.8299999999999999E-4</v>
       </c>
       <c r="C151" s="3">
-        <v>5.8759999999999997E-4</v>
+        <v>3.9280000000000001E-4</v>
       </c>
       <c r="D151" s="4">
         <f>ABS(C151-B151)/B151</f>
-        <v>1.0763250883392226</v>
+        <v>0.38798586572438165</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8051,11 +8278,11 @@
         <v>1</v>
       </c>
       <c r="C152">
-        <v>0.97199999999999998</v>
+        <v>1.048</v>
       </c>
       <c r="D152" s="4">
         <f t="shared" ref="D152:D153" si="10">ABS(C152-B152)/B152</f>
-        <v>2.8000000000000025E-2</v>
+        <v>4.8000000000000043E-2</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8066,11 +8293,11 @@
         <v>1.5</v>
       </c>
       <c r="C153">
-        <v>1.494</v>
+        <v>1.65</v>
       </c>
       <c r="D153" s="4">
         <f t="shared" si="10"/>
-        <v>4.0000000000000036E-3</v>
+        <v>9.9999999999999936E-2</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8105,7 +8332,7 @@
       <c r="C156" s="15"/>
       <c r="D156" s="16">
         <f>AVERAGE(D133:D155)</f>
-        <v>0.45160656562906476</v>
+        <v>0.36297532065304272</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8138,11 +8365,11 @@
         <v>2340000000000</v>
       </c>
       <c r="C159" s="3">
-        <v>2340000000000</v>
+        <v>2460000000000</v>
       </c>
       <c r="D159" s="4">
         <f t="shared" ref="D159:D172" si="11">ABS(C159-B159)/B159</f>
-        <v>0</v>
+        <v>5.128205128205128E-2</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8153,11 +8380,11 @@
         <v>75000000000000</v>
       </c>
       <c r="C160" s="3">
-        <v>74200000000000</v>
+        <v>82400000000000</v>
       </c>
       <c r="D160" s="4">
         <f t="shared" si="11"/>
-        <v>1.0666666666666666E-2</v>
+        <v>9.8666666666666666E-2</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8168,11 +8395,11 @@
         <v>1080</v>
       </c>
       <c r="C161">
-        <v>1125.3699999999999</v>
+        <v>1045.19</v>
       </c>
       <c r="D161" s="4">
         <f t="shared" si="11"/>
-        <v>4.2009259259259156E-2</v>
+        <v>3.223148148148143E-2</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8183,11 +8410,11 @@
         <v>1041</v>
       </c>
       <c r="C162">
-        <v>2041.87</v>
+        <v>1210.3</v>
       </c>
       <c r="D162" s="4">
         <f t="shared" si="11"/>
-        <v>0.96145052833813627</v>
+        <v>0.16263208453410177</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8198,11 +8425,11 @@
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="C163">
-        <v>0.11138000000000001</v>
+        <v>0.1268</v>
       </c>
       <c r="D163" s="4">
         <f t="shared" si="11"/>
-        <v>1.4641592920353987</v>
+        <v>1.8053097345132745</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8213,11 +8440,11 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="C164">
-        <v>0.58660000000000001</v>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="D164" s="4">
         <f t="shared" si="11"/>
-        <v>1.2648648648648648</v>
+        <v>0.74177606177606181</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8228,11 +8455,11 @@
         <v>181000</v>
       </c>
       <c r="C165" s="3">
-        <v>178000</v>
+        <v>181000</v>
       </c>
       <c r="D165" s="4">
         <f t="shared" si="11"/>
-        <v>1.6574585635359115E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8243,11 +8470,11 @@
         <v>193000</v>
       </c>
       <c r="C166" s="3">
-        <v>189000</v>
+        <v>193000</v>
       </c>
       <c r="D166" s="4">
         <f t="shared" si="11"/>
-        <v>2.072538860103627E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8258,11 +8485,11 @@
         <v>100000</v>
       </c>
       <c r="C167">
-        <v>237945.86</v>
+        <v>96403.06</v>
       </c>
       <c r="D167" s="4">
         <f t="shared" si="11"/>
-        <v>1.3794585999999998</v>
+        <v>3.5969400000000026E-2</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8273,11 +8500,11 @@
         <v>200000</v>
       </c>
       <c r="C168">
-        <v>178233</v>
+        <v>200413</v>
       </c>
       <c r="D168" s="4">
         <f t="shared" si="11"/>
-        <v>0.108835</v>
+        <v>2.065E-3</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8288,11 +8515,11 @@
         <v>10000</v>
       </c>
       <c r="C169">
-        <v>23391</v>
+        <v>19609</v>
       </c>
       <c r="D169" s="4">
         <f t="shared" si="11"/>
-        <v>1.3391</v>
+        <v>0.96089999999999998</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8303,11 +8530,11 @@
         <v>0.75</v>
       </c>
       <c r="C170">
-        <v>0.747</v>
+        <v>0.75417999999999996</v>
       </c>
       <c r="D170" s="4">
         <f t="shared" si="11"/>
-        <v>4.0000000000000036E-3</v>
+        <v>5.5733333333332817E-3</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8318,11 +8545,11 @@
         <v>0.5</v>
       </c>
       <c r="C171">
-        <v>0.51349999999999996</v>
+        <v>0.502</v>
       </c>
       <c r="D171" s="4">
         <f t="shared" si="11"/>
-        <v>2.6999999999999913E-2</v>
+        <v>4.0000000000000036E-3</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8333,11 +8560,11 @@
         <v>0.94</v>
       </c>
       <c r="C172">
-        <v>0.93740000000000001</v>
+        <v>0.94140000000000001</v>
       </c>
       <c r="D172" s="4">
         <f t="shared" si="11"/>
-        <v>2.7659574468084426E-3</v>
+        <v>1.4893617021277319E-3</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8357,11 +8584,11 @@
         <v>0.312</v>
       </c>
       <c r="C174">
-        <v>0.30786999999999998</v>
+        <v>0.30120000000000002</v>
       </c>
       <c r="D174" s="4">
         <f>ABS(C174-B174)/B174</f>
-        <v>1.3237179487179559E-2</v>
+        <v>3.4615384615384541E-2</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8372,11 +8599,11 @@
         <v>9.4899999999999998E-2</v>
       </c>
       <c r="C175">
-        <v>0.13750000000000001</v>
+        <v>8.0399999999999999E-2</v>
       </c>
       <c r="D175" s="4">
         <f>ABS(C175-B175)/B175</f>
-        <v>0.44889357218124354</v>
+        <v>0.15279241306638566</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8387,11 +8614,11 @@
         <v>4.405E-5</v>
       </c>
       <c r="C176" s="3">
-        <v>7.3709999999999997E-5</v>
+        <v>6.9560000000000005E-5</v>
       </c>
       <c r="D176" s="4">
         <f>ABS(C176-B176)/B176</f>
-        <v>0.67332576617480133</v>
+        <v>0.57911464245175948</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8402,11 +8629,11 @@
         <v>2.8299999999999999E-4</v>
       </c>
       <c r="C177" s="3">
-        <v>4.9069999999999995E-4</v>
+        <v>3.0820000000000001E-4</v>
       </c>
       <c r="D177" s="4">
         <f>ABS(C177-B177)/B177</f>
-        <v>0.73392226148409878</v>
+        <v>8.9045936395759778E-2</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8417,11 +8644,11 @@
         <v>1</v>
       </c>
       <c r="C178">
-        <v>1.0297000000000001</v>
+        <v>0.99480000000000002</v>
       </c>
       <c r="D178" s="4">
         <f t="shared" ref="D178:D179" si="12">ABS(C178-B178)/B178</f>
-        <v>2.970000000000006E-2</v>
+        <v>5.1999999999999824E-3</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8432,11 +8659,11 @@
         <v>1.5</v>
       </c>
       <c r="C179">
-        <v>1.4970000000000001</v>
+        <v>1.4790000000000001</v>
       </c>
       <c r="D179" s="4">
         <f t="shared" si="12"/>
-        <v>1.9999999999999276E-3</v>
+        <v>1.3999999999999938E-2</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8471,7 +8698,7 @@
       <c r="C182" s="15"/>
       <c r="D182" s="16">
         <f>AVERAGE(D159:D181)</f>
-        <v>0.42713444610874268</v>
+        <v>0.23883317759091943</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -13262,6 +13489,3693 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B6A79E-D689-4891-8C33-A91335B010B5}">
+  <dimension ref="A1:E273"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>971000000000</v>
+      </c>
+      <c r="D3" s="4">
+        <f>ABS(C3-B3)/B3</f>
+        <v>0.58504273504273507</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4090</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D20" si="0">ABS(C4-B4)/B4</f>
+        <v>2.7870370370370372</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1041</v>
+      </c>
+      <c r="C5">
+        <v>941.3</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>9.5773294908741632E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9380530973451329</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C7">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.74980694980694984</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>124000</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31491712707182318</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C9">
+        <v>208087</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.08087</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <v>31974.799999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1974800000000001</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.94</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>6.3829787234042618E-2</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0.94</v>
+      </c>
+      <c r="C13">
+        <v>0.94</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C14">
+        <v>1.097</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>2.516025641025641</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84404636459430971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C16">
+        <v>1.7149999999999999E-4</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8933030646992051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7.0770000000000002E-5</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.74992932862190809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1.9239999999999999</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.92399999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>1683</v>
+      </c>
+      <c r="C19">
+        <v>1683</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>1235</v>
+      </c>
+      <c r="C20">
+        <v>1235</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="4">
+        <f>AVERAGE(D3:D20)</f>
+        <v>1.3385796019562517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2140000000000</v>
+      </c>
+      <c r="D24" s="4">
+        <f>ABS(C24-B24)/B24</f>
+        <v>8.5470085470085472E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1099.9000000000001</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25:D41" si="1">ABS(C25-B25)/B25</f>
+        <v>1.8425925925926009E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>1041</v>
+      </c>
+      <c r="C26">
+        <v>895.53</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="1"/>
+        <v>0.13974063400576373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C27">
+        <v>4.446E-2</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6371681415929151E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.61529999999999996</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3756756756756754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C29" s="3">
+        <v>180000</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="1"/>
+        <v>5.5248618784530384E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C30">
+        <v>101756.6</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7566000000000057E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C31">
+        <v>39500.699999999997</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="1"/>
+        <v>2.9500699999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="C32">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>0.94</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" ref="D33:D42" si="2">ABS(C33-B33)/B33</f>
+        <v>1.0638297872340436E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>0.94</v>
+      </c>
+      <c r="C34">
+        <v>0.94</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C35">
+        <v>0.30869999999999997</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" ref="D35:D42" si="3">ABS(C35-B35)/B35</f>
+        <v>1.0576923076923157E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C36">
+        <v>2.76E-2</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="3"/>
+        <v>0.70916754478398314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6.3689999999999995E-5</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="3"/>
+        <v>0.44585698070374563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3.9800000000000002E-4</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="3"/>
+        <v>0.40636042402826866</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="3"/>
+        <v>1.5599999999999947E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>1683</v>
+      </c>
+      <c r="C40">
+        <v>1683</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <v>1235</v>
+      </c>
+      <c r="C41">
+        <v>1235</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="4">
+        <f>AVERAGE(D24:D41)</f>
+        <v>0.44336035963122095</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+    </row>
+    <row r="44" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3080000000000</v>
+      </c>
+      <c r="D45" s="4">
+        <f>ABS(C45-B45)/B45</f>
+        <v>0.31623931623931623</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1038.5999999999999</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" ref="D46:D62" si="4">ABS(C46-B46)/B46</f>
+        <v>3.8333333333333421E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>1041</v>
+      </c>
+      <c r="C47">
+        <v>927</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="4"/>
+        <v>0.10951008645533142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C48">
+        <v>0.1484</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="4"/>
+        <v>2.283185840707965</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C49">
+        <v>0.45090000000000002</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="4"/>
+        <v>0.74092664092664096</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C50" s="3">
+        <v>182000</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="4"/>
+        <v>5.5248618784530384E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C51">
+        <v>100813</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="4"/>
+        <v>8.1300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C52">
+        <v>39430</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="4"/>
+        <v>2.9430000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="C53">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>0.94</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.9425</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" ref="D54:D63" si="5">ABS(C54-B54)/B54</f>
+        <v>2.6595744680851679E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>0.94</v>
+      </c>
+      <c r="C55">
+        <v>0.94</v>
+      </c>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C56">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" ref="D56:D63" si="6">ABS(C56-B56)/B56</f>
+        <v>4.1666666666666706E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C57">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" si="6"/>
+        <v>0.36354056902002102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C58" s="3">
+        <v>7.6470000000000005E-5</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="6"/>
+        <v>0.73598183881952339</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3.366E-4</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="6"/>
+        <v>0.1893992932862191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" si="6"/>
+        <v>6.9999999999998952E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61">
+        <v>1683</v>
+      </c>
+      <c r="C61">
+        <v>1683</v>
+      </c>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62">
+        <v>1235</v>
+      </c>
+      <c r="C62">
+        <v>1235</v>
+      </c>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="4">
+        <f>AVERAGE(D45:D62)</f>
+        <v>0.55607843012868252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+    </row>
+    <row r="65" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2570000000000</v>
+      </c>
+      <c r="D66" s="4">
+        <f>ABS(C66-B66)/B66</f>
+        <v>9.8290598290598288E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1065</v>
+      </c>
+      <c r="D67" s="4">
+        <f t="shared" ref="D67:D83" si="7">ABS(C67-B67)/B67</f>
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68">
+        <v>1041</v>
+      </c>
+      <c r="C68">
+        <v>952.58</v>
+      </c>
+      <c r="D68" s="4">
+        <f t="shared" si="7"/>
+        <v>8.493756003842455E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C69">
+        <v>7.9890000000000003E-2</v>
+      </c>
+      <c r="D69" s="4">
+        <f t="shared" si="7"/>
+        <v>0.76747787610619489</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C70">
+        <v>0.374</v>
+      </c>
+      <c r="D70" s="4">
+        <f t="shared" si="7"/>
+        <v>0.44401544401544396</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C71" s="3">
+        <v>181000</v>
+      </c>
+      <c r="D71" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C72">
+        <v>100200</v>
+      </c>
+      <c r="D72" s="4">
+        <f t="shared" si="7"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C73">
+        <v>15892.97</v>
+      </c>
+      <c r="D73" s="4">
+        <f t="shared" si="7"/>
+        <v>0.58929699999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75">
+        <v>0.94</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="D75" s="4">
+        <f t="shared" ref="D75:D84" si="8">ABS(C75-B75)/B75</f>
+        <v>8.5106382978725843E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76">
+        <v>0.94</v>
+      </c>
+      <c r="C76">
+        <v>0.94</v>
+      </c>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C77">
+        <v>0.309</v>
+      </c>
+      <c r="D77" s="4">
+        <f t="shared" ref="D77:D84" si="9">ABS(C77-B77)/B77</f>
+        <v>9.6153846153846246E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C78">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="D78" s="4">
+        <f t="shared" si="9"/>
+        <v>6.6385669125395161E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C79" s="3">
+        <v>5.1659999999999997E-5</v>
+      </c>
+      <c r="D79" s="4">
+        <f t="shared" si="9"/>
+        <v>0.17275822928490345</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C80" s="3">
+        <v>2.9169999999999999E-4</v>
+      </c>
+      <c r="D80" s="4">
+        <f t="shared" si="9"/>
+        <v>3.0742049469964648E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1.0056</v>
+      </c>
+      <c r="D81" s="4">
+        <f t="shared" si="9"/>
+        <v>5.6000000000000494E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82">
+        <v>1683</v>
+      </c>
+      <c r="C82">
+        <v>1683</v>
+      </c>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83">
+        <v>1235</v>
+      </c>
+      <c r="C83">
+        <v>1235</v>
+      </c>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" s="4">
+        <f>AVERAGE(D66:D83)</f>
+        <v>0.16327569740464185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+    </row>
+    <row r="86" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C87" s="3">
+        <v>4400000000000</v>
+      </c>
+      <c r="D87" s="4">
+        <f>ABS(C87-B87)/B87</f>
+        <v>0.88034188034188032</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1077.82</v>
+      </c>
+      <c r="D88" s="4">
+        <f t="shared" ref="D88:D104" si="10">ABS(C88-B88)/B88</f>
+        <v>2.0185185185185774E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89">
+        <v>1041</v>
+      </c>
+      <c r="C89">
+        <v>1009.6</v>
+      </c>
+      <c r="D89" s="4">
+        <f t="shared" si="10"/>
+        <v>3.0163304514889508E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C90">
+        <v>5.2049999999999999E-2</v>
+      </c>
+      <c r="D90" s="4">
+        <f t="shared" si="10"/>
+        <v>0.15154867256637172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C91">
+        <v>0.28289999999999998</v>
+      </c>
+      <c r="D91" s="4">
+        <f t="shared" si="10"/>
+        <v>9.2277992277992188E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C92" s="3">
+        <v>184000</v>
+      </c>
+      <c r="D92" s="4">
+        <f t="shared" si="10"/>
+        <v>1.6574585635359115E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B93" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C93">
+        <v>99563</v>
+      </c>
+      <c r="D93" s="4">
+        <f t="shared" si="10"/>
+        <v>4.3699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C94">
+        <v>12010</v>
+      </c>
+      <c r="D94" s="4">
+        <f t="shared" si="10"/>
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96">
+        <v>0.94</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="D96" s="4">
+        <f t="shared" ref="D96:D105" si="11">ABS(C96-B96)/B96</f>
+        <v>1.3829787234043392E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97">
+        <v>0.94</v>
+      </c>
+      <c r="C97">
+        <v>0.94</v>
+      </c>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C98">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="D98" s="4">
+        <f t="shared" ref="D98:D105" si="12">ABS(C98-B98)/B98</f>
+        <v>1.5064102564102507E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C99">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D99" s="4">
+        <f t="shared" si="12"/>
+        <v>0.51738672286617482</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C100" s="3">
+        <v>3.1934000000000003E-5</v>
+      </c>
+      <c r="D100" s="4">
+        <f t="shared" si="12"/>
+        <v>0.27505107832009074</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C101" s="3">
+        <v>2.018E-4</v>
+      </c>
+      <c r="D101" s="4">
+        <f t="shared" si="12"/>
+        <v>0.28692579505300353</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1.0138</v>
+      </c>
+      <c r="D102" s="4">
+        <f t="shared" si="12"/>
+        <v>1.3800000000000034E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103">
+        <v>1683</v>
+      </c>
+      <c r="C103">
+        <v>1683</v>
+      </c>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104">
+        <v>1235</v>
+      </c>
+      <c r="C104">
+        <v>1235</v>
+      </c>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D105" s="4">
+        <f>AVERAGE(D87:D104)</f>
+        <v>0.1777075450986991</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+    </row>
+    <row r="107" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B108" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C108" s="3">
+        <v>2020000000000</v>
+      </c>
+      <c r="D108" s="4">
+        <f>ABS(C108-B108)/B108</f>
+        <v>0.13675213675213677</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1068.97</v>
+      </c>
+      <c r="D109" s="4">
+        <f t="shared" ref="D109:D125" si="13">ABS(C109-B109)/B109</f>
+        <v>1.0212962962962938E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110">
+        <v>1041</v>
+      </c>
+      <c r="C110">
+        <v>920.9</v>
+      </c>
+      <c r="D110" s="4">
+        <f t="shared" si="13"/>
+        <v>0.11536983669548513</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C111">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="D111" s="4">
+        <f t="shared" si="13"/>
+        <v>0.57743362831858425</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C112">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="D112" s="4">
+        <f t="shared" si="13"/>
+        <v>0.63706563706563701</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B113" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C113" s="3">
+        <v>180000</v>
+      </c>
+      <c r="D113" s="4">
+        <f t="shared" si="13"/>
+        <v>5.5248618784530384E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B114" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C114">
+        <v>100492</v>
+      </c>
+      <c r="D114" s="4">
+        <f t="shared" si="13"/>
+        <v>4.9199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C115">
+        <v>17717.7</v>
+      </c>
+      <c r="D115" s="4">
+        <f t="shared" si="13"/>
+        <v>0.77177000000000007</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117">
+        <v>0.94</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="D117" s="4">
+        <f t="shared" ref="D117:D126" si="14">ABS(C117-B117)/B117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118">
+        <v>0.94</v>
+      </c>
+      <c r="C118">
+        <v>0.94</v>
+      </c>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C119">
+        <v>0.31186000000000003</v>
+      </c>
+      <c r="D119" s="4">
+        <f t="shared" ref="D119:D126" si="15">ABS(C119-B119)/B119</f>
+        <v>4.4871794871786372E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C120">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="D120" s="4">
+        <f t="shared" si="15"/>
+        <v>0.49420442571127515</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C121" s="3">
+        <v>4.5030000000000001E-5</v>
+      </c>
+      <c r="D121" s="4">
+        <f t="shared" si="15"/>
+        <v>2.2247446083995478E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C122" s="3">
+        <v>2.1117999999999999E-4</v>
+      </c>
+      <c r="D122" s="4">
+        <f t="shared" si="15"/>
+        <v>0.25378091872791519</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="D123" s="4">
+        <f t="shared" si="15"/>
+        <v>3.2999999999999696E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124">
+        <v>1683</v>
+      </c>
+      <c r="C124">
+        <v>1683</v>
+      </c>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125">
+        <v>1235</v>
+      </c>
+      <c r="C125">
+        <v>1235</v>
+      </c>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D126" s="4">
+        <f>AVERAGE(D108:D125)</f>
+        <v>0.21664504086751163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+    </row>
+    <row r="128" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C129" s="3">
+        <v>2130000000000</v>
+      </c>
+      <c r="D129" s="4">
+        <f>ABS(C129-B129)/B129</f>
+        <v>8.9743589743589744E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C130" s="3">
+        <v>181000</v>
+      </c>
+      <c r="D130" s="4">
+        <f t="shared" ref="D130:D140" si="16">ABS(C130-B130)/B130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="D131" s="4">
+        <f t="shared" si="16"/>
+        <v>5.3999999999999604E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C132">
+        <v>99015</v>
+      </c>
+      <c r="D132" s="4">
+        <f t="shared" si="16"/>
+        <v>9.8499999999999994E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C133">
+        <v>0.316</v>
+      </c>
+      <c r="D133" s="4">
+        <f t="shared" si="16"/>
+        <v>1.2820512820512832E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C134" s="3">
+        <v>3.8099999999999998E-5</v>
+      </c>
+      <c r="D134" s="4">
+        <f t="shared" si="16"/>
+        <v>0.13507377979568677</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C135">
+        <v>1080.5440000000001</v>
+      </c>
+      <c r="D135" s="4">
+        <f t="shared" si="16"/>
+        <v>5.0370370370379292E-4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C136">
+        <v>6.386E-2</v>
+      </c>
+      <c r="D136" s="4">
+        <f t="shared" si="16"/>
+        <v>0.41283185840707975</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C137">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="D137" s="4">
+        <f t="shared" si="16"/>
+        <v>0.72391991570073755</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C138">
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="D138" s="4">
+        <f t="shared" si="16"/>
+        <v>0.32508833922261487</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139">
+        <v>1041</v>
+      </c>
+      <c r="C139">
+        <v>960.74</v>
+      </c>
+      <c r="D139" s="4">
+        <f t="shared" si="16"/>
+        <v>7.7098943323727173E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C140">
+        <v>0.37619999999999998</v>
+      </c>
+      <c r="D140" s="4">
+        <f t="shared" si="16"/>
+        <v>0.45250965250965236</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141">
+        <v>1683</v>
+      </c>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142">
+        <v>1235</v>
+      </c>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143">
+        <v>0.94</v>
+      </c>
+      <c r="C143">
+        <v>0.9466</v>
+      </c>
+      <c r="D143" s="4">
+        <f t="shared" ref="D143" si="17">ABS(C143-B143)/B143</f>
+        <v>7.0212765957447347E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144">
+        <v>0.94</v>
+      </c>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B145">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C146">
+        <v>13027</v>
+      </c>
+      <c r="D146" s="4">
+        <f>ABS(C146-B146)/B146</f>
+        <v>0.30270000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D147" s="4">
+        <f>AVERAGE(D129:D146)</f>
+        <v>0.18246868370164643</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+    </row>
+    <row r="149" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B150" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C150" s="3">
+        <v>2570000000000</v>
+      </c>
+      <c r="D150" s="4">
+        <f>ABS(C150-B150)/B150</f>
+        <v>9.8290598290598288E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C151" s="3">
+        <v>1070.836</v>
+      </c>
+      <c r="D151" s="4">
+        <f t="shared" ref="D151:D167" si="18">ABS(C151-B151)/B151</f>
+        <v>8.4851851851851737E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152">
+        <v>1041</v>
+      </c>
+      <c r="C152">
+        <v>1191.8</v>
+      </c>
+      <c r="D152" s="4">
+        <f t="shared" si="18"/>
+        <v>0.14486071085494712</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C153">
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="D153" s="4">
+        <f t="shared" si="18"/>
+        <v>1.9734513274336285</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C154">
+        <v>9.8997000000000002E-2</v>
+      </c>
+      <c r="D154" s="4">
+        <f t="shared" si="18"/>
+        <v>0.61777220077220074</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B155" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C155" s="3">
+        <v>181000</v>
+      </c>
+      <c r="D155" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B156" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C156">
+        <v>101833.57</v>
+      </c>
+      <c r="D156" s="4">
+        <f t="shared" si="18"/>
+        <v>1.8335700000000069E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B157" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C157">
+        <v>31897</v>
+      </c>
+      <c r="D157" s="4">
+        <f t="shared" si="18"/>
+        <v>2.1897000000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B158">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159">
+        <v>0.94</v>
+      </c>
+      <c r="C159" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="D159" s="4">
+        <f t="shared" ref="D159:D168" si="19">ABS(C159-B159)/B159</f>
+        <v>2.1276595744680871E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B160">
+        <v>0.94</v>
+      </c>
+      <c r="C160">
+        <v>0.94</v>
+      </c>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C161">
+        <v>0.29820000000000002</v>
+      </c>
+      <c r="D161" s="4">
+        <f t="shared" ref="D161:D168" si="20">ABS(C161-B161)/B161</f>
+        <v>4.4230769230769164E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C162">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="D162" s="4">
+        <f t="shared" si="20"/>
+        <v>0.59536354056902008</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C163" s="3">
+        <v>9.6520000000000004E-5</v>
+      </c>
+      <c r="D163" s="4">
+        <f t="shared" si="20"/>
+        <v>1.1911464245175938</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C164" s="3">
+        <v>3.79E-4</v>
+      </c>
+      <c r="D164" s="4">
+        <f t="shared" si="20"/>
+        <v>0.33922261484098942</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="D165" s="4">
+        <f t="shared" si="20"/>
+        <v>2.1999999999999797E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166">
+        <v>1683</v>
+      </c>
+      <c r="C166">
+        <v>1683</v>
+      </c>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167">
+        <v>1235</v>
+      </c>
+      <c r="C167">
+        <v>1235</v>
+      </c>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D168" s="4">
+        <f>AVERAGE(D150:D167)</f>
+        <v>0.51745254767425808</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B169" s="21"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="21"/>
+    </row>
+    <row r="170" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C171" s="3">
+        <v>4320000000000</v>
+      </c>
+      <c r="D171" s="4">
+        <f>ABS(C171-B171)/B171</f>
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B172" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C172" s="3">
+        <v>177000</v>
+      </c>
+      <c r="D172" s="4">
+        <f t="shared" ref="D172:D182" si="21">ABS(C172-B172)/B172</f>
+        <v>2.2099447513812154E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="D173" s="4">
+        <f t="shared" si="21"/>
+        <v>5.6300000000000017E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C174">
+        <v>125218.6</v>
+      </c>
+      <c r="D174" s="4">
+        <f t="shared" si="21"/>
+        <v>0.25218600000000008</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C175">
+        <v>0.20830000000000001</v>
+      </c>
+      <c r="D175" s="4">
+        <f t="shared" si="21"/>
+        <v>0.33237179487179486</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1.75E-4</v>
+      </c>
+      <c r="D176" s="4">
+        <f t="shared" si="21"/>
+        <v>2.9727582292849037</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C177">
+        <v>1054.08</v>
+      </c>
+      <c r="D177" s="4">
+        <f t="shared" si="21"/>
+        <v>2.4000000000000066E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C178">
+        <v>4.07E-2</v>
+      </c>
+      <c r="D178" s="4">
+        <f t="shared" si="21"/>
+        <v>9.9557522123893752E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C179">
+        <v>0.09</v>
+      </c>
+      <c r="D179" s="4">
+        <f t="shared" si="21"/>
+        <v>5.1633298208640689E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C180">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="D180" s="4">
+        <f t="shared" si="21"/>
+        <v>0.97879858657243801</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181">
+        <v>1041</v>
+      </c>
+      <c r="C181">
+        <v>2525.67</v>
+      </c>
+      <c r="D181" s="4">
+        <f t="shared" si="21"/>
+        <v>1.4261959654178675</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C182">
+        <v>0.7298</v>
+      </c>
+      <c r="D182" s="4">
+        <f t="shared" si="21"/>
+        <v>1.8177606177606176</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183">
+        <v>1683</v>
+      </c>
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184">
+        <v>1235</v>
+      </c>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185">
+        <v>0.94</v>
+      </c>
+      <c r="C185">
+        <v>0.80740000000000001</v>
+      </c>
+      <c r="D185" s="4">
+        <f t="shared" ref="D185" si="22">ABS(C185-B185)/B185</f>
+        <v>0.14106382978723397</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B186">
+        <v>0.94</v>
+      </c>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B187">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B188" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C188">
+        <v>13051</v>
+      </c>
+      <c r="D188" s="4">
+        <f>ABS(C188-B188)/B188</f>
+        <v>0.30509999999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D189" s="4">
+        <f>AVERAGE(D171:D188)</f>
+        <v>0.66614136697821758</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B190" s="21"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="21"/>
+    </row>
+    <row r="191" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C192" s="3">
+        <v>2760000000000</v>
+      </c>
+      <c r="D192" s="4">
+        <f>ABS(C192-B192)/B192</f>
+        <v>0.17948717948717949</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B193" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C193" s="3">
+        <v>182000</v>
+      </c>
+      <c r="D193" s="4">
+        <f t="shared" ref="D193:D203" si="23">ABS(C193-B193)/B193</f>
+        <v>5.5248618784530384E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>0.995</v>
+      </c>
+      <c r="D194" s="4">
+        <f t="shared" si="23"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C195">
+        <v>101867.34</v>
+      </c>
+      <c r="D195" s="4">
+        <f t="shared" si="23"/>
+        <v>1.8673399999999965E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C196">
+        <v>0.30370000000000003</v>
+      </c>
+      <c r="D196" s="4">
+        <f t="shared" si="23"/>
+        <v>2.6602564102564018E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C197" s="3">
+        <v>3.5120000000000003E-5</v>
+      </c>
+      <c r="D197" s="4">
+        <f t="shared" si="23"/>
+        <v>0.20272417707150958</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C198">
+        <v>1042.5</v>
+      </c>
+      <c r="D198" s="4">
+        <f t="shared" si="23"/>
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C199">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="D199" s="4">
+        <f t="shared" si="23"/>
+        <v>3.7610619469026552E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C200">
+        <v>0.245</v>
+      </c>
+      <c r="D200" s="4">
+        <f t="shared" si="23"/>
+        <v>1.5816649104320339</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C201" s="3">
+        <v>7.1559999999999999E-5</v>
+      </c>
+      <c r="D201" s="4">
+        <f t="shared" si="23"/>
+        <v>0.74713780918727912</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B202">
+        <v>1041</v>
+      </c>
+      <c r="C202">
+        <v>1134.6400000000001</v>
+      </c>
+      <c r="D202" s="4">
+        <f t="shared" si="23"/>
+        <v>8.9951969260326711E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B203" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C203">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D203" s="4">
+        <f t="shared" si="23"/>
+        <v>0.54826254826254828</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204">
+        <v>1683</v>
+      </c>
+      <c r="D204" s="4"/>
+    </row>
+    <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B205">
+        <v>1235</v>
+      </c>
+      <c r="D205" s="4"/>
+    </row>
+    <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206">
+        <v>0.94</v>
+      </c>
+      <c r="C206">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="D206" s="4">
+        <f t="shared" ref="D206" si="24">ABS(C206-B206)/B206</f>
+        <v>2.4680851063829785E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B207">
+        <v>0.94</v>
+      </c>
+      <c r="D207" s="4"/>
+    </row>
+    <row r="208" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B208">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D208" s="4"/>
+    </row>
+    <row r="209" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C209">
+        <v>20605.599999999999</v>
+      </c>
+      <c r="D209" s="4">
+        <f>ABS(C209-B209)/B209</f>
+        <v>1.0605599999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D210" s="4">
+        <f>AVERAGE(D192:D209)</f>
+        <v>0.32590022231692661</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B211" s="21"/>
+      <c r="C211" s="21"/>
+      <c r="D211" s="21"/>
+    </row>
+    <row r="212" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B213" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C213" s="3">
+        <v>2790000000000</v>
+      </c>
+      <c r="D213" s="4">
+        <f>ABS(C213-B213)/B213</f>
+        <v>0.19230769230769232</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B214" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C214" s="3">
+        <v>182000</v>
+      </c>
+      <c r="D214" s="4">
+        <f t="shared" ref="D214:D224" si="25">ABS(C214-B214)/B214</f>
+        <v>5.5248618784530384E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>1.0098</v>
+      </c>
+      <c r="D215" s="4">
+        <f t="shared" si="25"/>
+        <v>9.8000000000000309E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C216">
+        <v>99213.5</v>
+      </c>
+      <c r="D216" s="4">
+        <f t="shared" si="25"/>
+        <v>7.8650000000000005E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C217">
+        <v>0.3125</v>
+      </c>
+      <c r="D217" s="4">
+        <f t="shared" si="25"/>
+        <v>1.602564102564104E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C218" s="3">
+        <v>4.1539999999999999E-5</v>
+      </c>
+      <c r="D218" s="4">
+        <f t="shared" si="25"/>
+        <v>5.6980703745743502E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C219">
+        <v>1028.5999999999999</v>
+      </c>
+      <c r="D219" s="4">
+        <f t="shared" si="25"/>
+        <v>4.7592592592592679E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C220">
+        <v>0.13730000000000001</v>
+      </c>
+      <c r="D220" s="4">
+        <f t="shared" si="25"/>
+        <v>2.0376106194690271</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B221">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C221">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="D221" s="4">
+        <f t="shared" si="25"/>
+        <v>0.7502634351949421</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C222">
+        <v>3.8699999999999997E-4</v>
+      </c>
+      <c r="D222" s="4">
+        <f t="shared" si="25"/>
+        <v>0.36749116607773846</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B223">
+        <v>1041</v>
+      </c>
+      <c r="C223">
+        <v>1130.45</v>
+      </c>
+      <c r="D223" s="4">
+        <f t="shared" si="25"/>
+        <v>8.5926993275696487E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B224" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C224">
+        <v>0.12565000000000001</v>
+      </c>
+      <c r="D224" s="4">
+        <f t="shared" si="25"/>
+        <v>0.51486486486486482</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B225">
+        <v>1683</v>
+      </c>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226">
+        <v>1235</v>
+      </c>
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B227">
+        <v>0.94</v>
+      </c>
+      <c r="C227">
+        <v>0.9355</v>
+      </c>
+      <c r="D227" s="4">
+        <f t="shared" ref="D227" si="26">ABS(C227-B227)/B227</f>
+        <v>4.7872340425531368E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B228">
+        <v>0.94</v>
+      </c>
+      <c r="D228" s="4"/>
+    </row>
+    <row r="229" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B229">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D229" s="4"/>
+    </row>
+    <row r="230" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B230" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C230">
+        <v>10219.5</v>
+      </c>
+      <c r="D230" s="4">
+        <f>ABS(C230-B230)/B230</f>
+        <v>2.1950000000000001E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D231" s="4">
+        <f>AVERAGE(D213:D230)</f>
+        <v>0.29318340911084773</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B232" s="21"/>
+      <c r="C232" s="21"/>
+      <c r="D232" s="21"/>
+    </row>
+    <row r="233" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B234" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C234" s="3"/>
+      <c r="D234" s="4">
+        <f>ABS(C234-B234)/B234</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B235" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C235" s="3"/>
+      <c r="D235" s="4">
+        <f t="shared" ref="D235:D245" si="27">ABS(C235-B235)/B235</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="D236" s="4">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D237" s="4">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="D238" s="4">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C239" s="3"/>
+      <c r="D239" s="4">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240" s="5">
+        <v>1080</v>
+      </c>
+      <c r="D240" s="4">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="D241" s="4">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B242">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="D242" s="4">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="D243" s="4">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B244">
+        <v>1041</v>
+      </c>
+      <c r="D244" s="4">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B245" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="D245" s="4">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B246">
+        <v>1683</v>
+      </c>
+      <c r="D246" s="4"/>
+    </row>
+    <row r="247" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B247">
+        <v>1235</v>
+      </c>
+      <c r="D247" s="4"/>
+    </row>
+    <row r="248" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B248">
+        <v>0.94</v>
+      </c>
+      <c r="D248" s="4">
+        <f t="shared" ref="D248" si="28">ABS(C248-B248)/B248</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B249">
+        <v>0.94</v>
+      </c>
+      <c r="D249" s="4"/>
+    </row>
+    <row r="250" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B250">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D250" s="4"/>
+    </row>
+    <row r="251" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B251" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D251" s="4">
+        <f>ABS(C251-B251)/B251</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D252" s="4">
+        <f>AVERAGE(D234:D251)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B253" s="21"/>
+      <c r="C253" s="21"/>
+      <c r="D253" s="21"/>
+    </row>
+    <row r="254" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B255" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C255" s="3">
+        <v>2430000000000</v>
+      </c>
+      <c r="D255" s="4">
+        <f>ABS(C255-B255)/B255</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B256" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C256" s="3">
+        <v>1074.1500000000001</v>
+      </c>
+      <c r="D256" s="4">
+        <f t="shared" ref="D256:D272" si="29">ABS(C256-B256)/B256</f>
+        <v>5.4166666666665827E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B257">
+        <v>1041</v>
+      </c>
+      <c r="C257">
+        <v>1118.3</v>
+      </c>
+      <c r="D257" s="4">
+        <f t="shared" si="29"/>
+        <v>7.4255523535062401E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B258" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C258">
+        <v>6.8797999999999998E-2</v>
+      </c>
+      <c r="D258" s="4">
+        <f t="shared" si="29"/>
+        <v>0.52207964601769918</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B259" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C259">
+        <v>0.20219999999999999</v>
+      </c>
+      <c r="D259" s="4">
+        <f t="shared" si="29"/>
+        <v>0.21930501930501936</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B260" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C260" s="3">
+        <v>181000</v>
+      </c>
+      <c r="D260" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B261" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C261">
+        <v>100728</v>
+      </c>
+      <c r="D261" s="4">
+        <f t="shared" si="29"/>
+        <v>7.28E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B262" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C262">
+        <v>10974</v>
+      </c>
+      <c r="D262" s="4">
+        <f t="shared" si="29"/>
+        <v>9.74E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B263">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D263" s="4"/>
+    </row>
+    <row r="264" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B264">
+        <v>0.94</v>
+      </c>
+      <c r="C264" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="D264" s="4">
+        <f t="shared" ref="D264:D273" si="30">ABS(C264-B264)/B264</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B265">
+        <v>0.94</v>
+      </c>
+      <c r="C265">
+        <v>0.94</v>
+      </c>
+      <c r="D265" s="4"/>
+    </row>
+    <row r="266" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C266">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D266" s="4">
+        <f t="shared" ref="D266:D273" si="31">ABS(C266-B266)/B266</f>
+        <v>2.8846153846153872E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B267">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C267">
+        <v>6.93E-2</v>
+      </c>
+      <c r="D267" s="4">
+        <f t="shared" si="31"/>
+        <v>0.2697576396206533</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B268" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C268" s="3">
+        <v>6.3100000000000002E-5</v>
+      </c>
+      <c r="D268" s="4">
+        <f t="shared" si="31"/>
+        <v>0.43246311010215671</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B269" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C269" s="3">
+        <v>3.2539999999999999E-4</v>
+      </c>
+      <c r="D269" s="4">
+        <f t="shared" si="31"/>
+        <v>0.14982332155477032</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="D270" s="4">
+        <f t="shared" si="31"/>
+        <v>3.0999999999999917E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B271">
+        <v>1683</v>
+      </c>
+      <c r="C271">
+        <v>1683</v>
+      </c>
+      <c r="D271" s="4"/>
+    </row>
+    <row r="272" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B272">
+        <v>1235</v>
+      </c>
+      <c r="C272">
+        <v>1235</v>
+      </c>
+      <c r="D272" s="4"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D273" s="4">
+        <f>AVERAGE(D255:D272)</f>
+        <v>0.13201347279355144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A106:D106"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D273"/>
   <sheetViews>
@@ -16862,11 +20776,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A85:D85"/>
     <mergeCell ref="A253:D253"/>
     <mergeCell ref="A211:D211"/>
     <mergeCell ref="A232:D232"/>
@@ -16875,18 +20784,23 @@
     <mergeCell ref="A148:D148"/>
     <mergeCell ref="A169:D169"/>
     <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A85:D85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9014C0-1993-4555-87B8-73D75236443F}">
   <dimension ref="A1:D310"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17367,11 +21281,11 @@
         <v>2340000000000</v>
       </c>
       <c r="C34" s="3">
-        <v>3880000000000</v>
+        <v>2800000000000</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" ref="D34:D51" si="1">ABS(C34-B34)/B34</f>
-        <v>0.65811965811965811</v>
+        <v>0.19658119658119658</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17382,11 +21296,11 @@
         <v>75000000000000</v>
       </c>
       <c r="C35" s="3">
-        <v>99500000000000</v>
+        <v>44200000000000</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" si="1"/>
-        <v>0.32666666666666666</v>
+        <v>0.41066666666666668</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17397,11 +21311,11 @@
         <v>9200000000000</v>
       </c>
       <c r="C36" s="3">
-        <v>13200000000000</v>
+        <v>15700000000000</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" si="1"/>
-        <v>0.43478260869565216</v>
+        <v>0.70652173913043481</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17412,11 +21326,11 @@
         <v>1080</v>
       </c>
       <c r="C37">
-        <v>1506.78</v>
+        <v>1030</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" si="1"/>
-        <v>0.39516666666666667</v>
+        <v>4.6296296296296294E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17427,11 +21341,11 @@
         <v>1041</v>
       </c>
       <c r="C38">
-        <v>2638.3</v>
+        <v>2216</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" si="1"/>
-        <v>1.534390009606148</v>
+        <v>1.1287223823246877</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -17442,11 +21356,11 @@
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="C39">
-        <v>9.2939999999999995E-2</v>
+        <v>0.12265</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" si="1"/>
-        <v>1.0561946902654868</v>
+        <v>1.7134955752212389</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -17457,11 +21371,11 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="C40">
-        <v>0.54369999999999996</v>
+        <v>0.77070000000000005</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" si="1"/>
-        <v>1.099227799227799</v>
+        <v>1.9756756756756757</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17472,11 +21386,11 @@
         <v>181000</v>
       </c>
       <c r="C41" s="3">
-        <v>156000</v>
+        <v>723000</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" si="1"/>
-        <v>0.13812154696132597</v>
+        <v>2.9944751381215471</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17487,11 +21401,11 @@
         <v>193000</v>
       </c>
       <c r="C42" s="3">
-        <v>149000</v>
+        <v>182000</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" si="1"/>
-        <v>0.22797927461139897</v>
+        <v>5.6994818652849742E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17502,11 +21416,11 @@
         <v>175000</v>
       </c>
       <c r="C43" s="3">
-        <v>285000</v>
+        <v>270000</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" si="1"/>
-        <v>0.62857142857142856</v>
+        <v>0.54285714285714282</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17517,11 +21431,11 @@
         <v>100000</v>
       </c>
       <c r="C44">
-        <v>272682.03999999998</v>
+        <v>300080.5</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="1"/>
-        <v>1.7268203999999998</v>
+        <v>2.0008050000000002</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17532,11 +21446,11 @@
         <v>200000</v>
       </c>
       <c r="C45">
-        <v>473951.8</v>
+        <v>316339</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" si="1"/>
-        <v>1.3697589999999999</v>
+        <v>0.58169499999999996</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17547,11 +21461,11 @@
         <v>400000</v>
       </c>
       <c r="C46">
-        <v>831263.9</v>
+        <v>958389</v>
       </c>
       <c r="D46" s="4">
         <f t="shared" si="1"/>
-        <v>1.07815975</v>
+        <v>1.3959725000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17562,11 +21476,11 @@
         <v>10000</v>
       </c>
       <c r="C47">
-        <v>19298.599999999999</v>
+        <v>15415</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" si="1"/>
-        <v>0.92985999999999991</v>
+        <v>0.54149999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17577,11 +21491,11 @@
         <v>0.75</v>
       </c>
       <c r="C48">
-        <v>0.498</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="D48" s="4">
         <f t="shared" si="1"/>
-        <v>0.33600000000000002</v>
+        <v>6.1333333333333385E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17592,11 +21506,11 @@
         <v>0.5</v>
       </c>
       <c r="C49">
-        <v>0.437</v>
+        <v>0.44269999999999998</v>
       </c>
       <c r="D49" s="4">
         <f t="shared" si="1"/>
-        <v>0.126</v>
+        <v>0.11460000000000004</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17607,11 +21521,11 @@
         <v>0.3</v>
       </c>
       <c r="C50">
-        <v>0.48899999999999999</v>
+        <v>0.40179999999999999</v>
       </c>
       <c r="D50" s="4">
         <f t="shared" si="1"/>
-        <v>0.63</v>
+        <v>0.33933333333333338</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17622,11 +21536,11 @@
         <v>0.94</v>
       </c>
       <c r="C51">
-        <v>0.70499999999999996</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>3.1914893617021305E-3</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17646,11 +21560,11 @@
         <v>0.312</v>
       </c>
       <c r="C53">
-        <v>0.40600000000000003</v>
+        <v>0.28960000000000002</v>
       </c>
       <c r="D53" s="4">
         <f>ABS(C53-B53)/B53</f>
-        <v>0.30128205128205138</v>
+        <v>7.179487179487172E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17661,11 +21575,11 @@
         <v>9.4899999999999998E-2</v>
       </c>
       <c r="C54">
-        <v>0.16700000000000001</v>
+        <v>0.23150000000000001</v>
       </c>
       <c r="D54" s="4">
         <f>ABS(C54-B54)/B54</f>
-        <v>0.7597471022128558</v>
+        <v>1.4394099051633298</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -17676,11 +21590,11 @@
         <v>4.405E-5</v>
       </c>
       <c r="C55" s="3">
-        <v>7.127E-5</v>
+        <v>9.6199999999999994E-5</v>
       </c>
       <c r="D55" s="4">
         <f>ABS(C55-B55)/B55</f>
-        <v>0.61793416572077187</v>
+        <v>1.1838819523269011</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -17691,11 +21605,11 @@
         <v>2.8299999999999999E-4</v>
       </c>
       <c r="C56" s="3">
-        <v>4.7800000000000002E-4</v>
+        <v>3.0528E-4</v>
       </c>
       <c r="D56" s="4">
         <f>ABS(C56-B56)/B56</f>
-        <v>0.68904593639575984</v>
+        <v>7.8727915194346326E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17706,11 +21620,11 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>2.02</v>
+        <v>2.19</v>
       </c>
       <c r="D57" s="4">
         <f t="shared" ref="D57:D59" si="2">ABS(C57-B57)/B57</f>
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17721,11 +21635,11 @@
         <v>1.5</v>
       </c>
       <c r="C58">
-        <v>2.7</v>
+        <v>1.0488999999999999</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" si="2"/>
-        <v>0.80000000000000016</v>
+        <v>0.30073333333333335</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17736,11 +21650,11 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>7.29</v>
+        <v>7.6980000000000004</v>
       </c>
       <c r="D59" s="4">
         <f t="shared" si="2"/>
-        <v>1.43</v>
+        <v>1.5660000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17775,7 +21689,7 @@
       <c r="C62" s="15"/>
       <c r="D62" s="16">
         <f>AVERAGE(D34:D61)</f>
-        <v>0.74255315020014678</v>
+        <v>0.82565061061475542</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17808,11 +21722,11 @@
         <v>2340000000000</v>
       </c>
       <c r="C65" s="3">
-        <v>2110000000000</v>
+        <v>2340000000000</v>
       </c>
       <c r="D65" s="4">
         <f t="shared" ref="D65:D82" si="3">ABS(C65-B65)/B65</f>
-        <v>9.8290598290598288E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17823,11 +21737,11 @@
         <v>75000000000000</v>
       </c>
       <c r="C66" s="3">
-        <v>69700000000000</v>
+        <v>73500000000000</v>
       </c>
       <c r="D66" s="4">
         <f t="shared" si="3"/>
-        <v>7.0666666666666669E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17838,11 +21752,11 @@
         <v>9200000000000</v>
       </c>
       <c r="C67" s="3">
-        <v>9450000000000</v>
+        <v>9580000000000</v>
       </c>
       <c r="D67" s="4">
         <f t="shared" si="3"/>
-        <v>2.717391304347826E-2</v>
+        <v>4.1304347826086954E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17853,11 +21767,11 @@
         <v>1080</v>
       </c>
       <c r="C68">
-        <v>1049.1400000000001</v>
+        <v>1064.9000000000001</v>
       </c>
       <c r="D68" s="4">
         <f t="shared" si="3"/>
-        <v>2.8574074074073981E-2</v>
+        <v>1.3981481481481397E-2</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17868,11 +21782,11 @@
         <v>1041</v>
       </c>
       <c r="C69">
-        <v>745.76</v>
+        <v>824.48</v>
       </c>
       <c r="D69" s="4">
         <f t="shared" si="3"/>
-        <v>0.28361191162343902</v>
+        <v>0.20799231508165225</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -17883,11 +21797,11 @@
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="C70">
-        <v>0.1036</v>
+        <v>9.4670000000000004E-2</v>
       </c>
       <c r="D70" s="4">
         <f t="shared" si="3"/>
-        <v>1.2920353982300885</v>
+        <v>1.0944690265486727</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -17898,11 +21812,11 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="C71">
-        <v>0.12670000000000001</v>
+        <v>0.22844</v>
       </c>
       <c r="D71" s="4">
         <f t="shared" si="3"/>
-        <v>0.51081081081081081</v>
+        <v>0.117992277992278</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17913,11 +21827,11 @@
         <v>181000</v>
       </c>
       <c r="C72" s="3">
-        <v>187000</v>
+        <v>181000</v>
       </c>
       <c r="D72" s="4">
         <f t="shared" si="3"/>
-        <v>3.3149171270718231E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17928,11 +21842,11 @@
         <v>193000</v>
       </c>
       <c r="C73" s="3">
-        <v>189000</v>
+        <v>190000</v>
       </c>
       <c r="D73" s="4">
         <f t="shared" si="3"/>
-        <v>2.072538860103627E-2</v>
+        <v>1.5544041450777202E-2</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17943,11 +21857,11 @@
         <v>175000</v>
       </c>
       <c r="C74" s="3">
-        <v>176000</v>
+        <v>175000</v>
       </c>
       <c r="D74" s="4">
         <f t="shared" si="3"/>
-        <v>5.7142857142857143E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17958,11 +21872,11 @@
         <v>100000</v>
       </c>
       <c r="C75">
-        <v>399427.9</v>
+        <v>198872</v>
       </c>
       <c r="D75" s="4">
         <f t="shared" si="3"/>
-        <v>2.9942790000000001</v>
+        <v>0.98872000000000004</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17973,11 +21887,11 @@
         <v>200000</v>
       </c>
       <c r="C76">
-        <v>228391.78</v>
+        <v>218915.3</v>
       </c>
       <c r="D76" s="4">
         <f t="shared" si="3"/>
-        <v>0.1419589</v>
+        <v>9.4576499999999938E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17988,11 +21902,11 @@
         <v>400000</v>
       </c>
       <c r="C77">
-        <v>390347.54</v>
+        <v>401307.65</v>
       </c>
       <c r="D77" s="4">
         <f t="shared" si="3"/>
-        <v>2.4131150000000053E-2</v>
+        <v>3.269125000000058E-3</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18003,11 +21917,11 @@
         <v>10000</v>
       </c>
       <c r="C78">
-        <v>17881.89</v>
+        <v>28818.36</v>
       </c>
       <c r="D78" s="4">
         <f t="shared" si="3"/>
-        <v>0.78818899999999992</v>
+        <v>1.8818360000000001</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18018,11 +21932,11 @@
         <v>0.75</v>
       </c>
       <c r="C79">
-        <v>0.69110000000000005</v>
+        <v>0.71235499999999996</v>
       </c>
       <c r="D79" s="4">
         <f t="shared" si="3"/>
-        <v>7.8533333333333274E-2</v>
+        <v>5.0193333333333388E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18033,11 +21947,11 @@
         <v>0.5</v>
       </c>
       <c r="C80">
-        <v>0.5262</v>
+        <v>0.51559999999999995</v>
       </c>
       <c r="D80" s="4">
         <f t="shared" si="3"/>
-        <v>5.2400000000000002E-2</v>
+        <v>3.1199999999999894E-2</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18048,11 +21962,11 @@
         <v>0.3</v>
       </c>
       <c r="C81">
-        <v>0.29320000000000002</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="D81" s="4">
         <f t="shared" si="3"/>
-        <v>2.2666666666666578E-2</v>
+        <v>1.6666666666666684E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18063,11 +21977,11 @@
         <v>0.94</v>
       </c>
       <c r="C82">
-        <v>0.93230000000000002</v>
+        <v>0.92820000000000003</v>
       </c>
       <c r="D82" s="4">
         <f t="shared" si="3"/>
-        <v>8.1914893617020534E-3</v>
+        <v>1.2553191489361619E-2</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18087,11 +22001,11 @@
         <v>0.312</v>
       </c>
       <c r="C84">
-        <v>0.30740000000000001</v>
+        <v>0.2984</v>
       </c>
       <c r="D84" s="4">
         <f>ABS(C84-B84)/B84</f>
-        <v>1.4743589743589721E-2</v>
+        <v>4.3589743589743594E-2</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18102,11 +22016,11 @@
         <v>9.4899999999999998E-2</v>
       </c>
       <c r="C85">
-        <v>0.2233</v>
+        <v>9.9970000000000003E-2</v>
       </c>
       <c r="D85" s="4">
         <f>ABS(C85-B85)/B85</f>
-        <v>1.3530031612223394</v>
+        <v>5.3424657534246627E-2</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18117,11 +22031,11 @@
         <v>4.405E-5</v>
       </c>
       <c r="C86" s="3">
-        <v>4.9700000000000002E-5</v>
+        <v>7.5022000000000001E-5</v>
       </c>
       <c r="D86" s="4">
         <f>ABS(C86-B86)/B86</f>
-        <v>0.12826333711691265</v>
+        <v>0.70311010215664016</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18132,11 +22046,11 @@
         <v>2.8299999999999999E-4</v>
       </c>
       <c r="C87" s="3">
-        <v>9.8560000000000005E-5</v>
+        <v>2.7994000000000001E-4</v>
       </c>
       <c r="D87" s="4">
         <f>ABS(C87-B87)/B87</f>
-        <v>0.65173144876325084</v>
+        <v>1.0812720848056494E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18147,11 +22061,11 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>1.036</v>
+        <v>1.0167999999999999</v>
       </c>
       <c r="D88" s="4">
         <f t="shared" ref="D88:D90" si="4">ABS(C88-B88)/B88</f>
-        <v>3.6000000000000032E-2</v>
+        <v>1.6799999999999926E-2</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18162,11 +22076,11 @@
         <v>1.5</v>
       </c>
       <c r="C89">
-        <v>1.476</v>
+        <v>1.5611999999999999</v>
       </c>
       <c r="D89" s="4">
         <f t="shared" si="4"/>
-        <v>1.6000000000000014E-2</v>
+        <v>4.0799999999999947E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18177,11 +22091,11 @@
         <v>3</v>
       </c>
       <c r="C90">
-        <v>3.05</v>
+        <v>3.05558</v>
       </c>
       <c r="D90" s="4">
         <f t="shared" si="4"/>
-        <v>1.6666666666666607E-2</v>
+        <v>1.8526666666666653E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18216,7 +22130,7 @@
       <c r="C93" s="15"/>
       <c r="D93" s="16">
         <f>AVERAGE(D65:D92)</f>
-        <v>0.34790039844798626</v>
+        <v>0.21909448790662656</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21323,7 +25237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D310"/>
   <sheetViews>
@@ -25763,7 +29677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -26066,250 +29980,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>50800000000</v>
-      </c>
-      <c r="C2" s="3">
-        <v>46800000000</v>
-      </c>
-      <c r="D2" s="4">
-        <f>ABS(C2-B2)/B2</f>
-        <v>7.874015748031496E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>157000</v>
-      </c>
-      <c r="C3" s="3">
-        <v>156000</v>
-      </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D18" si="0">ABS(C3-B3)/B3</f>
-        <v>6.369426751592357E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.91</v>
-      </c>
-      <c r="C4">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>2.9670329670329697E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>788000</v>
-      </c>
-      <c r="C5">
-        <v>792470</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>5.6725888324873092E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.249</v>
-      </c>
-      <c r="C6">
-        <v>0.25040000000000001</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>5.6224899598394072E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1886</v>
-      </c>
-      <c r="C8">
-        <v>1898.53</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>6.6436903499469636E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1189.3699999999999</v>
-      </c>
-      <c r="C14">
-        <v>1189.3699999999999</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.8</v>
-      </c>
-      <c r="C16">
-        <v>0.79630000000000001</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>4.6250000000000457E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1000</v>
-      </c>
-      <c r="C18">
-        <v>986.77</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>1.3230000000000018E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="4">
-        <f>AVERAGE(D2:D18)</f>
-        <v>1.8821710380563846E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{72DAC1CA-4E14-45B9-8DBB-103A4A1E4B94}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70B65F6B-D521-460E-9883-CD4A93231C63}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,12 +565,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,6 +578,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -872,7 +872,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,28 +881,28 @@
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -920,7 +920,7 @@
       <c r="E2" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>106</v>
       </c>
       <c r="G2" t="s">
@@ -935,7 +935,7 @@
       <c r="J2" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="20" t="s">
         <v>42</v>
       </c>
     </row>
@@ -955,7 +955,7 @@
       <c r="E3" s="3">
         <v>7.1966616666665399E-5</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="21">
         <v>1</v>
       </c>
       <c r="G3" s="18">
@@ -965,13 +965,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="18">
-        <f>AVERAGE(F3:H3)</f>
+        <f t="shared" ref="I3:I11" si="0">AVERAGE(F3:H3)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="J3" s="18">
         <v>1</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -991,7 +991,7 @@
       <c r="E4">
         <v>1.15528333333332E-4</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="21">
         <v>2</v>
       </c>
       <c r="G4" s="18">
@@ -1001,13 +1001,13 @@
         <v>3</v>
       </c>
       <c r="I4" s="18">
-        <f>AVERAGE(F4:H4)</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="J4" s="18">
         <v>2</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       <c r="E5">
         <v>1.73752866666666E-4</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="21">
         <v>3</v>
       </c>
       <c r="G5" s="18">
@@ -1037,13 +1037,13 @@
         <v>7</v>
       </c>
       <c r="I5" s="18">
-        <f>AVERAGE(F5:H5)</f>
+        <f t="shared" si="0"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="J5" s="18">
         <v>3</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       <c r="E6">
         <v>1.13227541666665E-4</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="21">
         <v>7</v>
       </c>
       <c r="G6" s="18">
@@ -1073,13 +1073,13 @@
         <v>2</v>
       </c>
       <c r="I6" s="18">
-        <f>AVERAGE(F6:H6)</f>
+        <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
       <c r="J6" s="18">
         <v>4</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       <c r="E7">
         <v>1.66764608333334E-4</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="21">
         <v>4</v>
       </c>
       <c r="G7" s="18">
@@ -1109,13 +1109,13 @@
         <v>6</v>
       </c>
       <c r="I7" s="18">
-        <f>AVERAGE(F7:H7)</f>
+        <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
       <c r="J7" s="18">
         <v>4</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       <c r="E8">
         <v>1.21987391666665E-4</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="21">
         <v>5</v>
       </c>
       <c r="G8" s="18">
@@ -1145,13 +1145,13 @@
         <v>4</v>
       </c>
       <c r="I8" s="18">
-        <f>AVERAGE(F8:H8)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J8" s="18">
         <v>6</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="20" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       <c r="E9">
         <v>1.5087704166666599E-4</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="21">
         <v>6</v>
       </c>
       <c r="G9" s="18">
@@ -1181,13 +1181,13 @@
         <v>5</v>
       </c>
       <c r="I9" s="18">
-        <f>AVERAGE(F9:H9)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J9" s="18">
         <v>7</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="20" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       <c r="E10">
         <v>1.058342015E-2</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="21">
         <v>8</v>
       </c>
       <c r="G10" s="18">
@@ -1217,13 +1217,13 @@
         <v>8</v>
       </c>
       <c r="I10" s="18">
-        <f>AVERAGE(F10:H10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J10" s="18">
         <v>8</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="20" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1235,25 +1235,25 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18" t="e">
-        <f>AVERAGE(F11:H11)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1271,7 +1271,7 @@
       <c r="E13" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>106</v>
       </c>
       <c r="G13" t="s">
@@ -1286,7 +1286,7 @@
       <c r="J13" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="20" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       <c r="E14">
         <v>3.61265474999984E-4</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="21">
         <v>1</v>
       </c>
       <c r="G14">
@@ -1316,13 +1316,13 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <f>AVERAGE(F14:H14)</f>
+        <f t="shared" ref="I14:I22" si="1">AVERAGE(F14:H14)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       <c r="E15">
         <v>1.0733040416666399E-3</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="21">
         <v>2</v>
       </c>
       <c r="G15">
@@ -1352,13 +1352,13 @@
         <v>2</v>
       </c>
       <c r="I15">
-        <f>AVERAGE(F15:H15)</f>
+        <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="J15">
         <v>2</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       <c r="E16">
         <v>4.8161608416666798E-3</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="21">
         <v>3</v>
       </c>
       <c r="G16">
@@ -1388,49 +1388,49 @@
         <v>5</v>
       </c>
       <c r="I16">
-        <f>AVERAGE(F16:H16)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J16">
         <v>3</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="23">
         <v>0.51212070529243281</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <v>5.1922447655000002E-2</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="22">
         <v>4.1376640833333898E-3</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="22">
         <v>4.1944234999999504E-3</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="24">
         <v>4</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="22">
         <v>6</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="22">
         <v>4</v>
       </c>
-      <c r="I17" s="24">
-        <f>AVERAGE(F17:H17)</f>
+      <c r="I17" s="22">
+        <f t="shared" si="1"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="22">
         <v>4</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="25" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       <c r="E18">
         <v>5.4004657333333603E-3</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="21">
         <v>5</v>
       </c>
       <c r="G18">
@@ -1460,7 +1460,7 @@
         <v>6</v>
       </c>
       <c r="I18">
-        <f>AVERAGE(F18:H18)</f>
+        <f t="shared" si="1"/>
         <v>4.666666666666667</v>
       </c>
       <c r="J18">
@@ -1483,7 +1483,7 @@
       <c r="E19">
         <v>2.4021427166666799E-3</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="21">
         <v>7</v>
       </c>
       <c r="G19">
@@ -1493,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="I19">
-        <f>AVERAGE(F19:H19)</f>
+        <f t="shared" si="1"/>
         <v>5.666666666666667</v>
       </c>
       <c r="J19">
@@ -1516,7 +1516,7 @@
       <c r="E20">
         <v>5.6449125250000497E-3</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="21">
         <v>6</v>
       </c>
       <c r="G20">
@@ -1526,7 +1526,7 @@
         <v>7</v>
       </c>
       <c r="I20">
-        <f>AVERAGE(F20:H20)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J20">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B21" s="4"/>
       <c r="I21" t="e">
-        <f>AVERAGE(F21:H21)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1549,24 +1549,24 @@
       </c>
       <c r="B22" s="4"/>
       <c r="I22" t="e">
-        <f>AVERAGE(F22:H22)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1584,7 +1584,7 @@
       <c r="E24" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="21" t="s">
         <v>106</v>
       </c>
       <c r="G24" t="s">
@@ -1599,7 +1599,7 @@
       <c r="J24" t="s">
         <v>110</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="20" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       <c r="E25">
         <v>3.61265474999984E-4</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="21">
         <v>2</v>
       </c>
       <c r="G25">
@@ -1629,13 +1629,13 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <f>AVERAGE(F25:H25)</f>
+        <f t="shared" ref="I25:I34" si="2">AVERAGE(F25:H25)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="E26">
         <v>2.1444390000000002E-3</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="21">
         <v>1</v>
       </c>
       <c r="G26">
@@ -1665,13 +1665,13 @@
         <v>2</v>
       </c>
       <c r="I26">
-        <f>AVERAGE(F26:H26)</f>
+        <f t="shared" si="2"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="J26">
         <v>2</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       <c r="E27">
         <v>3.0589841583333402E-3</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="21">
         <v>3</v>
       </c>
       <c r="G27">
@@ -1701,13 +1701,13 @@
         <v>4</v>
       </c>
       <c r="I27">
-        <f>AVERAGE(F27:H27)</f>
+        <f t="shared" si="2"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="J27">
         <v>3</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       <c r="E28">
         <v>8.4879595083333301E-3</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="21">
         <v>4</v>
       </c>
       <c r="G28">
@@ -1737,13 +1737,13 @@
         <v>5</v>
       </c>
       <c r="I28">
-        <f>AVERAGE(F28:H28)</f>
+        <f t="shared" si="2"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="J28">
         <v>4</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="K28" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       <c r="E29">
         <v>2.4021427166666799E-3</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="21">
         <v>6</v>
       </c>
       <c r="G29">
@@ -1773,13 +1773,13 @@
         <v>3</v>
       </c>
       <c r="I29">
-        <f>AVERAGE(F29:H29)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="20" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       <c r="E30">
         <v>1.28608019416666E-2</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="21">
         <v>5</v>
       </c>
       <c r="G30">
@@ -1809,13 +1809,13 @@
         <v>6</v>
       </c>
       <c r="I30">
-        <f>AVERAGE(F30:H30)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J30">
         <v>5</v>
       </c>
-      <c r="K30" s="22" t="s">
+      <c r="K30" s="20" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       <c r="E31">
         <v>2.05842343583333E-2</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="21">
         <v>7</v>
       </c>
       <c r="G31">
@@ -1845,13 +1845,13 @@
         <v>7</v>
       </c>
       <c r="I31">
-        <f>AVERAGE(F31:H31)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J31">
         <v>7</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="K31" s="20" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1861,10 +1861,10 @@
       </c>
       <c r="B32" s="4"/>
       <c r="I32" t="e">
-        <f>AVERAGE(F32:H32)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="20" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1874,10 +1874,10 @@
       </c>
       <c r="B33" s="4"/>
       <c r="I33" t="e">
-        <f>AVERAGE(F33:H33)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="22" t="s">
+      <c r="K33" s="20" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1887,22 +1887,22 @@
       </c>
       <c r="B34" s="4"/>
       <c r="I34" t="e">
-        <f>AVERAGE(F34:H34)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="22" t="s">
+      <c r="K34" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1920,7 +1920,7 @@
       <c r="E36" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       <c r="A37" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       <c r="A39" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4725,21 +4725,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5143,21 +5143,21 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -5561,21 +5561,21 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6049,16 +6049,16 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -6135,7 +6135,7 @@
   <dimension ref="A1:D260"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6146,12 +6146,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6512,12 +6512,12 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -6878,12 +6878,12 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
     </row>
     <row r="54" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -7238,12 +7238,12 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
     </row>
     <row r="80" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
@@ -7604,12 +7604,12 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="21" t="s">
+      <c r="A105" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
     </row>
     <row r="106" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
@@ -7970,12 +7970,12 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="21" t="s">
+      <c r="A131" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B131" s="21"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="21"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
     </row>
     <row r="132" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -8336,12 +8336,12 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="21" t="s">
+      <c r="A157" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B157" s="21"/>
-      <c r="C157" s="21"/>
-      <c r="D157" s="21"/>
+      <c r="B157" s="27"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="27"/>
     </row>
     <row r="158" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
@@ -8702,12 +8702,12 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="21" t="s">
+      <c r="A183" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B183" s="21"/>
-      <c r="C183" s="21"/>
-      <c r="D183" s="21"/>
+      <c r="B183" s="27"/>
+      <c r="C183" s="27"/>
+      <c r="D183" s="27"/>
     </row>
     <row r="184" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
@@ -9068,12 +9068,12 @@
       </c>
     </row>
     <row r="209" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="21" t="s">
+      <c r="A209" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B209" s="21"/>
-      <c r="C209" s="21"/>
-      <c r="D209" s="21"/>
+      <c r="B209" s="27"/>
+      <c r="C209" s="27"/>
+      <c r="D209" s="27"/>
     </row>
     <row r="210" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
@@ -9434,12 +9434,12 @@
       </c>
     </row>
     <row r="235" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="21" t="s">
+      <c r="A235" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B235" s="21"/>
-      <c r="C235" s="21"/>
-      <c r="D235" s="21"/>
+      <c r="B235" s="27"/>
+      <c r="C235" s="27"/>
+      <c r="D235" s="27"/>
     </row>
     <row r="236" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
@@ -9824,12 +9824,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -10190,12 +10190,12 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -10556,12 +10556,12 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
     </row>
     <row r="54" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -10916,12 +10916,12 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
     </row>
     <row r="80" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
@@ -11282,12 +11282,12 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="21" t="s">
+      <c r="A105" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
     </row>
     <row r="106" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
@@ -11648,12 +11648,12 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="21" t="s">
+      <c r="A131" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B131" s="21"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="21"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
     </row>
     <row r="132" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -12014,12 +12014,12 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="21" t="s">
+      <c r="A157" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B157" s="21"/>
-      <c r="C157" s="21"/>
-      <c r="D157" s="21"/>
+      <c r="B157" s="27"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="27"/>
     </row>
     <row r="158" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
@@ -12380,12 +12380,12 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="21" t="s">
+      <c r="A183" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B183" s="21"/>
-      <c r="C183" s="21"/>
-      <c r="D183" s="21"/>
+      <c r="B183" s="27"/>
+      <c r="C183" s="27"/>
+      <c r="D183" s="27"/>
     </row>
     <row r="184" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
@@ -12746,12 +12746,12 @@
       </c>
     </row>
     <row r="209" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="21" t="s">
+      <c r="A209" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B209" s="21"/>
-      <c r="C209" s="21"/>
-      <c r="D209" s="21"/>
+      <c r="B209" s="27"/>
+      <c r="C209" s="27"/>
+      <c r="D209" s="27"/>
     </row>
     <row r="210" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
@@ -13112,12 +13112,12 @@
       </c>
     </row>
     <row r="235" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="21" t="s">
+      <c r="A235" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B235" s="21"/>
-      <c r="C235" s="21"/>
-      <c r="D235" s="21"/>
+      <c r="B235" s="27"/>
+      <c r="C235" s="27"/>
+      <c r="D235" s="27"/>
     </row>
     <row r="236" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
@@ -13502,12 +13502,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -13550,7 +13550,7 @@
         <v>4090</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D20" si="0">ABS(C4-B4)/B4</f>
+        <f t="shared" ref="D4:D18" si="0">ABS(C4-B4)/B4</f>
         <v>2.7870370370370372</v>
       </c>
       <c r="E4" s="3"/>
@@ -13801,12 +13801,12 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -13848,7 +13848,7 @@
         <v>1099.9000000000001</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" ref="D25:D41" si="1">ABS(C25-B25)/B25</f>
+        <f t="shared" ref="D25:D31" si="1">ABS(C25-B25)/B25</f>
         <v>1.8425925925926009E-2</v>
       </c>
     </row>
@@ -13965,7 +13965,7 @@
         <v>0.95</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" ref="D33:D42" si="2">ABS(C33-B33)/B33</f>
+        <f t="shared" ref="D33" si="2">ABS(C33-B33)/B33</f>
         <v>1.0638297872340436E-2</v>
       </c>
     </row>
@@ -13992,7 +13992,7 @@
         <v>0.30869999999999997</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" ref="D35:D42" si="3">ABS(C35-B35)/B35</f>
+        <f t="shared" ref="D35:D39" si="3">ABS(C35-B35)/B35</f>
         <v>1.0576923076923157E-2</v>
       </c>
     </row>
@@ -14090,12 +14090,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
     </row>
     <row r="44" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -14137,7 +14137,7 @@
         <v>1038.5999999999999</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" ref="D46:D62" si="4">ABS(C46-B46)/B46</f>
+        <f t="shared" ref="D46:D52" si="4">ABS(C46-B46)/B46</f>
         <v>3.8333333333333421E-2</v>
       </c>
     </row>
@@ -14254,7 +14254,7 @@
         <v>0.9425</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" ref="D54:D63" si="5">ABS(C54-B54)/B54</f>
+        <f t="shared" ref="D54" si="5">ABS(C54-B54)/B54</f>
         <v>2.6595744680851679E-3</v>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" ref="D56:D63" si="6">ABS(C56-B56)/B56</f>
+        <f t="shared" ref="D56:D60" si="6">ABS(C56-B56)/B56</f>
         <v>4.1666666666666706E-2</v>
       </c>
     </row>
@@ -14379,12 +14379,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
     </row>
     <row r="65" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
@@ -14426,7 +14426,7 @@
         <v>1065</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" ref="D67:D83" si="7">ABS(C67-B67)/B67</f>
+        <f t="shared" ref="D67:D73" si="7">ABS(C67-B67)/B67</f>
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
@@ -14540,7 +14540,7 @@
         <v>0.94079999999999997</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" ref="D75:D84" si="8">ABS(C75-B75)/B75</f>
+        <f t="shared" ref="D75" si="8">ABS(C75-B75)/B75</f>
         <v>8.5106382978725843E-4</v>
       </c>
     </row>
@@ -14567,7 +14567,7 @@
         <v>0.309</v>
       </c>
       <c r="D77" s="4">
-        <f t="shared" ref="D77:D84" si="9">ABS(C77-B77)/B77</f>
+        <f t="shared" ref="D77:D81" si="9">ABS(C77-B77)/B77</f>
         <v>9.6153846153846246E-3</v>
       </c>
     </row>
@@ -14665,12 +14665,12 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
     </row>
     <row r="86" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -14712,7 +14712,7 @@
         <v>1077.82</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" ref="D88:D104" si="10">ABS(C88-B88)/B88</f>
+        <f t="shared" ref="D88:D94" si="10">ABS(C88-B88)/B88</f>
         <v>2.0185185185185774E-3</v>
       </c>
     </row>
@@ -14826,7 +14826,7 @@
         <v>0.94130000000000003</v>
       </c>
       <c r="D96" s="4">
-        <f t="shared" ref="D96:D105" si="11">ABS(C96-B96)/B96</f>
+        <f t="shared" ref="D96" si="11">ABS(C96-B96)/B96</f>
         <v>1.3829787234043392E-3</v>
       </c>
     </row>
@@ -14853,7 +14853,7 @@
         <v>0.31669999999999998</v>
       </c>
       <c r="D98" s="4">
-        <f t="shared" ref="D98:D105" si="12">ABS(C98-B98)/B98</f>
+        <f t="shared" ref="D98:D102" si="12">ABS(C98-B98)/B98</f>
         <v>1.5064102564102507E-2</v>
       </c>
     </row>
@@ -14951,12 +14951,12 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B106" s="21"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="21"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
     </row>
     <row r="107" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
@@ -14998,7 +14998,7 @@
         <v>1068.97</v>
       </c>
       <c r="D109" s="4">
-        <f t="shared" ref="D109:D125" si="13">ABS(C109-B109)/B109</f>
+        <f t="shared" ref="D109:D115" si="13">ABS(C109-B109)/B109</f>
         <v>1.0212962962962938E-2</v>
       </c>
     </row>
@@ -15112,7 +15112,7 @@
         <v>0.94</v>
       </c>
       <c r="D117" s="4">
-        <f t="shared" ref="D117:D126" si="14">ABS(C117-B117)/B117</f>
+        <f t="shared" ref="D117" si="14">ABS(C117-B117)/B117</f>
         <v>0</v>
       </c>
     </row>
@@ -15139,7 +15139,7 @@
         <v>0.31186000000000003</v>
       </c>
       <c r="D119" s="4">
-        <f t="shared" ref="D119:D126" si="15">ABS(C119-B119)/B119</f>
+        <f t="shared" ref="D119:D123" si="15">ABS(C119-B119)/B119</f>
         <v>4.4871794871786372E-4</v>
       </c>
     </row>
@@ -15237,12 +15237,12 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B127" s="21"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
     </row>
     <row r="128" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -15514,12 +15514,12 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="21" t="s">
+      <c r="A148" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B148" s="21"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="21"/>
+      <c r="B148" s="27"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="27"/>
     </row>
     <row r="149" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
@@ -15561,7 +15561,7 @@
         <v>1070.836</v>
       </c>
       <c r="D151" s="4">
-        <f t="shared" ref="D151:D167" si="18">ABS(C151-B151)/B151</f>
+        <f t="shared" ref="D151:D157" si="18">ABS(C151-B151)/B151</f>
         <v>8.4851851851851737E-3</v>
       </c>
     </row>
@@ -15675,7 +15675,7 @@
         <v>0.96</v>
       </c>
       <c r="D159" s="4">
-        <f t="shared" ref="D159:D168" si="19">ABS(C159-B159)/B159</f>
+        <f t="shared" ref="D159" si="19">ABS(C159-B159)/B159</f>
         <v>2.1276595744680871E-2</v>
       </c>
     </row>
@@ -15702,7 +15702,7 @@
         <v>0.29820000000000002</v>
       </c>
       <c r="D161" s="4">
-        <f t="shared" ref="D161:D168" si="20">ABS(C161-B161)/B161</f>
+        <f t="shared" ref="D161:D165" si="20">ABS(C161-B161)/B161</f>
         <v>4.4230769230769164E-2</v>
       </c>
     </row>
@@ -15800,12 +15800,12 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="21" t="s">
+      <c r="A169" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B169" s="21"/>
-      <c r="C169" s="21"/>
-      <c r="D169" s="21"/>
+      <c r="B169" s="27"/>
+      <c r="C169" s="27"/>
+      <c r="D169" s="27"/>
     </row>
     <row r="170" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
@@ -16077,12 +16077,12 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="21" t="s">
+      <c r="A190" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B190" s="21"/>
-      <c r="C190" s="21"/>
-      <c r="D190" s="21"/>
+      <c r="B190" s="27"/>
+      <c r="C190" s="27"/>
+      <c r="D190" s="27"/>
     </row>
     <row r="191" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -16354,12 +16354,12 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="21" t="s">
+      <c r="A211" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B211" s="21"/>
-      <c r="C211" s="21"/>
-      <c r="D211" s="21"/>
+      <c r="B211" s="27"/>
+      <c r="C211" s="27"/>
+      <c r="D211" s="27"/>
     </row>
     <row r="212" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -16631,12 +16631,12 @@
       </c>
     </row>
     <row r="232" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="21" t="s">
+      <c r="A232" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B232" s="21"/>
-      <c r="C232" s="21"/>
-      <c r="D232" s="21"/>
+      <c r="B232" s="27"/>
+      <c r="C232" s="27"/>
+      <c r="D232" s="27"/>
     </row>
     <row r="233" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
@@ -16869,12 +16869,12 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="21" t="s">
+      <c r="A253" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B253" s="21"/>
-      <c r="C253" s="21"/>
-      <c r="D253" s="21"/>
+      <c r="B253" s="27"/>
+      <c r="C253" s="27"/>
+      <c r="D253" s="27"/>
     </row>
     <row r="254" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -16916,7 +16916,7 @@
         <v>1074.1500000000001</v>
       </c>
       <c r="D256" s="4">
-        <f t="shared" ref="D256:D272" si="29">ABS(C256-B256)/B256</f>
+        <f t="shared" ref="D256:D262" si="29">ABS(C256-B256)/B256</f>
         <v>5.4166666666665827E-3</v>
       </c>
     </row>
@@ -17030,7 +17030,7 @@
         <v>0.94</v>
       </c>
       <c r="D264" s="4">
-        <f t="shared" ref="D264:D273" si="30">ABS(C264-B264)/B264</f>
+        <f t="shared" ref="D264" si="30">ABS(C264-B264)/B264</f>
         <v>0</v>
       </c>
     </row>
@@ -17057,7 +17057,7 @@
         <v>0.30299999999999999</v>
       </c>
       <c r="D266" s="4">
-        <f t="shared" ref="D266:D273" si="31">ABS(C266-B266)/B266</f>
+        <f t="shared" ref="D266:D270" si="31">ABS(C266-B266)/B266</f>
         <v>2.8846153846153872E-2</v>
       </c>
     </row>
@@ -17156,6 +17156,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A85:D85"/>
     <mergeCell ref="A253:D253"/>
     <mergeCell ref="A127:D127"/>
     <mergeCell ref="A148:D148"/>
@@ -17163,12 +17169,6 @@
     <mergeCell ref="A190:D190"/>
     <mergeCell ref="A211:D211"/>
     <mergeCell ref="A232:D232"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A106:D106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17189,12 +17189,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -17478,12 +17478,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -17767,12 +17767,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
     </row>
     <row r="44" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -18044,12 +18044,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
     </row>
     <row r="65" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
@@ -18321,12 +18321,12 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
     </row>
     <row r="86" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -18598,12 +18598,12 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B106" s="21"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="21"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
     </row>
     <row r="107" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
@@ -18875,12 +18875,12 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B127" s="21"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
     </row>
     <row r="128" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -19152,12 +19152,12 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="21" t="s">
+      <c r="A148" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B148" s="21"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="21"/>
+      <c r="B148" s="27"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="27"/>
     </row>
     <row r="149" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
@@ -19429,12 +19429,12 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="21" t="s">
+      <c r="A169" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B169" s="21"/>
-      <c r="C169" s="21"/>
-      <c r="D169" s="21"/>
+      <c r="B169" s="27"/>
+      <c r="C169" s="27"/>
+      <c r="D169" s="27"/>
     </row>
     <row r="170" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
@@ -19706,12 +19706,12 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="21" t="s">
+      <c r="A190" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B190" s="21"/>
-      <c r="C190" s="21"/>
-      <c r="D190" s="21"/>
+      <c r="B190" s="27"/>
+      <c r="C190" s="27"/>
+      <c r="D190" s="27"/>
     </row>
     <row r="191" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -19983,12 +19983,12 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="21" t="s">
+      <c r="A211" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B211" s="21"/>
-      <c r="C211" s="21"/>
-      <c r="D211" s="21"/>
+      <c r="B211" s="27"/>
+      <c r="C211" s="27"/>
+      <c r="D211" s="27"/>
     </row>
     <row r="212" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -20260,12 +20260,12 @@
       </c>
     </row>
     <row r="232" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="21" t="s">
+      <c r="A232" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B232" s="21"/>
-      <c r="C232" s="21"/>
-      <c r="D232" s="21"/>
+      <c r="B232" s="27"/>
+      <c r="C232" s="27"/>
+      <c r="D232" s="27"/>
     </row>
     <row r="233" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
@@ -20498,12 +20498,12 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="21" t="s">
+      <c r="A253" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B253" s="21"/>
-      <c r="C253" s="21"/>
-      <c r="D253" s="21"/>
+      <c r="B253" s="27"/>
+      <c r="C253" s="27"/>
+      <c r="D253" s="27"/>
     </row>
     <row r="254" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -20776,6 +20776,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A85:D85"/>
     <mergeCell ref="A253:D253"/>
     <mergeCell ref="A211:D211"/>
     <mergeCell ref="A232:D232"/>
@@ -20784,11 +20789,6 @@
     <mergeCell ref="A148:D148"/>
     <mergeCell ref="A169:D169"/>
     <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A85:D85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20811,12 +20811,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -21252,12 +21252,12 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -21693,12 +21693,12 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
     </row>
     <row r="64" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -22134,12 +22134,12 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
     </row>
     <row r="95" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
@@ -22575,12 +22575,12 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="21" t="s">
+      <c r="A125" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B125" s="21"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="21"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
     </row>
     <row r="126" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -23016,12 +23016,12 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="21" t="s">
+      <c r="A156" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B156" s="21"/>
-      <c r="C156" s="21"/>
-      <c r="D156" s="21"/>
+      <c r="B156" s="27"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="27"/>
     </row>
     <row r="157" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
@@ -23457,12 +23457,12 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="21" t="s">
+      <c r="A187" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B187" s="21"/>
-      <c r="C187" s="21"/>
-      <c r="D187" s="21"/>
+      <c r="B187" s="27"/>
+      <c r="C187" s="27"/>
+      <c r="D187" s="27"/>
     </row>
     <row r="188" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
@@ -23898,12 +23898,12 @@
       </c>
     </row>
     <row r="218" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="21" t="s">
+      <c r="A218" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B218" s="21"/>
-      <c r="C218" s="21"/>
-      <c r="D218" s="21"/>
+      <c r="B218" s="27"/>
+      <c r="C218" s="27"/>
+      <c r="D218" s="27"/>
     </row>
     <row r="219" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
@@ -24339,12 +24339,12 @@
       </c>
     </row>
     <row r="249" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="21" t="s">
+      <c r="A249" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B249" s="21"/>
-      <c r="C249" s="21"/>
-      <c r="D249" s="21"/>
+      <c r="B249" s="27"/>
+      <c r="C249" s="27"/>
+      <c r="D249" s="27"/>
     </row>
     <row r="250" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
@@ -24780,12 +24780,12 @@
       </c>
     </row>
     <row r="280" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="21" t="s">
+      <c r="A280" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B280" s="21"/>
-      <c r="C280" s="21"/>
-      <c r="D280" s="21"/>
+      <c r="B280" s="27"/>
+      <c r="C280" s="27"/>
+      <c r="D280" s="27"/>
     </row>
     <row r="281" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
@@ -25251,12 +25251,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -25692,12 +25692,12 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -26133,12 +26133,12 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
     </row>
     <row r="64" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -26574,12 +26574,12 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
     </row>
     <row r="95" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
@@ -27015,12 +27015,12 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="21" t="s">
+      <c r="A125" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B125" s="21"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="21"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
     </row>
     <row r="126" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -27456,12 +27456,12 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="21" t="s">
+      <c r="A156" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B156" s="21"/>
-      <c r="C156" s="21"/>
-      <c r="D156" s="21"/>
+      <c r="B156" s="27"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="27"/>
     </row>
     <row r="157" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
@@ -27897,12 +27897,12 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="21" t="s">
+      <c r="A187" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B187" s="21"/>
-      <c r="C187" s="21"/>
-      <c r="D187" s="21"/>
+      <c r="B187" s="27"/>
+      <c r="C187" s="27"/>
+      <c r="D187" s="27"/>
     </row>
     <row r="188" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
@@ -28338,12 +28338,12 @@
       </c>
     </row>
     <row r="218" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="21" t="s">
+      <c r="A218" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B218" s="21"/>
-      <c r="C218" s="21"/>
-      <c r="D218" s="21"/>
+      <c r="B218" s="27"/>
+      <c r="C218" s="27"/>
+      <c r="D218" s="27"/>
     </row>
     <row r="219" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
@@ -28779,12 +28779,12 @@
       </c>
     </row>
     <row r="249" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="21" t="s">
+      <c r="A249" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B249" s="21"/>
-      <c r="C249" s="21"/>
-      <c r="D249" s="21"/>
+      <c r="B249" s="27"/>
+      <c r="C249" s="27"/>
+      <c r="D249" s="27"/>
     </row>
     <row r="250" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
@@ -29220,12 +29220,12 @@
       </c>
     </row>
     <row r="280" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="21" t="s">
+      <c r="A280" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B280" s="21"/>
-      <c r="C280" s="21"/>
-      <c r="D280" s="21"/>
+      <c r="B280" s="27"/>
+      <c r="C280" s="27"/>
+      <c r="D280" s="27"/>
     </row>
     <row r="281" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70B65F6B-D521-460E-9883-CD4A93231C63}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AAD03D53-AE4C-4D5D-AD41-5E0792ED9F17}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_new" sheetId="16" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="116">
   <si>
     <t>Input parameters</t>
   </si>
@@ -383,6 +383,15 @@
   <si>
     <t>0.09-74.19%</t>
   </si>
+  <si>
+    <t>2 Mass + TGA + Ignition</t>
+  </si>
+  <si>
+    <t>q_Ign</t>
+  </si>
+  <si>
+    <t>2 Mass + Ignition</t>
+  </si>
 </sst>
 </file>
 
@@ -520,7 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -584,6 +593,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -871,7 +883,7 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -13490,10 +13502,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B6A79E-D689-4891-8C33-A91335B010B5}">
-  <dimension ref="A1:E273"/>
+  <dimension ref="A1:E317"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="F310" sqref="F310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17154,14 +17166,612 @@
         <v>0.13201347279355144</v>
       </c>
     </row>
+    <row r="274" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B274" s="27"/>
+      <c r="C274" s="27"/>
+      <c r="D274" s="27"/>
+    </row>
+    <row r="275" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B276" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C276" s="3">
+        <v>2380000000000</v>
+      </c>
+      <c r="D276" s="4">
+        <f>ABS(C276-B276)/B276</f>
+        <v>1.7094017094017096E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B277" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C277" s="3">
+        <v>1058.94</v>
+      </c>
+      <c r="D277" s="4">
+        <f t="shared" ref="D277:D283" si="32">ABS(C277-B277)/B277</f>
+        <v>1.9499999999999948E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B278">
+        <v>1041</v>
+      </c>
+      <c r="C278">
+        <v>1028.712</v>
+      </c>
+      <c r="D278" s="4">
+        <f t="shared" si="32"/>
+        <v>1.1804034582132574E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B279" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C279">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D279" s="4">
+        <f t="shared" si="32"/>
+        <v>1.0796460176991152</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B280" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C280">
+        <v>0.28138000000000002</v>
+      </c>
+      <c r="D280" s="4">
+        <f t="shared" si="32"/>
+        <v>8.6409266409266453E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B281" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C281" s="3">
+        <v>181000</v>
+      </c>
+      <c r="D281" s="4">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B282" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C282">
+        <v>99978.58</v>
+      </c>
+      <c r="D282" s="4">
+        <f t="shared" si="32"/>
+        <v>2.1419999999998255E-4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B283" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C283">
+        <v>15453.73</v>
+      </c>
+      <c r="D283" s="4">
+        <f t="shared" si="32"/>
+        <v>0.545373</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B284">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D284" s="4"/>
+    </row>
+    <row r="285" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B285">
+        <v>0.94</v>
+      </c>
+      <c r="C285" s="3">
+        <v>0.94138999999999995</v>
+      </c>
+      <c r="D285" s="4">
+        <f t="shared" ref="D285" si="33">ABS(C285-B285)/B285</f>
+        <v>1.4787234042553216E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B286">
+        <v>0.94</v>
+      </c>
+      <c r="C286">
+        <v>0.94</v>
+      </c>
+      <c r="D286" s="4"/>
+    </row>
+    <row r="287" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C287">
+        <v>0.30520000000000003</v>
+      </c>
+      <c r="D287" s="4">
+        <f t="shared" ref="D287:D294" si="34">ABS(C287-B287)/B287</f>
+        <v>2.1794871794871707E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B288">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C288">
+        <v>8.2979999999999998E-2</v>
+      </c>
+      <c r="D288" s="4">
+        <f t="shared" si="34"/>
+        <v>0.12560590094836671</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B289" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C289" s="3">
+        <v>5.9880000000000003E-5</v>
+      </c>
+      <c r="D289" s="4">
+        <f t="shared" si="34"/>
+        <v>0.35936435868331446</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B290" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C290" s="3">
+        <v>2.99E-4</v>
+      </c>
+      <c r="D290" s="4">
+        <f t="shared" si="34"/>
+        <v>5.6537102473498267E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="D291" s="4">
+        <f t="shared" si="34"/>
+        <v>2.9999999999996696E-4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B292">
+        <v>1683</v>
+      </c>
+      <c r="C292">
+        <v>1683</v>
+      </c>
+      <c r="D292" s="4"/>
+    </row>
+    <row r="293" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B293">
+        <v>1235</v>
+      </c>
+      <c r="C293">
+        <v>1235</v>
+      </c>
+      <c r="D293" s="4"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B294">
+        <v>20</v>
+      </c>
+      <c r="C294">
+        <v>20.058700000000002</v>
+      </c>
+      <c r="D294" s="4">
+        <f t="shared" si="34"/>
+        <v>2.9350000000000877E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D295" s="4">
+        <f>AVERAGE(D276:D293)</f>
+        <v>0.16608010664920267</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
+      <c r="D296" s="27"/>
+    </row>
+    <row r="297" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B298" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C298" s="3">
+        <v>9380000000000</v>
+      </c>
+      <c r="D298" s="4">
+        <f>ABS(C298-B298)/B298</f>
+        <v>3.0085470085470085</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B299" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C299" s="3">
+        <v>1141.6400000000001</v>
+      </c>
+      <c r="D299" s="4">
+        <f t="shared" ref="D299:D305" si="35">ABS(C299-B299)/B299</f>
+        <v>5.7074074074074166E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B300">
+        <v>1041</v>
+      </c>
+      <c r="C300">
+        <v>2480</v>
+      </c>
+      <c r="D300" s="4">
+        <f t="shared" si="35"/>
+        <v>1.382324687800192</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B301" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C301">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="D301" s="4">
+        <f t="shared" si="35"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B302" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C302">
+        <v>0.25869999999999999</v>
+      </c>
+      <c r="D302" s="4">
+        <f t="shared" si="35"/>
+        <v>1.158301158301245E-3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B303" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C303" s="3">
+        <v>157000</v>
+      </c>
+      <c r="D303" s="4">
+        <f t="shared" si="35"/>
+        <v>0.13259668508287292</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B304" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C304">
+        <v>25000</v>
+      </c>
+      <c r="D304" s="4">
+        <f t="shared" si="35"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B305" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C305">
+        <v>2500</v>
+      </c>
+      <c r="D305" s="4">
+        <f t="shared" si="35"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B306">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D306" s="4"/>
+    </row>
+    <row r="307" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B307">
+        <v>0.94</v>
+      </c>
+      <c r="C307" s="3">
+        <v>0.69840000000000002</v>
+      </c>
+      <c r="D307" s="4">
+        <f t="shared" ref="D307" si="36">ABS(C307-B307)/B307</f>
+        <v>0.25702127659574464</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B308">
+        <v>0.94</v>
+      </c>
+      <c r="C308">
+        <v>0.94</v>
+      </c>
+      <c r="D308" s="4"/>
+    </row>
+    <row r="309" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B309" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C309">
+        <v>0.37080000000000002</v>
+      </c>
+      <c r="D309" s="4">
+        <f t="shared" ref="D309:D316" si="37">ABS(C309-B309)/B309</f>
+        <v>0.18846153846153851</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B310">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C310">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="D310" s="4">
+        <f t="shared" si="37"/>
+        <v>0.41201264488935718</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B311" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C311" s="3">
+        <v>3.2820000000000001E-5</v>
+      </c>
+      <c r="D311" s="4">
+        <f t="shared" si="37"/>
+        <v>0.25493757094211122</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B312" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C312" s="3">
+        <v>2.22E-4</v>
+      </c>
+      <c r="D312" s="4">
+        <f t="shared" si="37"/>
+        <v>0.21554770318021199</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>0.29698999999999998</v>
+      </c>
+      <c r="D313" s="4">
+        <f t="shared" si="37"/>
+        <v>0.70301000000000002</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B314">
+        <v>1683</v>
+      </c>
+      <c r="C314">
+        <v>1683</v>
+      </c>
+      <c r="D314" s="4"/>
+    </row>
+    <row r="315" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B315">
+        <v>1235</v>
+      </c>
+      <c r="C315">
+        <v>1235</v>
+      </c>
+      <c r="D315" s="4"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B316">
+        <v>20</v>
+      </c>
+      <c r="C316">
+        <v>20.058700000000002</v>
+      </c>
+      <c r="D316" s="4">
+        <f t="shared" ref="D316:D317" si="38">ABS(C316-B316)/B316</f>
+        <v>2.9350000000000877E-3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D317" s="4">
+        <f>AVERAGE(D298:D315)</f>
+        <v>0.63304939219510092</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A85:D85"/>
+  <mergeCells count="15">
+    <mergeCell ref="A274:D274"/>
+    <mergeCell ref="A296:D296"/>
     <mergeCell ref="A253:D253"/>
     <mergeCell ref="A127:D127"/>
     <mergeCell ref="A148:D148"/>
@@ -17169,6 +17779,12 @@
     <mergeCell ref="A190:D190"/>
     <mergeCell ref="A211:D211"/>
     <mergeCell ref="A232:D232"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A85:D85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20776,11 +21392,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A85:D85"/>
     <mergeCell ref="A253:D253"/>
     <mergeCell ref="A211:D211"/>
     <mergeCell ref="A232:D232"/>
@@ -20789,6 +21400,11 @@
     <mergeCell ref="A148:D148"/>
     <mergeCell ref="A169:D169"/>
     <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A85:D85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AAD03D53-AE4C-4D5D-AD41-5E0792ED9F17}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{026BFA2C-78A2-4922-B819-E4F348DB7A19}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="120">
   <si>
     <t>Input parameters</t>
   </si>
@@ -392,12 +392,24 @@
   <si>
     <t>2 Mass + Ignition</t>
   </si>
+  <si>
+    <t>1 Mass + TGA +DSC run 1</t>
+  </si>
+  <si>
+    <t>1 Mass + BT Run1</t>
+  </si>
+  <si>
+    <t>1 Mass + TGA + BT Run1</t>
+  </si>
+  <si>
+    <t>1 Mass + TGA + BT Run2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +441,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -529,7 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -580,22 +598,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1"/>
-    <xf numFmtId="10" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -883,15 +912,16 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
@@ -902,19 +932,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1060,29 +1090,29 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>27</v>
+      <c r="A6" t="s">
+        <v>43</v>
       </c>
       <c r="B6" s="4">
-        <v>0.55607843012868252</v>
+        <v>0.21664504086751163</v>
       </c>
       <c r="C6">
-        <v>1.63451619999999E-3</v>
-      </c>
-      <c r="D6">
-        <v>1.2694358333333199E-4</v>
+        <v>1.55234504666666E-3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.7846624999999401E-5</v>
       </c>
       <c r="E6">
-        <v>1.13227541666665E-4</v>
+        <v>1.66764608333334E-4</v>
       </c>
       <c r="F6" s="21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="0"/>
@@ -1096,36 +1126,36 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>43</v>
+      <c r="A7" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="B7" s="4">
-        <v>0.21664504086751163</v>
+        <v>0.55607843012868252</v>
       </c>
       <c r="C7">
-        <v>1.55234504666666E-3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6.7846624999999401E-5</v>
+        <v>1.63451619999999E-3</v>
+      </c>
+      <c r="D7">
+        <v>1.2694358333333199E-4</v>
       </c>
       <c r="E7">
-        <v>1.66764608333334E-4</v>
+        <v>1.13227541666665E-4</v>
       </c>
       <c r="F7" s="21">
+        <v>8</v>
+      </c>
+      <c r="G7" s="18">
         <v>4</v>
       </c>
-      <c r="G7" s="18">
-        <v>3</v>
-      </c>
       <c r="H7" s="18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="J7" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" s="20" t="s">
         <v>30</v>
@@ -1184,7 +1214,7 @@
         <v>1.5087704166666599E-4</v>
       </c>
       <c r="F9" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" s="18">
         <v>7</v>
@@ -1194,7 +1224,7 @@
       </c>
       <c r="I9" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="J9" s="18">
         <v>7</v>
@@ -1204,23 +1234,23 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
+      <c r="A10" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="B10" s="4">
-        <v>1.3385796019562517</v>
+        <v>0.4471403806620316</v>
       </c>
       <c r="C10">
-        <v>0.17567353127166599</v>
+        <v>5.0733624399999996E-3</v>
       </c>
       <c r="D10">
-        <v>1.17759784833333E-2</v>
+        <v>2.17354306666666E-3</v>
       </c>
       <c r="E10">
-        <v>1.058342015E-2</v>
+        <v>2.1316112499999902E-3</v>
       </c>
       <c r="F10" s="21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G10" s="18">
         <v>8</v>
@@ -1230,42 +1260,62 @@
       </c>
       <c r="I10" s="18">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="J10" s="18">
         <v>8</v>
       </c>
-      <c r="K10" s="20" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1.3385796019562517</v>
+      </c>
+      <c r="C11">
+        <v>0.17567353127166599</v>
+      </c>
+      <c r="D11">
+        <v>1.17759784833333E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.058342015E-2</v>
+      </c>
+      <c r="F11" s="21">
+        <v>9</v>
+      </c>
+      <c r="G11" s="18">
+        <v>9</v>
+      </c>
+      <c r="H11" s="18">
+        <v>9</v>
+      </c>
+      <c r="I11" s="18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J11" s="18">
+        <v>9</v>
+      </c>
+      <c r="K11" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="18"/>
-    </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1319,17 +1369,17 @@
         <v>3.61265474999984E-4</v>
       </c>
       <c r="F14" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
         <f t="shared" ref="I14:I22" si="1">AVERAGE(F14:H14)</f>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1355,7 +1405,7 @@
         <v>1.0733040416666399E-3</v>
       </c>
       <c r="F15" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1365,7 +1415,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1374,75 +1424,75 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0.1832</v>
+      </c>
+      <c r="C16" s="26">
+        <v>4.7396007533333298E-3</v>
+      </c>
+      <c r="D16" s="26">
+        <v>4.9868463916665998E-3</v>
+      </c>
+      <c r="E16" s="26">
+        <v>5.3248943750000104E-3</v>
+      </c>
+      <c r="F16" s="27">
+        <v>1</v>
+      </c>
+      <c r="G16" s="24">
+        <v>2</v>
+      </c>
+      <c r="H16" s="24">
+        <v>6</v>
+      </c>
+      <c r="I16" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J16" s="24">
+        <v>3</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B17" s="30">
         <v>0.36297532065304272</v>
       </c>
-      <c r="C16">
+      <c r="C17" s="23">
         <v>2.6115397464999999E-2</v>
       </c>
-      <c r="D16">
+      <c r="D17" s="23">
         <v>4.52773224999997E-3</v>
       </c>
-      <c r="E16">
+      <c r="E17" s="23">
         <v>4.8161608416666798E-3</v>
       </c>
-      <c r="F16" s="21">
-        <v>3</v>
-      </c>
-      <c r="G16">
+      <c r="F17" s="31">
         <v>4</v>
       </c>
-      <c r="H16">
+      <c r="G17" s="23">
         <v>5</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="23">
-        <v>0.51212070529243281</v>
-      </c>
-      <c r="C17" s="22">
-        <v>5.1922447655000002E-2</v>
-      </c>
-      <c r="D17" s="22">
-        <v>4.1376640833333898E-3</v>
-      </c>
-      <c r="E17" s="22">
-        <v>4.1944234999999504E-3</v>
-      </c>
-      <c r="F17" s="24">
-        <v>4</v>
-      </c>
-      <c r="G17" s="22">
-        <v>6</v>
-      </c>
-      <c r="H17" s="22">
-        <v>4</v>
-      </c>
-      <c r="I17" s="22">
+      <c r="H17" s="23">
+        <v>5</v>
+      </c>
+      <c r="I17" s="23">
         <f t="shared" si="1"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="23">
         <v>4</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1466,14 +1516,14 @@
         <v>5</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1481,19 +1531,19 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="4">
-        <v>0.87817022059682459</v>
+        <v>0.75351257566993968</v>
       </c>
       <c r="C19">
-        <v>6.2282453336666599E-2</v>
+        <v>3.4919753023333298E-2</v>
       </c>
       <c r="D19">
-        <v>9.5295443333330099E-4</v>
+        <v>7.5278207499996405E-4</v>
       </c>
       <c r="E19">
-        <v>2.4021427166666799E-3</v>
+        <v>1.7191840333333299E-3</v>
       </c>
       <c r="F19" s="21">
         <v>7</v>
@@ -1514,32 +1564,32 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4">
-        <v>0.69563584816694646</v>
+        <v>0.87817022059682459</v>
       </c>
       <c r="C20">
-        <v>2.7930817001666601E-2</v>
+        <v>6.2282453336666599E-2</v>
       </c>
       <c r="D20">
-        <v>4.5533835083333297E-3</v>
+        <v>9.5295443333330099E-4</v>
       </c>
       <c r="E20">
-        <v>5.6449125250000497E-3</v>
+        <v>2.4021427166666799E-3</v>
       </c>
       <c r="F20" s="21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="J20">
         <v>7</v>
@@ -1547,12 +1597,35 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="I21" t="e">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.69563584816694646</v>
+      </c>
+      <c r="C21">
+        <v>2.7930817001666601E-2</v>
+      </c>
+      <c r="D21">
+        <v>4.5533835083333297E-3</v>
+      </c>
+      <c r="E21">
+        <v>5.6449125250000497E-3</v>
+      </c>
+      <c r="F21" s="21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1566,19 +1639,19 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1635,14 +1708,14 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
         <f t="shared" ref="I25:I34" si="2">AVERAGE(F25:H25)</f>
-        <v>1.3333333333333333</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1671,14 +1744,14 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>2.6666666666666665</v>
+        <v>4</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -1707,14 +1780,14 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>3.3333333333333335</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -1724,65 +1797,65 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>35</v>
+      <c r="A28" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="4">
-        <v>0.299295476643549</v>
+        <v>0.94249220668331635</v>
       </c>
       <c r="C28">
-        <v>8.2740798133333297E-3</v>
+        <v>7.4422751833333302E-3</v>
       </c>
       <c r="D28">
-        <v>7.8026004833333601E-3</v>
+        <v>1.1978142916666901E-3</v>
       </c>
       <c r="E28">
-        <v>8.4879595083333301E-3</v>
+        <v>1.9962736499999699E-3</v>
       </c>
       <c r="F28" s="21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
         <v>2</v>
-      </c>
-      <c r="H28">
-        <v>5</v>
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>3.6666666666666665</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="J28">
         <v>4</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
+      <c r="A29" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="B29" s="4">
-        <v>0.82565061061475542</v>
+        <v>0.299295476643549</v>
       </c>
       <c r="C29">
-        <v>6.2282453336666599E-2</v>
+        <v>8.2740798133333297E-3</v>
       </c>
       <c r="D29">
-        <v>9.5295443333330099E-4</v>
+        <v>7.8026004833333601E-3</v>
       </c>
       <c r="E29">
-        <v>2.4021427166666799E-3</v>
+        <v>8.4879595083333301E-3</v>
       </c>
       <c r="F29" s="21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
@@ -1792,40 +1865,40 @@
         <v>5</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>0.6679301757622631</v>
+        <v>0.67865515319806224</v>
       </c>
       <c r="C30">
-        <v>1.9716537846666601E-2</v>
+        <v>2.4841588833333299E-3</v>
       </c>
       <c r="D30">
-        <v>7.2557776833333098E-3</v>
+        <v>5.8524109666666397E-3</v>
       </c>
       <c r="E30">
-        <v>1.28608019416666E-2</v>
+        <v>9.7911599166666703E-3</v>
       </c>
       <c r="F30" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K30" s="20" t="s">
         <v>34</v>
@@ -1833,32 +1906,32 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B31" s="4">
-        <v>1.150242872218624</v>
+        <v>0.82565061061475542</v>
       </c>
       <c r="C31">
-        <v>7.9335362866666606E-2</v>
+        <v>6.2282453336666599E-2</v>
       </c>
       <c r="D31">
-        <v>1.55031014333333E-2</v>
+        <v>9.5295443333330099E-4</v>
       </c>
       <c r="E31">
-        <v>2.05842343583333E-2</v>
+        <v>2.4021427166666799E-3</v>
       </c>
       <c r="F31" s="21">
         <v>7</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="J31">
         <v>7</v>
@@ -1869,12 +1942,35 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="I32" t="e">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.6679301757622631</v>
+      </c>
+      <c r="C32">
+        <v>1.9716537846666601E-2</v>
+      </c>
+      <c r="D32">
+        <v>7.2557776833333098E-3</v>
+      </c>
+      <c r="E32">
+        <v>1.28608019416666E-2</v>
+      </c>
+      <c r="F32" s="21">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
       </c>
       <c r="K32" s="20" t="s">
         <v>34</v>
@@ -1884,10 +1980,33 @@
       <c r="A33" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="I33" t="e">
+      <c r="B33" s="4">
+        <v>0.8743866221644887</v>
+      </c>
+      <c r="C33">
+        <v>2.04341314416666E-2</v>
+      </c>
+      <c r="D33">
+        <v>1.7557034999999299E-4</v>
+      </c>
+      <c r="E33">
+        <v>3.2388262666666399E-3</v>
+      </c>
+      <c r="F33" s="21">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
       </c>
       <c r="K33" s="20" t="s">
         <v>34</v>
@@ -1895,26 +2014,49 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="I34" t="e">
+        <v>43</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1.150242872218624</v>
+      </c>
+      <c r="C34">
+        <v>7.9335362866666606E-2</v>
+      </c>
+      <c r="D34">
+        <v>1.55031014333333E-2</v>
+      </c>
+      <c r="E34">
+        <v>2.05842343583333E-2</v>
+      </c>
+      <c r="F34" s="21">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
       </c>
       <c r="K34" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1966,8 +2108,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A25:K34">
-    <sortCondition ref="I25:I34"/>
+  <sortState ref="A3:K11">
+    <sortCondition ref="I3:I11"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="A1:K1"/>
@@ -4737,21 +4879,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5155,21 +5297,21 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -5573,21 +5715,21 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6061,16 +6203,16 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -6144,10 +6286,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D5BA7-5E2A-4D4E-B8B0-9CEB31C8D6D1}">
-  <dimension ref="A1:D260"/>
+  <dimension ref="A1:D286"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6158,12 +6300,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6524,12 +6666,12 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -6890,12 +7032,12 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
     </row>
     <row r="54" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -7250,12 +7392,12 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
     </row>
     <row r="80" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
@@ -7279,11 +7421,11 @@
         <v>2340000000000</v>
       </c>
       <c r="C81" s="3">
-        <v>2410000000000</v>
+        <v>9380000000000</v>
       </c>
       <c r="D81" s="4">
         <f t="shared" ref="D81:D94" si="5">ABS(C81-B81)/B81</f>
-        <v>2.9914529914529916E-2</v>
+        <v>3.0085470085470085</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7294,11 +7436,11 @@
         <v>75000000000000</v>
       </c>
       <c r="C82" s="3">
-        <v>173000000000000</v>
+        <v>37100000000000</v>
       </c>
       <c r="D82" s="4">
         <f t="shared" si="5"/>
-        <v>1.3066666666666666</v>
+        <v>0.5053333333333333</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7309,11 +7451,11 @@
         <v>1080</v>
       </c>
       <c r="C83">
-        <v>1120.6300000000001</v>
+        <v>1071.03</v>
       </c>
       <c r="D83" s="4">
         <f t="shared" si="5"/>
-        <v>3.7620370370370471E-2</v>
+        <v>8.3055555555555816E-3</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7324,11 +7466,11 @@
         <v>1041</v>
       </c>
       <c r="C84">
-        <v>260.2878</v>
+        <v>347.66</v>
       </c>
       <c r="D84" s="4">
         <f t="shared" si="5"/>
-        <v>0.74996368876080688</v>
+        <v>0.66603266090297786</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7339,11 +7481,11 @@
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="C85">
-        <v>1.315E-2</v>
+        <v>8.8300000000000003E-2</v>
       </c>
       <c r="D85" s="4">
         <f t="shared" si="5"/>
-        <v>0.7090707964601769</v>
+        <v>0.95353982300884976</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7354,11 +7496,11 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="C86">
-        <v>0.27500000000000002</v>
+        <v>0.16520000000000001</v>
       </c>
       <c r="D86" s="4">
         <f t="shared" si="5"/>
-        <v>6.1776061776061826E-2</v>
+        <v>0.36216216216216213</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7369,11 +7511,11 @@
         <v>181000</v>
       </c>
       <c r="C87" s="3">
-        <v>174000</v>
+        <v>177000</v>
       </c>
       <c r="D87" s="4">
         <f t="shared" si="5"/>
-        <v>3.8674033149171269E-2</v>
+        <v>2.2099447513812154E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7384,11 +7526,11 @@
         <v>193000</v>
       </c>
       <c r="C88" s="3">
-        <v>415000</v>
+        <v>670000</v>
       </c>
       <c r="D88" s="4">
         <f t="shared" si="5"/>
-        <v>1.150259067357513</v>
+        <v>2.471502590673575</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7399,11 +7541,11 @@
         <v>100000</v>
       </c>
       <c r="C89">
-        <v>174888.24</v>
+        <v>165294</v>
       </c>
       <c r="D89" s="4">
         <f t="shared" si="5"/>
-        <v>0.74888239999999995</v>
+        <v>0.65293999999999996</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7414,11 +7556,11 @@
         <v>200000</v>
       </c>
       <c r="C90">
-        <v>763732.7</v>
+        <v>662108</v>
       </c>
       <c r="D90" s="4">
         <f t="shared" si="5"/>
-        <v>2.8186635</v>
+        <v>2.31054</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7429,11 +7571,11 @@
         <v>10000</v>
       </c>
       <c r="C91">
-        <v>20311.75</v>
+        <v>12034.2</v>
       </c>
       <c r="D91" s="4">
         <f t="shared" si="5"/>
-        <v>1.031175</v>
+        <v>0.20342000000000007</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7459,11 +7601,11 @@
         <v>0.5</v>
       </c>
       <c r="C93">
-        <v>0.64659999999999995</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="D93" s="4">
         <f t="shared" si="5"/>
-        <v>0.29319999999999991</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7474,11 +7616,11 @@
         <v>0.94</v>
       </c>
       <c r="C94">
-        <v>0.89851440000000005</v>
+        <v>0.89629999999999999</v>
       </c>
       <c r="D94" s="4">
         <f t="shared" si="5"/>
-        <v>4.4133617021276494E-2</v>
+        <v>4.648936170212762E-2</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7498,11 +7640,11 @@
         <v>0.312</v>
       </c>
       <c r="C96">
-        <v>0.26488</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="D96" s="4">
         <f>ABS(C96-B96)/B96</f>
-        <v>0.15102564102564101</v>
+        <v>2.8846153846153872E-2</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7513,11 +7655,11 @@
         <v>9.4899999999999998E-2</v>
       </c>
       <c r="C97">
-        <v>0.181786</v>
+        <v>0.1206</v>
       </c>
       <c r="D97" s="4">
         <f>ABS(C97-B97)/B97</f>
-        <v>0.91555321390937838</v>
+        <v>0.27081138040042152</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7528,11 +7670,11 @@
         <v>4.405E-5</v>
       </c>
       <c r="C98" s="3">
-        <v>1.1844E-4</v>
+        <v>1.102E-5</v>
       </c>
       <c r="D98" s="4">
         <f>ABS(C98-B98)/B98</f>
-        <v>1.6887627695800227</v>
+        <v>0.74982973893303062</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7543,11 +7685,11 @@
         <v>2.8299999999999999E-4</v>
       </c>
       <c r="C99" s="3">
-        <v>1.1896999999999999E-4</v>
+        <v>1.7420000000000001E-4</v>
       </c>
       <c r="D99" s="4">
         <f>ABS(C99-B99)/B99</f>
-        <v>0.57961130742049471</v>
+        <v>0.38445229681978793</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7558,11 +7700,11 @@
         <v>1</v>
       </c>
       <c r="C100">
-        <v>1.964</v>
+        <v>1.9863999999999999</v>
       </c>
       <c r="D100" s="4">
         <f t="shared" ref="D100:D101" si="6">ABS(C100-B100)/B100</f>
-        <v>0.96399999999999997</v>
+        <v>0.98639999999999994</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7573,11 +7715,11 @@
         <v>1.5</v>
       </c>
       <c r="C101">
-        <v>3.8698600000000001</v>
+        <v>0.46729999999999999</v>
       </c>
       <c r="D101" s="4">
         <f t="shared" si="6"/>
-        <v>1.5799066666666668</v>
+        <v>0.68846666666666667</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7612,16 +7754,16 @@
       <c r="C104" s="15"/>
       <c r="D104" s="16">
         <f>AVERAGE(D81:D103)</f>
-        <v>0.75636963317060546</v>
+        <v>0.75351257566993968</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="27" t="s">
+      <c r="A105" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
     </row>
     <row r="106" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
@@ -7982,12 +8124,12 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="27" t="s">
+      <c r="A131" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B131" s="27"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="27"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="35"/>
+      <c r="D131" s="35"/>
     </row>
     <row r="132" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -8348,12 +8490,12 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="27" t="s">
+      <c r="A157" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B157" s="27"/>
-      <c r="C157" s="27"/>
-      <c r="D157" s="27"/>
+      <c r="B157" s="35"/>
+      <c r="C157" s="35"/>
+      <c r="D157" s="35"/>
     </row>
     <row r="158" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
@@ -8714,12 +8856,12 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="27" t="s">
+      <c r="A183" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B183" s="27"/>
-      <c r="C183" s="27"/>
-      <c r="D183" s="27"/>
+      <c r="B183" s="35"/>
+      <c r="C183" s="35"/>
+      <c r="D183" s="35"/>
     </row>
     <row r="184" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
@@ -9080,12 +9222,12 @@
       </c>
     </row>
     <row r="209" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="27" t="s">
+      <c r="A209" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B209" s="27"/>
-      <c r="C209" s="27"/>
-      <c r="D209" s="27"/>
+      <c r="B209" s="35"/>
+      <c r="C209" s="35"/>
+      <c r="D209" s="35"/>
     </row>
     <row r="210" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
@@ -9446,12 +9588,12 @@
       </c>
     </row>
     <row r="235" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="27" t="s">
+      <c r="A235" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B235" s="27"/>
-      <c r="C235" s="27"/>
-      <c r="D235" s="27"/>
+      <c r="B235" s="35"/>
+      <c r="C235" s="35"/>
+      <c r="D235" s="35"/>
     </row>
     <row r="236" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
@@ -9805,18 +9947,379 @@
         <v>0.63997298702070649</v>
       </c>
     </row>
+    <row r="261" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B261" s="35"/>
+      <c r="C261" s="35"/>
+      <c r="D261" s="35"/>
+    </row>
+    <row r="262" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B263" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C263" s="3">
+        <v>2260000000000</v>
+      </c>
+      <c r="D263" s="4">
+        <f t="shared" ref="D263:D276" si="19">ABS(C263-B263)/B263</f>
+        <v>3.4188034188034191E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B264" s="3">
+        <v>75000000000000</v>
+      </c>
+      <c r="C264" s="3">
+        <v>80500000000000</v>
+      </c>
+      <c r="D264" s="4">
+        <f t="shared" si="19"/>
+        <v>7.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B265" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C265">
+        <v>1086.56</v>
+      </c>
+      <c r="D265" s="4">
+        <f t="shared" si="19"/>
+        <v>6.0740740740740234E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B266">
+        <v>1041</v>
+      </c>
+      <c r="C266">
+        <v>919.29</v>
+      </c>
+      <c r="D266" s="4">
+        <f t="shared" si="19"/>
+        <v>0.11691642651296834</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B267" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C267">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="D267" s="4">
+        <f t="shared" si="19"/>
+        <v>5.7522123893805274E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B268" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C268">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="D268" s="4">
+        <f t="shared" si="19"/>
+        <v>0.35598455598455597</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B269" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C269" s="3">
+        <v>181000</v>
+      </c>
+      <c r="D269" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B270" s="3">
+        <v>193000</v>
+      </c>
+      <c r="C270" s="3">
+        <v>194000</v>
+      </c>
+      <c r="D270" s="4">
+        <f t="shared" si="19"/>
+        <v>5.1813471502590676E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B271" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C271">
+        <v>147396</v>
+      </c>
+      <c r="D271" s="4">
+        <f t="shared" si="19"/>
+        <v>0.47395999999999999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B272" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C272">
+        <v>180148.6</v>
+      </c>
+      <c r="D272" s="4">
+        <f t="shared" si="19"/>
+        <v>9.925699999999997E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B273" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C273">
+        <v>19370.400000000001</v>
+      </c>
+      <c r="D273" s="4">
+        <f t="shared" si="19"/>
+        <v>0.9370400000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B274">
+        <v>0.75</v>
+      </c>
+      <c r="C274">
+        <v>0.7268</v>
+      </c>
+      <c r="D274" s="4">
+        <f t="shared" si="19"/>
+        <v>3.093333333333333E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B275">
+        <v>0.5</v>
+      </c>
+      <c r="C275">
+        <v>0.51829999999999998</v>
+      </c>
+      <c r="D275" s="4">
+        <f t="shared" si="19"/>
+        <v>3.6599999999999966E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276">
+        <v>0.94</v>
+      </c>
+      <c r="C276">
+        <v>0.95</v>
+      </c>
+      <c r="D276" s="4">
+        <f t="shared" si="19"/>
+        <v>1.0638297872340436E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B277">
+        <v>0.94</v>
+      </c>
+      <c r="D277" s="4"/>
+    </row>
+    <row r="278" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B278" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C278">
+        <v>0.31130000000000002</v>
+      </c>
+      <c r="D278" s="4">
+        <f>ABS(C278-B278)/B278</f>
+        <v>2.2435897435896745E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B279">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C279">
+        <v>0.1719</v>
+      </c>
+      <c r="D279" s="4">
+        <f>ABS(C279-B279)/B279</f>
+        <v>0.81138040042149628</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B280" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C280" s="3">
+        <v>5.2139999999999999E-5</v>
+      </c>
+      <c r="D280" s="4">
+        <f>ABS(C280-B280)/B280</f>
+        <v>0.18365493757094209</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B281" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C281" s="3">
+        <v>1.771E-4</v>
+      </c>
+      <c r="D281" s="4">
+        <f>ABS(C281-B281)/B281</f>
+        <v>0.37420494699646645</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>1.0145</v>
+      </c>
+      <c r="D282" s="4">
+        <f t="shared" ref="D282:D283" si="20">ABS(C282-B282)/B282</f>
+        <v>1.4499999999999957E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B283">
+        <v>1.5</v>
+      </c>
+      <c r="C283">
+        <v>1.4386000000000001</v>
+      </c>
+      <c r="D283" s="4">
+        <f t="shared" si="20"/>
+        <v>4.0933333333333266E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B284">
+        <v>1683</v>
+      </c>
+      <c r="D284" s="4"/>
+    </row>
+    <row r="285" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B285">
+        <v>1235</v>
+      </c>
+      <c r="D285" s="4"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B286" s="15"/>
+      <c r="C286" s="15"/>
+      <c r="D286" s="16">
+        <f>AVERAGE(D263:D285)</f>
+        <v>0.18322728672042657</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A261:D261"/>
     <mergeCell ref="A157:D157"/>
     <mergeCell ref="A183:D183"/>
     <mergeCell ref="A209:D209"/>
     <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A131:D131"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="A79:D79"/>
     <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A131:D131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9826,8 +10329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="E255" sqref="E255"/>
+    <sheetView topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9836,12 +10339,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -10202,12 +10705,12 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -10568,12 +11071,12 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
     </row>
     <row r="54" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -10928,12 +11431,12 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
     </row>
     <row r="80" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
@@ -11294,12 +11797,12 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="27" t="s">
+      <c r="A105" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
     </row>
     <row r="106" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
@@ -11660,12 +12163,12 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="27" t="s">
+      <c r="A131" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B131" s="27"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="27"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="35"/>
+      <c r="D131" s="35"/>
     </row>
     <row r="132" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
@@ -12026,12 +12529,12 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="27" t="s">
+      <c r="A157" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B157" s="27"/>
-      <c r="C157" s="27"/>
-      <c r="D157" s="27"/>
+      <c r="B157" s="35"/>
+      <c r="C157" s="35"/>
+      <c r="D157" s="35"/>
     </row>
     <row r="158" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
@@ -12392,12 +12895,12 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="27" t="s">
+      <c r="A183" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B183" s="27"/>
-      <c r="C183" s="27"/>
-      <c r="D183" s="27"/>
+      <c r="B183" s="35"/>
+      <c r="C183" s="35"/>
+      <c r="D183" s="35"/>
     </row>
     <row r="184" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
@@ -12758,12 +13261,12 @@
       </c>
     </row>
     <row r="209" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="27" t="s">
+      <c r="A209" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B209" s="27"/>
-      <c r="C209" s="27"/>
-      <c r="D209" s="27"/>
+      <c r="B209" s="35"/>
+      <c r="C209" s="35"/>
+      <c r="D209" s="35"/>
     </row>
     <row r="210" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
@@ -13124,12 +13627,12 @@
       </c>
     </row>
     <row r="235" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="27" t="s">
+      <c r="A235" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B235" s="27"/>
-      <c r="C235" s="27"/>
-      <c r="D235" s="27"/>
+      <c r="B235" s="35"/>
+      <c r="C235" s="35"/>
+      <c r="D235" s="35"/>
     </row>
     <row r="236" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
@@ -13502,10 +14005,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B6A79E-D689-4891-8C33-A91335B010B5}">
-  <dimension ref="A1:E317"/>
+  <dimension ref="A1:E380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="F310" sqref="F310"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="F374" sqref="F374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13514,12 +14017,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -13813,12 +14316,12 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
     </row>
     <row r="23" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -14102,12 +14605,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
     </row>
     <row r="44" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -14391,12 +14894,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
     </row>
     <row r="65" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
@@ -14677,12 +15180,12 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
     </row>
     <row r="86" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -14963,12 +15466,12 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
+      <c r="A106" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
     </row>
     <row r="107" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
@@ -15249,12 +15752,12 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="27" t="s">
+      <c r="A127" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B127" s="27"/>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="35"/>
     </row>
     <row r="128" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -15272,249 +15775,258 @@
     </row>
     <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B129" s="3">
         <v>2340000000000</v>
       </c>
       <c r="C129" s="3">
-        <v>2130000000000</v>
+        <v>2210000000000</v>
       </c>
       <c r="D129" s="4">
         <f>ABS(C129-B129)/B129</f>
-        <v>8.9743589743589744E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="3">
-        <v>181000</v>
+        <v>7</v>
+      </c>
+      <c r="B130" s="5">
+        <v>1080</v>
       </c>
       <c r="C130" s="3">
-        <v>181000</v>
+        <v>1129</v>
       </c>
       <c r="D130" s="4">
-        <f t="shared" ref="D130:D140" si="16">ABS(C130-B130)/B130</f>
-        <v>0</v>
+        <f t="shared" ref="D130:D136" si="16">ABS(C130-B130)/B130</f>
+        <v>4.5370370370370373E-2</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>1041</v>
       </c>
       <c r="C131">
-        <v>0.99460000000000004</v>
+        <v>1344</v>
       </c>
       <c r="D131" s="4">
         <f t="shared" si="16"/>
-        <v>5.3999999999999604E-3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.29106628242074928</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B132" s="3">
-        <v>100000</v>
+        <v>8</v>
+      </c>
+      <c r="B132" s="5">
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="C132">
-        <v>99015</v>
+        <v>2.0034E-2</v>
       </c>
       <c r="D132" s="4">
         <f t="shared" si="16"/>
-        <v>9.8499999999999994E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.55676991150442479</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B133" s="5">
-        <v>0.312</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="C133">
-        <v>0.316</v>
+        <v>9.64E-2</v>
       </c>
       <c r="D133" s="4">
         <f t="shared" si="16"/>
-        <v>1.2820512820512832E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.62779922779922792</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B134" s="3">
-        <v>4.405E-5</v>
+        <v>181000</v>
       </c>
       <c r="C134" s="3">
-        <v>3.8099999999999998E-5</v>
+        <v>181000</v>
       </c>
       <c r="D134" s="4">
         <f t="shared" si="16"/>
-        <v>0.13507377979568677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B135" s="5">
-        <v>1080</v>
+        <v>71</v>
+      </c>
+      <c r="B135" s="3">
+        <v>100000</v>
       </c>
       <c r="C135">
-        <v>1080.5440000000001</v>
+        <v>114432</v>
       </c>
       <c r="D135" s="4">
         <f t="shared" si="16"/>
-        <v>5.0370370370379292E-4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.14432</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B136" s="5">
-        <v>4.5199999999999997E-2</v>
+        <v>17</v>
+      </c>
+      <c r="B136" s="3">
+        <v>10000</v>
       </c>
       <c r="C136">
-        <v>6.386E-2</v>
+        <v>2623</v>
       </c>
       <c r="D136" s="4">
         <f t="shared" si="16"/>
-        <v>0.41283185840707975</v>
+        <v>0.73770000000000002</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B137">
-        <v>9.4899999999999998E-2</v>
-      </c>
-      <c r="C137">
-        <v>2.6200000000000001E-2</v>
-      </c>
-      <c r="D137" s="4">
-        <f t="shared" si="16"/>
-        <v>0.72391991570073755</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B138" s="5">
-        <v>2.8299999999999999E-4</v>
-      </c>
-      <c r="C138">
-        <v>3.7500000000000001E-4</v>
+        <v>15</v>
+      </c>
+      <c r="B138">
+        <v>0.94</v>
+      </c>
+      <c r="C138" s="3">
+        <v>0.99460000000000004</v>
       </c>
       <c r="D138" s="4">
-        <f t="shared" si="16"/>
-        <v>0.32508833922261487</v>
+        <f t="shared" ref="D138" si="17">ABS(C138-B138)/B138</f>
+        <v>5.8085106382978827E-2</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B139">
-        <v>1041</v>
+        <v>0.94</v>
       </c>
       <c r="C139">
-        <v>960.74</v>
-      </c>
-      <c r="D139" s="4">
-        <f t="shared" si="16"/>
-        <v>7.7098943323727173E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.94</v>
+      </c>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B140" s="5">
-        <v>0.25900000000000001</v>
+        <v>0.312</v>
       </c>
       <c r="C140">
-        <v>0.37619999999999998</v>
+        <v>0.2707</v>
       </c>
       <c r="D140" s="4">
-        <f t="shared" si="16"/>
-        <v>0.45250965250965236</v>
+        <f t="shared" ref="D140:D144" si="18">ABS(C140-B140)/B140</f>
+        <v>0.13237179487179487</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B141">
-        <v>1683</v>
-      </c>
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C141">
+        <v>0.1026</v>
+      </c>
+      <c r="D141" s="4">
+        <f t="shared" si="18"/>
+        <v>8.1138040042149612E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B142">
-        <v>1235</v>
-      </c>
-      <c r="D142" s="4"/>
-    </row>
-    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="B142" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C142" s="3">
+        <v>1.6190000000000001E-4</v>
+      </c>
+      <c r="D142" s="4">
+        <f t="shared" si="18"/>
+        <v>2.6753688989784337</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B143">
-        <v>0.94</v>
-      </c>
-      <c r="C143">
-        <v>0.9466</v>
+        <v>10</v>
+      </c>
+      <c r="B143" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C143" s="3">
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="D143" s="4">
-        <f t="shared" ref="D143" si="17">ABS(C143-B143)/B143</f>
-        <v>7.0212765957447347E-3</v>
+        <f t="shared" si="18"/>
+        <v>0.80212014134275633</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B144">
-        <v>0.94</v>
-      </c>
-      <c r="D144" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>0.94769999999999999</v>
+      </c>
+      <c r="D144" s="4">
+        <f t="shared" si="18"/>
+        <v>5.2300000000000013E-2</v>
+      </c>
     </row>
     <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B145">
-        <v>0.73380000000000001</v>
+        <v>1683</v>
+      </c>
+      <c r="C145">
+        <v>1683</v>
       </c>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B146" s="3">
-        <v>10000</v>
+        <v>14</v>
+      </c>
+      <c r="B146">
+        <v>1235</v>
       </c>
       <c r="C146">
-        <v>13027</v>
-      </c>
-      <c r="D146" s="4">
-        <f>ABS(C146-B146)/B146</f>
-        <v>0.30270000000000002</v>
-      </c>
+        <v>1235</v>
+      </c>
+      <c r="D146" s="4"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
@@ -15522,16 +16034,16 @@
       </c>
       <c r="D147" s="4">
         <f>AVERAGE(D129:D146)</f>
-        <v>0.18246868370164643</v>
+        <v>0.4471403806620316</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="27" t="s">
+      <c r="A148" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B148" s="27"/>
-      <c r="C148" s="27"/>
-      <c r="D148" s="27"/>
+      <c r="B148" s="35"/>
+      <c r="C148" s="35"/>
+      <c r="D148" s="35"/>
     </row>
     <row r="149" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
@@ -15573,7 +16085,7 @@
         <v>1070.836</v>
       </c>
       <c r="D151" s="4">
-        <f t="shared" ref="D151:D157" si="18">ABS(C151-B151)/B151</f>
+        <f t="shared" ref="D151:D157" si="19">ABS(C151-B151)/B151</f>
         <v>8.4851851851851737E-3</v>
       </c>
     </row>
@@ -15588,7 +16100,7 @@
         <v>1191.8</v>
       </c>
       <c r="D152" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.14486071085494712</v>
       </c>
     </row>
@@ -15603,7 +16115,7 @@
         <v>0.13439999999999999</v>
       </c>
       <c r="D153" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.9734513274336285</v>
       </c>
     </row>
@@ -15618,7 +16130,7 @@
         <v>9.8997000000000002E-2</v>
       </c>
       <c r="D154" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.61777220077220074</v>
       </c>
     </row>
@@ -15633,7 +16145,7 @@
         <v>181000</v>
       </c>
       <c r="D155" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -15648,7 +16160,7 @@
         <v>101833.57</v>
       </c>
       <c r="D156" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.8335700000000069E-2</v>
       </c>
     </row>
@@ -15663,7 +16175,7 @@
         <v>31897</v>
       </c>
       <c r="D157" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.1897000000000002</v>
       </c>
     </row>
@@ -15687,7 +16199,7 @@
         <v>0.96</v>
       </c>
       <c r="D159" s="4">
-        <f t="shared" ref="D159" si="19">ABS(C159-B159)/B159</f>
+        <f t="shared" ref="D159" si="20">ABS(C159-B159)/B159</f>
         <v>2.1276595744680871E-2</v>
       </c>
     </row>
@@ -15714,7 +16226,7 @@
         <v>0.29820000000000002</v>
       </c>
       <c r="D161" s="4">
-        <f t="shared" ref="D161:D165" si="20">ABS(C161-B161)/B161</f>
+        <f t="shared" ref="D161:D165" si="21">ABS(C161-B161)/B161</f>
         <v>4.4230769230769164E-2</v>
       </c>
     </row>
@@ -15729,7 +16241,7 @@
         <v>3.8399999999999997E-2</v>
       </c>
       <c r="D162" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.59536354056902008</v>
       </c>
     </row>
@@ -15744,7 +16256,7 @@
         <v>9.6520000000000004E-5</v>
       </c>
       <c r="D163" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.1911464245175938</v>
       </c>
     </row>
@@ -15759,7 +16271,7 @@
         <v>3.79E-4</v>
       </c>
       <c r="D164" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.33922261484098942</v>
       </c>
     </row>
@@ -15774,7 +16286,7 @@
         <v>0.99780000000000002</v>
       </c>
       <c r="D165" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.1999999999999797E-3</v>
       </c>
     </row>
@@ -15812,12 +16324,12 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="27" t="s">
+      <c r="A169" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B169" s="27"/>
-      <c r="C169" s="27"/>
-      <c r="D169" s="27"/>
+      <c r="B169" s="35"/>
+      <c r="C169" s="35"/>
+      <c r="D169" s="35"/>
     </row>
     <row r="170" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
@@ -15859,7 +16371,7 @@
         <v>177000</v>
       </c>
       <c r="D172" s="4">
-        <f t="shared" ref="D172:D182" si="21">ABS(C172-B172)/B172</f>
+        <f t="shared" ref="D172:D182" si="22">ABS(C172-B172)/B172</f>
         <v>2.2099447513812154E-2</v>
       </c>
     </row>
@@ -15874,7 +16386,7 @@
         <v>0.94369999999999998</v>
       </c>
       <c r="D173" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.6300000000000017E-2</v>
       </c>
     </row>
@@ -15889,7 +16401,7 @@
         <v>125218.6</v>
       </c>
       <c r="D174" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.25218600000000008</v>
       </c>
     </row>
@@ -15904,7 +16416,7 @@
         <v>0.20830000000000001</v>
       </c>
       <c r="D175" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.33237179487179486</v>
       </c>
     </row>
@@ -15919,7 +16431,7 @@
         <v>1.75E-4</v>
       </c>
       <c r="D176" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.9727582292849037</v>
       </c>
     </row>
@@ -15934,7 +16446,7 @@
         <v>1054.08</v>
       </c>
       <c r="D177" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.4000000000000066E-2</v>
       </c>
     </row>
@@ -15949,7 +16461,7 @@
         <v>4.07E-2</v>
       </c>
       <c r="D178" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9.9557522123893752E-2</v>
       </c>
     </row>
@@ -15964,7 +16476,7 @@
         <v>0.09</v>
       </c>
       <c r="D179" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.1633298208640689E-2</v>
       </c>
     </row>
@@ -15979,7 +16491,7 @@
         <v>5.5999999999999995E-4</v>
       </c>
       <c r="D180" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.97879858657243801</v>
       </c>
     </row>
@@ -15994,7 +16506,7 @@
         <v>2525.67</v>
       </c>
       <c r="D181" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.4261959654178675</v>
       </c>
     </row>
@@ -16009,7 +16521,7 @@
         <v>0.7298</v>
       </c>
       <c r="D182" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.8177606177606176</v>
       </c>
     </row>
@@ -16042,7 +16554,7 @@
         <v>0.80740000000000001</v>
       </c>
       <c r="D185" s="4">
-        <f t="shared" ref="D185" si="22">ABS(C185-B185)/B185</f>
+        <f t="shared" ref="D185" si="23">ABS(C185-B185)/B185</f>
         <v>0.14106382978723397</v>
       </c>
     </row>
@@ -16089,12 +16601,12 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="27" t="s">
+      <c r="A190" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B190" s="27"/>
-      <c r="C190" s="27"/>
-      <c r="D190" s="27"/>
+      <c r="B190" s="35"/>
+      <c r="C190" s="35"/>
+      <c r="D190" s="35"/>
     </row>
     <row r="191" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -16136,7 +16648,7 @@
         <v>182000</v>
       </c>
       <c r="D193" s="4">
-        <f t="shared" ref="D193:D203" si="23">ABS(C193-B193)/B193</f>
+        <f t="shared" ref="D193:D203" si="24">ABS(C193-B193)/B193</f>
         <v>5.5248618784530384E-3</v>
       </c>
     </row>
@@ -16151,7 +16663,7 @@
         <v>0.995</v>
       </c>
       <c r="D194" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
@@ -16166,7 +16678,7 @@
         <v>101867.34</v>
       </c>
       <c r="D195" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.8673399999999965E-2</v>
       </c>
     </row>
@@ -16181,7 +16693,7 @@
         <v>0.30370000000000003</v>
       </c>
       <c r="D196" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.6602564102564018E-2</v>
       </c>
     </row>
@@ -16196,7 +16708,7 @@
         <v>3.5120000000000003E-5</v>
       </c>
       <c r="D197" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.20272417707150958</v>
       </c>
     </row>
@@ -16211,7 +16723,7 @@
         <v>1042.5</v>
       </c>
       <c r="D198" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
@@ -16226,7 +16738,7 @@
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="D199" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.7610619469026552E-2</v>
       </c>
     </row>
@@ -16241,7 +16753,7 @@
         <v>0.245</v>
       </c>
       <c r="D200" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.5816649104320339</v>
       </c>
     </row>
@@ -16256,7 +16768,7 @@
         <v>7.1559999999999999E-5</v>
       </c>
       <c r="D201" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.74713780918727912</v>
       </c>
     </row>
@@ -16271,7 +16783,7 @@
         <v>1134.6400000000001</v>
       </c>
       <c r="D202" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.9951969260326711E-2</v>
       </c>
     </row>
@@ -16286,7 +16798,7 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="D203" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.54826254826254828</v>
       </c>
     </row>
@@ -16319,7 +16831,7 @@
         <v>0.91679999999999995</v>
       </c>
       <c r="D206" s="4">
-        <f t="shared" ref="D206" si="24">ABS(C206-B206)/B206</f>
+        <f t="shared" ref="D206" si="25">ABS(C206-B206)/B206</f>
         <v>2.4680851063829785E-2</v>
       </c>
     </row>
@@ -16366,12 +16878,12 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="27" t="s">
+      <c r="A211" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B211" s="27"/>
-      <c r="C211" s="27"/>
-      <c r="D211" s="27"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="35"/>
+      <c r="D211" s="35"/>
     </row>
     <row r="212" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -16413,7 +16925,7 @@
         <v>182000</v>
       </c>
       <c r="D214" s="4">
-        <f t="shared" ref="D214:D224" si="25">ABS(C214-B214)/B214</f>
+        <f t="shared" ref="D214:D224" si="26">ABS(C214-B214)/B214</f>
         <v>5.5248618784530384E-3</v>
       </c>
     </row>
@@ -16428,7 +16940,7 @@
         <v>1.0098</v>
       </c>
       <c r="D215" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.8000000000000309E-3</v>
       </c>
     </row>
@@ -16443,7 +16955,7 @@
         <v>99213.5</v>
       </c>
       <c r="D216" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.8650000000000005E-3</v>
       </c>
     </row>
@@ -16458,7 +16970,7 @@
         <v>0.3125</v>
       </c>
       <c r="D217" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.602564102564104E-3</v>
       </c>
     </row>
@@ -16473,7 +16985,7 @@
         <v>4.1539999999999999E-5</v>
       </c>
       <c r="D218" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.6980703745743502E-2</v>
       </c>
     </row>
@@ -16488,7 +17000,7 @@
         <v>1028.5999999999999</v>
       </c>
       <c r="D219" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.7592592592592679E-2</v>
       </c>
     </row>
@@ -16503,7 +17015,7 @@
         <v>0.13730000000000001</v>
       </c>
       <c r="D220" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.0376106194690271</v>
       </c>
     </row>
@@ -16518,7 +17030,7 @@
         <v>2.3699999999999999E-2</v>
       </c>
       <c r="D221" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.7502634351949421</v>
       </c>
     </row>
@@ -16533,7 +17045,7 @@
         <v>3.8699999999999997E-4</v>
       </c>
       <c r="D222" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.36749116607773846</v>
       </c>
     </row>
@@ -16548,7 +17060,7 @@
         <v>1130.45</v>
       </c>
       <c r="D223" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.5926993275696487E-2</v>
       </c>
     </row>
@@ -16563,7 +17075,7 @@
         <v>0.12565000000000001</v>
       </c>
       <c r="D224" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.51486486486486482</v>
       </c>
     </row>
@@ -16596,7 +17108,7 @@
         <v>0.9355</v>
       </c>
       <c r="D227" s="4">
-        <f t="shared" ref="D227" si="26">ABS(C227-B227)/B227</f>
+        <f t="shared" ref="D227" si="27">ABS(C227-B227)/B227</f>
         <v>4.7872340425531368E-3</v>
       </c>
     </row>
@@ -16643,12 +17155,12 @@
       </c>
     </row>
     <row r="232" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="27" t="s">
+      <c r="A232" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B232" s="27"/>
-      <c r="C232" s="27"/>
-      <c r="D232" s="27"/>
+      <c r="B232" s="35"/>
+      <c r="C232" s="35"/>
+      <c r="D232" s="35"/>
     </row>
     <row r="233" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
@@ -16686,7 +17198,7 @@
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="4">
-        <f t="shared" ref="D235:D245" si="27">ABS(C235-B235)/B235</f>
+        <f t="shared" ref="D235:D245" si="28">ABS(C235-B235)/B235</f>
         <v>1</v>
       </c>
     </row>
@@ -16698,7 +17210,7 @@
         <v>1</v>
       </c>
       <c r="D236" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
@@ -16710,7 +17222,7 @@
         <v>100000</v>
       </c>
       <c r="D237" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
@@ -16722,7 +17234,7 @@
         <v>0.312</v>
       </c>
       <c r="D238" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
@@ -16735,7 +17247,7 @@
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
@@ -16747,7 +17259,7 @@
         <v>1080</v>
       </c>
       <c r="D240" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
@@ -16759,7 +17271,7 @@
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="D241" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
@@ -16771,7 +17283,7 @@
         <v>9.4899999999999998E-2</v>
       </c>
       <c r="D242" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
@@ -16783,7 +17295,7 @@
         <v>2.8299999999999999E-4</v>
       </c>
       <c r="D243" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
@@ -16795,7 +17307,7 @@
         <v>1041</v>
       </c>
       <c r="D244" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
@@ -16807,7 +17319,7 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="D245" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
@@ -16837,7 +17349,7 @@
         <v>0.94</v>
       </c>
       <c r="D248" s="4">
-        <f t="shared" ref="D248" si="28">ABS(C248-B248)/B248</f>
+        <f t="shared" ref="D248" si="29">ABS(C248-B248)/B248</f>
         <v>1</v>
       </c>
     </row>
@@ -16881,12 +17393,12 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="27" t="s">
+      <c r="A253" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B253" s="27"/>
-      <c r="C253" s="27"/>
-      <c r="D253" s="27"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="35"/>
+      <c r="D253" s="35"/>
     </row>
     <row r="254" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -16928,7 +17440,7 @@
         <v>1074.1500000000001</v>
       </c>
       <c r="D256" s="4">
-        <f t="shared" ref="D256:D262" si="29">ABS(C256-B256)/B256</f>
+        <f t="shared" ref="D256:D262" si="30">ABS(C256-B256)/B256</f>
         <v>5.4166666666665827E-3</v>
       </c>
     </row>
@@ -16943,7 +17455,7 @@
         <v>1118.3</v>
       </c>
       <c r="D257" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7.4255523535062401E-2</v>
       </c>
     </row>
@@ -16958,7 +17470,7 @@
         <v>6.8797999999999998E-2</v>
       </c>
       <c r="D258" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.52207964601769918</v>
       </c>
     </row>
@@ -16973,7 +17485,7 @@
         <v>0.20219999999999999</v>
       </c>
       <c r="D259" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.21930501930501936</v>
       </c>
     </row>
@@ -16988,7 +17500,7 @@
         <v>181000</v>
       </c>
       <c r="D260" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -17003,7 +17515,7 @@
         <v>100728</v>
       </c>
       <c r="D261" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7.28E-3</v>
       </c>
     </row>
@@ -17018,7 +17530,7 @@
         <v>10974</v>
       </c>
       <c r="D262" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>9.74E-2</v>
       </c>
     </row>
@@ -17042,7 +17554,7 @@
         <v>0.94</v>
       </c>
       <c r="D264" s="4">
-        <f t="shared" ref="D264" si="30">ABS(C264-B264)/B264</f>
+        <f t="shared" ref="D264" si="31">ABS(C264-B264)/B264</f>
         <v>0</v>
       </c>
     </row>
@@ -17069,7 +17581,7 @@
         <v>0.30299999999999999</v>
       </c>
       <c r="D266" s="4">
-        <f t="shared" ref="D266:D270" si="31">ABS(C266-B266)/B266</f>
+        <f t="shared" ref="D266:D270" si="32">ABS(C266-B266)/B266</f>
         <v>2.8846153846153872E-2</v>
       </c>
     </row>
@@ -17084,7 +17596,7 @@
         <v>6.93E-2</v>
       </c>
       <c r="D267" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.2697576396206533</v>
       </c>
     </row>
@@ -17099,7 +17611,7 @@
         <v>6.3100000000000002E-5</v>
       </c>
       <c r="D268" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.43246311010215671</v>
       </c>
     </row>
@@ -17114,7 +17626,7 @@
         <v>3.2539999999999999E-4</v>
       </c>
       <c r="D269" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.14982332155477032</v>
       </c>
     </row>
@@ -17129,7 +17641,7 @@
         <v>0.99690000000000001</v>
       </c>
       <c r="D270" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3.0999999999999917E-3</v>
       </c>
     </row>
@@ -17167,12 +17679,12 @@
       </c>
     </row>
     <row r="274" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="27" t="s">
+      <c r="A274" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="B274" s="27"/>
-      <c r="C274" s="27"/>
-      <c r="D274" s="27"/>
+      <c r="B274" s="35"/>
+      <c r="C274" s="35"/>
+      <c r="D274" s="35"/>
     </row>
     <row r="275" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
@@ -17214,7 +17726,7 @@
         <v>1058.94</v>
       </c>
       <c r="D277" s="4">
-        <f t="shared" ref="D277:D283" si="32">ABS(C277-B277)/B277</f>
+        <f t="shared" ref="D277:D283" si="33">ABS(C277-B277)/B277</f>
         <v>1.9499999999999948E-2</v>
       </c>
     </row>
@@ -17229,7 +17741,7 @@
         <v>1028.712</v>
       </c>
       <c r="D278" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.1804034582132574E-2</v>
       </c>
     </row>
@@ -17244,7 +17756,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="D279" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0796460176991152</v>
       </c>
     </row>
@@ -17259,7 +17771,7 @@
         <v>0.28138000000000002</v>
       </c>
       <c r="D280" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>8.6409266409266453E-2</v>
       </c>
     </row>
@@ -17274,7 +17786,7 @@
         <v>181000</v>
       </c>
       <c r="D281" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -17289,7 +17801,7 @@
         <v>99978.58</v>
       </c>
       <c r="D282" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.1419999999998255E-4</v>
       </c>
     </row>
@@ -17304,7 +17816,7 @@
         <v>15453.73</v>
       </c>
       <c r="D283" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.545373</v>
       </c>
     </row>
@@ -17328,7 +17840,7 @@
         <v>0.94138999999999995</v>
       </c>
       <c r="D285" s="4">
-        <f t="shared" ref="D285" si="33">ABS(C285-B285)/B285</f>
+        <f t="shared" ref="D285" si="34">ABS(C285-B285)/B285</f>
         <v>1.4787234042553216E-3</v>
       </c>
     </row>
@@ -17355,7 +17867,7 @@
         <v>0.30520000000000003</v>
       </c>
       <c r="D287" s="4">
-        <f t="shared" ref="D287:D294" si="34">ABS(C287-B287)/B287</f>
+        <f t="shared" ref="D287:D294" si="35">ABS(C287-B287)/B287</f>
         <v>2.1794871794871707E-2</v>
       </c>
     </row>
@@ -17370,7 +17882,7 @@
         <v>8.2979999999999998E-2</v>
       </c>
       <c r="D288" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.12560590094836671</v>
       </c>
     </row>
@@ -17385,7 +17897,7 @@
         <v>5.9880000000000003E-5</v>
       </c>
       <c r="D289" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.35936435868331446</v>
       </c>
     </row>
@@ -17400,7 +17912,7 @@
         <v>2.99E-4</v>
       </c>
       <c r="D290" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>5.6537102473498267E-2</v>
       </c>
     </row>
@@ -17415,7 +17927,7 @@
         <v>0.99970000000000003</v>
       </c>
       <c r="D291" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.9999999999996696E-4</v>
       </c>
     </row>
@@ -17444,7 +17956,7 @@
       <c r="D293" s="4"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="28" t="s">
+      <c r="A294" s="22" t="s">
         <v>114</v>
       </c>
       <c r="B294">
@@ -17454,7 +17966,7 @@
         <v>20.058700000000002</v>
       </c>
       <c r="D294" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.9350000000000877E-3</v>
       </c>
     </row>
@@ -17468,12 +17980,12 @@
       </c>
     </row>
     <row r="296" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B296" s="27"/>
-      <c r="C296" s="27"/>
-      <c r="D296" s="27"/>
+      <c r="B296" s="35"/>
+      <c r="C296" s="35"/>
+      <c r="D296" s="35"/>
     </row>
     <row r="297" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
@@ -17515,7 +18027,7 @@
         <v>1141.6400000000001</v>
       </c>
       <c r="D299" s="4">
-        <f t="shared" ref="D299:D305" si="35">ABS(C299-B299)/B299</f>
+        <f t="shared" ref="D299:D305" si="36">ABS(C299-B299)/B299</f>
         <v>5.7074074074074166E-2</v>
       </c>
     </row>
@@ -17530,7 +18042,7 @@
         <v>2480</v>
       </c>
       <c r="D300" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.382324687800192</v>
       </c>
     </row>
@@ -17545,7 +18057,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="D301" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.75</v>
       </c>
     </row>
@@ -17560,7 +18072,7 @@
         <v>0.25869999999999999</v>
       </c>
       <c r="D302" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.158301158301245E-3</v>
       </c>
     </row>
@@ -17575,7 +18087,7 @@
         <v>157000</v>
       </c>
       <c r="D303" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.13259668508287292</v>
       </c>
     </row>
@@ -17590,7 +18102,7 @@
         <v>25000</v>
       </c>
       <c r="D304" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.75</v>
       </c>
     </row>
@@ -17605,7 +18117,7 @@
         <v>2500</v>
       </c>
       <c r="D305" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.75</v>
       </c>
     </row>
@@ -17629,7 +18141,7 @@
         <v>0.69840000000000002</v>
       </c>
       <c r="D307" s="4">
-        <f t="shared" ref="D307" si="36">ABS(C307-B307)/B307</f>
+        <f t="shared" ref="D307" si="37">ABS(C307-B307)/B307</f>
         <v>0.25702127659574464</v>
       </c>
     </row>
@@ -17656,7 +18168,7 @@
         <v>0.37080000000000002</v>
       </c>
       <c r="D309" s="4">
-        <f t="shared" ref="D309:D316" si="37">ABS(C309-B309)/B309</f>
+        <f t="shared" ref="D309:D313" si="38">ABS(C309-B309)/B309</f>
         <v>0.18846153846153851</v>
       </c>
     </row>
@@ -17671,7 +18183,7 @@
         <v>5.5800000000000002E-2</v>
       </c>
       <c r="D310" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.41201264488935718</v>
       </c>
     </row>
@@ -17686,7 +18198,7 @@
         <v>3.2820000000000001E-5</v>
       </c>
       <c r="D311" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.25493757094211122</v>
       </c>
     </row>
@@ -17701,7 +18213,7 @@
         <v>2.22E-4</v>
       </c>
       <c r="D312" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.21554770318021199</v>
       </c>
     </row>
@@ -17716,7 +18228,7 @@
         <v>0.29698999999999998</v>
       </c>
       <c r="D313" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.70301000000000002</v>
       </c>
     </row>
@@ -17745,7 +18257,7 @@
       <c r="D315" s="4"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="28" t="s">
+      <c r="A316" s="22" t="s">
         <v>114</v>
       </c>
       <c r="B316">
@@ -17755,7 +18267,7 @@
         <v>20.058700000000002</v>
       </c>
       <c r="D316" s="4">
-        <f t="shared" ref="D316:D317" si="38">ABS(C316-B316)/B316</f>
+        <f t="shared" ref="D316" si="39">ABS(C316-B316)/B316</f>
         <v>2.9350000000000877E-3</v>
       </c>
     </row>
@@ -17768,16 +18280,867 @@
         <v>0.63304939219510092</v>
       </c>
     </row>
+    <row r="318" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B318" s="35"/>
+      <c r="C318" s="35"/>
+      <c r="D318" s="35"/>
+    </row>
+    <row r="319" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B320" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C320" s="3">
+        <v>1990000000000</v>
+      </c>
+      <c r="D320" s="4">
+        <f>ABS(C320-B320)/B320</f>
+        <v>0.14957264957264957</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B321" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C321" s="3">
+        <v>1069.6500000000001</v>
+      </c>
+      <c r="D321" s="4">
+        <f t="shared" ref="D321:D327" si="40">ABS(C321-B321)/B321</f>
+        <v>9.5833333333332493E-3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B322">
+        <v>1041</v>
+      </c>
+      <c r="C322">
+        <v>913.36</v>
+      </c>
+      <c r="D322" s="4">
+        <f t="shared" si="40"/>
+        <v>0.12261287223823246</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B323" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C323">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="D323" s="4">
+        <f t="shared" si="40"/>
+        <v>0.57743362831858425</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B324" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C324">
+        <v>0.434</v>
+      </c>
+      <c r="D324" s="4">
+        <f t="shared" si="40"/>
+        <v>0.67567567567567566</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B325" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C325" s="3">
+        <v>180000</v>
+      </c>
+      <c r="D325" s="4">
+        <f t="shared" si="40"/>
+        <v>5.5248618784530384E-3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B326" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C326">
+        <v>100461</v>
+      </c>
+      <c r="D326" s="4">
+        <f t="shared" si="40"/>
+        <v>4.6100000000000004E-3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B327" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C327">
+        <v>17563</v>
+      </c>
+      <c r="D327" s="4">
+        <f t="shared" si="40"/>
+        <v>0.75629999999999997</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B328">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D328" s="4"/>
+    </row>
+    <row r="329" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B329">
+        <v>0.94</v>
+      </c>
+      <c r="C329" s="3">
+        <v>0.9405</v>
+      </c>
+      <c r="D329" s="4">
+        <f t="shared" ref="D329" si="41">ABS(C329-B329)/B329</f>
+        <v>5.3191489361708081E-4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B330">
+        <v>0.94</v>
+      </c>
+      <c r="C330">
+        <v>0.94</v>
+      </c>
+      <c r="D330" s="4"/>
+    </row>
+    <row r="331" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B331" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C331">
+        <v>0.312</v>
+      </c>
+      <c r="D331" s="4">
+        <f t="shared" ref="D331:D335" si="42">ABS(C331-B331)/B331</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B332">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C332">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="D332" s="4">
+        <f t="shared" si="42"/>
+        <v>0.4836670179135934</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B333" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C333" s="3">
+        <v>4.5269999999999999E-5</v>
+      </c>
+      <c r="D333" s="4">
+        <f t="shared" si="42"/>
+        <v>2.7695800227014723E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B334" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C334" s="3">
+        <v>2.12E-4</v>
+      </c>
+      <c r="D334" s="4">
+        <f t="shared" si="42"/>
+        <v>0.25088339222614836</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>0.99656999999999996</v>
+      </c>
+      <c r="D335" s="4">
+        <f t="shared" si="42"/>
+        <v>3.4300000000000441E-3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B336">
+        <v>1683</v>
+      </c>
+      <c r="C336">
+        <v>1683</v>
+      </c>
+      <c r="D336" s="4"/>
+    </row>
+    <row r="337" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B337">
+        <v>1235</v>
+      </c>
+      <c r="C337">
+        <v>1235</v>
+      </c>
+      <c r="D337" s="4"/>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D338" s="4">
+        <f>AVERAGE(D320:D337)</f>
+        <v>0.21910865330552154</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B339" s="35"/>
+      <c r="C339" s="35"/>
+      <c r="D339" s="35"/>
+    </row>
+    <row r="340" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B341" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C341" s="3">
+        <v>2470000000000</v>
+      </c>
+      <c r="D341" s="4">
+        <f>ABS(C341-B341)/B341</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B342" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C342" s="3">
+        <v>1114.7280000000001</v>
+      </c>
+      <c r="D342" s="4">
+        <f t="shared" ref="D342:D348" si="43">ABS(C342-B342)/B342</f>
+        <v>3.2155555555555618E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B343">
+        <v>1041</v>
+      </c>
+      <c r="C343">
+        <v>606.91</v>
+      </c>
+      <c r="D343" s="4">
+        <f t="shared" si="43"/>
+        <v>0.41699327569644573</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B344" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C344">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="D344" s="4">
+        <f t="shared" si="43"/>
+        <v>0.45575221238938057</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B345" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C345">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="D345" s="4">
+        <f t="shared" si="43"/>
+        <v>1.9235521235521233</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B346" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C346" s="3">
+        <v>182000</v>
+      </c>
+      <c r="D346" s="4">
+        <f t="shared" si="43"/>
+        <v>5.5248618784530384E-3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B347" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C347">
+        <v>101945</v>
+      </c>
+      <c r="D347" s="4">
+        <f t="shared" si="43"/>
+        <v>1.9449999999999999E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B348" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C348">
+        <v>33285.440000000002</v>
+      </c>
+      <c r="D348" s="4">
+        <f t="shared" si="43"/>
+        <v>2.3285440000000004</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B349">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D349" s="4"/>
+    </row>
+    <row r="350" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B350">
+        <v>0.94</v>
+      </c>
+      <c r="C350" s="3">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="D350" s="4">
+        <f t="shared" ref="D350" si="44">ABS(C350-B350)/B350</f>
+        <v>4.5000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B351">
+        <v>0.94</v>
+      </c>
+      <c r="C351">
+        <v>0.94</v>
+      </c>
+      <c r="D351" s="4"/>
+    </row>
+    <row r="352" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B352" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C352">
+        <v>0.31480000000000002</v>
+      </c>
+      <c r="D352" s="4">
+        <f t="shared" ref="D352:D356" si="45">ABS(C352-B352)/B352</f>
+        <v>8.9743589743590535E-3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B353">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C353">
+        <v>3.3980000000000003E-2</v>
+      </c>
+      <c r="D353" s="4">
+        <f t="shared" si="45"/>
+        <v>0.64193888303477342</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B354" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C354" s="3">
+        <v>7.9079999999999995E-5</v>
+      </c>
+      <c r="D354" s="4">
+        <f t="shared" si="45"/>
+        <v>0.79523269012485798</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B355" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C355" s="3">
+        <v>3.8299999999999999E-4</v>
+      </c>
+      <c r="D355" s="4">
+        <f t="shared" si="45"/>
+        <v>0.35335689045936391</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>1.0175399999999999</v>
+      </c>
+      <c r="D356" s="4">
+        <f t="shared" si="45"/>
+        <v>1.7539999999999889E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B357">
+        <v>1683</v>
+      </c>
+      <c r="C357">
+        <v>1683</v>
+      </c>
+      <c r="D357" s="4"/>
+    </row>
+    <row r="358" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B358">
+        <v>1235</v>
+      </c>
+      <c r="C358">
+        <v>1235</v>
+      </c>
+      <c r="D358" s="4"/>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D359" s="4">
+        <f>AVERAGE(D341:D358)</f>
+        <v>0.50711217194434777</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B360" s="35"/>
+      <c r="C360" s="35"/>
+      <c r="D360" s="35"/>
+    </row>
+    <row r="361" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B362" s="3">
+        <v>2340000000000</v>
+      </c>
+      <c r="C362" s="3">
+        <v>2530000000000</v>
+      </c>
+      <c r="D362" s="4">
+        <f>ABS(C362-B362)/B362</f>
+        <v>8.11965811965812E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B363" s="5">
+        <v>1080</v>
+      </c>
+      <c r="C363" s="3">
+        <v>1045</v>
+      </c>
+      <c r="D363" s="4">
+        <f t="shared" ref="D363:D369" si="46">ABS(C363-B363)/B363</f>
+        <v>3.2407407407407406E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B364">
+        <v>1041</v>
+      </c>
+      <c r="C364">
+        <v>964.88</v>
+      </c>
+      <c r="D364" s="4">
+        <f t="shared" si="46"/>
+        <v>7.3121998078770414E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B365" s="5">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="C365">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="D365" s="4">
+        <f t="shared" si="46"/>
+        <v>0.9225663716814162</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B366" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C366">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="D366" s="4">
+        <f t="shared" si="46"/>
+        <v>0.33822393822393826</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B367" s="3">
+        <v>181000</v>
+      </c>
+      <c r="C367" s="3">
+        <v>181000</v>
+      </c>
+      <c r="D367" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B368" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C368">
+        <v>100326</v>
+      </c>
+      <c r="D368" s="4">
+        <f t="shared" si="46"/>
+        <v>3.2599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B369" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C369">
+        <v>25704</v>
+      </c>
+      <c r="D369" s="4">
+        <f t="shared" si="46"/>
+        <v>1.5704</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B370">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D370" s="4"/>
+    </row>
+    <row r="371" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B371">
+        <v>0.94</v>
+      </c>
+      <c r="C371" s="3">
+        <v>0.93140000000000001</v>
+      </c>
+      <c r="D371" s="4">
+        <f t="shared" ref="D371" si="47">ABS(C371-B371)/B371</f>
+        <v>9.1489361702127032E-3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B372">
+        <v>0.94</v>
+      </c>
+      <c r="C372">
+        <v>0.94</v>
+      </c>
+      <c r="D372" s="4"/>
+    </row>
+    <row r="373" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B373" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="C373">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="D373" s="4">
+        <f t="shared" ref="D373:D377" si="48">ABS(C373-B373)/B373</f>
+        <v>3.0448717948717976E-2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="C374">
+        <v>0.18720000000000001</v>
+      </c>
+      <c r="D374" s="4">
+        <f t="shared" si="48"/>
+        <v>0.97260273972602751</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B375" s="3">
+        <v>4.405E-5</v>
+      </c>
+      <c r="C375" s="3">
+        <v>5.2899999999999998E-5</v>
+      </c>
+      <c r="D375" s="4">
+        <f t="shared" si="48"/>
+        <v>0.20090805902383652</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B376" s="5">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C376" s="3">
+        <v>1.4550000000000001E-4</v>
+      </c>
+      <c r="D376" s="4">
+        <f t="shared" si="48"/>
+        <v>0.4858657243816254</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>1.00058</v>
+      </c>
+      <c r="D377" s="4">
+        <f t="shared" si="48"/>
+        <v>5.8000000000002494E-4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B378">
+        <v>1683</v>
+      </c>
+      <c r="C378">
+        <v>1683</v>
+      </c>
+      <c r="D378" s="4"/>
+    </row>
+    <row r="379" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B379">
+        <v>1235</v>
+      </c>
+      <c r="C379">
+        <v>1235</v>
+      </c>
+      <c r="D379" s="4"/>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D380" s="4">
+        <f>AVERAGE(D362:D379)</f>
+        <v>0.33719503384560962</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A274:D274"/>
-    <mergeCell ref="A296:D296"/>
-    <mergeCell ref="A253:D253"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A211:D211"/>
+  <mergeCells count="18">
+    <mergeCell ref="A360:D360"/>
     <mergeCell ref="A232:D232"/>
     <mergeCell ref="A106:D106"/>
     <mergeCell ref="A1:D1"/>
@@ -17785,6 +19148,16 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A318:D318"/>
+    <mergeCell ref="A339:D339"/>
+    <mergeCell ref="A274:D274"/>
+    <mergeCell ref="A296:D296"/>
+    <mergeCell ref="A253:D253"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17805,12 +19178,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -18094,12 +19467,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
     </row>
     <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -18383,12 +19756,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
     </row>
     <row r="44" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -18660,12 +20033,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
     </row>
     <row r="65" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
@@ -18937,12 +20310,12 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
     </row>
     <row r="86" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -19214,12 +20587,12 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
+      <c r="A106" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
     </row>
     <row r="107" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
@@ -19491,12 +20864,12 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="27" t="s">
+      <c r="A127" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B127" s="27"/>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="35"/>
     </row>
     <row r="128" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -19768,12 +21141,12 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="27" t="s">
+      <c r="A148" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B148" s="27"/>
-      <c r="C148" s="27"/>
-      <c r="D148" s="27"/>
+      <c r="B148" s="35"/>
+      <c r="C148" s="35"/>
+      <c r="D148" s="35"/>
     </row>
     <row r="149" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
@@ -20045,12 +21418,12 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="27" t="s">
+      <c r="A169" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B169" s="27"/>
-      <c r="C169" s="27"/>
-      <c r="D169" s="27"/>
+      <c r="B169" s="35"/>
+      <c r="C169" s="35"/>
+      <c r="D169" s="35"/>
     </row>
     <row r="170" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
@@ -20322,12 +21695,12 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="27" t="s">
+      <c r="A190" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B190" s="27"/>
-      <c r="C190" s="27"/>
-      <c r="D190" s="27"/>
+      <c r="B190" s="35"/>
+      <c r="C190" s="35"/>
+      <c r="D190" s="35"/>
     </row>
     <row r="191" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -20599,12 +21972,12 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="27" t="s">
+      <c r="A211" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B211" s="27"/>
-      <c r="C211" s="27"/>
-      <c r="D211" s="27"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="35"/>
+      <c r="D211" s="35"/>
     </row>
     <row r="212" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -20876,12 +22249,12 @@
       </c>
     </row>
     <row r="232" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="27" t="s">
+      <c r="A232" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B232" s="27"/>
-      <c r="C232" s="27"/>
-      <c r="D232" s="27"/>
+      <c r="B232" s="35"/>
+      <c r="C232" s="35"/>
+      <c r="D232" s="35"/>
     </row>
     <row r="233" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
@@ -21114,12 +22487,12 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="27" t="s">
+      <c r="A253" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B253" s="27"/>
-      <c r="C253" s="27"/>
-      <c r="D253" s="27"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="35"/>
+      <c r="D253" s="35"/>
     </row>
     <row r="254" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -21392,6 +22765,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A85:D85"/>
     <mergeCell ref="A253:D253"/>
     <mergeCell ref="A211:D211"/>
     <mergeCell ref="A232:D232"/>
@@ -21400,11 +22778,6 @@
     <mergeCell ref="A148:D148"/>
     <mergeCell ref="A169:D169"/>
     <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A85:D85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21415,8 +22788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9014C0-1993-4555-87B8-73D75236443F}">
   <dimension ref="A1:D310"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21427,12 +22800,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -21868,12 +23241,12 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
     </row>
     <row r="33" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -22309,12 +23682,12 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
     </row>
     <row r="64" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -22750,12 +24123,12 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
     </row>
     <row r="95" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
@@ -22779,11 +24152,11 @@
         <v>2340000000000</v>
       </c>
       <c r="C96" s="3">
-        <v>4140000000000</v>
+        <v>924000000000</v>
       </c>
       <c r="D96" s="4">
         <f t="shared" ref="D96:D113" si="5">ABS(C96-B96)/B96</f>
-        <v>0.76923076923076927</v>
+        <v>0.60512820512820509</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22794,11 +24167,11 @@
         <v>75000000000000</v>
       </c>
       <c r="C97" s="3">
-        <v>106000000000000</v>
+        <v>238000000000</v>
       </c>
       <c r="D97" s="4">
         <f t="shared" si="5"/>
-        <v>0.41333333333333333</v>
+        <v>0.99682666666666664</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22809,11 +24182,11 @@
         <v>9200000000000</v>
       </c>
       <c r="C98" s="3">
-        <v>16600000000000</v>
+        <v>2300000000000</v>
       </c>
       <c r="D98" s="4">
         <f t="shared" si="5"/>
-        <v>0.80434782608695654</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22824,11 +24197,11 @@
         <v>1080</v>
       </c>
       <c r="C99">
-        <v>1595.86</v>
+        <v>1023.96</v>
       </c>
       <c r="D99" s="4">
         <f t="shared" si="5"/>
-        <v>0.47764814814814804</v>
+        <v>5.1888888888888852E-2</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22839,11 +24212,11 @@
         <v>1041</v>
       </c>
       <c r="C100">
-        <v>2035.33</v>
+        <v>373.22699999999998</v>
       </c>
       <c r="D100" s="4">
         <f t="shared" si="5"/>
-        <v>0.95516810758885684</v>
+        <v>0.64147262247838621</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -22854,11 +24227,11 @@
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="C101">
-        <v>8.5800000000000001E-2</v>
+        <v>0.1072</v>
       </c>
       <c r="D101" s="4">
         <f t="shared" si="5"/>
-        <v>0.8982300884955754</v>
+        <v>1.3716814159292037</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -22869,11 +24242,11 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="C102">
-        <v>0.49099999999999999</v>
+        <v>0.66349999999999998</v>
       </c>
       <c r="D102" s="4">
         <f t="shared" si="5"/>
-        <v>0.89575289575289563</v>
+        <v>1.5617760617760617</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22884,11 +24257,11 @@
         <v>181000</v>
       </c>
       <c r="C103" s="3">
-        <v>209000</v>
+        <v>166000</v>
       </c>
       <c r="D103" s="4">
         <f t="shared" si="5"/>
-        <v>0.15469613259668508</v>
+        <v>8.2872928176795577E-2</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22899,11 +24272,11 @@
         <v>193000</v>
       </c>
       <c r="C104" s="3">
-        <v>146000</v>
+        <v>193000</v>
       </c>
       <c r="D104" s="4">
         <f t="shared" si="5"/>
-        <v>0.24352331606217617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22914,11 +24287,11 @@
         <v>175000</v>
       </c>
       <c r="C105" s="3">
-        <v>261000</v>
+        <v>200000</v>
       </c>
       <c r="D105" s="4">
         <f t="shared" si="5"/>
-        <v>0.49142857142857144</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22929,11 +24302,11 @@
         <v>100000</v>
       </c>
       <c r="C106">
-        <v>220040</v>
+        <v>328416</v>
       </c>
       <c r="D106" s="4">
         <f t="shared" si="5"/>
-        <v>1.2003999999999999</v>
+        <v>2.28416</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22944,11 +24317,11 @@
         <v>200000</v>
       </c>
       <c r="C107">
-        <v>433347</v>
+        <v>223270</v>
       </c>
       <c r="D107" s="4">
         <f t="shared" si="5"/>
-        <v>1.1667350000000001</v>
+        <v>0.11635</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22959,11 +24332,11 @@
         <v>400000</v>
       </c>
       <c r="C108">
-        <v>832306</v>
+        <v>537563</v>
       </c>
       <c r="D108" s="4">
         <f t="shared" si="5"/>
-        <v>1.080765</v>
+        <v>0.34390749999999998</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22974,11 +24347,11 @@
         <v>10000</v>
       </c>
       <c r="C109">
-        <v>26063.3</v>
+        <v>39455</v>
       </c>
       <c r="D109" s="4">
         <f t="shared" si="5"/>
-        <v>1.60633</v>
+        <v>2.9455</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22989,11 +24362,11 @@
         <v>0.75</v>
       </c>
       <c r="C110">
-        <v>0.4607</v>
+        <v>0.3488</v>
       </c>
       <c r="D110" s="4">
         <f t="shared" si="5"/>
-        <v>0.38573333333333332</v>
+        <v>0.53493333333333337</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23004,11 +24377,11 @@
         <v>0.5</v>
       </c>
       <c r="C111">
-        <v>0.43859999999999999</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="D111" s="4">
         <f t="shared" si="5"/>
-        <v>0.12280000000000002</v>
+        <v>0.17799999999999994</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23019,11 +24392,11 @@
         <v>0.3</v>
       </c>
       <c r="C112">
-        <v>0.49209999999999998</v>
+        <v>7.5160000000000005E-2</v>
       </c>
       <c r="D112" s="4">
         <f t="shared" si="5"/>
-        <v>0.64033333333333331</v>
+        <v>0.74946666666666661</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23034,11 +24407,11 @@
         <v>0.94</v>
       </c>
       <c r="C113">
-        <v>0.65400000000000003</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="D113" s="4">
         <f t="shared" si="5"/>
-        <v>0.30425531914893611</v>
+        <v>2.1276595744680873E-3</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23058,11 +24431,11 @@
         <v>0.312</v>
       </c>
       <c r="C115">
-        <v>0.38700000000000001</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="D115" s="4">
         <f>ABS(C115-B115)/B115</f>
-        <v>0.24038461538461542</v>
+        <v>1.9230769230769249E-2</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23073,11 +24446,11 @@
         <v>9.4899999999999998E-2</v>
       </c>
       <c r="C116">
-        <v>0.152</v>
+        <v>0.214</v>
       </c>
       <c r="D116" s="4">
         <f>ABS(C116-B116)/B116</f>
-        <v>0.60168598524762906</v>
+        <v>1.2550052687038988</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -23088,11 +24461,11 @@
         <v>4.405E-5</v>
       </c>
       <c r="C117" s="3">
-        <v>6.4197999999999998E-5</v>
+        <v>4.108E-5</v>
       </c>
       <c r="D117" s="4">
         <f>ABS(C117-B117)/B117</f>
-        <v>0.45738933030646989</v>
+        <v>6.7423382519863795E-2</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -23103,11 +24476,11 @@
         <v>2.8299999999999999E-4</v>
       </c>
       <c r="C118" s="3">
-        <v>5.0370000000000005E-4</v>
+        <v>1.0336E-4</v>
       </c>
       <c r="D118" s="4">
         <f>ABS(C118-B118)/B118</f>
-        <v>0.77985865724381642</v>
+        <v>0.63477031802120143</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23118,11 +24491,11 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>2.2723</v>
+        <v>1.35</v>
       </c>
       <c r="D119" s="4">
         <f t="shared" ref="D119:D121" si="6">ABS(C119-B119)/B119</f>
-        <v>1.2723</v>
+        <v>0.35000000000000009</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23133,11 +24506,11 @@
         <v>1.5</v>
       </c>
       <c r="C120">
-        <v>2.9805999999999999</v>
+        <v>2.7120000000000002</v>
       </c>
       <c r="D120" s="4">
         <f t="shared" si="6"/>
-        <v>0.98706666666666665</v>
+        <v>0.80800000000000016</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23148,11 +24521,11 @@
         <v>3</v>
       </c>
       <c r="C121">
-        <v>6.0659999999999998</v>
+        <v>4.4189999999999996</v>
       </c>
       <c r="D121" s="4">
         <f t="shared" si="6"/>
-        <v>1.022</v>
+        <v>0.47299999999999986</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23187,16 +24560,16 @@
       <c r="C124" s="15"/>
       <c r="D124" s="16">
         <f>AVERAGE(D96:D123)</f>
-        <v>0.71885585717555045</v>
+        <v>0.67865515319806224</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="27" t="s">
+      <c r="A125" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B125" s="27"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="35"/>
+      <c r="D125" s="35"/>
     </row>
     <row r="126" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -23220,11 +24593,11 @@
         <v>2340000000000</v>
       </c>
       <c r="C127" s="3">
-        <v>2110000000000</v>
+        <v>776000000000</v>
       </c>
       <c r="D127" s="4">
         <f t="shared" ref="D127:D144" si="7">ABS(C127-B127)/B127</f>
-        <v>9.8290598290598288E-2</v>
+        <v>0.66837606837606833</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23235,11 +24608,11 @@
         <v>75000000000000</v>
       </c>
       <c r="C128" s="3">
-        <v>70800000000000</v>
+        <v>240000000000000</v>
       </c>
       <c r="D128" s="4">
         <f t="shared" si="7"/>
-        <v>5.6000000000000001E-2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23250,11 +24623,11 @@
         <v>9200000000000</v>
       </c>
       <c r="C129" s="3">
-        <v>9620000000000</v>
+        <v>32300000000000</v>
       </c>
       <c r="D129" s="4">
         <f t="shared" si="7"/>
-        <v>4.5652173913043478E-2</v>
+        <v>2.5108695652173911</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23265,11 +24638,11 @@
         <v>1080</v>
       </c>
       <c r="C130">
-        <v>1362.4</v>
+        <v>987.07399999999996</v>
       </c>
       <c r="D130" s="4">
         <f t="shared" si="7"/>
-        <v>0.26148148148148159</v>
+        <v>8.6042592592592629E-2</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23280,11 +24653,11 @@
         <v>1041</v>
       </c>
       <c r="C131">
-        <v>2551.6</v>
+        <v>793.44</v>
       </c>
       <c r="D131" s="4">
         <f t="shared" si="7"/>
-        <v>1.4511047070124878</v>
+        <v>0.23780979827089332</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -23295,11 +24668,11 @@
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="C132">
-        <v>0.125</v>
+        <v>0.1807</v>
       </c>
       <c r="D132" s="4">
         <f t="shared" si="7"/>
-        <v>1.7654867256637172</v>
+        <v>2.9977876106194694</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -23310,11 +24683,11 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="C133">
-        <v>0.46500000000000002</v>
+        <v>0.25559999999999999</v>
       </c>
       <c r="D133" s="4">
         <f t="shared" si="7"/>
-        <v>0.79536679536679544</v>
+        <v>1.3127413127413182E-2</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23325,11 +24698,11 @@
         <v>181000</v>
       </c>
       <c r="C134" s="3">
-        <v>306000</v>
+        <v>164000</v>
       </c>
       <c r="D134" s="4">
         <f t="shared" si="7"/>
-        <v>0.69060773480662985</v>
+        <v>9.3922651933701654E-2</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23340,11 +24713,11 @@
         <v>193000</v>
       </c>
       <c r="C135" s="3">
-        <v>159000</v>
+        <v>200000</v>
       </c>
       <c r="D135" s="4">
         <f t="shared" si="7"/>
-        <v>0.17616580310880828</v>
+        <v>3.6269430051813469E-2</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23355,11 +24728,11 @@
         <v>175000</v>
       </c>
       <c r="C136" s="3">
-        <v>216000</v>
+        <v>315000</v>
       </c>
       <c r="D136" s="4">
         <f t="shared" si="7"/>
-        <v>0.23428571428571429</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23370,11 +24743,11 @@
         <v>100000</v>
       </c>
       <c r="C137">
-        <v>208191</v>
+        <v>319207</v>
       </c>
       <c r="D137" s="4">
         <f t="shared" si="7"/>
-        <v>1.0819099999999999</v>
+        <v>2.1920700000000002</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23385,11 +24758,11 @@
         <v>200000</v>
       </c>
       <c r="C138">
-        <v>342383</v>
+        <v>241218</v>
       </c>
       <c r="D138" s="4">
         <f t="shared" si="7"/>
-        <v>0.71191499999999996</v>
+        <v>0.20609</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23400,11 +24773,11 @@
         <v>400000</v>
       </c>
       <c r="C139">
-        <v>1001190.5</v>
+        <v>1235570</v>
       </c>
       <c r="D139" s="4">
         <f t="shared" si="7"/>
-        <v>1.5029762499999999</v>
+        <v>2.0889250000000001</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23415,11 +24788,11 @@
         <v>10000</v>
       </c>
       <c r="C140">
-        <v>14034</v>
+        <v>39932</v>
       </c>
       <c r="D140" s="4">
         <f t="shared" si="7"/>
-        <v>0.40339999999999998</v>
+        <v>2.9931999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23430,11 +24803,11 @@
         <v>0.75</v>
       </c>
       <c r="C141">
-        <v>0.59699999999999998</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="D141" s="4">
         <f t="shared" si="7"/>
-        <v>0.20400000000000004</v>
+        <v>0.47333333333333333</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23445,11 +24818,11 @@
         <v>0.5</v>
       </c>
       <c r="C142">
-        <v>0.44800000000000001</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="D142" s="4">
         <f t="shared" si="7"/>
-        <v>0.10399999999999998</v>
+        <v>6.2000000000000055E-2</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23460,11 +24833,11 @@
         <v>0.3</v>
       </c>
       <c r="C143">
-        <v>0.52</v>
+        <v>7.7100000000000002E-2</v>
       </c>
       <c r="D143" s="4">
         <f t="shared" si="7"/>
-        <v>0.7333333333333335</v>
+        <v>0.74299999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23475,11 +24848,11 @@
         <v>0.94</v>
       </c>
       <c r="C144">
-        <v>0.77600000000000002</v>
+        <v>0.94</v>
       </c>
       <c r="D144" s="4">
         <f t="shared" si="7"/>
-        <v>0.1744680851063829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23499,11 +24872,11 @@
         <v>0.312</v>
       </c>
       <c r="C146">
-        <v>0.27950000000000003</v>
+        <v>0.28960000000000002</v>
       </c>
       <c r="D146" s="4">
         <f>ABS(C146-B146)/B146</f>
-        <v>0.10416666666666659</v>
+        <v>7.179487179487172E-2</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23514,11 +24887,11 @@
         <v>9.4899999999999998E-2</v>
       </c>
       <c r="C147">
-        <v>8.3650000000000002E-2</v>
+        <v>0.24360000000000001</v>
       </c>
       <c r="D147" s="4">
         <f>ABS(C147-B147)/B147</f>
-        <v>0.11854583772391988</v>
+        <v>1.5669125395152792</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -23529,11 +24902,11 @@
         <v>4.405E-5</v>
       </c>
       <c r="C148" s="3">
-        <v>7.6000000000000004E-5</v>
+        <v>7.3399999999999995E-5</v>
       </c>
       <c r="D148" s="4">
         <f>ABS(C148-B148)/B148</f>
-        <v>0.72531214528944388</v>
+        <v>0.66628830874006795</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -23544,11 +24917,11 @@
         <v>2.8299999999999999E-4</v>
       </c>
       <c r="C149" s="3">
-        <v>6.4499999999999996E-4</v>
+        <v>7.648E-5</v>
       </c>
       <c r="D149" s="4">
         <f>ABS(C149-B149)/B149</f>
-        <v>1.2791519434628975</v>
+        <v>0.72975265017667845</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23559,11 +24932,11 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>1.3</v>
+        <v>1.8897999999999999</v>
       </c>
       <c r="D150" s="4">
         <f t="shared" ref="D150:D152" si="8">ABS(C150-B150)/B150</f>
-        <v>0.30000000000000004</v>
+        <v>0.88979999999999992</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23574,11 +24947,11 @@
         <v>1.5</v>
       </c>
       <c r="C151">
-        <v>2.95</v>
+        <v>1.2565999999999999</v>
       </c>
       <c r="D151" s="4">
         <f t="shared" si="8"/>
-        <v>0.96666666666666679</v>
+        <v>0.1622666666666667</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23589,11 +24962,11 @@
         <v>3</v>
       </c>
       <c r="C152">
-        <v>7.22</v>
+        <v>6.218</v>
       </c>
       <c r="D152" s="4">
         <f t="shared" si="8"/>
-        <v>1.4066666666666665</v>
+        <v>1.0726666666666667</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23628,16 +25001,16 @@
       <c r="C155" s="15"/>
       <c r="D155" s="16">
         <f>AVERAGE(D127:D154)</f>
-        <v>0.6156381731538102</v>
+        <v>0.94249220668331635</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="27" t="s">
+      <c r="A156" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B156" s="27"/>
-      <c r="C156" s="27"/>
-      <c r="D156" s="27"/>
+      <c r="B156" s="35"/>
+      <c r="C156" s="35"/>
+      <c r="D156" s="35"/>
     </row>
     <row r="157" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
@@ -23661,11 +25034,11 @@
         <v>2340000000000</v>
       </c>
       <c r="C158" s="3">
-        <v>5060000000000</v>
+        <v>9370000000000</v>
       </c>
       <c r="D158" s="4">
         <f t="shared" ref="D158:D175" si="9">ABS(C158-B158)/B158</f>
-        <v>1.1623931623931625</v>
+        <v>3.0042735042735043</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23676,11 +25049,11 @@
         <v>75000000000000</v>
       </c>
       <c r="C159" s="3">
-        <v>77600000000000</v>
+        <v>36400000000000</v>
       </c>
       <c r="D159" s="4">
         <f t="shared" si="9"/>
-        <v>3.4666666666666665E-2</v>
+        <v>0.51466666666666672</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23691,11 +25064,11 @@
         <v>9200000000000</v>
       </c>
       <c r="C160" s="3">
-        <v>9550000000000</v>
+        <v>22400000000000</v>
       </c>
       <c r="D160" s="4">
         <f t="shared" si="9"/>
-        <v>3.8043478260869568E-2</v>
+        <v>1.4347826086956521</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23706,11 +25079,11 @@
         <v>1080</v>
       </c>
       <c r="C161">
-        <v>1020.46</v>
+        <v>1031</v>
       </c>
       <c r="D161" s="4">
         <f t="shared" si="9"/>
-        <v>5.5129629629629598E-2</v>
+        <v>4.5370370370370373E-2</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23721,11 +25094,11 @@
         <v>1041</v>
       </c>
       <c r="C162">
-        <v>1843.9</v>
+        <v>263</v>
       </c>
       <c r="D162" s="4">
         <f t="shared" si="9"/>
-        <v>0.77127761767531233</v>
+        <v>0.74735830931796354</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -23736,11 +25109,11 @@
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="C163">
-        <v>0.10299999999999999</v>
+        <v>7.17E-2</v>
       </c>
       <c r="D163" s="4">
         <f t="shared" si="9"/>
-        <v>1.2787610619469028</v>
+        <v>0.58628318584070804</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -23751,11 +25124,11 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="C164">
-        <v>0.50739999999999996</v>
+        <v>1.0277000000000001</v>
       </c>
       <c r="D164" s="4">
         <f t="shared" si="9"/>
-        <v>0.95907335907335889</v>
+        <v>2.967953667953668</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23766,11 +25139,11 @@
         <v>181000</v>
       </c>
       <c r="C165" s="3">
-        <v>398000</v>
+        <v>199000</v>
       </c>
       <c r="D165" s="4">
         <f t="shared" si="9"/>
-        <v>1.1988950276243093</v>
+        <v>9.9447513812154692E-2</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23781,11 +25154,11 @@
         <v>193000</v>
       </c>
       <c r="C166" s="3">
-        <v>187000</v>
+        <v>182000</v>
       </c>
       <c r="D166" s="4">
         <f t="shared" si="9"/>
-        <v>3.1088082901554404E-2</v>
+        <v>5.6994818652849742E-2</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23796,11 +25169,11 @@
         <v>175000</v>
       </c>
       <c r="C167" s="3">
-        <v>347000</v>
+        <v>207000</v>
       </c>
       <c r="D167" s="4">
         <f t="shared" si="9"/>
-        <v>0.98285714285714287</v>
+        <v>0.18285714285714286</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23811,11 +25184,11 @@
         <v>100000</v>
       </c>
       <c r="C168">
-        <v>278454.5</v>
+        <v>370117</v>
       </c>
       <c r="D168" s="4">
         <f t="shared" si="9"/>
-        <v>1.784545</v>
+        <v>2.7011699999999998</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23826,11 +25199,11 @@
         <v>200000</v>
       </c>
       <c r="C169">
-        <v>285061.65999999997</v>
+        <v>306395</v>
       </c>
       <c r="D169" s="4">
         <f t="shared" si="9"/>
-        <v>0.42530829999999986</v>
+        <v>0.53197499999999998</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23841,11 +25214,11 @@
         <v>400000</v>
       </c>
       <c r="C170">
-        <v>708082.8</v>
+        <v>751327</v>
       </c>
       <c r="D170" s="4">
         <f t="shared" si="9"/>
-        <v>0.77020700000000009</v>
+        <v>0.87831749999999997</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23856,11 +25229,11 @@
         <v>10000</v>
       </c>
       <c r="C171">
-        <v>21621.119999999999</v>
+        <v>33612</v>
       </c>
       <c r="D171" s="4">
         <f t="shared" si="9"/>
-        <v>1.1621119999999998</v>
+        <v>2.3612000000000002</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23871,11 +25244,11 @@
         <v>0.75</v>
       </c>
       <c r="C172">
-        <v>0.61899999999999999</v>
+        <v>0.95640000000000003</v>
       </c>
       <c r="D172" s="4">
         <f t="shared" si="9"/>
-        <v>0.17466666666666666</v>
+        <v>0.27520000000000006</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23886,11 +25259,11 @@
         <v>0.5</v>
       </c>
       <c r="C173">
-        <v>0.44400000000000001</v>
+        <v>0.39860000000000001</v>
       </c>
       <c r="D173" s="4">
         <f t="shared" si="9"/>
-        <v>0.11199999999999999</v>
+        <v>0.20279999999999998</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23901,11 +25274,11 @@
         <v>0.3</v>
       </c>
       <c r="C174">
-        <v>0.52800000000000002</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="D174" s="4">
         <f t="shared" si="9"/>
-        <v>0.76000000000000012</v>
+        <v>2.3100000000000005</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23916,11 +25289,11 @@
         <v>0.94</v>
       </c>
       <c r="C175">
-        <v>0.95</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="D175" s="4">
         <f t="shared" si="9"/>
-        <v>1.0638297872340436E-2</v>
+        <v>9.5744680851062736E-3</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23940,11 +25313,11 @@
         <v>0.312</v>
       </c>
       <c r="C177">
-        <v>0.28870000000000001</v>
+        <v>0.31030000000000002</v>
       </c>
       <c r="D177" s="4">
         <f>ABS(C177-B177)/B177</f>
-        <v>7.4679487179487136E-2</v>
+        <v>5.4487179487178825E-3</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23955,11 +25328,11 @@
         <v>9.4899999999999998E-2</v>
       </c>
       <c r="C178">
-        <v>0.1089</v>
+        <v>0.14448</v>
       </c>
       <c r="D178" s="4">
         <f>ABS(C178-B178)/B178</f>
-        <v>0.14752370916754476</v>
+        <v>0.52244467860906219</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -23970,11 +25343,11 @@
         <v>4.405E-5</v>
       </c>
       <c r="C179" s="3">
-        <v>9.2200000000000005E-5</v>
+        <v>4.3699999999999998E-5</v>
       </c>
       <c r="D179" s="4">
         <f>ABS(C179-B179)/B179</f>
-        <v>1.0930760499432464</v>
+        <v>7.9455164585698467E-3</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -23985,11 +25358,11 @@
         <v>2.8299999999999999E-4</v>
       </c>
       <c r="C180" s="3">
-        <v>3.3189999999999999E-4</v>
+        <v>2.184E-4</v>
       </c>
       <c r="D180" s="4">
         <f>ABS(C180-B180)/B180</f>
-        <v>0.17279151943462898</v>
+        <v>0.22826855123674911</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24000,11 +25373,11 @@
         <v>1</v>
       </c>
       <c r="C181">
-        <v>2.3580000000000001</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="D181" s="4">
         <f t="shared" ref="D181:D183" si="10">ABS(C181-B181)/B181</f>
-        <v>1.3580000000000001</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24015,11 +25388,11 @@
         <v>1.5</v>
       </c>
       <c r="C182">
-        <v>1.0356000000000001</v>
+        <v>1.859</v>
       </c>
       <c r="D182" s="4">
         <f t="shared" si="10"/>
-        <v>0.30959999999999993</v>
+        <v>0.23933333333333331</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24030,11 +25403,11 @@
         <v>3</v>
       </c>
       <c r="C183">
-        <v>5.2649999999999997</v>
+        <v>6.6539999999999999</v>
       </c>
       <c r="D183" s="4">
         <f t="shared" si="10"/>
-        <v>0.75499999999999989</v>
+        <v>1.218</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24069,16 +25442,16 @@
       <c r="C186" s="15"/>
       <c r="D186" s="16">
         <f>AVERAGE(D158:D185)</f>
-        <v>0.62489333037171291</v>
+        <v>0.8743866221644887</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="27" t="s">
+      <c r="A187" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B187" s="27"/>
-      <c r="C187" s="27"/>
-      <c r="D187" s="27"/>
+      <c r="B187" s="35"/>
+      <c r="C187" s="35"/>
+      <c r="D187" s="35"/>
     </row>
     <row r="188" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
@@ -24514,12 +25887,12 @@
       </c>
     </row>
     <row r="218" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="27" t="s">
+      <c r="A218" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B218" s="27"/>
-      <c r="C218" s="27"/>
-      <c r="D218" s="27"/>
+      <c r="B218" s="35"/>
+      <c r="C218" s="35"/>
+      <c r="D218" s="35"/>
     </row>
     <row r="219" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
@@ -24955,12 +26328,12 @@
       </c>
     </row>
     <row r="249" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="27" t="s">
+      <c r="A249" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B249" s="27"/>
-      <c r="C249" s="27"/>
-      <c r="D249" s="27"/>
+      <c r="B249" s="35"/>
+      <c r="C249" s="35"/>
+      <c r="D249" s="35"/>
     </row>
     <row r="250" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
@@ -25396,12 +26769,12 @@
       </c>
     </row>
     <row r="280" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="27" t="s">
+      <c r="A280" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B280" s="27"/>
-      <c r="C280" s="27"/>
-      <c r="D280" s="27"/>
+      <c r="B280" s="35"/>
+      <c r="C280" s="35"/>
+      <c r="D280" s="35"/>
     </row>
     <row r="281" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
@@ -25867,12 +27240,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -26308,12 +27681,12 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
     </row>
     <row r="33" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -26749,12 +28122,12 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
     </row>
     <row r="64" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -27190,12 +28563,12 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
     </row>
     <row r="95" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
@@ -27631,12 +29004,12 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="27" t="s">
+      <c r="A125" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B125" s="27"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="35"/>
+      <c r="D125" s="35"/>
     </row>
     <row r="126" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -28072,12 +29445,12 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="27" t="s">
+      <c r="A156" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B156" s="27"/>
-      <c r="C156" s="27"/>
-      <c r="D156" s="27"/>
+      <c r="B156" s="35"/>
+      <c r="C156" s="35"/>
+      <c r="D156" s="35"/>
     </row>
     <row r="157" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
@@ -28513,12 +29886,12 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="27" t="s">
+      <c r="A187" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B187" s="27"/>
-      <c r="C187" s="27"/>
-      <c r="D187" s="27"/>
+      <c r="B187" s="35"/>
+      <c r="C187" s="35"/>
+      <c r="D187" s="35"/>
     </row>
     <row r="188" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
@@ -28954,12 +30327,12 @@
       </c>
     </row>
     <row r="218" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="27" t="s">
+      <c r="A218" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B218" s="27"/>
-      <c r="C218" s="27"/>
-      <c r="D218" s="27"/>
+      <c r="B218" s="35"/>
+      <c r="C218" s="35"/>
+      <c r="D218" s="35"/>
     </row>
     <row r="219" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
@@ -29395,12 +30768,12 @@
       </c>
     </row>
     <row r="249" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="27" t="s">
+      <c r="A249" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B249" s="27"/>
-      <c r="C249" s="27"/>
-      <c r="D249" s="27"/>
+      <c r="B249" s="35"/>
+      <c r="C249" s="35"/>
+      <c r="D249" s="35"/>
     </row>
     <row r="250" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
@@ -29836,12 +31209,12 @@
       </c>
     </row>
     <row r="280" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="27" t="s">
+      <c r="A280" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B280" s="27"/>
-      <c r="C280" s="27"/>
-      <c r="D280" s="27"/>
+      <c r="B280" s="35"/>
+      <c r="C280" s="35"/>
+      <c r="D280" s="35"/>
     </row>
     <row r="281" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
